--- a/volatility/src/xls/15_EURCHF.xlsx
+++ b/volatility/src/xls/15_EURCHF.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>108.6</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -558,22 +558,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>18073</v>
+        <v>45099</v>
       </c>
       <c r="E6" s="5">
-        <v>112.9</v>
+        <v>111.9</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.1320000000000001</v>
+        <v>1.1220000000000001</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.1420000000000001</v>
+        <v>1.1320000000000001</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.1220000000000001</v>
+        <v>1.1120000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.1260000000000001</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.1160000000000001</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.1360000000000001</v>
+        <v>1.1260000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -625,6 +625,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/xls/15_EURCHF.xlsx
+++ b/volatility/src/xls/15_EURCHF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="-40" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -528,7 +528,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>108.8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -554,26 +554,26 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>1.0190000000000032</v>
+        <v>1.0379999999999945</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>45099</v>
+        <v>43791</v>
       </c>
       <c r="E6" s="5">
-        <v>111.9</v>
+        <v>111</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.1220000000000001</v>
+        <v>1.113</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.1320000000000001</v>
+        <v>1.123</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.1120000000000001</v>
+        <v>1.103</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.1160000000000001</v>
+        <v>1.107</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.1060000000000001</v>
+        <v>1.097</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.1260000000000001</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,6 +620,7 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
@@ -639,7 +640,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -668,11 +669,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>0.79199999999999271</v>
+        <v>1.6529999999999934</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>1.0190000000000032</v>
+        <v>1.0379999999999945</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -680,23 +681,23 @@
         <v>15</v>
       </c>
       <c r="B2" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C2">
-        <v>1.11957</v>
+        <v>1.1190100000000001</v>
       </c>
       <c r="D2">
-        <v>1.1262099999999999</v>
+        <v>1.1219699999999999</v>
       </c>
       <c r="E2">
-        <v>1.11829</v>
+        <v>1.10544</v>
       </c>
       <c r="F2">
-        <v>1.11931</v>
+        <v>1.1098600000000001</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>0.87500000000000355</v>
+        <v>0.79199999999999271</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -704,23 +705,23 @@
         <v>15</v>
       </c>
       <c r="B3" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C3">
-        <v>1.1176600000000001</v>
+        <v>1.11957</v>
       </c>
       <c r="D3">
-        <v>1.1204700000000001</v>
+        <v>1.1262099999999999</v>
       </c>
       <c r="E3">
-        <v>1.11172</v>
+        <v>1.11829</v>
       </c>
       <c r="F3">
-        <v>1.11883</v>
+        <v>1.11931</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.0729999999999906</v>
+        <v>0.87500000000000355</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -728,23 +729,23 @@
         <v>15</v>
       </c>
       <c r="B4" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C4">
-        <v>1.1225400000000001</v>
+        <v>1.1176600000000001</v>
       </c>
       <c r="D4">
-        <v>1.12761</v>
+        <v>1.1204700000000001</v>
       </c>
       <c r="E4">
-        <v>1.1168800000000001</v>
+        <v>1.11172</v>
       </c>
       <c r="F4">
-        <v>1.1178399999999999</v>
+        <v>1.11883</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.97400000000000819</v>
+        <v>1.0729999999999906</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -752,23 +753,23 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C5">
-        <v>1.1280699999999999</v>
+        <v>1.1225400000000001</v>
       </c>
       <c r="D5">
-        <v>1.1290500000000001</v>
+        <v>1.12761</v>
       </c>
       <c r="E5">
-        <v>1.11931</v>
+        <v>1.1168800000000001</v>
       </c>
       <c r="F5">
-        <v>1.12225</v>
+        <v>1.1178399999999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.0079999999999867</v>
+        <v>0.97400000000000819</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -776,23 +777,23 @@
         <v>15</v>
       </c>
       <c r="B6" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C6">
-        <v>1.13517</v>
+        <v>1.1280699999999999</v>
       </c>
       <c r="D6">
-        <v>1.1362699999999999</v>
+        <v>1.1290500000000001</v>
       </c>
       <c r="E6">
-        <v>1.12619</v>
+        <v>1.11931</v>
       </c>
       <c r="F6">
-        <v>1.12774</v>
+        <v>1.12225</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.79799999999998761</v>
+        <v>1.0079999999999867</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -800,23 +801,23 @@
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C7">
-        <v>1.13622</v>
+        <v>1.13517</v>
       </c>
       <c r="D7">
-        <v>1.1437299999999999</v>
+        <v>1.1362699999999999</v>
       </c>
       <c r="E7">
-        <v>1.13575</v>
+        <v>1.12619</v>
       </c>
       <c r="F7">
-        <v>1.13584</v>
+        <v>1.12774</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.84699999999999775</v>
+        <v>0.79799999999998761</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -824,23 +825,23 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C8">
-        <v>1.13581</v>
+        <v>1.13622</v>
       </c>
       <c r="D8">
-        <v>1.14428</v>
+        <v>1.1437299999999999</v>
       </c>
       <c r="E8">
-        <v>1.13581</v>
+        <v>1.13575</v>
       </c>
       <c r="F8">
-        <v>1.13846</v>
+        <v>1.13584</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.2539999999999996</v>
+        <v>0.84699999999999775</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -848,23 +849,23 @@
         <v>15</v>
       </c>
       <c r="B9" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C9">
-        <v>1.1397299999999999</v>
+        <v>1.13581</v>
       </c>
       <c r="D9">
-        <v>1.1474</v>
+        <v>1.14428</v>
       </c>
       <c r="E9">
-        <v>1.13486</v>
+        <v>1.13581</v>
       </c>
       <c r="F9">
-        <v>1.13618</v>
+        <v>1.13846</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.98200000000001619</v>
+        <v>1.2539999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -872,23 +873,23 @@
         <v>15</v>
       </c>
       <c r="B10" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C10">
-        <v>1.1323799999999999</v>
+        <v>1.1397299999999999</v>
       </c>
       <c r="D10">
-        <v>1.1419600000000001</v>
+        <v>1.1474</v>
       </c>
       <c r="E10">
-        <v>1.1321399999999999</v>
+        <v>1.13486</v>
       </c>
       <c r="F10">
-        <v>1.1403099999999999</v>
+        <v>1.13618</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.2070000000000025</v>
+        <v>0.98200000000001619</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -896,23 +897,23 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C11">
-        <v>1.1211899999999999</v>
+        <v>1.1323799999999999</v>
       </c>
       <c r="D11">
-        <v>1.13293</v>
+        <v>1.1419600000000001</v>
       </c>
       <c r="E11">
-        <v>1.12086</v>
+        <v>1.1321399999999999</v>
       </c>
       <c r="F11">
-        <v>1.1327700000000001</v>
+        <v>1.1403099999999999</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.72599999999998222</v>
+        <v>1.2070000000000025</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -920,23 +921,23 @@
         <v>15</v>
       </c>
       <c r="B12" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C12">
-        <v>1.11697</v>
+        <v>1.1211899999999999</v>
       </c>
       <c r="D12">
-        <v>1.1237299999999999</v>
+        <v>1.13293</v>
       </c>
       <c r="E12">
-        <v>1.1164700000000001</v>
+        <v>1.12086</v>
       </c>
       <c r="F12">
-        <v>1.12138</v>
+        <v>1.1327700000000001</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.93499999999999694</v>
+        <v>0.72599999999998222</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -944,23 +945,23 @@
         <v>15</v>
       </c>
       <c r="B13" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C13">
-        <v>1.1222300000000001</v>
+        <v>1.11697</v>
       </c>
       <c r="D13">
-        <v>1.12547</v>
+        <v>1.1237299999999999</v>
       </c>
       <c r="E13">
-        <v>1.11612</v>
+        <v>1.1164700000000001</v>
       </c>
       <c r="F13">
-        <v>1.1164799999999999</v>
+        <v>1.12138</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.5329999999999844</v>
+        <v>0.93499999999999694</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -968,23 +969,23 @@
         <v>15</v>
       </c>
       <c r="B14" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C14">
-        <v>1.13435</v>
+        <v>1.1222300000000001</v>
       </c>
       <c r="D14">
-        <v>1.1363099999999999</v>
+        <v>1.12547</v>
       </c>
       <c r="E14">
-        <v>1.1209800000000001</v>
+        <v>1.11612</v>
       </c>
       <c r="F14">
-        <v>1.1225400000000001</v>
+        <v>1.1164799999999999</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.69499999999997897</v>
+        <v>1.5329999999999844</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -992,23 +993,23 @@
         <v>15</v>
       </c>
       <c r="B15" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C15">
-        <v>1.1321000000000001</v>
+        <v>1.13435</v>
       </c>
       <c r="D15">
-        <v>1.1382699999999999</v>
+        <v>1.1363099999999999</v>
       </c>
       <c r="E15">
-        <v>1.1313200000000001</v>
+        <v>1.1209800000000001</v>
       </c>
       <c r="F15">
-        <v>1.13443</v>
+        <v>1.1225400000000001</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.61599999999999433</v>
+        <v>0.69499999999997897</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1016,23 +1017,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C16">
-        <v>1.13571</v>
+        <v>1.1321000000000001</v>
       </c>
       <c r="D16">
-        <v>1.13672</v>
+        <v>1.1382699999999999</v>
       </c>
       <c r="E16">
-        <v>1.13056</v>
+        <v>1.1313200000000001</v>
       </c>
       <c r="F16">
-        <v>1.13215</v>
+        <v>1.13443</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.66299999999999137</v>
+        <v>0.61599999999999433</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1040,23 +1041,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C17">
-        <v>1.1331</v>
+        <v>1.13571</v>
       </c>
       <c r="D17">
-        <v>1.13913</v>
+        <v>1.13672</v>
       </c>
       <c r="E17">
-        <v>1.1325000000000001</v>
+        <v>1.13056</v>
       </c>
       <c r="F17">
-        <v>1.13523</v>
+        <v>1.13215</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.43600000000001415</v>
+        <v>0.66299999999999137</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1064,23 +1065,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C18">
-        <v>1.1343700000000001</v>
+        <v>1.1331</v>
       </c>
       <c r="D18">
-        <v>1.13714</v>
+        <v>1.13913</v>
       </c>
       <c r="E18">
-        <v>1.1327799999999999</v>
+        <v>1.1325000000000001</v>
       </c>
       <c r="F18">
-        <v>1.13348</v>
+        <v>1.13523</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.1359999999999815</v>
+        <v>0.43600000000001415</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1088,23 +1089,23 @@
         <v>15</v>
       </c>
       <c r="B19" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C19">
-        <v>1.1320699999999999</v>
+        <v>1.1343700000000001</v>
       </c>
       <c r="D19">
-        <v>1.1420999999999999</v>
+        <v>1.13714</v>
       </c>
       <c r="E19">
-        <v>1.1307400000000001</v>
+        <v>1.1327799999999999</v>
       </c>
       <c r="F19">
-        <v>1.13476</v>
+        <v>1.13348</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.2160000000000171</v>
+        <v>1.1359999999999815</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1112,23 +1113,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C20">
-        <v>1.1397200000000001</v>
+        <v>1.1320699999999999</v>
       </c>
       <c r="D20">
-        <v>1.1441600000000001</v>
+        <v>1.1420999999999999</v>
       </c>
       <c r="E20">
-        <v>1.1319999999999999</v>
+        <v>1.1307400000000001</v>
       </c>
       <c r="F20">
-        <v>1.1320600000000001</v>
+        <v>1.13476</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.1870000000000047</v>
+        <v>1.2160000000000171</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1136,23 +1137,23 @@
         <v>15</v>
       </c>
       <c r="B21" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C21">
-        <v>1.13246</v>
+        <v>1.1397200000000001</v>
       </c>
       <c r="D21">
-        <v>1.14266</v>
+        <v>1.1441600000000001</v>
       </c>
       <c r="E21">
-        <v>1.13079</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="F21">
-        <v>1.13998</v>
+        <v>1.1320600000000001</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.88099999999999845</v>
+        <v>1.1870000000000047</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1160,23 +1161,23 @@
         <v>15</v>
       </c>
       <c r="B22" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C22">
-        <v>1.1305499999999999</v>
+        <v>1.13246</v>
       </c>
       <c r="D22">
-        <v>1.1345000000000001</v>
+        <v>1.14266</v>
       </c>
       <c r="E22">
-        <v>1.1256900000000001</v>
+        <v>1.13079</v>
       </c>
       <c r="F22">
-        <v>1.1328800000000001</v>
+        <v>1.13998</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.9260000000000046</v>
+        <v>0.88099999999999845</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1184,23 +1185,23 @@
         <v>15</v>
       </c>
       <c r="B23" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C23">
-        <v>1.1281399999999999</v>
+        <v>1.1305499999999999</v>
       </c>
       <c r="D23">
-        <v>1.1335500000000001</v>
+        <v>1.1345000000000001</v>
       </c>
       <c r="E23">
-        <v>1.12429</v>
+        <v>1.1256900000000001</v>
       </c>
       <c r="F23">
-        <v>1.1313899999999999</v>
+        <v>1.1328800000000001</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.3090000000000046</v>
+        <v>0.9260000000000046</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1208,23 +1209,23 @@
         <v>15</v>
       </c>
       <c r="B24" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C24">
-        <v>1.1242700000000001</v>
+        <v>1.1281399999999999</v>
       </c>
       <c r="D24">
-        <v>1.1337900000000001</v>
+        <v>1.1335500000000001</v>
       </c>
       <c r="E24">
-        <v>1.1207</v>
+        <v>1.12429</v>
       </c>
       <c r="F24">
-        <v>1.12782</v>
+        <v>1.1313899999999999</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1.419999999999999</v>
+        <v>1.3090000000000046</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1232,23 +1233,23 @@
         <v>15</v>
       </c>
       <c r="B25" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C25">
-        <v>1.1250599999999999</v>
+        <v>1.1242700000000001</v>
       </c>
       <c r="D25">
-        <v>1.12845</v>
+        <v>1.1337900000000001</v>
       </c>
       <c r="E25">
-        <v>1.11425</v>
+        <v>1.1207</v>
       </c>
       <c r="F25">
-        <v>1.12422</v>
+        <v>1.12782</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1.2969999999999926</v>
+        <v>1.419999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1256,23 +1257,23 @@
         <v>15</v>
       </c>
       <c r="B26" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C26">
-        <v>1.1303700000000001</v>
+        <v>1.1250599999999999</v>
       </c>
       <c r="D26">
-        <v>1.1342399999999999</v>
+        <v>1.12845</v>
       </c>
       <c r="E26">
-        <v>1.12127</v>
+        <v>1.11425</v>
       </c>
       <c r="F26">
-        <v>1.12598</v>
+        <v>1.12422</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1.0110000000000063</v>
+        <v>1.2969999999999926</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1280,23 +1281,23 @@
         <v>15</v>
       </c>
       <c r="B27" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C27">
-        <v>1.1265000000000001</v>
+        <v>1.1303700000000001</v>
       </c>
       <c r="D27">
-        <v>1.1347100000000001</v>
+        <v>1.1342399999999999</v>
       </c>
       <c r="E27">
-        <v>1.1246</v>
+        <v>1.12127</v>
       </c>
       <c r="F27">
-        <v>1.1308199999999999</v>
+        <v>1.12598</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0.83099999999998175</v>
+        <v>1.0110000000000063</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1304,23 +1305,23 @@
         <v>15</v>
       </c>
       <c r="B28" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C28">
-        <v>1.12829</v>
+        <v>1.1265000000000001</v>
       </c>
       <c r="D28">
-        <v>1.1305799999999999</v>
+        <v>1.1347100000000001</v>
       </c>
       <c r="E28">
-        <v>1.1222700000000001</v>
+        <v>1.1246</v>
       </c>
       <c r="F28">
-        <v>1.12846</v>
+        <v>1.1308199999999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0.67800000000000082</v>
+        <v>0.83099999999998175</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1328,23 +1329,23 @@
         <v>15</v>
       </c>
       <c r="B29" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C29">
-        <v>1.13303</v>
+        <v>1.12829</v>
       </c>
       <c r="D29">
-        <v>1.13463</v>
+        <v>1.1305799999999999</v>
       </c>
       <c r="E29">
-        <v>1.12785</v>
+        <v>1.1222700000000001</v>
       </c>
       <c r="F29">
-        <v>1.1283300000000001</v>
+        <v>1.12846</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0.96000000000000529</v>
+        <v>0.67800000000000082</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1352,23 +1353,23 @@
         <v>15</v>
       </c>
       <c r="B30" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C30">
-        <v>1.13039</v>
+        <v>1.13303</v>
       </c>
       <c r="D30">
-        <v>1.13548</v>
+        <v>1.13463</v>
       </c>
       <c r="E30">
-        <v>1.12588</v>
+        <v>1.12785</v>
       </c>
       <c r="F30">
-        <v>1.13019</v>
+        <v>1.1283300000000001</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.2210000000000054</v>
+        <v>0.96000000000000529</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1376,23 +1377,23 @@
         <v>15</v>
       </c>
       <c r="B31" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C31">
-        <v>1.1401300000000001</v>
+        <v>1.13039</v>
       </c>
       <c r="D31">
-        <v>1.1415</v>
+        <v>1.13548</v>
       </c>
       <c r="E31">
-        <v>1.1292899999999999</v>
+        <v>1.12588</v>
       </c>
       <c r="F31">
-        <v>1.1303700000000001</v>
+        <v>1.13019</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.0040000000000049</v>
+        <v>1.2210000000000054</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1400,23 +1401,23 @@
         <v>15</v>
       </c>
       <c r="B32" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C32">
-        <v>1.1379600000000001</v>
+        <v>1.1401300000000001</v>
       </c>
       <c r="D32">
-        <v>1.1432500000000001</v>
+        <v>1.1415</v>
       </c>
       <c r="E32">
-        <v>1.1332100000000001</v>
+        <v>1.1292899999999999</v>
       </c>
       <c r="F32">
-        <v>1.1408700000000001</v>
+        <v>1.1303700000000001</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>0.873999999999997</v>
+        <v>1.0040000000000049</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1424,23 +1425,23 @@
         <v>15</v>
       </c>
       <c r="B33" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C33">
-        <v>1.14215</v>
+        <v>1.1379600000000001</v>
       </c>
       <c r="D33">
-        <v>1.14682</v>
+        <v>1.1432500000000001</v>
       </c>
       <c r="E33">
-        <v>1.13808</v>
+        <v>1.1332100000000001</v>
       </c>
       <c r="F33">
-        <v>1.1396599999999999</v>
+        <v>1.1408700000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>0.8960000000000079</v>
+        <v>0.873999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1448,23 +1449,23 @@
         <v>15</v>
       </c>
       <c r="B34" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C34">
-        <v>1.1371199999999999</v>
+        <v>1.14215</v>
       </c>
       <c r="D34">
-        <v>1.14527</v>
+        <v>1.14682</v>
       </c>
       <c r="E34">
-        <v>1.1363099999999999</v>
+        <v>1.13808</v>
       </c>
       <c r="F34">
-        <v>1.1430199999999999</v>
+        <v>1.1396599999999999</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.5819999999999945</v>
+        <v>0.8960000000000079</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1472,23 +1473,23 @@
         <v>15</v>
       </c>
       <c r="B35" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C35">
-        <v>1.1457599999999999</v>
+        <v>1.1371199999999999</v>
       </c>
       <c r="D35">
-        <v>1.14988</v>
+        <v>1.14527</v>
       </c>
       <c r="E35">
-        <v>1.1340600000000001</v>
+        <v>1.1363099999999999</v>
       </c>
       <c r="F35">
-        <v>1.1362300000000001</v>
+        <v>1.1430199999999999</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>0.99899999999999434</v>
+        <v>1.5819999999999945</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1496,23 +1497,23 @@
         <v>15</v>
       </c>
       <c r="B36" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C36">
-        <v>1.14456</v>
+        <v>1.1457599999999999</v>
       </c>
       <c r="D36">
-        <v>1.14896</v>
+        <v>1.14988</v>
       </c>
       <c r="E36">
-        <v>1.13897</v>
+        <v>1.1340600000000001</v>
       </c>
       <c r="F36">
-        <v>1.1469499999999999</v>
+        <v>1.1362300000000001</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1.2320000000000109</v>
+        <v>0.99899999999999434</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1520,23 +1521,23 @@
         <v>15</v>
       </c>
       <c r="B37" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C37">
-        <v>1.1422399999999999</v>
+        <v>1.14456</v>
       </c>
       <c r="D37">
-        <v>1.149</v>
+        <v>1.14896</v>
       </c>
       <c r="E37">
-        <v>1.1366799999999999</v>
+        <v>1.13897</v>
       </c>
       <c r="F37">
-        <v>1.1460300000000001</v>
+        <v>1.1469499999999999</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.3740000000000085</v>
+        <v>1.2320000000000109</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1544,23 +1545,23 @@
         <v>15</v>
       </c>
       <c r="B38" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C38">
-        <v>1.13794</v>
+        <v>1.1422399999999999</v>
       </c>
       <c r="D38">
-        <v>1.1447700000000001</v>
+        <v>1.149</v>
       </c>
       <c r="E38">
-        <v>1.13103</v>
+        <v>1.1366799999999999</v>
       </c>
       <c r="F38">
-        <v>1.1431899999999999</v>
+        <v>1.1460300000000001</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.6379999999999839</v>
+        <v>1.3740000000000085</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1568,23 +1569,23 @@
         <v>15</v>
       </c>
       <c r="B39" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C39">
-        <v>1.1256600000000001</v>
+        <v>1.13794</v>
       </c>
       <c r="D39">
-        <v>1.1412599999999999</v>
+        <v>1.1447700000000001</v>
       </c>
       <c r="E39">
-        <v>1.1248800000000001</v>
+        <v>1.13103</v>
       </c>
       <c r="F39">
-        <v>1.139</v>
+        <v>1.1431899999999999</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.0559999999999903</v>
+        <v>1.6379999999999839</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1592,23 +1593,23 @@
         <v>15</v>
       </c>
       <c r="B40" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C40">
+        <v>1.1256600000000001</v>
+      </c>
+      <c r="D40">
+        <v>1.1412599999999999</v>
+      </c>
+      <c r="E40">
         <v>1.1248800000000001</v>
       </c>
-      <c r="D40">
-        <v>1.1325099999999999</v>
-      </c>
-      <c r="E40">
-        <v>1.12195</v>
-      </c>
       <c r="F40">
-        <v>1.12602</v>
+        <v>1.139</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.5859999999999985</v>
+        <v>1.0559999999999903</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1616,23 +1617,23 @@
         <v>15</v>
       </c>
       <c r="B41" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C41">
-        <v>1.1191899999999999</v>
+        <v>1.1248800000000001</v>
       </c>
       <c r="D41">
-        <v>1.13415</v>
+        <v>1.1325099999999999</v>
       </c>
       <c r="E41">
-        <v>1.11829</v>
+        <v>1.12195</v>
       </c>
       <c r="F41">
-        <v>1.12401</v>
+        <v>1.12602</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.3719999999999954</v>
+        <v>1.5859999999999985</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1640,23 +1641,23 @@
         <v>15</v>
       </c>
       <c r="B42" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C42">
-        <v>1.1240600000000001</v>
+        <v>1.1191899999999999</v>
       </c>
       <c r="D42">
-        <v>1.13182</v>
+        <v>1.13415</v>
       </c>
       <c r="E42">
-        <v>1.1181000000000001</v>
+        <v>1.11829</v>
       </c>
       <c r="F42">
-        <v>1.11937</v>
+        <v>1.12401</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>2.1490000000000009</v>
+        <v>1.3719999999999954</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1664,23 +1665,23 @@
         <v>15</v>
       </c>
       <c r="B43" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C43">
-        <v>1.1424700000000001</v>
+        <v>1.1240600000000001</v>
       </c>
       <c r="D43">
-        <v>1.1451899999999999</v>
+        <v>1.13182</v>
       </c>
       <c r="E43">
-        <v>1.1236999999999999</v>
+        <v>1.1181000000000001</v>
       </c>
       <c r="F43">
-        <v>1.1246400000000001</v>
+        <v>1.11937</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>0.75700000000000767</v>
+        <v>2.1490000000000009</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1688,23 +1689,23 @@
         <v>15</v>
       </c>
       <c r="B44" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C44">
-        <v>1.1380300000000001</v>
+        <v>1.1424700000000001</v>
       </c>
       <c r="D44">
-        <v>1.14273</v>
+        <v>1.1451899999999999</v>
       </c>
       <c r="E44">
-        <v>1.1351599999999999</v>
+        <v>1.1236999999999999</v>
       </c>
       <c r="F44">
-        <v>1.1423000000000001</v>
+        <v>1.1246400000000001</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.5109999999999957</v>
+        <v>0.75700000000000767</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1712,23 +1713,23 @@
         <v>15</v>
       </c>
       <c r="B45" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C45">
-        <v>1.13062</v>
+        <v>1.1380300000000001</v>
       </c>
       <c r="D45">
-        <v>1.13924</v>
+        <v>1.14273</v>
       </c>
       <c r="E45">
-        <v>1.1241300000000001</v>
+        <v>1.1351599999999999</v>
       </c>
       <c r="F45">
-        <v>1.13849</v>
+        <v>1.1423000000000001</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>2.1770000000000067</v>
+        <v>1.5109999999999957</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1736,23 +1737,23 @@
         <v>15</v>
       </c>
       <c r="B46" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C46">
-        <v>1.1499900000000001</v>
+        <v>1.13062</v>
       </c>
       <c r="D46">
-        <v>1.15554</v>
+        <v>1.13924</v>
       </c>
       <c r="E46">
-        <v>1.1337699999999999</v>
+        <v>1.1241300000000001</v>
       </c>
       <c r="F46">
-        <v>1.1361000000000001</v>
+        <v>1.13849</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.0679999999999801</v>
+        <v>2.1770000000000067</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1760,23 +1761,23 @@
         <v>15</v>
       </c>
       <c r="B47" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C47">
-        <v>1.15889</v>
+        <v>1.1499900000000001</v>
       </c>
       <c r="D47">
-        <v>1.1601999999999999</v>
+        <v>1.15554</v>
       </c>
       <c r="E47">
-        <v>1.1495200000000001</v>
+        <v>1.1337699999999999</v>
       </c>
       <c r="F47">
-        <v>1.1498200000000001</v>
+        <v>1.1361000000000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>0.74799999999999311</v>
+        <v>1.0679999999999801</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1784,23 +1785,23 @@
         <v>15</v>
       </c>
       <c r="B48" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C48">
-        <v>1.1628099999999999</v>
+        <v>1.15889</v>
       </c>
       <c r="D48">
-        <v>1.1639699999999999</v>
+        <v>1.1601999999999999</v>
       </c>
       <c r="E48">
-        <v>1.15649</v>
+        <v>1.1495200000000001</v>
       </c>
       <c r="F48">
-        <v>1.15944</v>
+        <v>1.1498200000000001</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.114000000000015</v>
+        <v>0.74799999999999311</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1808,23 +1809,23 @@
         <v>15</v>
       </c>
       <c r="B49" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C49">
-        <v>1.1695599999999999</v>
+        <v>1.1628099999999999</v>
       </c>
       <c r="D49">
-        <v>1.17117</v>
+        <v>1.1639699999999999</v>
       </c>
       <c r="E49">
-        <v>1.1600299999999999</v>
+        <v>1.15649</v>
       </c>
       <c r="F49">
-        <v>1.16262</v>
+        <v>1.15944</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.0270000000000001</v>
+        <v>1.114000000000015</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1832,23 +1833,23 @@
         <v>15</v>
       </c>
       <c r="B50" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C50">
-        <v>1.1622300000000001</v>
+        <v>1.1695599999999999</v>
       </c>
       <c r="D50">
-        <v>1.1706300000000001</v>
+        <v>1.17117</v>
       </c>
       <c r="E50">
-        <v>1.1603600000000001</v>
+        <v>1.1600299999999999</v>
       </c>
       <c r="F50">
-        <v>1.17021</v>
+        <v>1.16262</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.0489999999999888</v>
+        <v>1.0270000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1856,23 +1857,23 @@
         <v>15</v>
       </c>
       <c r="B51" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C51">
-        <v>1.1558299999999999</v>
+        <v>1.1622300000000001</v>
       </c>
       <c r="D51">
-        <v>1.16374</v>
+        <v>1.1706300000000001</v>
       </c>
       <c r="E51">
-        <v>1.1532500000000001</v>
+        <v>1.1603600000000001</v>
       </c>
       <c r="F51">
-        <v>1.1630100000000001</v>
+        <v>1.17021</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.1089999999999822</v>
+        <v>1.0489999999999888</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1880,23 +1881,23 @@
         <v>15</v>
       </c>
       <c r="B52" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C52">
-        <v>1.1524000000000001</v>
+        <v>1.1558299999999999</v>
       </c>
       <c r="D52">
-        <v>1.1598299999999999</v>
+        <v>1.16374</v>
       </c>
       <c r="E52">
-        <v>1.1487400000000001</v>
+        <v>1.1532500000000001</v>
       </c>
       <c r="F52">
-        <v>1.1569</v>
+        <v>1.1630100000000001</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>0.92399999999999149</v>
+        <v>1.1089999999999822</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1904,23 +1905,23 @@
         <v>15</v>
       </c>
       <c r="B53" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C53">
-        <v>1.1559299999999999</v>
+        <v>1.1524000000000001</v>
       </c>
       <c r="D53">
-        <v>1.1569799999999999</v>
+        <v>1.1598299999999999</v>
       </c>
       <c r="E53">
-        <v>1.14774</v>
+        <v>1.1487400000000001</v>
       </c>
       <c r="F53">
-        <v>1.1512</v>
+        <v>1.1569</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.3149999999999995</v>
+        <v>0.92399999999999149</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1928,23 +1929,23 @@
         <v>15</v>
       </c>
       <c r="B54" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C54">
-        <v>1.1590199999999999</v>
+        <v>1.1559299999999999</v>
       </c>
       <c r="D54">
-        <v>1.1654599999999999</v>
+        <v>1.1569799999999999</v>
       </c>
       <c r="E54">
-        <v>1.1523099999999999</v>
+        <v>1.14774</v>
       </c>
       <c r="F54">
-        <v>1.1570100000000001</v>
+        <v>1.1512</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.3369999999999882</v>
+        <v>1.3149999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1952,23 +1953,23 @@
         <v>15</v>
       </c>
       <c r="B55" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C55">
-        <v>1.15283</v>
+        <v>1.1590199999999999</v>
       </c>
       <c r="D55">
-        <v>1.16377</v>
+        <v>1.1654599999999999</v>
       </c>
       <c r="E55">
-        <v>1.1504000000000001</v>
+        <v>1.1523099999999999</v>
       </c>
       <c r="F55">
-        <v>1.1589700000000001</v>
+        <v>1.1570100000000001</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.6049999999999907</v>
+        <v>1.3369999999999882</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1976,23 +1977,23 @@
         <v>15</v>
       </c>
       <c r="B56" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C56">
-        <v>1.1596299999999999</v>
+        <v>1.15283</v>
       </c>
       <c r="D56">
-        <v>1.1626399999999999</v>
+        <v>1.16377</v>
       </c>
       <c r="E56">
-        <v>1.13659</v>
+        <v>1.1504000000000001</v>
       </c>
       <c r="F56">
-        <v>1.15198</v>
+        <v>1.1589700000000001</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.3249999999999993</v>
+        <v>2.6049999999999907</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -2000,23 +2001,23 @@
         <v>15</v>
       </c>
       <c r="B57" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C57">
-        <v>1.1736500000000001</v>
+        <v>1.1596299999999999</v>
       </c>
       <c r="D57">
-        <v>1.1769099999999999</v>
+        <v>1.1626399999999999</v>
       </c>
       <c r="E57">
-        <v>1.1536599999999999</v>
+        <v>1.13659</v>
       </c>
       <c r="F57">
-        <v>1.15463</v>
+        <v>1.15198</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.5020000000000042</v>
+        <v>2.3249999999999993</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2024,23 +2025,23 @@
         <v>15</v>
       </c>
       <c r="B58" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C58">
-        <v>1.19404</v>
+        <v>1.1736500000000001</v>
       </c>
       <c r="D58">
-        <v>1.1977800000000001</v>
+        <v>1.1769099999999999</v>
       </c>
       <c r="E58">
-        <v>1.17276</v>
+        <v>1.1536599999999999</v>
       </c>
       <c r="F58">
-        <v>1.1736</v>
+        <v>1.15463</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>1.1370000000000102</v>
+        <v>2.5020000000000042</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2048,23 +2049,23 @@
         <v>15</v>
       </c>
       <c r="B59" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C59">
-        <v>1.1957500000000001</v>
+        <v>1.19404</v>
       </c>
       <c r="D59">
-        <v>1.19774</v>
+        <v>1.1977800000000001</v>
       </c>
       <c r="E59">
-        <v>1.1863699999999999</v>
+        <v>1.17276</v>
       </c>
       <c r="F59">
-        <v>1.19478</v>
+        <v>1.1736</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>0.52699999999998859</v>
+        <v>1.1370000000000102</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2072,23 +2073,23 @@
         <v>15</v>
       </c>
       <c r="B60" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C60">
-        <v>1.1977100000000001</v>
+        <v>1.1957500000000001</v>
       </c>
       <c r="D60">
-        <v>1.1985399999999999</v>
+        <v>1.19774</v>
       </c>
       <c r="E60">
-        <v>1.1932700000000001</v>
+        <v>1.1863699999999999</v>
       </c>
       <c r="F60">
-        <v>1.19648</v>
+        <v>1.19478</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>0.72100000000001607</v>
+        <v>0.52699999999998859</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2096,23 +2097,23 @@
         <v>15</v>
       </c>
       <c r="B61" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C61">
-        <v>1.1975</v>
+        <v>1.1977100000000001</v>
       </c>
       <c r="D61">
-        <v>1.1994800000000001</v>
+        <v>1.1985399999999999</v>
       </c>
       <c r="E61">
-        <v>1.1922699999999999</v>
+        <v>1.1932700000000001</v>
       </c>
       <c r="F61">
-        <v>1.1978</v>
+        <v>1.19648</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.4049999999999896</v>
+        <v>0.72100000000001607</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2120,23 +2121,23 @@
         <v>15</v>
       </c>
       <c r="B62" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C62">
-        <v>1.18634</v>
+        <v>1.1975</v>
       </c>
       <c r="D62">
-        <v>1.20031</v>
+        <v>1.1994800000000001</v>
       </c>
       <c r="E62">
-        <v>1.1862600000000001</v>
+        <v>1.1922699999999999</v>
       </c>
       <c r="F62">
-        <v>1.1977</v>
+        <v>1.1978</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.2319999999999887</v>
+        <v>1.4049999999999896</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2144,23 +2145,23 @@
         <v>15</v>
       </c>
       <c r="B63" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C63">
-        <v>1.17682</v>
+        <v>1.18634</v>
       </c>
       <c r="D63">
-        <v>1.18875</v>
+        <v>1.20031</v>
       </c>
       <c r="E63">
-        <v>1.1764300000000001</v>
+        <v>1.1862600000000001</v>
       </c>
       <c r="F63">
-        <v>1.1863600000000001</v>
+        <v>1.1977</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>0.68000000000001393</v>
+        <v>1.2319999999999887</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2168,23 +2169,23 @@
         <v>15</v>
       </c>
       <c r="B64" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C64">
-        <v>1.1751199999999999</v>
+        <v>1.17682</v>
       </c>
       <c r="D64">
-        <v>1.1802900000000001</v>
+        <v>1.18875</v>
       </c>
       <c r="E64">
-        <v>1.1734899999999999</v>
+        <v>1.1764300000000001</v>
       </c>
       <c r="F64">
-        <v>1.1776199999999999</v>
+        <v>1.1863600000000001</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.1390000000000011</v>
+        <v>0.68000000000001393</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2192,23 +2193,23 @@
         <v>15</v>
       </c>
       <c r="B65" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C65">
-        <v>1.1692800000000001</v>
+        <v>1.1751199999999999</v>
       </c>
       <c r="D65">
-        <v>1.18011</v>
+        <v>1.1802900000000001</v>
       </c>
       <c r="E65">
-        <v>1.16872</v>
+        <v>1.1734899999999999</v>
       </c>
       <c r="F65">
-        <v>1.1752800000000001</v>
+        <v>1.1776199999999999</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>0.98000000000000309</v>
+        <v>1.1390000000000011</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2216,23 +2217,23 @@
         <v>15</v>
       </c>
       <c r="B66" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C66">
-        <v>1.1698999999999999</v>
+        <v>1.1692800000000001</v>
       </c>
       <c r="D66">
-        <v>1.1746799999999999</v>
+        <v>1.18011</v>
       </c>
       <c r="E66">
-        <v>1.1648799999999999</v>
+        <v>1.16872</v>
       </c>
       <c r="F66">
-        <v>1.17038</v>
+        <v>1.1752800000000001</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>0.41999999999999815</v>
+        <v>0.98000000000000309</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2240,23 +2241,23 @@
         <v>15</v>
       </c>
       <c r="B67" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C67">
-        <v>1.1708400000000001</v>
+        <v>1.1698999999999999</v>
       </c>
       <c r="D67">
-        <v>1.17134</v>
+        <v>1.1746799999999999</v>
       </c>
       <c r="E67">
-        <v>1.1671400000000001</v>
+        <v>1.1648799999999999</v>
       </c>
       <c r="F67">
-        <v>1.1698</v>
+        <v>1.17038</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>2.3129999999999873</v>
+        <v>0.41999999999999815</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2264,23 +2265,23 @@
         <v>15</v>
       </c>
       <c r="B68" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C68">
-        <v>1.15435</v>
+        <v>1.1708400000000001</v>
       </c>
       <c r="D68">
-        <v>1.17394</v>
+        <v>1.17134</v>
       </c>
       <c r="E68">
-        <v>1.1508100000000001</v>
+        <v>1.1671400000000001</v>
       </c>
       <c r="F68">
-        <v>1.17055</v>
+        <v>1.1698</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>0.80299999999999816</v>
+        <v>2.3129999999999873</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2288,23 +2289,23 @@
         <v>15</v>
       </c>
       <c r="B69" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C69">
-        <v>1.1510800000000001</v>
+        <v>1.15435</v>
       </c>
       <c r="D69">
-        <v>1.1560900000000001</v>
+        <v>1.17394</v>
       </c>
       <c r="E69">
-        <v>1.1480600000000001</v>
+        <v>1.1508100000000001</v>
       </c>
       <c r="F69">
-        <v>1.15516</v>
+        <v>1.17055</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>0.69400000000001683</v>
+        <v>0.80299999999999816</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2312,23 +2313,23 @@
         <v>15</v>
       </c>
       <c r="B70" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C70">
-        <v>1.1511800000000001</v>
+        <v>1.1510800000000001</v>
       </c>
       <c r="D70">
-        <v>1.1558200000000001</v>
+        <v>1.1560900000000001</v>
       </c>
       <c r="E70">
-        <v>1.1488799999999999</v>
+        <v>1.1480600000000001</v>
       </c>
       <c r="F70">
-        <v>1.1512100000000001</v>
+        <v>1.15516</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>0.98100000000000964</v>
+        <v>0.69400000000001683</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2336,23 +2337,23 @@
         <v>15</v>
       </c>
       <c r="B71" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C71">
-        <v>1.15049</v>
+        <v>1.1511800000000001</v>
       </c>
       <c r="D71">
-        <v>1.1582600000000001</v>
+        <v>1.1558200000000001</v>
       </c>
       <c r="E71">
-        <v>1.14845</v>
+        <v>1.1488799999999999</v>
       </c>
       <c r="F71">
-        <v>1.15055</v>
+        <v>1.1512100000000001</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>1.9290000000000029</v>
+        <v>0.98100000000000964</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2360,23 +2361,23 @@
         <v>15</v>
       </c>
       <c r="B72" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C72">
-        <v>1.1601399999999999</v>
+        <v>1.15049</v>
       </c>
       <c r="D72">
-        <v>1.16374</v>
+        <v>1.1582600000000001</v>
       </c>
       <c r="E72">
-        <v>1.14445</v>
+        <v>1.14845</v>
       </c>
       <c r="F72">
-        <v>1.15065</v>
+        <v>1.15055</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>0.96400000000000929</v>
+        <v>1.9290000000000029</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2384,23 +2385,23 @@
         <v>15</v>
       </c>
       <c r="B73" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C73">
-        <v>1.1609499999999999</v>
+        <v>1.1601399999999999</v>
       </c>
       <c r="D73">
-        <v>1.16351</v>
+        <v>1.16374</v>
       </c>
       <c r="E73">
-        <v>1.15387</v>
+        <v>1.14445</v>
       </c>
       <c r="F73">
-        <v>1.15985</v>
+        <v>1.15065</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>2.1029999999999882</v>
+        <v>0.96400000000000929</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2408,23 +2409,23 @@
         <v>15</v>
       </c>
       <c r="B74" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C74">
-        <v>1.17862</v>
+        <v>1.1609499999999999</v>
       </c>
       <c r="D74">
-        <v>1.1795599999999999</v>
+        <v>1.16351</v>
       </c>
       <c r="E74">
-        <v>1.1585300000000001</v>
+        <v>1.15387</v>
       </c>
       <c r="F74">
-        <v>1.1596200000000001</v>
+        <v>1.15985</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.2109999999999843</v>
+        <v>2.1029999999999882</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2432,23 +2433,23 @@
         <v>15</v>
       </c>
       <c r="B75" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C75">
-        <v>1.17997</v>
+        <v>1.17862</v>
       </c>
       <c r="D75">
-        <v>1.1830499999999999</v>
+        <v>1.1795599999999999</v>
       </c>
       <c r="E75">
-        <v>1.1709400000000001</v>
+        <v>1.1585300000000001</v>
       </c>
       <c r="F75">
-        <v>1.1771499999999999</v>
+        <v>1.1596200000000001</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.265000000000005</v>
+        <v>1.2109999999999843</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2456,23 +2457,23 @@
         <v>15</v>
       </c>
       <c r="B76" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C76">
-        <v>1.17245</v>
+        <v>1.17997</v>
       </c>
       <c r="D76">
-        <v>1.1807700000000001</v>
+        <v>1.1830499999999999</v>
       </c>
       <c r="E76">
-        <v>1.16812</v>
+        <v>1.1709400000000001</v>
       </c>
       <c r="F76">
-        <v>1.17987</v>
+        <v>1.1771499999999999</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>0.9140000000000148</v>
+        <v>1.265000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2480,23 +2481,23 @@
         <v>15</v>
       </c>
       <c r="B77" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C77">
-        <v>1.16953</v>
+        <v>1.17245</v>
       </c>
       <c r="D77">
-        <v>1.17761</v>
+        <v>1.1807700000000001</v>
       </c>
       <c r="E77">
-        <v>1.1684699999999999</v>
+        <v>1.16812</v>
       </c>
       <c r="F77">
-        <v>1.17265</v>
+        <v>1.17987</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.0550000000000059</v>
+        <v>0.9140000000000148</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2504,23 +2505,23 @@
         <v>15</v>
       </c>
       <c r="B78" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C78">
-        <v>1.1714100000000001</v>
+        <v>1.16953</v>
       </c>
       <c r="D78">
-        <v>1.17746</v>
+        <v>1.17761</v>
       </c>
       <c r="E78">
-        <v>1.1669099999999999</v>
+        <v>1.1684699999999999</v>
       </c>
       <c r="F78">
-        <v>1.1692800000000001</v>
+        <v>1.17265</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>1.424000000000003</v>
+        <v>1.0550000000000059</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2528,23 +2529,23 @@
         <v>15</v>
       </c>
       <c r="B79" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C79">
-        <v>1.1638900000000001</v>
+        <v>1.1714100000000001</v>
       </c>
       <c r="D79">
-        <v>1.17479</v>
+        <v>1.17746</v>
       </c>
       <c r="E79">
-        <v>1.16055</v>
+        <v>1.1669099999999999</v>
       </c>
       <c r="F79">
-        <v>1.1732899999999999</v>
+        <v>1.1692800000000001</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>0.85299999999999265</v>
+        <v>1.424000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2552,23 +2553,23 @@
         <v>15</v>
       </c>
       <c r="B80" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C80">
-        <v>1.1692100000000001</v>
+        <v>1.1638900000000001</v>
       </c>
       <c r="D80">
-        <v>1.1702399999999999</v>
+        <v>1.17479</v>
       </c>
       <c r="E80">
-        <v>1.16171</v>
+        <v>1.16055</v>
       </c>
       <c r="F80">
-        <v>1.1631</v>
+        <v>1.1732899999999999</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>0.90500000000000025</v>
+        <v>0.85299999999999265</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2576,23 +2577,23 @@
         <v>15</v>
       </c>
       <c r="B81" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C81">
-        <v>1.1636200000000001</v>
+        <v>1.1692100000000001</v>
       </c>
       <c r="D81">
-        <v>1.1717299999999999</v>
+        <v>1.1702399999999999</v>
       </c>
       <c r="E81">
-        <v>1.1626799999999999</v>
+        <v>1.16171</v>
       </c>
       <c r="F81">
-        <v>1.1678999999999999</v>
+        <v>1.1631</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>1.3830000000000009</v>
+        <v>0.90500000000000025</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2600,23 +2601,23 @@
         <v>15</v>
       </c>
       <c r="B82" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C82">
-        <v>1.1681999999999999</v>
+        <v>1.1636200000000001</v>
       </c>
       <c r="D82">
-        <v>1.1734599999999999</v>
+        <v>1.1717299999999999</v>
       </c>
       <c r="E82">
-        <v>1.1596299999999999</v>
+        <v>1.1626799999999999</v>
       </c>
       <c r="F82">
-        <v>1.16143</v>
+        <v>1.1678999999999999</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>1.1199999999999877</v>
+        <v>1.3830000000000009</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2624,23 +2625,23 @@
         <v>15</v>
       </c>
       <c r="B83" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C83">
-        <v>1.1658299999999999</v>
+        <v>1.1681999999999999</v>
       </c>
       <c r="D83">
-        <v>1.1695199999999999</v>
+        <v>1.1734599999999999</v>
       </c>
       <c r="E83">
-        <v>1.15832</v>
+        <v>1.1596299999999999</v>
       </c>
       <c r="F83">
-        <v>1.16876</v>
+        <v>1.16143</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.3919999999999932</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2648,23 +2649,23 @@
         <v>15</v>
       </c>
       <c r="B84" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C84">
-        <v>1.1603300000000001</v>
+        <v>1.1658299999999999</v>
       </c>
       <c r="D84">
-        <v>1.17205</v>
+        <v>1.1695199999999999</v>
       </c>
       <c r="E84">
-        <v>1.1581300000000001</v>
+        <v>1.15832</v>
       </c>
       <c r="F84">
-        <v>1.1657299999999999</v>
+        <v>1.16876</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>0.98000000000000309</v>
+        <v>1.3919999999999932</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2672,23 +2673,23 @@
         <v>15</v>
       </c>
       <c r="B85" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C85">
-        <v>1.1609499999999999</v>
+        <v>1.1603300000000001</v>
       </c>
       <c r="D85">
-        <v>1.1638299999999999</v>
+        <v>1.17205</v>
       </c>
       <c r="E85">
-        <v>1.1540299999999999</v>
+        <v>1.1581300000000001</v>
       </c>
       <c r="F85">
-        <v>1.1613599999999999</v>
+        <v>1.1657299999999999</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>0.93599999999998129</v>
+        <v>0.98000000000000309</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2696,23 +2697,23 @@
         <v>15</v>
       </c>
       <c r="B86" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C86">
-        <v>1.1575500000000001</v>
+        <v>1.1609499999999999</v>
       </c>
       <c r="D86">
-        <v>1.1661999999999999</v>
+        <v>1.1638299999999999</v>
       </c>
       <c r="E86">
-        <v>1.1568400000000001</v>
+        <v>1.1540299999999999</v>
       </c>
       <c r="F86">
-        <v>1.1611800000000001</v>
+        <v>1.1613599999999999</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>1.5149999999999997</v>
+        <v>0.93599999999998129</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2720,23 +2721,23 @@
         <v>15</v>
       </c>
       <c r="B87" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C87">
-        <v>1.1591899999999999</v>
+        <v>1.1575500000000001</v>
       </c>
       <c r="D87">
-        <v>1.1709400000000001</v>
+        <v>1.1661999999999999</v>
       </c>
       <c r="E87">
-        <v>1.1557900000000001</v>
+        <v>1.1568400000000001</v>
       </c>
       <c r="F87">
-        <v>1.1573</v>
+        <v>1.1611800000000001</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>1.4490000000000114</v>
+        <v>1.5149999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2744,23 +2745,23 @@
         <v>15</v>
       </c>
       <c r="B88" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C88">
-        <v>1.15126</v>
+        <v>1.1591899999999999</v>
       </c>
       <c r="D88">
-        <v>1.16273</v>
+        <v>1.1709400000000001</v>
       </c>
       <c r="E88">
-        <v>1.1482399999999999</v>
+        <v>1.1557900000000001</v>
       </c>
       <c r="F88">
-        <v>1.15937</v>
+        <v>1.1573</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009</v>
+        <v>1.4490000000000114</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2768,23 +2769,23 @@
         <v>15</v>
       </c>
       <c r="B89" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C89">
-        <v>1.1473</v>
+        <v>1.15126</v>
       </c>
       <c r="D89">
-        <v>1.1563600000000001</v>
+        <v>1.16273</v>
       </c>
       <c r="E89">
-        <v>1.14636</v>
+        <v>1.1482399999999999</v>
       </c>
       <c r="F89">
-        <v>1.1518999999999999</v>
+        <v>1.15937</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.102000000000003</v>
+        <v>1.0000000000000009</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2792,23 +2793,23 @@
         <v>15</v>
       </c>
       <c r="B90" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C90">
-        <v>1.1430400000000001</v>
+        <v>1.1473</v>
       </c>
       <c r="D90">
-        <v>1.1496200000000001</v>
+        <v>1.1563600000000001</v>
       </c>
       <c r="E90">
-        <v>1.1386000000000001</v>
+        <v>1.14636</v>
       </c>
       <c r="F90">
-        <v>1.14734</v>
+        <v>1.1518999999999999</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.8259999999999943</v>
+        <v>1.102000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2816,23 +2817,23 @@
         <v>15</v>
       </c>
       <c r="B91" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C91">
-        <v>1.15611</v>
+        <v>1.1430400000000001</v>
       </c>
       <c r="D91">
-        <v>1.1588499999999999</v>
+        <v>1.1496200000000001</v>
       </c>
       <c r="E91">
-        <v>1.14059</v>
+        <v>1.1386000000000001</v>
       </c>
       <c r="F91">
-        <v>1.14405</v>
+        <v>1.14734</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.7249999999999988</v>
+        <v>1.8259999999999943</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2840,23 +2841,23 @@
         <v>15</v>
       </c>
       <c r="B92" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C92">
-        <v>1.14653</v>
+        <v>1.15611</v>
       </c>
       <c r="D92">
-        <v>1.16212</v>
+        <v>1.1588499999999999</v>
       </c>
       <c r="E92">
-        <v>1.1448700000000001</v>
+        <v>1.14059</v>
       </c>
       <c r="F92">
-        <v>1.1584700000000001</v>
+        <v>1.14405</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.5339999999999909</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2864,23 +2865,23 @@
         <v>15</v>
       </c>
       <c r="B93" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C93">
-        <v>1.13794</v>
+        <v>1.14653</v>
       </c>
       <c r="D93">
-        <v>1.1527099999999999</v>
+        <v>1.16212</v>
       </c>
       <c r="E93">
-        <v>1.13737</v>
+        <v>1.1448700000000001</v>
       </c>
       <c r="F93">
-        <v>1.1461399999999999</v>
+        <v>1.1584700000000001</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.1959999999999971</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2888,23 +2889,23 @@
         <v>15</v>
       </c>
       <c r="B94" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C94">
-        <v>1.13937</v>
+        <v>1.13794</v>
       </c>
       <c r="D94">
-        <v>1.1479900000000001</v>
+        <v>1.1527099999999999</v>
       </c>
       <c r="E94">
-        <v>1.1360300000000001</v>
+        <v>1.13737</v>
       </c>
       <c r="F94">
-        <v>1.13609</v>
+        <v>1.1461399999999999</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.1199999999999877</v>
+        <v>1.1959999999999971</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2912,23 +2913,23 @@
         <v>15</v>
       </c>
       <c r="B95" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C95">
-        <v>1.14029</v>
+        <v>1.13937</v>
       </c>
       <c r="D95">
-        <v>1.1470199999999999</v>
+        <v>1.1479900000000001</v>
       </c>
       <c r="E95">
-        <v>1.1358200000000001</v>
+        <v>1.1360300000000001</v>
       </c>
       <c r="F95">
-        <v>1.14402</v>
+        <v>1.13609</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.0219999999999896</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2936,23 +2937,23 @@
         <v>15</v>
       </c>
       <c r="B96" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C96">
-        <v>1.13449</v>
+        <v>1.14029</v>
       </c>
       <c r="D96">
-        <v>1.14211</v>
+        <v>1.1470199999999999</v>
       </c>
       <c r="E96">
-        <v>1.1318900000000001</v>
+        <v>1.1358200000000001</v>
       </c>
       <c r="F96">
-        <v>1.1402300000000001</v>
+        <v>1.14402</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>2.1900000000000031</v>
+        <v>1.0219999999999896</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2960,23 +2961,23 @@
         <v>15</v>
       </c>
       <c r="B97" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C97">
-        <v>1.1373599999999999</v>
+        <v>1.13449</v>
       </c>
       <c r="D97">
-        <v>1.14757</v>
+        <v>1.14211</v>
       </c>
       <c r="E97">
-        <v>1.1256699999999999</v>
+        <v>1.1318900000000001</v>
       </c>
       <c r="F97">
-        <v>1.1343799999999999</v>
+        <v>1.1402300000000001</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>2.4159999999999959</v>
+        <v>2.1900000000000031</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2984,23 +2985,23 @@
         <v>15</v>
       </c>
       <c r="B98" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C98">
-        <v>1.1453100000000001</v>
+        <v>1.1373599999999999</v>
       </c>
       <c r="D98">
-        <v>1.1499999999999999</v>
+        <v>1.14757</v>
       </c>
       <c r="E98">
-        <v>1.12584</v>
+        <v>1.1256699999999999</v>
       </c>
       <c r="F98">
-        <v>1.1372</v>
+        <v>1.1343799999999999</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>2.0199999999999996</v>
+        <v>2.4159999999999959</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3008,23 +3009,23 @@
         <v>15</v>
       </c>
       <c r="B99" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C99">
-        <v>1.1386499999999999</v>
+        <v>1.1453100000000001</v>
       </c>
       <c r="D99">
-        <v>1.15354</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E99">
-        <v>1.13334</v>
+        <v>1.12584</v>
       </c>
       <c r="F99">
-        <v>1.14551</v>
+        <v>1.1372</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>3.9939999999999864</v>
+        <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3032,23 +3033,23 @@
         <v>15</v>
       </c>
       <c r="B100" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C100">
-        <v>1.1025499999999999</v>
+        <v>1.1386499999999999</v>
       </c>
       <c r="D100">
-        <v>1.1404399999999999</v>
+        <v>1.15354</v>
       </c>
       <c r="E100">
-        <v>1.1005</v>
+        <v>1.13334</v>
       </c>
       <c r="F100">
-        <v>1.1390100000000001</v>
+        <v>1.14551</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.0080000000000089</v>
+        <v>3.9939999999999864</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3056,23 +3057,23 @@
         <v>15</v>
       </c>
       <c r="B101" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C101">
-        <v>1.10456</v>
+        <v>1.1025499999999999</v>
       </c>
       <c r="D101">
-        <v>1.1086</v>
+        <v>1.1404399999999999</v>
       </c>
       <c r="E101">
-        <v>1.0985199999999999</v>
+        <v>1.1005</v>
       </c>
       <c r="F101">
-        <v>1.1031899999999999</v>
+        <v>1.1390100000000001</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>0.88900000000000645</v>
+        <v>1.0080000000000089</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3080,23 +3081,23 @@
         <v>15</v>
       </c>
       <c r="B102" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C102">
-        <v>1.09839</v>
+        <v>1.10456</v>
       </c>
       <c r="D102">
-        <v>1.1071</v>
+        <v>1.1086</v>
       </c>
       <c r="E102">
-        <v>1.0982099999999999</v>
+        <v>1.0985199999999999</v>
       </c>
       <c r="F102">
-        <v>1.10459</v>
+        <v>1.1031899999999999</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>0.76500000000001567</v>
+        <v>0.88900000000000645</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3104,23 +3105,23 @@
         <v>15</v>
       </c>
       <c r="B103" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C103">
-        <v>1.0946899999999999</v>
+        <v>1.09839</v>
       </c>
       <c r="D103">
-        <v>1.0997600000000001</v>
+        <v>1.1071</v>
       </c>
       <c r="E103">
-        <v>1.0921099999999999</v>
+        <v>1.0982099999999999</v>
       </c>
       <c r="F103">
-        <v>1.0985199999999999</v>
+        <v>1.10459</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>1.081999999999983</v>
+        <v>0.76500000000001567</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3128,23 +3129,23 @@
         <v>15</v>
       </c>
       <c r="B104" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C104">
-        <v>1.0847100000000001</v>
+        <v>1.0946899999999999</v>
       </c>
       <c r="D104">
-        <v>1.0951599999999999</v>
+        <v>1.0997600000000001</v>
       </c>
       <c r="E104">
-        <v>1.0843400000000001</v>
+        <v>1.0921099999999999</v>
       </c>
       <c r="F104">
-        <v>1.09457</v>
+        <v>1.0985199999999999</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>0.75899999999999856</v>
+        <v>1.081999999999983</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3152,23 +3153,23 @@
         <v>15</v>
       </c>
       <c r="B105" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C105">
-        <v>1.0893200000000001</v>
+        <v>1.0847100000000001</v>
       </c>
       <c r="D105">
-        <v>1.09066</v>
+        <v>1.0951599999999999</v>
       </c>
       <c r="E105">
-        <v>1.08307</v>
+        <v>1.0843400000000001</v>
       </c>
       <c r="F105">
-        <v>1.08544</v>
+        <v>1.09457</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0.69399999999999462</v>
+        <v>0.75899999999999856</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3176,23 +3177,23 @@
         <v>15</v>
       </c>
       <c r="B106" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C106">
-        <v>1.0854200000000001</v>
+        <v>1.0893200000000001</v>
       </c>
       <c r="D106">
-        <v>1.0906400000000001</v>
+        <v>1.09066</v>
       </c>
       <c r="E106">
-        <v>1.0837000000000001</v>
+        <v>1.08307</v>
       </c>
       <c r="F106">
-        <v>1.0900399999999999</v>
+        <v>1.08544</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>0.38300000000000001</v>
+        <v>0.69399999999999462</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3200,23 +3201,23 @@
         <v>15</v>
       </c>
       <c r="B107" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C107">
-        <v>1.0857000000000001</v>
+        <v>1.0854200000000001</v>
       </c>
       <c r="D107">
-        <v>1.0873900000000001</v>
+        <v>1.0906400000000001</v>
       </c>
       <c r="E107">
-        <v>1.0835600000000001</v>
+        <v>1.0837000000000001</v>
       </c>
       <c r="F107">
-        <v>1.0848800000000001</v>
+        <v>1.0900399999999999</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>0.56499999999999329</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3224,23 +3225,23 @@
         <v>15</v>
       </c>
       <c r="B108" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C108">
-        <v>1.0891299999999999</v>
+        <v>1.0857000000000001</v>
       </c>
       <c r="D108">
-        <v>1.09117</v>
+        <v>1.0873900000000001</v>
       </c>
       <c r="E108">
-        <v>1.08552</v>
+        <v>1.0835600000000001</v>
       </c>
       <c r="F108">
-        <v>1.0855600000000001</v>
+        <v>1.0848800000000001</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>0.69799999999999862</v>
+        <v>0.56499999999999329</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3248,23 +3249,23 @@
         <v>15</v>
       </c>
       <c r="B109" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C109">
-        <v>1.08965</v>
+        <v>1.0891299999999999</v>
       </c>
       <c r="D109">
-        <v>1.09463</v>
+        <v>1.09117</v>
       </c>
       <c r="E109">
-        <v>1.08765</v>
+        <v>1.08552</v>
       </c>
       <c r="F109">
-        <v>1.08924</v>
+        <v>1.0855600000000001</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>0.9400000000000075</v>
+        <v>0.69799999999999862</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3272,23 +3273,23 @@
         <v>15</v>
       </c>
       <c r="B110" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C110">
-        <v>1.09321</v>
+        <v>1.08965</v>
       </c>
       <c r="D110">
-        <v>1.09575</v>
+        <v>1.09463</v>
       </c>
       <c r="E110">
-        <v>1.0863499999999999</v>
+        <v>1.08765</v>
       </c>
       <c r="F110">
-        <v>1.0901099999999999</v>
+        <v>1.08924</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>1.3749999999999929</v>
+        <v>0.9400000000000075</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3296,23 +3297,23 @@
         <v>15</v>
       </c>
       <c r="B111" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C111">
-        <v>1.0877300000000001</v>
+        <v>1.09321</v>
       </c>
       <c r="D111">
-        <v>1.09849</v>
+        <v>1.09575</v>
       </c>
       <c r="E111">
-        <v>1.08474</v>
+        <v>1.0863499999999999</v>
       </c>
       <c r="F111">
-        <v>1.0940099999999999</v>
+        <v>1.0901099999999999</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>0.81099999999998396</v>
+        <v>1.3749999999999929</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3320,23 +3321,23 @@
         <v>15</v>
       </c>
       <c r="B112" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C112">
-        <v>1.08324</v>
+        <v>1.0877300000000001</v>
       </c>
       <c r="D112">
-        <v>1.0870899999999999</v>
+        <v>1.09849</v>
       </c>
       <c r="E112">
-        <v>1.0789800000000001</v>
+        <v>1.08474</v>
       </c>
       <c r="F112">
-        <v>1.0859300000000001</v>
+        <v>1.0940099999999999</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>0.89299999999998825</v>
+        <v>0.81099999999998396</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3344,23 +3345,23 @@
         <v>15</v>
       </c>
       <c r="B113" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C113">
-        <v>1.0790900000000001</v>
+        <v>1.08324</v>
       </c>
       <c r="D113">
-        <v>1.08673</v>
+        <v>1.0870899999999999</v>
       </c>
       <c r="E113">
-        <v>1.0778000000000001</v>
+        <v>1.0789800000000001</v>
       </c>
       <c r="F113">
-        <v>1.0839099999999999</v>
+        <v>1.0859300000000001</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>0.57300000000000129</v>
+        <v>0.89299999999998825</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3368,23 +3369,23 @@
         <v>15</v>
       </c>
       <c r="B114" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C114">
-        <v>1.06612</v>
+        <v>1.0790900000000001</v>
       </c>
       <c r="D114">
-        <v>1.07175</v>
+        <v>1.08673</v>
       </c>
       <c r="E114">
-        <v>1.06602</v>
+        <v>1.0778000000000001</v>
       </c>
       <c r="F114">
-        <v>1.0680000000000001</v>
+        <v>1.0839099999999999</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>0.44599999999999085</v>
+        <v>0.57300000000000129</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3392,23 +3393,23 @@
         <v>15</v>
       </c>
       <c r="B115" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C115">
-        <v>1.0679099999999999</v>
+        <v>1.06612</v>
       </c>
       <c r="D115">
-        <v>1.06975</v>
+        <v>1.07175</v>
       </c>
       <c r="E115">
-        <v>1.0652900000000001</v>
+        <v>1.06602</v>
       </c>
       <c r="F115">
-        <v>1.0660400000000001</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>0.56300000000000239</v>
+        <v>0.44599999999999085</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3416,23 +3417,23 @@
         <v>15</v>
       </c>
       <c r="B116" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C116">
-        <v>1.06854</v>
+        <v>1.0679099999999999</v>
       </c>
       <c r="D116">
-        <v>1.0723400000000001</v>
+        <v>1.06975</v>
       </c>
       <c r="E116">
-        <v>1.06671</v>
+        <v>1.0652900000000001</v>
       </c>
       <c r="F116">
-        <v>1.0686199999999999</v>
+        <v>1.0660400000000001</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>0.51499999999999879</v>
+        <v>0.56300000000000239</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3440,23 +3441,23 @@
         <v>15</v>
       </c>
       <c r="B117" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C117">
-        <v>1.0711999999999999</v>
+        <v>1.06854</v>
       </c>
       <c r="D117">
-        <v>1.0732999999999999</v>
+        <v>1.0723400000000001</v>
       </c>
       <c r="E117">
-        <v>1.0681499999999999</v>
+        <v>1.06671</v>
       </c>
       <c r="F117">
-        <v>1.0683400000000001</v>
+        <v>1.0686199999999999</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>0.75499999999999456</v>
+        <v>0.51499999999999879</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3464,23 +3465,23 @@
         <v>15</v>
       </c>
       <c r="B118" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C118">
-        <v>1.0707500000000001</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="D118">
-        <v>1.0759399999999999</v>
+        <v>1.0732999999999999</v>
       </c>
       <c r="E118">
-        <v>1.06839</v>
+        <v>1.0681499999999999</v>
       </c>
       <c r="F118">
-        <v>1.07016</v>
+        <v>1.0683400000000001</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>1.4090000000000158</v>
+        <v>0.75499999999999456</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3488,23 +3489,23 @@
         <v>15</v>
       </c>
       <c r="B119" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C119">
-        <v>1.07863</v>
+        <v>1.0707500000000001</v>
       </c>
       <c r="D119">
-        <v>1.0822400000000001</v>
+        <v>1.0759399999999999</v>
       </c>
       <c r="E119">
-        <v>1.0681499999999999</v>
+        <v>1.06839</v>
       </c>
       <c r="F119">
-        <v>1.07172</v>
+        <v>1.07016</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>1.1379999999999946</v>
+        <v>1.4090000000000158</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3512,23 +3513,23 @@
         <v>15</v>
       </c>
       <c r="B120" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C120">
-        <v>1.06958</v>
+        <v>1.07863</v>
       </c>
       <c r="D120">
-        <v>1.07959</v>
+        <v>1.0822400000000001</v>
       </c>
       <c r="E120">
-        <v>1.0682100000000001</v>
+        <v>1.0681499999999999</v>
       </c>
       <c r="F120">
-        <v>1.0786800000000001</v>
+        <v>1.07172</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>0.77300000000000146</v>
+        <v>1.1379999999999946</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3536,23 +3537,23 @@
         <v>15</v>
       </c>
       <c r="B121" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C121">
-        <v>1.0635399999999999</v>
+        <v>1.06958</v>
       </c>
       <c r="D121">
-        <v>1.0711999999999999</v>
+        <v>1.07959</v>
       </c>
       <c r="E121">
-        <v>1.0634699999999999</v>
+        <v>1.0682100000000001</v>
       </c>
       <c r="F121">
-        <v>1.07104</v>
+        <v>1.0786800000000001</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>0.44999999999999485</v>
+        <v>0.77300000000000146</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3560,23 +3561,23 @@
         <v>15</v>
       </c>
       <c r="B122" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C122">
-        <v>1.0636300000000001</v>
+        <v>1.0635399999999999</v>
       </c>
       <c r="D122">
-        <v>1.0674399999999999</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="E122">
-        <v>1.06294</v>
+        <v>1.0634699999999999</v>
       </c>
       <c r="F122">
-        <v>1.0638300000000001</v>
+        <v>1.07104</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>0.4610000000000003</v>
+        <v>0.44999999999999485</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3584,23 +3585,23 @@
         <v>15</v>
       </c>
       <c r="B123" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C123">
-        <v>1.0659000000000001</v>
+        <v>1.0636300000000001</v>
       </c>
       <c r="D123">
-        <v>1.0678799999999999</v>
+        <v>1.0674399999999999</v>
       </c>
       <c r="E123">
-        <v>1.0632699999999999</v>
+        <v>1.06294</v>
       </c>
       <c r="F123">
-        <v>1.0638399999999999</v>
+        <v>1.0638300000000001</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>0.72999999999998622</v>
+        <v>0.4610000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3608,23 +3609,23 @@
         <v>15</v>
       </c>
       <c r="B124" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C124">
-        <v>1.06969</v>
+        <v>1.0659000000000001</v>
       </c>
       <c r="D124">
-        <v>1.07029</v>
+        <v>1.0678799999999999</v>
       </c>
       <c r="E124">
-        <v>1.0629900000000001</v>
+        <v>1.0632699999999999</v>
       </c>
       <c r="F124">
-        <v>1.0665100000000001</v>
+        <v>1.0638399999999999</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>0.68700000000001538</v>
+        <v>0.72999999999998622</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3632,23 +3633,23 @@
         <v>15</v>
       </c>
       <c r="B125" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C125">
-        <v>1.0686899999999999</v>
+        <v>1.06969</v>
       </c>
       <c r="D125">
-        <v>1.07037</v>
+        <v>1.07029</v>
       </c>
       <c r="E125">
-        <v>1.0634999999999999</v>
+        <v>1.0629900000000001</v>
       </c>
       <c r="F125">
-        <v>1.0697300000000001</v>
+        <v>1.0665100000000001</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>0.81200000000001271</v>
+        <v>0.68700000000001538</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3656,23 +3657,23 @@
         <v>15</v>
       </c>
       <c r="B126" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C126">
-        <v>1.0713999999999999</v>
+        <v>1.0686899999999999</v>
       </c>
       <c r="D126">
-        <v>1.07484</v>
+        <v>1.07037</v>
       </c>
       <c r="E126">
-        <v>1.0667199999999999</v>
+        <v>1.0634999999999999</v>
       </c>
       <c r="F126">
-        <v>1.0682100000000001</v>
+        <v>1.0697300000000001</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>0.38300000000000001</v>
+        <v>0.81200000000001271</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3680,23 +3681,23 @@
         <v>15</v>
       </c>
       <c r="B127" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C127">
-        <v>1.0708200000000001</v>
+        <v>1.0713999999999999</v>
       </c>
       <c r="D127">
-        <v>1.0737399999999999</v>
+        <v>1.07484</v>
       </c>
       <c r="E127">
-        <v>1.0699099999999999</v>
+        <v>1.0667199999999999</v>
       </c>
       <c r="F127">
-        <v>1.07162</v>
+        <v>1.0682100000000001</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>0.4269999999999996</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3704,23 +3705,23 @@
         <v>15</v>
       </c>
       <c r="B128" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C128">
-        <v>1.07077</v>
+        <v>1.0708200000000001</v>
       </c>
       <c r="D128">
-        <v>1.07453</v>
+        <v>1.0737399999999999</v>
       </c>
       <c r="E128">
-        <v>1.07026</v>
+        <v>1.0699099999999999</v>
       </c>
       <c r="F128">
-        <v>1.0733999999999999</v>
+        <v>1.07162</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>0.57599999999999874</v>
+        <v>0.4269999999999996</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3728,23 +3729,23 @@
         <v>15</v>
       </c>
       <c r="B129" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C129">
-        <v>1.0701000000000001</v>
+        <v>1.07077</v>
       </c>
       <c r="D129">
-        <v>1.07355</v>
+        <v>1.07453</v>
       </c>
       <c r="E129">
-        <v>1.06779</v>
+        <v>1.07026</v>
       </c>
       <c r="F129">
-        <v>1.0717699999999999</v>
+        <v>1.0733999999999999</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>0.61099999999998378</v>
+        <v>0.57599999999999874</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3752,23 +3753,23 @@
         <v>15</v>
       </c>
       <c r="B130" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C130">
-        <v>1.0707500000000001</v>
+        <v>1.0701000000000001</v>
       </c>
       <c r="D130">
-        <v>1.0759399999999999</v>
+        <v>1.07355</v>
       </c>
       <c r="E130">
-        <v>1.0698300000000001</v>
+        <v>1.06779</v>
       </c>
       <c r="F130">
-        <v>1.07141</v>
+        <v>1.0717699999999999</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>0.61700000000000088</v>
+        <v>0.61099999999998378</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3776,23 +3777,23 @@
         <v>15</v>
       </c>
       <c r="B131" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C131">
-        <v>1.0718799999999999</v>
+        <v>1.0707500000000001</v>
       </c>
       <c r="D131">
-        <v>1.0738300000000001</v>
+        <v>1.0759399999999999</v>
       </c>
       <c r="E131">
-        <v>1.0676600000000001</v>
+        <v>1.0698300000000001</v>
       </c>
       <c r="F131">
-        <v>1.07345</v>
+        <v>1.07141</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>0.78899999999999526</v>
+        <v>0.61700000000000088</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3800,23 +3801,23 @@
         <v>15</v>
       </c>
       <c r="B132" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C132">
-        <v>1.0727100000000001</v>
+        <v>1.0718799999999999</v>
       </c>
       <c r="D132">
-        <v>1.0787100000000001</v>
+        <v>1.0738300000000001</v>
       </c>
       <c r="E132">
-        <v>1.0708200000000001</v>
+        <v>1.0676600000000001</v>
       </c>
       <c r="F132">
-        <v>1.0726899999999999</v>
+        <v>1.07345</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>1.988000000000012</v>
+        <v>0.78899999999999526</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3824,23 +3825,23 @@
         <v>15</v>
       </c>
       <c r="B133" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C133">
-        <v>1.07704</v>
+        <v>1.0727100000000001</v>
       </c>
       <c r="D133">
-        <v>1.08938</v>
+        <v>1.0787100000000001</v>
       </c>
       <c r="E133">
-        <v>1.0694999999999999</v>
+        <v>1.0708200000000001</v>
       </c>
       <c r="F133">
-        <v>1.0740000000000001</v>
+        <v>1.0726899999999999</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>0.84200000000000941</v>
+        <v>1.988000000000012</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3848,23 +3849,23 @@
         <v>15</v>
       </c>
       <c r="B134" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C134">
-        <v>1.07298</v>
+        <v>1.07704</v>
       </c>
       <c r="D134">
-        <v>1.08138</v>
+        <v>1.08938</v>
       </c>
       <c r="E134">
-        <v>1.0729599999999999</v>
+        <v>1.0694999999999999</v>
       </c>
       <c r="F134">
-        <v>1.07795</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>0.62099999999998268</v>
+        <v>0.84200000000000941</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3872,23 +3873,23 @@
         <v>15</v>
       </c>
       <c r="B135" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C135">
-        <v>1.0698099999999999</v>
+        <v>1.07298</v>
       </c>
       <c r="D135">
-        <v>1.0753699999999999</v>
+        <v>1.08138</v>
       </c>
       <c r="E135">
-        <v>1.0691600000000001</v>
+        <v>1.0729599999999999</v>
       </c>
       <c r="F135">
-        <v>1.07376</v>
+        <v>1.07795</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>0.72399999999999132</v>
+        <v>0.62099999999998268</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3896,23 +3897,23 @@
         <v>15</v>
       </c>
       <c r="B136" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C136">
-        <v>1.0710200000000001</v>
+        <v>1.0698099999999999</v>
       </c>
       <c r="D136">
-        <v>1.07565</v>
+        <v>1.0753699999999999</v>
       </c>
       <c r="E136">
-        <v>1.0684100000000001</v>
+        <v>1.0691600000000001</v>
       </c>
       <c r="F136">
-        <v>1.0694399999999999</v>
+        <v>1.07376</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>1.2499999999999956</v>
+        <v>0.72399999999999132</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3920,23 +3921,23 @@
         <v>15</v>
       </c>
       <c r="B137" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C137">
-        <v>1.08073</v>
+        <v>1.0710200000000001</v>
       </c>
       <c r="D137">
-        <v>1.08287</v>
+        <v>1.07565</v>
       </c>
       <c r="E137">
-        <v>1.07037</v>
+        <v>1.0684100000000001</v>
       </c>
       <c r="F137">
-        <v>1.0721000000000001</v>
+        <v>1.0694399999999999</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>1.093999999999995</v>
+        <v>1.2499999999999956</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3944,23 +3945,23 @@
         <v>15</v>
       </c>
       <c r="B138" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C138">
-        <v>1.08423</v>
+        <v>1.08073</v>
       </c>
       <c r="D138">
-        <v>1.0861099999999999</v>
+        <v>1.08287</v>
       </c>
       <c r="E138">
-        <v>1.07517</v>
+        <v>1.07037</v>
       </c>
       <c r="F138">
-        <v>1.07928</v>
+        <v>1.0721000000000001</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>0.67500000000000338</v>
+        <v>1.093999999999995</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3968,23 +3969,23 @@
         <v>15</v>
       </c>
       <c r="B139" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C139">
-        <v>1.0812999999999999</v>
+        <v>1.08423</v>
       </c>
       <c r="D139">
-        <v>1.0861499999999999</v>
+        <v>1.0861099999999999</v>
       </c>
       <c r="E139">
-        <v>1.0793999999999999</v>
+        <v>1.07517</v>
       </c>
       <c r="F139">
-        <v>1.0847500000000001</v>
+        <v>1.07928</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>0.8839999999999959</v>
+        <v>0.67500000000000338</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3992,23 +3993,23 @@
         <v>15</v>
       </c>
       <c r="B140" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C140">
-        <v>1.0860099999999999</v>
+        <v>1.0812999999999999</v>
       </c>
       <c r="D140">
-        <v>1.0892500000000001</v>
+        <v>1.0861499999999999</v>
       </c>
       <c r="E140">
-        <v>1.0804100000000001</v>
+        <v>1.0793999999999999</v>
       </c>
       <c r="F140">
-        <v>1.0809</v>
+        <v>1.0847500000000001</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>1.0850000000000026</v>
+        <v>0.8839999999999959</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4016,23 +4017,23 @@
         <v>15</v>
       </c>
       <c r="B141" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C141">
-        <v>1.0934900000000001</v>
+        <v>1.0860099999999999</v>
       </c>
       <c r="D141">
-        <v>1.0970200000000001</v>
+        <v>1.0892500000000001</v>
       </c>
       <c r="E141">
-        <v>1.0861700000000001</v>
+        <v>1.0804100000000001</v>
       </c>
       <c r="F141">
-        <v>1.08647</v>
+        <v>1.0809</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>0.77100000000001057</v>
+        <v>1.0850000000000026</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4040,23 +4041,23 @@
         <v>15</v>
       </c>
       <c r="B142" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C142">
-        <v>1.0895999999999999</v>
+        <v>1.0934900000000001</v>
       </c>
       <c r="D142">
-        <v>1.09731</v>
+        <v>1.0970200000000001</v>
       </c>
       <c r="E142">
-        <v>1.0895999999999999</v>
+        <v>1.0861700000000001</v>
       </c>
       <c r="F142">
-        <v>1.0950200000000001</v>
+        <v>1.08647</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>1.0739999999999972</v>
+        <v>0.77100000000001057</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4064,23 +4065,23 @@
         <v>15</v>
       </c>
       <c r="B143" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C143">
-        <v>1.0891</v>
+        <v>1.0895999999999999</v>
       </c>
       <c r="D143">
-        <v>1.0915999999999999</v>
+        <v>1.09731</v>
       </c>
       <c r="E143">
-        <v>1.0808599999999999</v>
+        <v>1.0895999999999999</v>
       </c>
       <c r="F143">
-        <v>1.0913200000000001</v>
+        <v>1.0950200000000001</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>1.0320000000000107</v>
+        <v>1.0739999999999972</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4088,23 +4089,23 @@
         <v>15</v>
       </c>
       <c r="B144" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C144">
-        <v>1.0929</v>
+        <v>1.0891</v>
       </c>
       <c r="D144">
-        <v>1.09575</v>
+        <v>1.0915999999999999</v>
       </c>
       <c r="E144">
-        <v>1.0854299999999999</v>
+        <v>1.0808599999999999</v>
       </c>
       <c r="F144">
-        <v>1.08867</v>
+        <v>1.0913200000000001</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>0.72700000000001097</v>
+        <v>1.0320000000000107</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4112,23 +4113,23 @@
         <v>15</v>
       </c>
       <c r="B145" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C145">
-        <v>1.09517</v>
+        <v>1.0929</v>
       </c>
       <c r="D145">
-        <v>1.0982400000000001</v>
+        <v>1.09575</v>
       </c>
       <c r="E145">
-        <v>1.09097</v>
+        <v>1.0854299999999999</v>
       </c>
       <c r="F145">
-        <v>1.09358</v>
+        <v>1.08867</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>0.878000000000001</v>
+        <v>0.72700000000001097</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4136,23 +4137,23 @@
         <v>15</v>
       </c>
       <c r="B146" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C146">
-        <v>1.09344</v>
+        <v>1.09517</v>
       </c>
       <c r="D146">
-        <v>1.09734</v>
+        <v>1.0982400000000001</v>
       </c>
       <c r="E146">
-        <v>1.08856</v>
+        <v>1.09097</v>
       </c>
       <c r="F146">
-        <v>1.09551</v>
+        <v>1.09358</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>0.74600000000000222</v>
+        <v>0.878000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4160,23 +4161,23 @@
         <v>15</v>
       </c>
       <c r="B147" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C147">
-        <v>1.09419</v>
+        <v>1.09344</v>
       </c>
       <c r="D147">
-        <v>1.09982</v>
+        <v>1.09734</v>
       </c>
       <c r="E147">
-        <v>1.09236</v>
+        <v>1.08856</v>
       </c>
       <c r="F147">
-        <v>1.0933200000000001</v>
+        <v>1.09551</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>0.98899999999999544</v>
+        <v>0.74600000000000222</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4184,23 +4185,23 @@
         <v>15</v>
       </c>
       <c r="B148" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C148">
-        <v>1.08687</v>
+        <v>1.09419</v>
       </c>
       <c r="D148">
-        <v>1.0956399999999999</v>
+        <v>1.09982</v>
       </c>
       <c r="E148">
-        <v>1.08575</v>
+        <v>1.09236</v>
       </c>
       <c r="F148">
-        <v>1.0952</v>
+        <v>1.0933200000000001</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>0.75700000000000767</v>
+        <v>0.98899999999999544</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4208,23 +4209,23 @@
         <v>15</v>
       </c>
       <c r="B149" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C149">
-        <v>1.08782</v>
+        <v>1.08687</v>
       </c>
       <c r="D149">
-        <v>1.09002</v>
+        <v>1.0956399999999999</v>
       </c>
       <c r="E149">
-        <v>1.0824499999999999</v>
+        <v>1.08575</v>
       </c>
       <c r="F149">
-        <v>1.0872200000000001</v>
+        <v>1.0952</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>0.70700000000001317</v>
+        <v>0.75700000000000767</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4232,23 +4233,23 @@
         <v>15</v>
       </c>
       <c r="B150" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C150">
-        <v>1.08666</v>
+        <v>1.08782</v>
       </c>
       <c r="D150">
-        <v>1.0922700000000001</v>
+        <v>1.09002</v>
       </c>
       <c r="E150">
-        <v>1.0851999999999999</v>
+        <v>1.0824499999999999</v>
       </c>
       <c r="F150">
-        <v>1.0880399999999999</v>
+        <v>1.0872200000000001</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>0.79400000000000581</v>
+        <v>0.70700000000001317</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4256,23 +4257,23 @@
         <v>15</v>
       </c>
       <c r="B151" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C151">
-        <v>1.0825800000000001</v>
+        <v>1.08666</v>
       </c>
       <c r="D151">
-        <v>1.08721</v>
+        <v>1.0922700000000001</v>
       </c>
       <c r="E151">
-        <v>1.07927</v>
+        <v>1.0851999999999999</v>
       </c>
       <c r="F151">
-        <v>1.0869200000000001</v>
+        <v>1.0880399999999999</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>1.4789999999999859</v>
+        <v>0.79400000000000581</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4280,23 +4281,23 @@
         <v>15</v>
       </c>
       <c r="B152" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C152">
-        <v>1.0834900000000001</v>
+        <v>1.0825800000000001</v>
       </c>
       <c r="D152">
-        <v>1.0934999999999999</v>
+        <v>1.08721</v>
       </c>
       <c r="E152">
-        <v>1.0787100000000001</v>
+        <v>1.07927</v>
       </c>
       <c r="F152">
-        <v>1.08335</v>
+        <v>1.0869200000000001</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>0.72900000000000187</v>
+        <v>1.4789999999999859</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4304,23 +4305,23 @@
         <v>15</v>
       </c>
       <c r="B153" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C153">
-        <v>1.0856399999999999</v>
+        <v>1.0834900000000001</v>
       </c>
       <c r="D153">
-        <v>1.09016</v>
+        <v>1.0934999999999999</v>
       </c>
       <c r="E153">
-        <v>1.08287</v>
+        <v>1.0787100000000001</v>
       </c>
       <c r="F153">
-        <v>1.0835600000000001</v>
+        <v>1.08335</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>1.0740000000000194</v>
+        <v>0.72900000000000187</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4328,23 +4329,23 @@
         <v>15</v>
       </c>
       <c r="B154" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C154">
-        <v>1.08528</v>
+        <v>1.0856399999999999</v>
       </c>
       <c r="D154">
-        <v>1.0942400000000001</v>
+        <v>1.09016</v>
       </c>
       <c r="E154">
-        <v>1.0834999999999999</v>
+        <v>1.08287</v>
       </c>
       <c r="F154">
-        <v>1.0844</v>
+        <v>1.0835600000000001</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>0.80100000000000726</v>
+        <v>1.0740000000000194</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4352,23 +4353,23 @@
         <v>15</v>
       </c>
       <c r="B155" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C155">
-        <v>1.08314</v>
+        <v>1.08528</v>
       </c>
       <c r="D155">
-        <v>1.08718</v>
+        <v>1.0942400000000001</v>
       </c>
       <c r="E155">
-        <v>1.07917</v>
+        <v>1.0834999999999999</v>
       </c>
       <c r="F155">
-        <v>1.0866400000000001</v>
+        <v>1.0844</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>1.8249999999999877</v>
+        <v>0.80100000000000726</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4376,23 +4377,23 @@
         <v>15</v>
       </c>
       <c r="B156" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C156">
-        <v>1.07362</v>
+        <v>1.08314</v>
       </c>
       <c r="D156">
-        <v>1.0896399999999999</v>
+        <v>1.08718</v>
       </c>
       <c r="E156">
-        <v>1.0713900000000001</v>
+        <v>1.07917</v>
       </c>
       <c r="F156">
-        <v>1.0837699999999999</v>
+        <v>1.0866400000000001</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>3.8929999999999909</v>
+        <v>1.8249999999999877</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4400,23 +4401,23 @@
         <v>15</v>
       </c>
       <c r="B157" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C157">
-        <v>1.08979</v>
+        <v>1.07362</v>
       </c>
       <c r="D157">
-        <v>1.10076</v>
+        <v>1.0896399999999999</v>
       </c>
       <c r="E157">
-        <v>1.0618300000000001</v>
+        <v>1.0713900000000001</v>
       </c>
       <c r="F157">
-        <v>1.0790200000000001</v>
+        <v>1.0837699999999999</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>1.4589999999999881</v>
+        <v>3.8929999999999909</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4424,23 +4425,23 @@
         <v>15</v>
       </c>
       <c r="B158" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C158">
-        <v>1.0851</v>
+        <v>1.08979</v>
       </c>
       <c r="D158">
-        <v>1.0920399999999999</v>
+        <v>1.10076</v>
       </c>
       <c r="E158">
-        <v>1.07745</v>
+        <v>1.0618300000000001</v>
       </c>
       <c r="F158">
-        <v>1.08222</v>
+        <v>1.0790200000000001</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>2.5419999999999998</v>
+        <v>1.4589999999999881</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4448,23 +4449,23 @@
         <v>15</v>
       </c>
       <c r="B159" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C159">
-        <v>1.1089500000000001</v>
+        <v>1.0851</v>
       </c>
       <c r="D159">
-        <v>1.10964</v>
+        <v>1.0920399999999999</v>
       </c>
       <c r="E159">
-        <v>1.08422</v>
+        <v>1.07745</v>
       </c>
       <c r="F159">
-        <v>1.0850599999999999</v>
+        <v>1.08222</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>0.81800000000000761</v>
+        <v>2.5419999999999998</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4472,23 +4473,23 @@
         <v>15</v>
       </c>
       <c r="B160" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C160">
-        <v>1.1049500000000001</v>
+        <v>1.1089500000000001</v>
       </c>
       <c r="D160">
-        <v>1.1103700000000001</v>
+        <v>1.10964</v>
       </c>
       <c r="E160">
-        <v>1.10219</v>
+        <v>1.08422</v>
       </c>
       <c r="F160">
-        <v>1.10887</v>
+        <v>1.0850599999999999</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>0.8580000000000032</v>
+        <v>0.81800000000000761</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4496,23 +4497,23 @@
         <v>15</v>
       </c>
       <c r="B161" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C161">
-        <v>1.1109500000000001</v>
+        <v>1.1049500000000001</v>
       </c>
       <c r="D161">
-        <v>1.11215</v>
+        <v>1.1103700000000001</v>
       </c>
       <c r="E161">
-        <v>1.1035699999999999</v>
+        <v>1.10219</v>
       </c>
       <c r="F161">
-        <v>1.10534</v>
+        <v>1.10887</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>1.0729999999999906</v>
+        <v>0.8580000000000032</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4520,23 +4521,23 @@
         <v>15</v>
       </c>
       <c r="B162" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C162">
-        <v>1.1023400000000001</v>
+        <v>1.1109500000000001</v>
       </c>
       <c r="D162">
-        <v>1.11266</v>
+        <v>1.11215</v>
       </c>
       <c r="E162">
-        <v>1.1019300000000001</v>
+        <v>1.1035699999999999</v>
       </c>
       <c r="F162">
-        <v>1.1116299999999999</v>
+        <v>1.10534</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>0.93499999999999694</v>
+        <v>1.0729999999999906</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4544,23 +4545,23 @@
         <v>15</v>
       </c>
       <c r="B163" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C163">
-        <v>1.1080300000000001</v>
+        <v>1.1023400000000001</v>
       </c>
       <c r="D163">
-        <v>1.1106</v>
+        <v>1.11266</v>
       </c>
       <c r="E163">
-        <v>1.1012500000000001</v>
+        <v>1.1019300000000001</v>
       </c>
       <c r="F163">
-        <v>1.1024</v>
+        <v>1.1116299999999999</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>1.3419999999999987</v>
+        <v>0.93499999999999694</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4568,23 +4569,23 @@
         <v>15</v>
       </c>
       <c r="B164" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C164">
-        <v>1.0978000000000001</v>
+        <v>1.1080300000000001</v>
       </c>
       <c r="D164">
-        <v>1.10911</v>
+        <v>1.1106</v>
       </c>
       <c r="E164">
-        <v>1.0956900000000001</v>
+        <v>1.1012500000000001</v>
       </c>
       <c r="F164">
-        <v>1.1087400000000001</v>
+        <v>1.1024</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>0.54600000000000204</v>
+        <v>1.3419999999999987</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4592,23 +4593,23 @@
         <v>15</v>
       </c>
       <c r="B165" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C165">
-        <v>1.0982400000000001</v>
+        <v>1.0978000000000001</v>
       </c>
       <c r="D165">
-        <v>1.1007400000000001</v>
+        <v>1.10911</v>
       </c>
       <c r="E165">
-        <v>1.09528</v>
+        <v>1.0956900000000001</v>
       </c>
       <c r="F165">
-        <v>1.09792</v>
+        <v>1.1087400000000001</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>1.1349999999999971</v>
+        <v>0.54600000000000204</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4616,23 +4617,23 @@
         <v>15</v>
       </c>
       <c r="B166" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C166">
-        <v>1.0912299999999999</v>
+        <v>1.0982400000000001</v>
       </c>
       <c r="D166">
-        <v>1.1013999999999999</v>
+        <v>1.1007400000000001</v>
       </c>
       <c r="E166">
-        <v>1.09005</v>
+        <v>1.09528</v>
       </c>
       <c r="F166">
-        <v>1.0984499999999999</v>
+        <v>1.09792</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>0.64199999999998703</v>
+        <v>1.1349999999999971</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4640,23 +4641,23 @@
         <v>15</v>
       </c>
       <c r="B167" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C167">
-        <v>1.0865800000000001</v>
+        <v>1.0912299999999999</v>
       </c>
       <c r="D167">
-        <v>1.09249</v>
+        <v>1.1013999999999999</v>
       </c>
       <c r="E167">
-        <v>1.0860700000000001</v>
+        <v>1.09005</v>
       </c>
       <c r="F167">
-        <v>1.0918099999999999</v>
+        <v>1.0984499999999999</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>0.8920000000000039</v>
+        <v>0.64199999999998703</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4664,23 +4665,23 @@
         <v>15</v>
       </c>
       <c r="B168" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C168">
-        <v>1.0910599999999999</v>
+        <v>1.0865800000000001</v>
       </c>
       <c r="D168">
-        <v>1.0930200000000001</v>
+        <v>1.09249</v>
       </c>
       <c r="E168">
-        <v>1.0841000000000001</v>
+        <v>1.0860700000000001</v>
       </c>
       <c r="F168">
-        <v>1.0867899999999999</v>
+        <v>1.0918099999999999</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>0.68899999999998407</v>
+        <v>0.8920000000000039</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4688,23 +4689,23 @@
         <v>15</v>
       </c>
       <c r="B169" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C169">
-        <v>1.0911599999999999</v>
+        <v>1.0910599999999999</v>
       </c>
       <c r="D169">
-        <v>1.0951299999999999</v>
+        <v>1.0930200000000001</v>
       </c>
       <c r="E169">
-        <v>1.0882400000000001</v>
+        <v>1.0841000000000001</v>
       </c>
       <c r="F169">
-        <v>1.09148</v>
+        <v>1.0867899999999999</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>0.69399999999999462</v>
+        <v>0.68899999999998407</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4712,23 +4713,23 @@
         <v>15</v>
       </c>
       <c r="B170" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C170">
-        <v>1.0925</v>
+        <v>1.0911599999999999</v>
       </c>
       <c r="D170">
-        <v>1.09412</v>
+        <v>1.0951299999999999</v>
       </c>
       <c r="E170">
-        <v>1.08718</v>
+        <v>1.0882400000000001</v>
       </c>
       <c r="F170">
-        <v>1.0907500000000001</v>
+        <v>1.09148</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>0.9039999999999937</v>
+        <v>0.69399999999999462</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4736,23 +4737,23 @@
         <v>15</v>
       </c>
       <c r="B171" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C171">
-        <v>1.09562</v>
+        <v>1.0925</v>
       </c>
       <c r="D171">
-        <v>1.09934</v>
+        <v>1.09412</v>
       </c>
       <c r="E171">
-        <v>1.0903</v>
+        <v>1.08718</v>
       </c>
       <c r="F171">
-        <v>1.09273</v>
+        <v>1.0907500000000001</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>1.3259999999999827</v>
+        <v>0.9039999999999937</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4760,23 +4761,23 @@
         <v>15</v>
       </c>
       <c r="B172" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C172">
-        <v>1.09083</v>
+        <v>1.09562</v>
       </c>
       <c r="D172">
-        <v>1.1020099999999999</v>
+        <v>1.09934</v>
       </c>
       <c r="E172">
-        <v>1.0887500000000001</v>
+        <v>1.0903</v>
       </c>
       <c r="F172">
-        <v>1.0958399999999999</v>
+        <v>1.09273</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>1.373000000000002</v>
+        <v>1.3259999999999827</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4784,23 +4785,23 @@
         <v>15</v>
       </c>
       <c r="B173" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C173">
-        <v>1.0888100000000001</v>
+        <v>1.09083</v>
       </c>
       <c r="D173">
-        <v>1.0944700000000001</v>
+        <v>1.1020099999999999</v>
       </c>
       <c r="E173">
-        <v>1.08074</v>
+        <v>1.0887500000000001</v>
       </c>
       <c r="F173">
-        <v>1.0932900000000001</v>
+        <v>1.0958399999999999</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>1.635999999999993</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4808,23 +4809,23 @@
         <v>15</v>
       </c>
       <c r="B174" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C174">
-        <v>1.0999000000000001</v>
+        <v>1.0888100000000001</v>
       </c>
       <c r="D174">
-        <v>1.10263</v>
+        <v>1.0944700000000001</v>
       </c>
       <c r="E174">
-        <v>1.0862700000000001</v>
+        <v>1.08074</v>
       </c>
       <c r="F174">
-        <v>1.0894299999999999</v>
+        <v>1.0932900000000001</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>0.86899999999998645</v>
+        <v>1.635999999999993</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4832,23 +4833,23 @@
         <v>15</v>
       </c>
       <c r="B175" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C175">
-        <v>1.0977699999999999</v>
+        <v>1.0999000000000001</v>
       </c>
       <c r="D175">
-        <v>1.1059099999999999</v>
+        <v>1.10263</v>
       </c>
       <c r="E175">
-        <v>1.0972200000000001</v>
+        <v>1.0862700000000001</v>
       </c>
       <c r="F175">
-        <v>1.1013200000000001</v>
+        <v>1.0894299999999999</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>1.4569999999999972</v>
+        <v>0.86899999999998645</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4856,23 +4857,23 @@
         <v>15</v>
       </c>
       <c r="B176" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C176">
-        <v>1.10517</v>
+        <v>1.0977699999999999</v>
       </c>
       <c r="D176">
-        <v>1.10931</v>
+        <v>1.1059099999999999</v>
       </c>
       <c r="E176">
-        <v>1.09474</v>
+        <v>1.0972200000000001</v>
       </c>
       <c r="F176">
-        <v>1.10005</v>
+        <v>1.1013200000000001</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>1.6539999999999999</v>
+        <v>1.4569999999999972</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4880,23 +4881,23 @@
         <v>15</v>
       </c>
       <c r="B177" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C177">
-        <v>1.10615</v>
+        <v>1.10517</v>
       </c>
       <c r="D177">
-        <v>1.11972</v>
+        <v>1.10931</v>
       </c>
       <c r="E177">
-        <v>1.10318</v>
+        <v>1.09474</v>
       </c>
       <c r="F177">
-        <v>1.10711</v>
+        <v>1.10005</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>2.0780000000000021</v>
+        <v>1.6539999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4904,23 +4905,23 @@
         <v>15</v>
       </c>
       <c r="B178" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C178">
-        <v>1.0963499999999999</v>
+        <v>1.10615</v>
       </c>
       <c r="D178">
-        <v>1.1163000000000001</v>
+        <v>1.11972</v>
       </c>
       <c r="E178">
-        <v>1.09552</v>
+        <v>1.10318</v>
       </c>
       <c r="F178">
-        <v>1.1080399999999999</v>
+        <v>1.10711</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>0.78599999999999781</v>
+        <v>2.0780000000000021</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4928,23 +4929,23 @@
         <v>15</v>
       </c>
       <c r="B179" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C179">
-        <v>1.0931999999999999</v>
+        <v>1.0963499999999999</v>
       </c>
       <c r="D179">
-        <v>1.0984499999999999</v>
+        <v>1.1163000000000001</v>
       </c>
       <c r="E179">
-        <v>1.0905899999999999</v>
+        <v>1.09552</v>
       </c>
       <c r="F179">
-        <v>1.0969199999999999</v>
+        <v>1.1080399999999999</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>1.4310000000000045</v>
+        <v>0.78599999999999781</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4952,23 +4953,23 @@
         <v>15</v>
       </c>
       <c r="B180" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C180">
-        <v>1.08571</v>
+        <v>1.0931999999999999</v>
       </c>
       <c r="D180">
-        <v>1.09796</v>
+        <v>1.0984499999999999</v>
       </c>
       <c r="E180">
-        <v>1.08365</v>
+        <v>1.0905899999999999</v>
       </c>
       <c r="F180">
-        <v>1.0929899999999999</v>
+        <v>1.0969199999999999</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>0.73900000000000077</v>
+        <v>1.4310000000000045</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4976,23 +4977,23 @@
         <v>15</v>
       </c>
       <c r="B181" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C181">
-        <v>1.0873600000000001</v>
+        <v>1.08571</v>
       </c>
       <c r="D181">
-        <v>1.0898600000000001</v>
+        <v>1.09796</v>
       </c>
       <c r="E181">
-        <v>1.08247</v>
+        <v>1.08365</v>
       </c>
       <c r="F181">
-        <v>1.08613</v>
+        <v>1.0929899999999999</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>1.1700000000000044</v>
+        <v>0.73900000000000077</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -5000,23 +5001,23 @@
         <v>15</v>
       </c>
       <c r="B182" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C182">
-        <v>1.07996</v>
+        <v>1.0873600000000001</v>
       </c>
       <c r="D182">
-        <v>1.0892999999999999</v>
+        <v>1.0898600000000001</v>
       </c>
       <c r="E182">
-        <v>1.0775999999999999</v>
+        <v>1.08247</v>
       </c>
       <c r="F182">
-        <v>1.08891</v>
+        <v>1.08613</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>0.74899999999999967</v>
+        <v>1.1700000000000044</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5024,23 +5025,23 @@
         <v>15</v>
       </c>
       <c r="B183" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C183">
-        <v>1.0773299999999999</v>
+        <v>1.07996</v>
       </c>
       <c r="D183">
-        <v>1.08443</v>
+        <v>1.0892999999999999</v>
       </c>
       <c r="E183">
-        <v>1.07694</v>
+        <v>1.0775999999999999</v>
       </c>
       <c r="F183">
-        <v>1.0812900000000001</v>
+        <v>1.08891</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>0.8920000000000039</v>
+        <v>0.74899999999999967</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5048,23 +5049,23 @@
         <v>15</v>
       </c>
       <c r="B184" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C184">
-        <v>1.0803499999999999</v>
+        <v>1.0773299999999999</v>
       </c>
       <c r="D184">
-        <v>1.08426</v>
+        <v>1.08443</v>
       </c>
       <c r="E184">
-        <v>1.07534</v>
+        <v>1.07694</v>
       </c>
       <c r="F184">
-        <v>1.07802</v>
+        <v>1.0812900000000001</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>0.82900000000001306</v>
+        <v>0.8920000000000039</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5072,23 +5073,23 @@
         <v>15</v>
       </c>
       <c r="B185" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C185">
-        <v>1.08379</v>
+        <v>1.0803499999999999</v>
       </c>
       <c r="D185">
-        <v>1.0874900000000001</v>
+        <v>1.08426</v>
       </c>
       <c r="E185">
-        <v>1.0791999999999999</v>
+        <v>1.07534</v>
       </c>
       <c r="F185">
-        <v>1.0802099999999999</v>
+        <v>1.07802</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>1.4739999999999975</v>
+        <v>0.82900000000001306</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5096,23 +5097,23 @@
         <v>15</v>
       </c>
       <c r="B186" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C186">
-        <v>1.0903400000000001</v>
+        <v>1.08379</v>
       </c>
       <c r="D186">
-        <v>1.0934999999999999</v>
+        <v>1.0874900000000001</v>
       </c>
       <c r="E186">
-        <v>1.0787599999999999</v>
+        <v>1.0791999999999999</v>
       </c>
       <c r="F186">
-        <v>1.08352</v>
+        <v>1.0802099999999999</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>1.1619999999999964</v>
+        <v>1.4739999999999975</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5120,23 +5121,23 @@
         <v>15</v>
       </c>
       <c r="B187" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C187">
-        <v>1.0845199999999999</v>
+        <v>1.0903400000000001</v>
       </c>
       <c r="D187">
-        <v>1.0924499999999999</v>
+        <v>1.0934999999999999</v>
       </c>
       <c r="E187">
-        <v>1.08083</v>
+        <v>1.0787599999999999</v>
       </c>
       <c r="F187">
-        <v>1.0905499999999999</v>
+        <v>1.08352</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.2590000000000101</v>
+        <v>1.1619999999999964</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5144,23 +5145,23 @@
         <v>15</v>
       </c>
       <c r="B188" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C188">
-        <v>1.0796699999999999</v>
+        <v>1.0845199999999999</v>
       </c>
       <c r="D188">
-        <v>1.0897600000000001</v>
+        <v>1.0924499999999999</v>
       </c>
       <c r="E188">
-        <v>1.07717</v>
+        <v>1.08083</v>
       </c>
       <c r="F188">
-        <v>1.08405</v>
+        <v>1.0905499999999999</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>0.74899999999999967</v>
+        <v>1.2590000000000101</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5168,23 +5169,23 @@
         <v>15</v>
       </c>
       <c r="B189" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C189">
-        <v>1.0780000000000001</v>
+        <v>1.0796699999999999</v>
       </c>
       <c r="D189">
-        <v>1.0828100000000001</v>
+        <v>1.0897600000000001</v>
       </c>
       <c r="E189">
-        <v>1.0753200000000001</v>
+        <v>1.07717</v>
       </c>
       <c r="F189">
-        <v>1.08266</v>
+        <v>1.08405</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>1.6310000000000047</v>
+        <v>0.74899999999999967</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5192,23 +5193,23 @@
         <v>15</v>
       </c>
       <c r="B190" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C190">
-        <v>1.0868800000000001</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="D190">
-        <v>1.08887</v>
+        <v>1.0828100000000001</v>
       </c>
       <c r="E190">
-        <v>1.07256</v>
+        <v>1.0753200000000001</v>
       </c>
       <c r="F190">
-        <v>1.0800099999999999</v>
+        <v>1.08266</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>1.4479999999999826</v>
+        <v>1.6310000000000047</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5216,23 +5217,23 @@
         <v>15</v>
       </c>
       <c r="B191" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C191">
-        <v>1.07701</v>
+        <v>1.0868800000000001</v>
       </c>
       <c r="D191">
-        <v>1.0912999999999999</v>
+        <v>1.08887</v>
       </c>
       <c r="E191">
-        <v>1.0768200000000001</v>
+        <v>1.07256</v>
       </c>
       <c r="F191">
-        <v>1.0854699999999999</v>
+        <v>1.0800099999999999</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>1.411999999999991</v>
+        <v>1.4479999999999826</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5240,23 +5241,23 @@
         <v>15</v>
       </c>
       <c r="B192" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C192">
-        <v>1.08229</v>
+        <v>1.07701</v>
       </c>
       <c r="D192">
-        <v>1.0894699999999999</v>
+        <v>1.0912999999999999</v>
       </c>
       <c r="E192">
-        <v>1.07535</v>
+        <v>1.0768200000000001</v>
       </c>
       <c r="F192">
-        <v>1.07806</v>
+        <v>1.0854699999999999</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>1.6690000000000094</v>
+        <v>1.411999999999991</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5264,23 +5265,23 @@
         <v>15</v>
       </c>
       <c r="B193" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C193">
-        <v>1.0908599999999999</v>
+        <v>1.08229</v>
       </c>
       <c r="D193">
-        <v>1.0944700000000001</v>
+        <v>1.0894699999999999</v>
       </c>
       <c r="E193">
-        <v>1.07778</v>
+        <v>1.07535</v>
       </c>
       <c r="F193">
-        <v>1.0820000000000001</v>
+        <v>1.07806</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>0.82599999999999341</v>
+        <v>1.6690000000000094</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5288,23 +5289,23 @@
         <v>15</v>
       </c>
       <c r="B194" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C194">
-        <v>1.0889599999999999</v>
+        <v>1.0908599999999999</v>
       </c>
       <c r="D194">
-        <v>1.0943099999999999</v>
+        <v>1.0944700000000001</v>
       </c>
       <c r="E194">
-        <v>1.08605</v>
+        <v>1.07778</v>
       </c>
       <c r="F194">
-        <v>1.09135</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>0.94499999999999584</v>
+        <v>0.82599999999999341</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5312,23 +5313,23 @@
         <v>15</v>
       </c>
       <c r="B195" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C195">
-        <v>1.0946</v>
+        <v>1.0889599999999999</v>
       </c>
       <c r="D195">
-        <v>1.09656</v>
+        <v>1.0943099999999999</v>
       </c>
       <c r="E195">
-        <v>1.08711</v>
+        <v>1.08605</v>
       </c>
       <c r="F195">
-        <v>1.08938</v>
+        <v>1.09135</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>1.5980000000000105</v>
+        <v>0.94499999999999584</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5336,23 +5337,23 @@
         <v>15</v>
       </c>
       <c r="B196" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C196">
-        <v>1.09355</v>
+        <v>1.0946</v>
       </c>
       <c r="D196">
-        <v>1.09782</v>
+        <v>1.09656</v>
       </c>
       <c r="E196">
-        <v>1.0818399999999999</v>
+        <v>1.08711</v>
       </c>
       <c r="F196">
-        <v>1.0958399999999999</v>
+        <v>1.08938</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>1.1199999999999877</v>
+        <v>1.5980000000000105</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5360,23 +5361,23 @@
         <v>15</v>
       </c>
       <c r="B197" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C197">
-        <v>1.0975299999999999</v>
+        <v>1.09355</v>
       </c>
       <c r="D197">
-        <v>1.1007199999999999</v>
+        <v>1.09782</v>
       </c>
       <c r="E197">
-        <v>1.08952</v>
+        <v>1.0818399999999999</v>
       </c>
       <c r="F197">
-        <v>1.09267</v>
+        <v>1.0958399999999999</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>2.2009999999999863</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5384,23 +5385,23 @@
         <v>15</v>
       </c>
       <c r="B198" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C198">
-        <v>1.0833999999999999</v>
+        <v>1.0975299999999999</v>
       </c>
       <c r="D198">
-        <v>1.1044499999999999</v>
+        <v>1.1007199999999999</v>
       </c>
       <c r="E198">
-        <v>1.0824400000000001</v>
+        <v>1.08952</v>
       </c>
       <c r="F198">
-        <v>1.0974600000000001</v>
+        <v>1.09267</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>1.4799999999999924</v>
+        <v>2.2009999999999863</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5408,23 +5409,23 @@
         <v>15</v>
       </c>
       <c r="B199" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C199">
-        <v>1.0763199999999999</v>
+        <v>1.0833999999999999</v>
       </c>
       <c r="D199">
-        <v>1.08982</v>
+        <v>1.1044499999999999</v>
       </c>
       <c r="E199">
-        <v>1.0750200000000001</v>
+        <v>1.0824400000000001</v>
       </c>
       <c r="F199">
-        <v>1.0835399999999999</v>
+        <v>1.0974600000000001</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>1.4749999999999819</v>
+        <v>1.4799999999999924</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5432,19 +5433,19 @@
         <v>15</v>
       </c>
       <c r="B200" s="8">
-        <v>40778</v>
+        <v>40785</v>
       </c>
       <c r="C200">
-        <v>1.0774900000000001</v>
+        <v>1.0763199999999999</v>
       </c>
       <c r="D200">
-        <v>1.0875999999999999</v>
+        <v>1.08982</v>
       </c>
       <c r="E200">
-        <v>1.0728500000000001</v>
+        <v>1.0750200000000001</v>
       </c>
       <c r="F200">
-        <v>1.0753600000000001</v>
+        <v>1.0835399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/xls/15_EURCHF.xlsx
+++ b/volatility/src/xls/15_EURCHF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="13620" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="2">
-        <v>110</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -554,26 +554,26 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>1.0379999999999945</v>
+        <v>1.0190000000000032</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>43791</v>
+        <v>53383</v>
       </c>
       <c r="E6" s="5">
-        <v>111</v>
+        <v>111.2</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.113</v>
+        <v>1.115</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.123</v>
+        <v>1.125</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.103</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.107</v>
+        <v>1.109</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.097</v>
+        <v>1.099</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.117</v>
+        <v>1.119</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,13 +620,11 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -669,11 +667,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.6529999999999934</v>
+        <v>0.8319999999999883</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>1.0379999999999945</v>
+        <v>1.0190000000000032</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -681,23 +679,23 @@
         <v>15</v>
       </c>
       <c r="B2" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C2">
-        <v>1.1190100000000001</v>
+        <v>1.10934</v>
       </c>
       <c r="D2">
-        <v>1.1219699999999999</v>
+        <v>1.1143099999999999</v>
       </c>
       <c r="E2">
-        <v>1.10544</v>
+        <v>1.10599</v>
       </c>
       <c r="F2">
-        <v>1.1098600000000001</v>
+        <v>1.1099300000000001</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>0.79199999999999271</v>
+        <v>1.6529999999999934</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -705,23 +703,23 @@
         <v>15</v>
       </c>
       <c r="B3" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C3">
-        <v>1.11957</v>
+        <v>1.1190100000000001</v>
       </c>
       <c r="D3">
-        <v>1.1262099999999999</v>
+        <v>1.1219699999999999</v>
       </c>
       <c r="E3">
-        <v>1.11829</v>
+        <v>1.10544</v>
       </c>
       <c r="F3">
-        <v>1.11931</v>
+        <v>1.1098600000000001</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0.87500000000000355</v>
+        <v>0.79199999999999271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -729,23 +727,23 @@
         <v>15</v>
       </c>
       <c r="B4" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C4">
-        <v>1.1176600000000001</v>
+        <v>1.11957</v>
       </c>
       <c r="D4">
-        <v>1.1204700000000001</v>
+        <v>1.1262099999999999</v>
       </c>
       <c r="E4">
-        <v>1.11172</v>
+        <v>1.11829</v>
       </c>
       <c r="F4">
-        <v>1.11883</v>
+        <v>1.11931</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.0729999999999906</v>
+        <v>0.87500000000000355</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -753,23 +751,23 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C5">
-        <v>1.1225400000000001</v>
+        <v>1.1176600000000001</v>
       </c>
       <c r="D5">
-        <v>1.12761</v>
+        <v>1.1204700000000001</v>
       </c>
       <c r="E5">
-        <v>1.1168800000000001</v>
+        <v>1.11172</v>
       </c>
       <c r="F5">
-        <v>1.1178399999999999</v>
+        <v>1.11883</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.97400000000000819</v>
+        <v>1.0729999999999906</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -777,23 +775,23 @@
         <v>15</v>
       </c>
       <c r="B6" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C6">
-        <v>1.1280699999999999</v>
+        <v>1.1225400000000001</v>
       </c>
       <c r="D6">
-        <v>1.1290500000000001</v>
+        <v>1.12761</v>
       </c>
       <c r="E6">
-        <v>1.11931</v>
+        <v>1.1168800000000001</v>
       </c>
       <c r="F6">
-        <v>1.12225</v>
+        <v>1.1178399999999999</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.0079999999999867</v>
+        <v>0.97400000000000819</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -801,23 +799,23 @@
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C7">
-        <v>1.13517</v>
+        <v>1.1280699999999999</v>
       </c>
       <c r="D7">
-        <v>1.1362699999999999</v>
+        <v>1.1290500000000001</v>
       </c>
       <c r="E7">
-        <v>1.12619</v>
+        <v>1.11931</v>
       </c>
       <c r="F7">
-        <v>1.12774</v>
+        <v>1.12225</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.79799999999998761</v>
+        <v>1.0079999999999867</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -825,23 +823,23 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C8">
-        <v>1.13622</v>
+        <v>1.13517</v>
       </c>
       <c r="D8">
-        <v>1.1437299999999999</v>
+        <v>1.1362699999999999</v>
       </c>
       <c r="E8">
-        <v>1.13575</v>
+        <v>1.12619</v>
       </c>
       <c r="F8">
-        <v>1.13584</v>
+        <v>1.12774</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.84699999999999775</v>
+        <v>0.79799999999998761</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -849,23 +847,23 @@
         <v>15</v>
       </c>
       <c r="B9" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C9">
-        <v>1.13581</v>
+        <v>1.13622</v>
       </c>
       <c r="D9">
-        <v>1.14428</v>
+        <v>1.1437299999999999</v>
       </c>
       <c r="E9">
-        <v>1.13581</v>
+        <v>1.13575</v>
       </c>
       <c r="F9">
-        <v>1.13846</v>
+        <v>1.13584</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.2539999999999996</v>
+        <v>0.84699999999999775</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -873,23 +871,23 @@
         <v>15</v>
       </c>
       <c r="B10" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C10">
-        <v>1.1397299999999999</v>
+        <v>1.13581</v>
       </c>
       <c r="D10">
-        <v>1.1474</v>
+        <v>1.14428</v>
       </c>
       <c r="E10">
-        <v>1.13486</v>
+        <v>1.13581</v>
       </c>
       <c r="F10">
-        <v>1.13618</v>
+        <v>1.13846</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.98200000000001619</v>
+        <v>1.2539999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -897,23 +895,23 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C11">
-        <v>1.1323799999999999</v>
+        <v>1.1397299999999999</v>
       </c>
       <c r="D11">
-        <v>1.1419600000000001</v>
+        <v>1.1474</v>
       </c>
       <c r="E11">
-        <v>1.1321399999999999</v>
+        <v>1.13486</v>
       </c>
       <c r="F11">
-        <v>1.1403099999999999</v>
+        <v>1.13618</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.2070000000000025</v>
+        <v>0.98200000000001619</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -921,23 +919,23 @@
         <v>15</v>
       </c>
       <c r="B12" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C12">
-        <v>1.1211899999999999</v>
+        <v>1.1323799999999999</v>
       </c>
       <c r="D12">
-        <v>1.13293</v>
+        <v>1.1419600000000001</v>
       </c>
       <c r="E12">
-        <v>1.12086</v>
+        <v>1.1321399999999999</v>
       </c>
       <c r="F12">
-        <v>1.1327700000000001</v>
+        <v>1.1403099999999999</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.72599999999998222</v>
+        <v>1.2070000000000025</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -945,23 +943,23 @@
         <v>15</v>
       </c>
       <c r="B13" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C13">
-        <v>1.11697</v>
+        <v>1.1211899999999999</v>
       </c>
       <c r="D13">
-        <v>1.1237299999999999</v>
+        <v>1.13293</v>
       </c>
       <c r="E13">
-        <v>1.1164700000000001</v>
+        <v>1.12086</v>
       </c>
       <c r="F13">
-        <v>1.12138</v>
+        <v>1.1327700000000001</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.93499999999999694</v>
+        <v>0.72599999999998222</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -969,23 +967,23 @@
         <v>15</v>
       </c>
       <c r="B14" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C14">
-        <v>1.1222300000000001</v>
+        <v>1.11697</v>
       </c>
       <c r="D14">
-        <v>1.12547</v>
+        <v>1.1237299999999999</v>
       </c>
       <c r="E14">
-        <v>1.11612</v>
+        <v>1.1164700000000001</v>
       </c>
       <c r="F14">
-        <v>1.1164799999999999</v>
+        <v>1.12138</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.5329999999999844</v>
+        <v>0.93499999999999694</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -993,23 +991,23 @@
         <v>15</v>
       </c>
       <c r="B15" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C15">
-        <v>1.13435</v>
+        <v>1.1222300000000001</v>
       </c>
       <c r="D15">
-        <v>1.1363099999999999</v>
+        <v>1.12547</v>
       </c>
       <c r="E15">
-        <v>1.1209800000000001</v>
+        <v>1.11612</v>
       </c>
       <c r="F15">
-        <v>1.1225400000000001</v>
+        <v>1.1164799999999999</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.69499999999997897</v>
+        <v>1.5329999999999844</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1017,23 +1015,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C16">
-        <v>1.1321000000000001</v>
+        <v>1.13435</v>
       </c>
       <c r="D16">
-        <v>1.1382699999999999</v>
+        <v>1.1363099999999999</v>
       </c>
       <c r="E16">
-        <v>1.1313200000000001</v>
+        <v>1.1209800000000001</v>
       </c>
       <c r="F16">
-        <v>1.13443</v>
+        <v>1.1225400000000001</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.61599999999999433</v>
+        <v>0.69499999999997897</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1041,23 +1039,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C17">
-        <v>1.13571</v>
+        <v>1.1321000000000001</v>
       </c>
       <c r="D17">
-        <v>1.13672</v>
+        <v>1.1382699999999999</v>
       </c>
       <c r="E17">
-        <v>1.13056</v>
+        <v>1.1313200000000001</v>
       </c>
       <c r="F17">
-        <v>1.13215</v>
+        <v>1.13443</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.66299999999999137</v>
+        <v>0.61599999999999433</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1065,23 +1063,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C18">
-        <v>1.1331</v>
+        <v>1.13571</v>
       </c>
       <c r="D18">
-        <v>1.13913</v>
+        <v>1.13672</v>
       </c>
       <c r="E18">
-        <v>1.1325000000000001</v>
+        <v>1.13056</v>
       </c>
       <c r="F18">
-        <v>1.13523</v>
+        <v>1.13215</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0.43600000000001415</v>
+        <v>0.66299999999999137</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1089,23 +1087,23 @@
         <v>15</v>
       </c>
       <c r="B19" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C19">
-        <v>1.1343700000000001</v>
+        <v>1.1331</v>
       </c>
       <c r="D19">
-        <v>1.13714</v>
+        <v>1.13913</v>
       </c>
       <c r="E19">
-        <v>1.1327799999999999</v>
+        <v>1.1325000000000001</v>
       </c>
       <c r="F19">
-        <v>1.13348</v>
+        <v>1.13523</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.1359999999999815</v>
+        <v>0.43600000000001415</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1113,23 +1111,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C20">
-        <v>1.1320699999999999</v>
+        <v>1.1343700000000001</v>
       </c>
       <c r="D20">
-        <v>1.1420999999999999</v>
+        <v>1.13714</v>
       </c>
       <c r="E20">
-        <v>1.1307400000000001</v>
+        <v>1.1327799999999999</v>
       </c>
       <c r="F20">
-        <v>1.13476</v>
+        <v>1.13348</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.2160000000000171</v>
+        <v>1.1359999999999815</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1137,23 +1135,23 @@
         <v>15</v>
       </c>
       <c r="B21" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C21">
-        <v>1.1397200000000001</v>
+        <v>1.1320699999999999</v>
       </c>
       <c r="D21">
-        <v>1.1441600000000001</v>
+        <v>1.1420999999999999</v>
       </c>
       <c r="E21">
-        <v>1.1319999999999999</v>
+        <v>1.1307400000000001</v>
       </c>
       <c r="F21">
-        <v>1.1320600000000001</v>
+        <v>1.13476</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.1870000000000047</v>
+        <v>1.2160000000000171</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1161,23 +1159,23 @@
         <v>15</v>
       </c>
       <c r="B22" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C22">
-        <v>1.13246</v>
+        <v>1.1397200000000001</v>
       </c>
       <c r="D22">
-        <v>1.14266</v>
+        <v>1.1441600000000001</v>
       </c>
       <c r="E22">
-        <v>1.13079</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="F22">
-        <v>1.13998</v>
+        <v>1.1320600000000001</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.88099999999999845</v>
+        <v>1.1870000000000047</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1185,23 +1183,23 @@
         <v>15</v>
       </c>
       <c r="B23" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C23">
-        <v>1.1305499999999999</v>
+        <v>1.13246</v>
       </c>
       <c r="D23">
-        <v>1.1345000000000001</v>
+        <v>1.14266</v>
       </c>
       <c r="E23">
-        <v>1.1256900000000001</v>
+        <v>1.13079</v>
       </c>
       <c r="F23">
-        <v>1.1328800000000001</v>
+        <v>1.13998</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.9260000000000046</v>
+        <v>0.88099999999999845</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1209,23 +1207,23 @@
         <v>15</v>
       </c>
       <c r="B24" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C24">
-        <v>1.1281399999999999</v>
+        <v>1.1305499999999999</v>
       </c>
       <c r="D24">
-        <v>1.1335500000000001</v>
+        <v>1.1345000000000001</v>
       </c>
       <c r="E24">
-        <v>1.12429</v>
+        <v>1.1256900000000001</v>
       </c>
       <c r="F24">
-        <v>1.1313899999999999</v>
+        <v>1.1328800000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1.3090000000000046</v>
+        <v>0.9260000000000046</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1233,23 +1231,23 @@
         <v>15</v>
       </c>
       <c r="B25" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C25">
-        <v>1.1242700000000001</v>
+        <v>1.1281399999999999</v>
       </c>
       <c r="D25">
-        <v>1.1337900000000001</v>
+        <v>1.1335500000000001</v>
       </c>
       <c r="E25">
-        <v>1.1207</v>
+        <v>1.12429</v>
       </c>
       <c r="F25">
-        <v>1.12782</v>
+        <v>1.1313899999999999</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1.419999999999999</v>
+        <v>1.3090000000000046</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1257,23 +1255,23 @@
         <v>15</v>
       </c>
       <c r="B26" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C26">
-        <v>1.1250599999999999</v>
+        <v>1.1242700000000001</v>
       </c>
       <c r="D26">
-        <v>1.12845</v>
+        <v>1.1337900000000001</v>
       </c>
       <c r="E26">
-        <v>1.11425</v>
+        <v>1.1207</v>
       </c>
       <c r="F26">
-        <v>1.12422</v>
+        <v>1.12782</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1.2969999999999926</v>
+        <v>1.419999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1281,23 +1279,23 @@
         <v>15</v>
       </c>
       <c r="B27" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C27">
-        <v>1.1303700000000001</v>
+        <v>1.1250599999999999</v>
       </c>
       <c r="D27">
-        <v>1.1342399999999999</v>
+        <v>1.12845</v>
       </c>
       <c r="E27">
-        <v>1.12127</v>
+        <v>1.11425</v>
       </c>
       <c r="F27">
-        <v>1.12598</v>
+        <v>1.12422</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1.0110000000000063</v>
+        <v>1.2969999999999926</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1305,23 +1303,23 @@
         <v>15</v>
       </c>
       <c r="B28" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C28">
-        <v>1.1265000000000001</v>
+        <v>1.1303700000000001</v>
       </c>
       <c r="D28">
-        <v>1.1347100000000001</v>
+        <v>1.1342399999999999</v>
       </c>
       <c r="E28">
-        <v>1.1246</v>
+        <v>1.12127</v>
       </c>
       <c r="F28">
-        <v>1.1308199999999999</v>
+        <v>1.12598</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0.83099999999998175</v>
+        <v>1.0110000000000063</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1329,23 +1327,23 @@
         <v>15</v>
       </c>
       <c r="B29" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C29">
-        <v>1.12829</v>
+        <v>1.1265000000000001</v>
       </c>
       <c r="D29">
-        <v>1.1305799999999999</v>
+        <v>1.1347100000000001</v>
       </c>
       <c r="E29">
-        <v>1.1222700000000001</v>
+        <v>1.1246</v>
       </c>
       <c r="F29">
-        <v>1.12846</v>
+        <v>1.1308199999999999</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0.67800000000000082</v>
+        <v>0.83099999999998175</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1353,23 +1351,23 @@
         <v>15</v>
       </c>
       <c r="B30" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C30">
-        <v>1.13303</v>
+        <v>1.12829</v>
       </c>
       <c r="D30">
-        <v>1.13463</v>
+        <v>1.1305799999999999</v>
       </c>
       <c r="E30">
-        <v>1.12785</v>
+        <v>1.1222700000000001</v>
       </c>
       <c r="F30">
-        <v>1.1283300000000001</v>
+        <v>1.12846</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0.96000000000000529</v>
+        <v>0.67800000000000082</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1377,23 +1375,23 @@
         <v>15</v>
       </c>
       <c r="B31" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C31">
-        <v>1.13039</v>
+        <v>1.13303</v>
       </c>
       <c r="D31">
-        <v>1.13548</v>
+        <v>1.13463</v>
       </c>
       <c r="E31">
-        <v>1.12588</v>
+        <v>1.12785</v>
       </c>
       <c r="F31">
-        <v>1.13019</v>
+        <v>1.1283300000000001</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.2210000000000054</v>
+        <v>0.96000000000000529</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1401,23 +1399,23 @@
         <v>15</v>
       </c>
       <c r="B32" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C32">
-        <v>1.1401300000000001</v>
+        <v>1.13039</v>
       </c>
       <c r="D32">
-        <v>1.1415</v>
+        <v>1.13548</v>
       </c>
       <c r="E32">
-        <v>1.1292899999999999</v>
+        <v>1.12588</v>
       </c>
       <c r="F32">
-        <v>1.1303700000000001</v>
+        <v>1.13019</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.0040000000000049</v>
+        <v>1.2210000000000054</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1425,23 +1423,23 @@
         <v>15</v>
       </c>
       <c r="B33" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C33">
-        <v>1.1379600000000001</v>
+        <v>1.1401300000000001</v>
       </c>
       <c r="D33">
-        <v>1.1432500000000001</v>
+        <v>1.1415</v>
       </c>
       <c r="E33">
-        <v>1.1332100000000001</v>
+        <v>1.1292899999999999</v>
       </c>
       <c r="F33">
-        <v>1.1408700000000001</v>
+        <v>1.1303700000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>0.873999999999997</v>
+        <v>1.0040000000000049</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1449,23 +1447,23 @@
         <v>15</v>
       </c>
       <c r="B34" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C34">
-        <v>1.14215</v>
+        <v>1.1379600000000001</v>
       </c>
       <c r="D34">
-        <v>1.14682</v>
+        <v>1.1432500000000001</v>
       </c>
       <c r="E34">
-        <v>1.13808</v>
+        <v>1.1332100000000001</v>
       </c>
       <c r="F34">
-        <v>1.1396599999999999</v>
+        <v>1.1408700000000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0.8960000000000079</v>
+        <v>0.873999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1473,23 +1471,23 @@
         <v>15</v>
       </c>
       <c r="B35" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C35">
-        <v>1.1371199999999999</v>
+        <v>1.14215</v>
       </c>
       <c r="D35">
-        <v>1.14527</v>
+        <v>1.14682</v>
       </c>
       <c r="E35">
-        <v>1.1363099999999999</v>
+        <v>1.13808</v>
       </c>
       <c r="F35">
-        <v>1.1430199999999999</v>
+        <v>1.1396599999999999</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>1.5819999999999945</v>
+        <v>0.8960000000000079</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1497,23 +1495,23 @@
         <v>15</v>
       </c>
       <c r="B36" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C36">
-        <v>1.1457599999999999</v>
+        <v>1.1371199999999999</v>
       </c>
       <c r="D36">
-        <v>1.14988</v>
+        <v>1.14527</v>
       </c>
       <c r="E36">
-        <v>1.1340600000000001</v>
+        <v>1.1363099999999999</v>
       </c>
       <c r="F36">
-        <v>1.1362300000000001</v>
+        <v>1.1430199999999999</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0.99899999999999434</v>
+        <v>1.5819999999999945</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1521,23 +1519,23 @@
         <v>15</v>
       </c>
       <c r="B37" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C37">
-        <v>1.14456</v>
+        <v>1.1457599999999999</v>
       </c>
       <c r="D37">
-        <v>1.14896</v>
+        <v>1.14988</v>
       </c>
       <c r="E37">
-        <v>1.13897</v>
+        <v>1.1340600000000001</v>
       </c>
       <c r="F37">
-        <v>1.1469499999999999</v>
+        <v>1.1362300000000001</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.2320000000000109</v>
+        <v>0.99899999999999434</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1545,23 +1543,23 @@
         <v>15</v>
       </c>
       <c r="B38" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C38">
-        <v>1.1422399999999999</v>
+        <v>1.14456</v>
       </c>
       <c r="D38">
-        <v>1.149</v>
+        <v>1.14896</v>
       </c>
       <c r="E38">
-        <v>1.1366799999999999</v>
+        <v>1.13897</v>
       </c>
       <c r="F38">
-        <v>1.1460300000000001</v>
+        <v>1.1469499999999999</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.3740000000000085</v>
+        <v>1.2320000000000109</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1569,23 +1567,23 @@
         <v>15</v>
       </c>
       <c r="B39" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C39">
-        <v>1.13794</v>
+        <v>1.1422399999999999</v>
       </c>
       <c r="D39">
-        <v>1.1447700000000001</v>
+        <v>1.149</v>
       </c>
       <c r="E39">
-        <v>1.13103</v>
+        <v>1.1366799999999999</v>
       </c>
       <c r="F39">
-        <v>1.1431899999999999</v>
+        <v>1.1460300000000001</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.6379999999999839</v>
+        <v>1.3740000000000085</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1593,23 +1591,23 @@
         <v>15</v>
       </c>
       <c r="B40" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C40">
-        <v>1.1256600000000001</v>
+        <v>1.13794</v>
       </c>
       <c r="D40">
-        <v>1.1412599999999999</v>
+        <v>1.1447700000000001</v>
       </c>
       <c r="E40">
-        <v>1.1248800000000001</v>
+        <v>1.13103</v>
       </c>
       <c r="F40">
-        <v>1.139</v>
+        <v>1.1431899999999999</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.0559999999999903</v>
+        <v>1.6379999999999839</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1617,23 +1615,23 @@
         <v>15</v>
       </c>
       <c r="B41" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C41">
+        <v>1.1256600000000001</v>
+      </c>
+      <c r="D41">
+        <v>1.1412599999999999</v>
+      </c>
+      <c r="E41">
         <v>1.1248800000000001</v>
       </c>
-      <c r="D41">
-        <v>1.1325099999999999</v>
-      </c>
-      <c r="E41">
-        <v>1.12195</v>
-      </c>
       <c r="F41">
-        <v>1.12602</v>
+        <v>1.139</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.5859999999999985</v>
+        <v>1.0559999999999903</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1641,23 +1639,23 @@
         <v>15</v>
       </c>
       <c r="B42" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C42">
-        <v>1.1191899999999999</v>
+        <v>1.1248800000000001</v>
       </c>
       <c r="D42">
-        <v>1.13415</v>
+        <v>1.1325099999999999</v>
       </c>
       <c r="E42">
-        <v>1.11829</v>
+        <v>1.12195</v>
       </c>
       <c r="F42">
-        <v>1.12401</v>
+        <v>1.12602</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1.3719999999999954</v>
+        <v>1.5859999999999985</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1665,23 +1663,23 @@
         <v>15</v>
       </c>
       <c r="B43" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C43">
-        <v>1.1240600000000001</v>
+        <v>1.1191899999999999</v>
       </c>
       <c r="D43">
-        <v>1.13182</v>
+        <v>1.13415</v>
       </c>
       <c r="E43">
-        <v>1.1181000000000001</v>
+        <v>1.11829</v>
       </c>
       <c r="F43">
-        <v>1.11937</v>
+        <v>1.12401</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>2.1490000000000009</v>
+        <v>1.3719999999999954</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1689,23 +1687,23 @@
         <v>15</v>
       </c>
       <c r="B44" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C44">
-        <v>1.1424700000000001</v>
+        <v>1.1240600000000001</v>
       </c>
       <c r="D44">
-        <v>1.1451899999999999</v>
+        <v>1.13182</v>
       </c>
       <c r="E44">
-        <v>1.1236999999999999</v>
+        <v>1.1181000000000001</v>
       </c>
       <c r="F44">
-        <v>1.1246400000000001</v>
+        <v>1.11937</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>0.75700000000000767</v>
+        <v>2.1490000000000009</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1713,23 +1711,23 @@
         <v>15</v>
       </c>
       <c r="B45" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C45">
-        <v>1.1380300000000001</v>
+        <v>1.1424700000000001</v>
       </c>
       <c r="D45">
-        <v>1.14273</v>
+        <v>1.1451899999999999</v>
       </c>
       <c r="E45">
-        <v>1.1351599999999999</v>
+        <v>1.1236999999999999</v>
       </c>
       <c r="F45">
-        <v>1.1423000000000001</v>
+        <v>1.1246400000000001</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.5109999999999957</v>
+        <v>0.75700000000000767</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1737,23 +1735,23 @@
         <v>15</v>
       </c>
       <c r="B46" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C46">
-        <v>1.13062</v>
+        <v>1.1380300000000001</v>
       </c>
       <c r="D46">
-        <v>1.13924</v>
+        <v>1.14273</v>
       </c>
       <c r="E46">
-        <v>1.1241300000000001</v>
+        <v>1.1351599999999999</v>
       </c>
       <c r="F46">
-        <v>1.13849</v>
+        <v>1.1423000000000001</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>2.1770000000000067</v>
+        <v>1.5109999999999957</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1761,23 +1759,23 @@
         <v>15</v>
       </c>
       <c r="B47" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C47">
-        <v>1.1499900000000001</v>
+        <v>1.13062</v>
       </c>
       <c r="D47">
-        <v>1.15554</v>
+        <v>1.13924</v>
       </c>
       <c r="E47">
-        <v>1.1337699999999999</v>
+        <v>1.1241300000000001</v>
       </c>
       <c r="F47">
-        <v>1.1361000000000001</v>
+        <v>1.13849</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.0679999999999801</v>
+        <v>2.1770000000000067</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1785,23 +1783,23 @@
         <v>15</v>
       </c>
       <c r="B48" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C48">
-        <v>1.15889</v>
+        <v>1.1499900000000001</v>
       </c>
       <c r="D48">
-        <v>1.1601999999999999</v>
+        <v>1.15554</v>
       </c>
       <c r="E48">
-        <v>1.1495200000000001</v>
+        <v>1.1337699999999999</v>
       </c>
       <c r="F48">
-        <v>1.1498200000000001</v>
+        <v>1.1361000000000001</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>0.74799999999999311</v>
+        <v>1.0679999999999801</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1809,23 +1807,23 @@
         <v>15</v>
       </c>
       <c r="B49" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C49">
-        <v>1.1628099999999999</v>
+        <v>1.15889</v>
       </c>
       <c r="D49">
-        <v>1.1639699999999999</v>
+        <v>1.1601999999999999</v>
       </c>
       <c r="E49">
-        <v>1.15649</v>
+        <v>1.1495200000000001</v>
       </c>
       <c r="F49">
-        <v>1.15944</v>
+        <v>1.1498200000000001</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.114000000000015</v>
+        <v>0.74799999999999311</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1833,23 +1831,23 @@
         <v>15</v>
       </c>
       <c r="B50" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C50">
-        <v>1.1695599999999999</v>
+        <v>1.1628099999999999</v>
       </c>
       <c r="D50">
-        <v>1.17117</v>
+        <v>1.1639699999999999</v>
       </c>
       <c r="E50">
-        <v>1.1600299999999999</v>
+        <v>1.15649</v>
       </c>
       <c r="F50">
-        <v>1.16262</v>
+        <v>1.15944</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.0270000000000001</v>
+        <v>1.114000000000015</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1857,23 +1855,23 @@
         <v>15</v>
       </c>
       <c r="B51" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C51">
-        <v>1.1622300000000001</v>
+        <v>1.1695599999999999</v>
       </c>
       <c r="D51">
-        <v>1.1706300000000001</v>
+        <v>1.17117</v>
       </c>
       <c r="E51">
-        <v>1.1603600000000001</v>
+        <v>1.1600299999999999</v>
       </c>
       <c r="F51">
-        <v>1.17021</v>
+        <v>1.16262</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.0489999999999888</v>
+        <v>1.0270000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1881,23 +1879,23 @@
         <v>15</v>
       </c>
       <c r="B52" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C52">
-        <v>1.1558299999999999</v>
+        <v>1.1622300000000001</v>
       </c>
       <c r="D52">
-        <v>1.16374</v>
+        <v>1.1706300000000001</v>
       </c>
       <c r="E52">
-        <v>1.1532500000000001</v>
+        <v>1.1603600000000001</v>
       </c>
       <c r="F52">
-        <v>1.1630100000000001</v>
+        <v>1.17021</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.1089999999999822</v>
+        <v>1.0489999999999888</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1905,23 +1903,23 @@
         <v>15</v>
       </c>
       <c r="B53" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C53">
-        <v>1.1524000000000001</v>
+        <v>1.1558299999999999</v>
       </c>
       <c r="D53">
-        <v>1.1598299999999999</v>
+        <v>1.16374</v>
       </c>
       <c r="E53">
-        <v>1.1487400000000001</v>
+        <v>1.1532500000000001</v>
       </c>
       <c r="F53">
-        <v>1.1569</v>
+        <v>1.1630100000000001</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>0.92399999999999149</v>
+        <v>1.1089999999999822</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1929,23 +1927,23 @@
         <v>15</v>
       </c>
       <c r="B54" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C54">
-        <v>1.1559299999999999</v>
+        <v>1.1524000000000001</v>
       </c>
       <c r="D54">
-        <v>1.1569799999999999</v>
+        <v>1.1598299999999999</v>
       </c>
       <c r="E54">
-        <v>1.14774</v>
+        <v>1.1487400000000001</v>
       </c>
       <c r="F54">
-        <v>1.1512</v>
+        <v>1.1569</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.3149999999999995</v>
+        <v>0.92399999999999149</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1953,23 +1951,23 @@
         <v>15</v>
       </c>
       <c r="B55" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C55">
-        <v>1.1590199999999999</v>
+        <v>1.1559299999999999</v>
       </c>
       <c r="D55">
-        <v>1.1654599999999999</v>
+        <v>1.1569799999999999</v>
       </c>
       <c r="E55">
-        <v>1.1523099999999999</v>
+        <v>1.14774</v>
       </c>
       <c r="F55">
-        <v>1.1570100000000001</v>
+        <v>1.1512</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>1.3369999999999882</v>
+        <v>1.3149999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1977,23 +1975,23 @@
         <v>15</v>
       </c>
       <c r="B56" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C56">
-        <v>1.15283</v>
+        <v>1.1590199999999999</v>
       </c>
       <c r="D56">
-        <v>1.16377</v>
+        <v>1.1654599999999999</v>
       </c>
       <c r="E56">
-        <v>1.1504000000000001</v>
+        <v>1.1523099999999999</v>
       </c>
       <c r="F56">
-        <v>1.1589700000000001</v>
+        <v>1.1570100000000001</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.6049999999999907</v>
+        <v>1.3369999999999882</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -2001,23 +1999,23 @@
         <v>15</v>
       </c>
       <c r="B57" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C57">
-        <v>1.1596299999999999</v>
+        <v>1.15283</v>
       </c>
       <c r="D57">
-        <v>1.1626399999999999</v>
+        <v>1.16377</v>
       </c>
       <c r="E57">
-        <v>1.13659</v>
+        <v>1.1504000000000001</v>
       </c>
       <c r="F57">
-        <v>1.15198</v>
+        <v>1.1589700000000001</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.3249999999999993</v>
+        <v>2.6049999999999907</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2025,23 +2023,23 @@
         <v>15</v>
       </c>
       <c r="B58" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C58">
-        <v>1.1736500000000001</v>
+        <v>1.1596299999999999</v>
       </c>
       <c r="D58">
-        <v>1.1769099999999999</v>
+        <v>1.1626399999999999</v>
       </c>
       <c r="E58">
-        <v>1.1536599999999999</v>
+        <v>1.13659</v>
       </c>
       <c r="F58">
-        <v>1.15463</v>
+        <v>1.15198</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.5020000000000042</v>
+        <v>2.3249999999999993</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2049,23 +2047,23 @@
         <v>15</v>
       </c>
       <c r="B59" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C59">
-        <v>1.19404</v>
+        <v>1.1736500000000001</v>
       </c>
       <c r="D59">
-        <v>1.1977800000000001</v>
+        <v>1.1769099999999999</v>
       </c>
       <c r="E59">
-        <v>1.17276</v>
+        <v>1.1536599999999999</v>
       </c>
       <c r="F59">
-        <v>1.1736</v>
+        <v>1.15463</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.1370000000000102</v>
+        <v>2.5020000000000042</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2073,23 +2071,23 @@
         <v>15</v>
       </c>
       <c r="B60" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C60">
-        <v>1.1957500000000001</v>
+        <v>1.19404</v>
       </c>
       <c r="D60">
-        <v>1.19774</v>
+        <v>1.1977800000000001</v>
       </c>
       <c r="E60">
-        <v>1.1863699999999999</v>
+        <v>1.17276</v>
       </c>
       <c r="F60">
-        <v>1.19478</v>
+        <v>1.1736</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>0.52699999999998859</v>
+        <v>1.1370000000000102</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2097,23 +2095,23 @@
         <v>15</v>
       </c>
       <c r="B61" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C61">
-        <v>1.1977100000000001</v>
+        <v>1.1957500000000001</v>
       </c>
       <c r="D61">
-        <v>1.1985399999999999</v>
+        <v>1.19774</v>
       </c>
       <c r="E61">
-        <v>1.1932700000000001</v>
+        <v>1.1863699999999999</v>
       </c>
       <c r="F61">
-        <v>1.19648</v>
+        <v>1.19478</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>0.72100000000001607</v>
+        <v>0.52699999999998859</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2121,23 +2119,23 @@
         <v>15</v>
       </c>
       <c r="B62" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C62">
-        <v>1.1975</v>
+        <v>1.1977100000000001</v>
       </c>
       <c r="D62">
-        <v>1.1994800000000001</v>
+        <v>1.1985399999999999</v>
       </c>
       <c r="E62">
-        <v>1.1922699999999999</v>
+        <v>1.1932700000000001</v>
       </c>
       <c r="F62">
-        <v>1.1978</v>
+        <v>1.19648</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.4049999999999896</v>
+        <v>0.72100000000001607</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2145,23 +2143,23 @@
         <v>15</v>
       </c>
       <c r="B63" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C63">
-        <v>1.18634</v>
+        <v>1.1975</v>
       </c>
       <c r="D63">
-        <v>1.20031</v>
+        <v>1.1994800000000001</v>
       </c>
       <c r="E63">
-        <v>1.1862600000000001</v>
+        <v>1.1922699999999999</v>
       </c>
       <c r="F63">
-        <v>1.1977</v>
+        <v>1.1978</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.2319999999999887</v>
+        <v>1.4049999999999896</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2169,23 +2167,23 @@
         <v>15</v>
       </c>
       <c r="B64" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C64">
-        <v>1.17682</v>
+        <v>1.18634</v>
       </c>
       <c r="D64">
-        <v>1.18875</v>
+        <v>1.20031</v>
       </c>
       <c r="E64">
-        <v>1.1764300000000001</v>
+        <v>1.1862600000000001</v>
       </c>
       <c r="F64">
-        <v>1.1863600000000001</v>
+        <v>1.1977</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>0.68000000000001393</v>
+        <v>1.2319999999999887</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2193,23 +2191,23 @@
         <v>15</v>
       </c>
       <c r="B65" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C65">
-        <v>1.1751199999999999</v>
+        <v>1.17682</v>
       </c>
       <c r="D65">
-        <v>1.1802900000000001</v>
+        <v>1.18875</v>
       </c>
       <c r="E65">
-        <v>1.1734899999999999</v>
+        <v>1.1764300000000001</v>
       </c>
       <c r="F65">
-        <v>1.1776199999999999</v>
+        <v>1.1863600000000001</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.1390000000000011</v>
+        <v>0.68000000000001393</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2217,23 +2215,23 @@
         <v>15</v>
       </c>
       <c r="B66" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C66">
-        <v>1.1692800000000001</v>
+        <v>1.1751199999999999</v>
       </c>
       <c r="D66">
-        <v>1.18011</v>
+        <v>1.1802900000000001</v>
       </c>
       <c r="E66">
-        <v>1.16872</v>
+        <v>1.1734899999999999</v>
       </c>
       <c r="F66">
-        <v>1.1752800000000001</v>
+        <v>1.1776199999999999</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>0.98000000000000309</v>
+        <v>1.1390000000000011</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2241,23 +2239,23 @@
         <v>15</v>
       </c>
       <c r="B67" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C67">
-        <v>1.1698999999999999</v>
+        <v>1.1692800000000001</v>
       </c>
       <c r="D67">
-        <v>1.1746799999999999</v>
+        <v>1.18011</v>
       </c>
       <c r="E67">
-        <v>1.1648799999999999</v>
+        <v>1.16872</v>
       </c>
       <c r="F67">
-        <v>1.17038</v>
+        <v>1.1752800000000001</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>0.41999999999999815</v>
+        <v>0.98000000000000309</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2265,23 +2263,23 @@
         <v>15</v>
       </c>
       <c r="B68" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C68">
-        <v>1.1708400000000001</v>
+        <v>1.1698999999999999</v>
       </c>
       <c r="D68">
-        <v>1.17134</v>
+        <v>1.1746799999999999</v>
       </c>
       <c r="E68">
-        <v>1.1671400000000001</v>
+        <v>1.1648799999999999</v>
       </c>
       <c r="F68">
-        <v>1.1698</v>
+        <v>1.17038</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>2.3129999999999873</v>
+        <v>0.41999999999999815</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2289,23 +2287,23 @@
         <v>15</v>
       </c>
       <c r="B69" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C69">
-        <v>1.15435</v>
+        <v>1.1708400000000001</v>
       </c>
       <c r="D69">
-        <v>1.17394</v>
+        <v>1.17134</v>
       </c>
       <c r="E69">
-        <v>1.1508100000000001</v>
+        <v>1.1671400000000001</v>
       </c>
       <c r="F69">
-        <v>1.17055</v>
+        <v>1.1698</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>0.80299999999999816</v>
+        <v>2.3129999999999873</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2313,23 +2311,23 @@
         <v>15</v>
       </c>
       <c r="B70" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C70">
-        <v>1.1510800000000001</v>
+        <v>1.15435</v>
       </c>
       <c r="D70">
-        <v>1.1560900000000001</v>
+        <v>1.17394</v>
       </c>
       <c r="E70">
-        <v>1.1480600000000001</v>
+        <v>1.1508100000000001</v>
       </c>
       <c r="F70">
-        <v>1.15516</v>
+        <v>1.17055</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>0.69400000000001683</v>
+        <v>0.80299999999999816</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2337,23 +2335,23 @@
         <v>15</v>
       </c>
       <c r="B71" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C71">
-        <v>1.1511800000000001</v>
+        <v>1.1510800000000001</v>
       </c>
       <c r="D71">
-        <v>1.1558200000000001</v>
+        <v>1.1560900000000001</v>
       </c>
       <c r="E71">
-        <v>1.1488799999999999</v>
+        <v>1.1480600000000001</v>
       </c>
       <c r="F71">
-        <v>1.1512100000000001</v>
+        <v>1.15516</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>0.98100000000000964</v>
+        <v>0.69400000000001683</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2361,23 +2359,23 @@
         <v>15</v>
       </c>
       <c r="B72" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C72">
-        <v>1.15049</v>
+        <v>1.1511800000000001</v>
       </c>
       <c r="D72">
-        <v>1.1582600000000001</v>
+        <v>1.1558200000000001</v>
       </c>
       <c r="E72">
-        <v>1.14845</v>
+        <v>1.1488799999999999</v>
       </c>
       <c r="F72">
-        <v>1.15055</v>
+        <v>1.1512100000000001</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>1.9290000000000029</v>
+        <v>0.98100000000000964</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2385,23 +2383,23 @@
         <v>15</v>
       </c>
       <c r="B73" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C73">
-        <v>1.1601399999999999</v>
+        <v>1.15049</v>
       </c>
       <c r="D73">
-        <v>1.16374</v>
+        <v>1.1582600000000001</v>
       </c>
       <c r="E73">
-        <v>1.14445</v>
+        <v>1.14845</v>
       </c>
       <c r="F73">
-        <v>1.15065</v>
+        <v>1.15055</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>0.96400000000000929</v>
+        <v>1.9290000000000029</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2409,23 +2407,23 @@
         <v>15</v>
       </c>
       <c r="B74" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C74">
-        <v>1.1609499999999999</v>
+        <v>1.1601399999999999</v>
       </c>
       <c r="D74">
-        <v>1.16351</v>
+        <v>1.16374</v>
       </c>
       <c r="E74">
-        <v>1.15387</v>
+        <v>1.14445</v>
       </c>
       <c r="F74">
-        <v>1.15985</v>
+        <v>1.15065</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>2.1029999999999882</v>
+        <v>0.96400000000000929</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2433,23 +2431,23 @@
         <v>15</v>
       </c>
       <c r="B75" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C75">
-        <v>1.17862</v>
+        <v>1.1609499999999999</v>
       </c>
       <c r="D75">
-        <v>1.1795599999999999</v>
+        <v>1.16351</v>
       </c>
       <c r="E75">
-        <v>1.1585300000000001</v>
+        <v>1.15387</v>
       </c>
       <c r="F75">
-        <v>1.1596200000000001</v>
+        <v>1.15985</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.2109999999999843</v>
+        <v>2.1029999999999882</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2457,23 +2455,23 @@
         <v>15</v>
       </c>
       <c r="B76" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C76">
-        <v>1.17997</v>
+        <v>1.17862</v>
       </c>
       <c r="D76">
-        <v>1.1830499999999999</v>
+        <v>1.1795599999999999</v>
       </c>
       <c r="E76">
-        <v>1.1709400000000001</v>
+        <v>1.1585300000000001</v>
       </c>
       <c r="F76">
-        <v>1.1771499999999999</v>
+        <v>1.1596200000000001</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.265000000000005</v>
+        <v>1.2109999999999843</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2481,23 +2479,23 @@
         <v>15</v>
       </c>
       <c r="B77" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C77">
-        <v>1.17245</v>
+        <v>1.17997</v>
       </c>
       <c r="D77">
-        <v>1.1807700000000001</v>
+        <v>1.1830499999999999</v>
       </c>
       <c r="E77">
-        <v>1.16812</v>
+        <v>1.1709400000000001</v>
       </c>
       <c r="F77">
-        <v>1.17987</v>
+        <v>1.1771499999999999</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>0.9140000000000148</v>
+        <v>1.265000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2505,23 +2503,23 @@
         <v>15</v>
       </c>
       <c r="B78" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C78">
-        <v>1.16953</v>
+        <v>1.17245</v>
       </c>
       <c r="D78">
-        <v>1.17761</v>
+        <v>1.1807700000000001</v>
       </c>
       <c r="E78">
-        <v>1.1684699999999999</v>
+        <v>1.16812</v>
       </c>
       <c r="F78">
-        <v>1.17265</v>
+        <v>1.17987</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>1.0550000000000059</v>
+        <v>0.9140000000000148</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2529,23 +2527,23 @@
         <v>15</v>
       </c>
       <c r="B79" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C79">
-        <v>1.1714100000000001</v>
+        <v>1.16953</v>
       </c>
       <c r="D79">
-        <v>1.17746</v>
+        <v>1.17761</v>
       </c>
       <c r="E79">
-        <v>1.1669099999999999</v>
+        <v>1.1684699999999999</v>
       </c>
       <c r="F79">
-        <v>1.1692800000000001</v>
+        <v>1.17265</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>1.424000000000003</v>
+        <v>1.0550000000000059</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2553,23 +2551,23 @@
         <v>15</v>
       </c>
       <c r="B80" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C80">
-        <v>1.1638900000000001</v>
+        <v>1.1714100000000001</v>
       </c>
       <c r="D80">
-        <v>1.17479</v>
+        <v>1.17746</v>
       </c>
       <c r="E80">
-        <v>1.16055</v>
+        <v>1.1669099999999999</v>
       </c>
       <c r="F80">
-        <v>1.1732899999999999</v>
+        <v>1.1692800000000001</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>0.85299999999999265</v>
+        <v>1.424000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2577,23 +2575,23 @@
         <v>15</v>
       </c>
       <c r="B81" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C81">
-        <v>1.1692100000000001</v>
+        <v>1.1638900000000001</v>
       </c>
       <c r="D81">
-        <v>1.1702399999999999</v>
+        <v>1.17479</v>
       </c>
       <c r="E81">
-        <v>1.16171</v>
+        <v>1.16055</v>
       </c>
       <c r="F81">
-        <v>1.1631</v>
+        <v>1.1732899999999999</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>0.90500000000000025</v>
+        <v>0.85299999999999265</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2601,23 +2599,23 @@
         <v>15</v>
       </c>
       <c r="B82" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C82">
-        <v>1.1636200000000001</v>
+        <v>1.1692100000000001</v>
       </c>
       <c r="D82">
-        <v>1.1717299999999999</v>
+        <v>1.1702399999999999</v>
       </c>
       <c r="E82">
-        <v>1.1626799999999999</v>
+        <v>1.16171</v>
       </c>
       <c r="F82">
-        <v>1.1678999999999999</v>
+        <v>1.1631</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>1.3830000000000009</v>
+        <v>0.90500000000000025</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2625,23 +2623,23 @@
         <v>15</v>
       </c>
       <c r="B83" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C83">
-        <v>1.1681999999999999</v>
+        <v>1.1636200000000001</v>
       </c>
       <c r="D83">
-        <v>1.1734599999999999</v>
+        <v>1.1717299999999999</v>
       </c>
       <c r="E83">
-        <v>1.1596299999999999</v>
+        <v>1.1626799999999999</v>
       </c>
       <c r="F83">
-        <v>1.16143</v>
+        <v>1.1678999999999999</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.1199999999999877</v>
+        <v>1.3830000000000009</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2649,23 +2647,23 @@
         <v>15</v>
       </c>
       <c r="B84" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C84">
-        <v>1.1658299999999999</v>
+        <v>1.1681999999999999</v>
       </c>
       <c r="D84">
-        <v>1.1695199999999999</v>
+        <v>1.1734599999999999</v>
       </c>
       <c r="E84">
-        <v>1.15832</v>
+        <v>1.1596299999999999</v>
       </c>
       <c r="F84">
-        <v>1.16876</v>
+        <v>1.16143</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.3919999999999932</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2673,23 +2671,23 @@
         <v>15</v>
       </c>
       <c r="B85" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C85">
-        <v>1.1603300000000001</v>
+        <v>1.1658299999999999</v>
       </c>
       <c r="D85">
-        <v>1.17205</v>
+        <v>1.1695199999999999</v>
       </c>
       <c r="E85">
-        <v>1.1581300000000001</v>
+        <v>1.15832</v>
       </c>
       <c r="F85">
-        <v>1.1657299999999999</v>
+        <v>1.16876</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>0.98000000000000309</v>
+        <v>1.3919999999999932</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2697,23 +2695,23 @@
         <v>15</v>
       </c>
       <c r="B86" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C86">
-        <v>1.1609499999999999</v>
+        <v>1.1603300000000001</v>
       </c>
       <c r="D86">
-        <v>1.1638299999999999</v>
+        <v>1.17205</v>
       </c>
       <c r="E86">
-        <v>1.1540299999999999</v>
+        <v>1.1581300000000001</v>
       </c>
       <c r="F86">
-        <v>1.1613599999999999</v>
+        <v>1.1657299999999999</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>0.93599999999998129</v>
+        <v>0.98000000000000309</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2721,23 +2719,23 @@
         <v>15</v>
       </c>
       <c r="B87" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C87">
-        <v>1.1575500000000001</v>
+        <v>1.1609499999999999</v>
       </c>
       <c r="D87">
-        <v>1.1661999999999999</v>
+        <v>1.1638299999999999</v>
       </c>
       <c r="E87">
-        <v>1.1568400000000001</v>
+        <v>1.1540299999999999</v>
       </c>
       <c r="F87">
-        <v>1.1611800000000001</v>
+        <v>1.1613599999999999</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>1.5149999999999997</v>
+        <v>0.93599999999998129</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2745,23 +2743,23 @@
         <v>15</v>
       </c>
       <c r="B88" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C88">
-        <v>1.1591899999999999</v>
+        <v>1.1575500000000001</v>
       </c>
       <c r="D88">
-        <v>1.1709400000000001</v>
+        <v>1.1661999999999999</v>
       </c>
       <c r="E88">
-        <v>1.1557900000000001</v>
+        <v>1.1568400000000001</v>
       </c>
       <c r="F88">
-        <v>1.1573</v>
+        <v>1.1611800000000001</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.4490000000000114</v>
+        <v>1.5149999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2769,23 +2767,23 @@
         <v>15</v>
       </c>
       <c r="B89" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C89">
-        <v>1.15126</v>
+        <v>1.1591899999999999</v>
       </c>
       <c r="D89">
-        <v>1.16273</v>
+        <v>1.1709400000000001</v>
       </c>
       <c r="E89">
-        <v>1.1482399999999999</v>
+        <v>1.1557900000000001</v>
       </c>
       <c r="F89">
-        <v>1.15937</v>
+        <v>1.1573</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009</v>
+        <v>1.4490000000000114</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2793,23 +2791,23 @@
         <v>15</v>
       </c>
       <c r="B90" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C90">
-        <v>1.1473</v>
+        <v>1.15126</v>
       </c>
       <c r="D90">
-        <v>1.1563600000000001</v>
+        <v>1.16273</v>
       </c>
       <c r="E90">
-        <v>1.14636</v>
+        <v>1.1482399999999999</v>
       </c>
       <c r="F90">
-        <v>1.1518999999999999</v>
+        <v>1.15937</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.102000000000003</v>
+        <v>1.0000000000000009</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2817,23 +2815,23 @@
         <v>15</v>
       </c>
       <c r="B91" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C91">
-        <v>1.1430400000000001</v>
+        <v>1.1473</v>
       </c>
       <c r="D91">
-        <v>1.1496200000000001</v>
+        <v>1.1563600000000001</v>
       </c>
       <c r="E91">
-        <v>1.1386000000000001</v>
+        <v>1.14636</v>
       </c>
       <c r="F91">
-        <v>1.14734</v>
+        <v>1.1518999999999999</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.8259999999999943</v>
+        <v>1.102000000000003</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2841,23 +2839,23 @@
         <v>15</v>
       </c>
       <c r="B92" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C92">
-        <v>1.15611</v>
+        <v>1.1430400000000001</v>
       </c>
       <c r="D92">
-        <v>1.1588499999999999</v>
+        <v>1.1496200000000001</v>
       </c>
       <c r="E92">
-        <v>1.14059</v>
+        <v>1.1386000000000001</v>
       </c>
       <c r="F92">
-        <v>1.14405</v>
+        <v>1.14734</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.7249999999999988</v>
+        <v>1.8259999999999943</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2865,23 +2863,23 @@
         <v>15</v>
       </c>
       <c r="B93" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C93">
-        <v>1.14653</v>
+        <v>1.15611</v>
       </c>
       <c r="D93">
-        <v>1.16212</v>
+        <v>1.1588499999999999</v>
       </c>
       <c r="E93">
-        <v>1.1448700000000001</v>
+        <v>1.14059</v>
       </c>
       <c r="F93">
-        <v>1.1584700000000001</v>
+        <v>1.14405</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.5339999999999909</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2889,23 +2887,23 @@
         <v>15</v>
       </c>
       <c r="B94" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C94">
-        <v>1.13794</v>
+        <v>1.14653</v>
       </c>
       <c r="D94">
-        <v>1.1527099999999999</v>
+        <v>1.16212</v>
       </c>
       <c r="E94">
-        <v>1.13737</v>
+        <v>1.1448700000000001</v>
       </c>
       <c r="F94">
-        <v>1.1461399999999999</v>
+        <v>1.1584700000000001</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.1959999999999971</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2913,23 +2911,23 @@
         <v>15</v>
       </c>
       <c r="B95" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C95">
-        <v>1.13937</v>
+        <v>1.13794</v>
       </c>
       <c r="D95">
-        <v>1.1479900000000001</v>
+        <v>1.1527099999999999</v>
       </c>
       <c r="E95">
-        <v>1.1360300000000001</v>
+        <v>1.13737</v>
       </c>
       <c r="F95">
-        <v>1.13609</v>
+        <v>1.1461399999999999</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.1199999999999877</v>
+        <v>1.1959999999999971</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2937,23 +2935,23 @@
         <v>15</v>
       </c>
       <c r="B96" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C96">
-        <v>1.14029</v>
+        <v>1.13937</v>
       </c>
       <c r="D96">
-        <v>1.1470199999999999</v>
+        <v>1.1479900000000001</v>
       </c>
       <c r="E96">
-        <v>1.1358200000000001</v>
+        <v>1.1360300000000001</v>
       </c>
       <c r="F96">
-        <v>1.14402</v>
+        <v>1.13609</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.0219999999999896</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2961,23 +2959,23 @@
         <v>15</v>
       </c>
       <c r="B97" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C97">
-        <v>1.13449</v>
+        <v>1.14029</v>
       </c>
       <c r="D97">
-        <v>1.14211</v>
+        <v>1.1470199999999999</v>
       </c>
       <c r="E97">
-        <v>1.1318900000000001</v>
+        <v>1.1358200000000001</v>
       </c>
       <c r="F97">
-        <v>1.1402300000000001</v>
+        <v>1.14402</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>2.1900000000000031</v>
+        <v>1.0219999999999896</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2985,23 +2983,23 @@
         <v>15</v>
       </c>
       <c r="B98" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C98">
-        <v>1.1373599999999999</v>
+        <v>1.13449</v>
       </c>
       <c r="D98">
-        <v>1.14757</v>
+        <v>1.14211</v>
       </c>
       <c r="E98">
-        <v>1.1256699999999999</v>
+        <v>1.1318900000000001</v>
       </c>
       <c r="F98">
-        <v>1.1343799999999999</v>
+        <v>1.1402300000000001</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>2.4159999999999959</v>
+        <v>2.1900000000000031</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3009,23 +3007,23 @@
         <v>15</v>
       </c>
       <c r="B99" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C99">
-        <v>1.1453100000000001</v>
+        <v>1.1373599999999999</v>
       </c>
       <c r="D99">
-        <v>1.1499999999999999</v>
+        <v>1.14757</v>
       </c>
       <c r="E99">
-        <v>1.12584</v>
+        <v>1.1256699999999999</v>
       </c>
       <c r="F99">
-        <v>1.1372</v>
+        <v>1.1343799999999999</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>2.0199999999999996</v>
+        <v>2.4159999999999959</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3033,23 +3031,23 @@
         <v>15</v>
       </c>
       <c r="B100" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C100">
-        <v>1.1386499999999999</v>
+        <v>1.1453100000000001</v>
       </c>
       <c r="D100">
-        <v>1.15354</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E100">
-        <v>1.13334</v>
+        <v>1.12584</v>
       </c>
       <c r="F100">
-        <v>1.14551</v>
+        <v>1.1372</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>3.9939999999999864</v>
+        <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3057,23 +3055,23 @@
         <v>15</v>
       </c>
       <c r="B101" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C101">
-        <v>1.1025499999999999</v>
+        <v>1.1386499999999999</v>
       </c>
       <c r="D101">
-        <v>1.1404399999999999</v>
+        <v>1.15354</v>
       </c>
       <c r="E101">
-        <v>1.1005</v>
+        <v>1.13334</v>
       </c>
       <c r="F101">
-        <v>1.1390100000000001</v>
+        <v>1.14551</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>1.0080000000000089</v>
+        <v>3.9939999999999864</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3081,23 +3079,23 @@
         <v>15</v>
       </c>
       <c r="B102" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C102">
-        <v>1.10456</v>
+        <v>1.1025499999999999</v>
       </c>
       <c r="D102">
-        <v>1.1086</v>
+        <v>1.1404399999999999</v>
       </c>
       <c r="E102">
-        <v>1.0985199999999999</v>
+        <v>1.1005</v>
       </c>
       <c r="F102">
-        <v>1.1031899999999999</v>
+        <v>1.1390100000000001</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>0.88900000000000645</v>
+        <v>1.0080000000000089</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3105,23 +3103,23 @@
         <v>15</v>
       </c>
       <c r="B103" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C103">
-        <v>1.09839</v>
+        <v>1.10456</v>
       </c>
       <c r="D103">
-        <v>1.1071</v>
+        <v>1.1086</v>
       </c>
       <c r="E103">
-        <v>1.0982099999999999</v>
+        <v>1.0985199999999999</v>
       </c>
       <c r="F103">
-        <v>1.10459</v>
+        <v>1.1031899999999999</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>0.76500000000001567</v>
+        <v>0.88900000000000645</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3129,23 +3127,23 @@
         <v>15</v>
       </c>
       <c r="B104" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C104">
-        <v>1.0946899999999999</v>
+        <v>1.09839</v>
       </c>
       <c r="D104">
-        <v>1.0997600000000001</v>
+        <v>1.1071</v>
       </c>
       <c r="E104">
-        <v>1.0921099999999999</v>
+        <v>1.0982099999999999</v>
       </c>
       <c r="F104">
-        <v>1.0985199999999999</v>
+        <v>1.10459</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>1.081999999999983</v>
+        <v>0.76500000000001567</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3153,23 +3151,23 @@
         <v>15</v>
       </c>
       <c r="B105" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C105">
-        <v>1.0847100000000001</v>
+        <v>1.0946899999999999</v>
       </c>
       <c r="D105">
-        <v>1.0951599999999999</v>
+        <v>1.0997600000000001</v>
       </c>
       <c r="E105">
-        <v>1.0843400000000001</v>
+        <v>1.0921099999999999</v>
       </c>
       <c r="F105">
-        <v>1.09457</v>
+        <v>1.0985199999999999</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0.75899999999999856</v>
+        <v>1.081999999999983</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3177,23 +3175,23 @@
         <v>15</v>
       </c>
       <c r="B106" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C106">
-        <v>1.0893200000000001</v>
+        <v>1.0847100000000001</v>
       </c>
       <c r="D106">
-        <v>1.09066</v>
+        <v>1.0951599999999999</v>
       </c>
       <c r="E106">
-        <v>1.08307</v>
+        <v>1.0843400000000001</v>
       </c>
       <c r="F106">
-        <v>1.08544</v>
+        <v>1.09457</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>0.69399999999999462</v>
+        <v>0.75899999999999856</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3201,23 +3199,23 @@
         <v>15</v>
       </c>
       <c r="B107" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C107">
-        <v>1.0854200000000001</v>
+        <v>1.0893200000000001</v>
       </c>
       <c r="D107">
-        <v>1.0906400000000001</v>
+        <v>1.09066</v>
       </c>
       <c r="E107">
-        <v>1.0837000000000001</v>
+        <v>1.08307</v>
       </c>
       <c r="F107">
-        <v>1.0900399999999999</v>
+        <v>1.08544</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>0.38300000000000001</v>
+        <v>0.69399999999999462</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3225,23 +3223,23 @@
         <v>15</v>
       </c>
       <c r="B108" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C108">
-        <v>1.0857000000000001</v>
+        <v>1.0854200000000001</v>
       </c>
       <c r="D108">
-        <v>1.0873900000000001</v>
+        <v>1.0906400000000001</v>
       </c>
       <c r="E108">
-        <v>1.0835600000000001</v>
+        <v>1.0837000000000001</v>
       </c>
       <c r="F108">
-        <v>1.0848800000000001</v>
+        <v>1.0900399999999999</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>0.56499999999999329</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3249,23 +3247,23 @@
         <v>15</v>
       </c>
       <c r="B109" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C109">
-        <v>1.0891299999999999</v>
+        <v>1.0857000000000001</v>
       </c>
       <c r="D109">
-        <v>1.09117</v>
+        <v>1.0873900000000001</v>
       </c>
       <c r="E109">
-        <v>1.08552</v>
+        <v>1.0835600000000001</v>
       </c>
       <c r="F109">
-        <v>1.0855600000000001</v>
+        <v>1.0848800000000001</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>0.69799999999999862</v>
+        <v>0.56499999999999329</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3273,23 +3271,23 @@
         <v>15</v>
       </c>
       <c r="B110" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C110">
-        <v>1.08965</v>
+        <v>1.0891299999999999</v>
       </c>
       <c r="D110">
-        <v>1.09463</v>
+        <v>1.09117</v>
       </c>
       <c r="E110">
-        <v>1.08765</v>
+        <v>1.08552</v>
       </c>
       <c r="F110">
-        <v>1.08924</v>
+        <v>1.0855600000000001</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>0.9400000000000075</v>
+        <v>0.69799999999999862</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3297,23 +3295,23 @@
         <v>15</v>
       </c>
       <c r="B111" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C111">
-        <v>1.09321</v>
+        <v>1.08965</v>
       </c>
       <c r="D111">
-        <v>1.09575</v>
+        <v>1.09463</v>
       </c>
       <c r="E111">
-        <v>1.0863499999999999</v>
+        <v>1.08765</v>
       </c>
       <c r="F111">
-        <v>1.0901099999999999</v>
+        <v>1.08924</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>1.3749999999999929</v>
+        <v>0.9400000000000075</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3321,23 +3319,23 @@
         <v>15</v>
       </c>
       <c r="B112" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C112">
-        <v>1.0877300000000001</v>
+        <v>1.09321</v>
       </c>
       <c r="D112">
-        <v>1.09849</v>
+        <v>1.09575</v>
       </c>
       <c r="E112">
-        <v>1.08474</v>
+        <v>1.0863499999999999</v>
       </c>
       <c r="F112">
-        <v>1.0940099999999999</v>
+        <v>1.0901099999999999</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>0.81099999999998396</v>
+        <v>1.3749999999999929</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3345,23 +3343,23 @@
         <v>15</v>
       </c>
       <c r="B113" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C113">
-        <v>1.08324</v>
+        <v>1.0877300000000001</v>
       </c>
       <c r="D113">
-        <v>1.0870899999999999</v>
+        <v>1.09849</v>
       </c>
       <c r="E113">
-        <v>1.0789800000000001</v>
+        <v>1.08474</v>
       </c>
       <c r="F113">
-        <v>1.0859300000000001</v>
+        <v>1.0940099999999999</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>0.89299999999998825</v>
+        <v>0.81099999999998396</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3369,23 +3367,23 @@
         <v>15</v>
       </c>
       <c r="B114" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C114">
-        <v>1.0790900000000001</v>
+        <v>1.08324</v>
       </c>
       <c r="D114">
-        <v>1.08673</v>
+        <v>1.0870899999999999</v>
       </c>
       <c r="E114">
-        <v>1.0778000000000001</v>
+        <v>1.0789800000000001</v>
       </c>
       <c r="F114">
-        <v>1.0839099999999999</v>
+        <v>1.0859300000000001</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>0.57300000000000129</v>
+        <v>0.89299999999998825</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3393,23 +3391,23 @@
         <v>15</v>
       </c>
       <c r="B115" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C115">
-        <v>1.06612</v>
+        <v>1.0790900000000001</v>
       </c>
       <c r="D115">
-        <v>1.07175</v>
+        <v>1.08673</v>
       </c>
       <c r="E115">
-        <v>1.06602</v>
+        <v>1.0778000000000001</v>
       </c>
       <c r="F115">
-        <v>1.0680000000000001</v>
+        <v>1.0839099999999999</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>0.44599999999999085</v>
+        <v>0.57300000000000129</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3417,23 +3415,23 @@
         <v>15</v>
       </c>
       <c r="B116" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C116">
-        <v>1.0679099999999999</v>
+        <v>1.06612</v>
       </c>
       <c r="D116">
-        <v>1.06975</v>
+        <v>1.07175</v>
       </c>
       <c r="E116">
-        <v>1.0652900000000001</v>
+        <v>1.06602</v>
       </c>
       <c r="F116">
-        <v>1.0660400000000001</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>0.56300000000000239</v>
+        <v>0.44599999999999085</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3441,23 +3439,23 @@
         <v>15</v>
       </c>
       <c r="B117" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C117">
-        <v>1.06854</v>
+        <v>1.0679099999999999</v>
       </c>
       <c r="D117">
-        <v>1.0723400000000001</v>
+        <v>1.06975</v>
       </c>
       <c r="E117">
-        <v>1.06671</v>
+        <v>1.0652900000000001</v>
       </c>
       <c r="F117">
-        <v>1.0686199999999999</v>
+        <v>1.0660400000000001</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>0.51499999999999879</v>
+        <v>0.56300000000000239</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3465,23 +3463,23 @@
         <v>15</v>
       </c>
       <c r="B118" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C118">
-        <v>1.0711999999999999</v>
+        <v>1.06854</v>
       </c>
       <c r="D118">
-        <v>1.0732999999999999</v>
+        <v>1.0723400000000001</v>
       </c>
       <c r="E118">
-        <v>1.0681499999999999</v>
+        <v>1.06671</v>
       </c>
       <c r="F118">
-        <v>1.0683400000000001</v>
+        <v>1.0686199999999999</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>0.75499999999999456</v>
+        <v>0.51499999999999879</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3489,23 +3487,23 @@
         <v>15</v>
       </c>
       <c r="B119" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C119">
-        <v>1.0707500000000001</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="D119">
-        <v>1.0759399999999999</v>
+        <v>1.0732999999999999</v>
       </c>
       <c r="E119">
-        <v>1.06839</v>
+        <v>1.0681499999999999</v>
       </c>
       <c r="F119">
-        <v>1.07016</v>
+        <v>1.0683400000000001</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>1.4090000000000158</v>
+        <v>0.75499999999999456</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3513,23 +3511,23 @@
         <v>15</v>
       </c>
       <c r="B120" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C120">
-        <v>1.07863</v>
+        <v>1.0707500000000001</v>
       </c>
       <c r="D120">
-        <v>1.0822400000000001</v>
+        <v>1.0759399999999999</v>
       </c>
       <c r="E120">
-        <v>1.0681499999999999</v>
+        <v>1.06839</v>
       </c>
       <c r="F120">
-        <v>1.07172</v>
+        <v>1.07016</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>1.1379999999999946</v>
+        <v>1.4090000000000158</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3537,23 +3535,23 @@
         <v>15</v>
       </c>
       <c r="B121" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C121">
-        <v>1.06958</v>
+        <v>1.07863</v>
       </c>
       <c r="D121">
-        <v>1.07959</v>
+        <v>1.0822400000000001</v>
       </c>
       <c r="E121">
-        <v>1.0682100000000001</v>
+        <v>1.0681499999999999</v>
       </c>
       <c r="F121">
-        <v>1.0786800000000001</v>
+        <v>1.07172</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>0.77300000000000146</v>
+        <v>1.1379999999999946</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3561,23 +3559,23 @@
         <v>15</v>
       </c>
       <c r="B122" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C122">
-        <v>1.0635399999999999</v>
+        <v>1.06958</v>
       </c>
       <c r="D122">
-        <v>1.0711999999999999</v>
+        <v>1.07959</v>
       </c>
       <c r="E122">
-        <v>1.0634699999999999</v>
+        <v>1.0682100000000001</v>
       </c>
       <c r="F122">
-        <v>1.07104</v>
+        <v>1.0786800000000001</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>0.44999999999999485</v>
+        <v>0.77300000000000146</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3585,23 +3583,23 @@
         <v>15</v>
       </c>
       <c r="B123" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C123">
-        <v>1.0636300000000001</v>
+        <v>1.0635399999999999</v>
       </c>
       <c r="D123">
-        <v>1.0674399999999999</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="E123">
-        <v>1.06294</v>
+        <v>1.0634699999999999</v>
       </c>
       <c r="F123">
-        <v>1.0638300000000001</v>
+        <v>1.07104</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>0.4610000000000003</v>
+        <v>0.44999999999999485</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3609,23 +3607,23 @@
         <v>15</v>
       </c>
       <c r="B124" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C124">
-        <v>1.0659000000000001</v>
+        <v>1.0636300000000001</v>
       </c>
       <c r="D124">
-        <v>1.0678799999999999</v>
+        <v>1.0674399999999999</v>
       </c>
       <c r="E124">
-        <v>1.0632699999999999</v>
+        <v>1.06294</v>
       </c>
       <c r="F124">
-        <v>1.0638399999999999</v>
+        <v>1.0638300000000001</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>0.72999999999998622</v>
+        <v>0.4610000000000003</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3633,23 +3631,23 @@
         <v>15</v>
       </c>
       <c r="B125" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C125">
-        <v>1.06969</v>
+        <v>1.0659000000000001</v>
       </c>
       <c r="D125">
-        <v>1.07029</v>
+        <v>1.0678799999999999</v>
       </c>
       <c r="E125">
-        <v>1.0629900000000001</v>
+        <v>1.0632699999999999</v>
       </c>
       <c r="F125">
-        <v>1.0665100000000001</v>
+        <v>1.0638399999999999</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>0.68700000000001538</v>
+        <v>0.72999999999998622</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3657,23 +3655,23 @@
         <v>15</v>
       </c>
       <c r="B126" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C126">
-        <v>1.0686899999999999</v>
+        <v>1.06969</v>
       </c>
       <c r="D126">
-        <v>1.07037</v>
+        <v>1.07029</v>
       </c>
       <c r="E126">
-        <v>1.0634999999999999</v>
+        <v>1.0629900000000001</v>
       </c>
       <c r="F126">
-        <v>1.0697300000000001</v>
+        <v>1.0665100000000001</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>0.81200000000001271</v>
+        <v>0.68700000000001538</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3681,23 +3679,23 @@
         <v>15</v>
       </c>
       <c r="B127" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C127">
-        <v>1.0713999999999999</v>
+        <v>1.0686899999999999</v>
       </c>
       <c r="D127">
-        <v>1.07484</v>
+        <v>1.07037</v>
       </c>
       <c r="E127">
-        <v>1.0667199999999999</v>
+        <v>1.0634999999999999</v>
       </c>
       <c r="F127">
-        <v>1.0682100000000001</v>
+        <v>1.0697300000000001</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>0.38300000000000001</v>
+        <v>0.81200000000001271</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3705,23 +3703,23 @@
         <v>15</v>
       </c>
       <c r="B128" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C128">
-        <v>1.0708200000000001</v>
+        <v>1.0713999999999999</v>
       </c>
       <c r="D128">
-        <v>1.0737399999999999</v>
+        <v>1.07484</v>
       </c>
       <c r="E128">
-        <v>1.0699099999999999</v>
+        <v>1.0667199999999999</v>
       </c>
       <c r="F128">
-        <v>1.07162</v>
+        <v>1.0682100000000001</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>0.4269999999999996</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3729,23 +3727,23 @@
         <v>15</v>
       </c>
       <c r="B129" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C129">
-        <v>1.07077</v>
+        <v>1.0708200000000001</v>
       </c>
       <c r="D129">
-        <v>1.07453</v>
+        <v>1.0737399999999999</v>
       </c>
       <c r="E129">
-        <v>1.07026</v>
+        <v>1.0699099999999999</v>
       </c>
       <c r="F129">
-        <v>1.0733999999999999</v>
+        <v>1.07162</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>0.57599999999999874</v>
+        <v>0.4269999999999996</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3753,23 +3751,23 @@
         <v>15</v>
       </c>
       <c r="B130" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C130">
-        <v>1.0701000000000001</v>
+        <v>1.07077</v>
       </c>
       <c r="D130">
-        <v>1.07355</v>
+        <v>1.07453</v>
       </c>
       <c r="E130">
-        <v>1.06779</v>
+        <v>1.07026</v>
       </c>
       <c r="F130">
-        <v>1.0717699999999999</v>
+        <v>1.0733999999999999</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>0.61099999999998378</v>
+        <v>0.57599999999999874</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3777,23 +3775,23 @@
         <v>15</v>
       </c>
       <c r="B131" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C131">
-        <v>1.0707500000000001</v>
+        <v>1.0701000000000001</v>
       </c>
       <c r="D131">
-        <v>1.0759399999999999</v>
+        <v>1.07355</v>
       </c>
       <c r="E131">
-        <v>1.0698300000000001</v>
+        <v>1.06779</v>
       </c>
       <c r="F131">
-        <v>1.07141</v>
+        <v>1.0717699999999999</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>0.61700000000000088</v>
+        <v>0.61099999999998378</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3801,23 +3799,23 @@
         <v>15</v>
       </c>
       <c r="B132" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C132">
-        <v>1.0718799999999999</v>
+        <v>1.0707500000000001</v>
       </c>
       <c r="D132">
-        <v>1.0738300000000001</v>
+        <v>1.0759399999999999</v>
       </c>
       <c r="E132">
-        <v>1.0676600000000001</v>
+        <v>1.0698300000000001</v>
       </c>
       <c r="F132">
-        <v>1.07345</v>
+        <v>1.07141</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>0.78899999999999526</v>
+        <v>0.61700000000000088</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3825,23 +3823,23 @@
         <v>15</v>
       </c>
       <c r="B133" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C133">
-        <v>1.0727100000000001</v>
+        <v>1.0718799999999999</v>
       </c>
       <c r="D133">
-        <v>1.0787100000000001</v>
+        <v>1.0738300000000001</v>
       </c>
       <c r="E133">
-        <v>1.0708200000000001</v>
+        <v>1.0676600000000001</v>
       </c>
       <c r="F133">
-        <v>1.0726899999999999</v>
+        <v>1.07345</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>1.988000000000012</v>
+        <v>0.78899999999999526</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3849,23 +3847,23 @@
         <v>15</v>
       </c>
       <c r="B134" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C134">
-        <v>1.07704</v>
+        <v>1.0727100000000001</v>
       </c>
       <c r="D134">
-        <v>1.08938</v>
+        <v>1.0787100000000001</v>
       </c>
       <c r="E134">
-        <v>1.0694999999999999</v>
+        <v>1.0708200000000001</v>
       </c>
       <c r="F134">
-        <v>1.0740000000000001</v>
+        <v>1.0726899999999999</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>0.84200000000000941</v>
+        <v>1.988000000000012</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3873,23 +3871,23 @@
         <v>15</v>
       </c>
       <c r="B135" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C135">
-        <v>1.07298</v>
+        <v>1.07704</v>
       </c>
       <c r="D135">
-        <v>1.08138</v>
+        <v>1.08938</v>
       </c>
       <c r="E135">
-        <v>1.0729599999999999</v>
+        <v>1.0694999999999999</v>
       </c>
       <c r="F135">
-        <v>1.07795</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>0.62099999999998268</v>
+        <v>0.84200000000000941</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3897,23 +3895,23 @@
         <v>15</v>
       </c>
       <c r="B136" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C136">
-        <v>1.0698099999999999</v>
+        <v>1.07298</v>
       </c>
       <c r="D136">
-        <v>1.0753699999999999</v>
+        <v>1.08138</v>
       </c>
       <c r="E136">
-        <v>1.0691600000000001</v>
+        <v>1.0729599999999999</v>
       </c>
       <c r="F136">
-        <v>1.07376</v>
+        <v>1.07795</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>0.72399999999999132</v>
+        <v>0.62099999999998268</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3921,23 +3919,23 @@
         <v>15</v>
       </c>
       <c r="B137" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C137">
-        <v>1.0710200000000001</v>
+        <v>1.0698099999999999</v>
       </c>
       <c r="D137">
-        <v>1.07565</v>
+        <v>1.0753699999999999</v>
       </c>
       <c r="E137">
-        <v>1.0684100000000001</v>
+        <v>1.0691600000000001</v>
       </c>
       <c r="F137">
-        <v>1.0694399999999999</v>
+        <v>1.07376</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>1.2499999999999956</v>
+        <v>0.72399999999999132</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3945,23 +3943,23 @@
         <v>15</v>
       </c>
       <c r="B138" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C138">
-        <v>1.08073</v>
+        <v>1.0710200000000001</v>
       </c>
       <c r="D138">
-        <v>1.08287</v>
+        <v>1.07565</v>
       </c>
       <c r="E138">
-        <v>1.07037</v>
+        <v>1.0684100000000001</v>
       </c>
       <c r="F138">
-        <v>1.0721000000000001</v>
+        <v>1.0694399999999999</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>1.093999999999995</v>
+        <v>1.2499999999999956</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3969,23 +3967,23 @@
         <v>15</v>
       </c>
       <c r="B139" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C139">
-        <v>1.08423</v>
+        <v>1.08073</v>
       </c>
       <c r="D139">
-        <v>1.0861099999999999</v>
+        <v>1.08287</v>
       </c>
       <c r="E139">
-        <v>1.07517</v>
+        <v>1.07037</v>
       </c>
       <c r="F139">
-        <v>1.07928</v>
+        <v>1.0721000000000001</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>0.67500000000000338</v>
+        <v>1.093999999999995</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3993,23 +3991,23 @@
         <v>15</v>
       </c>
       <c r="B140" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C140">
-        <v>1.0812999999999999</v>
+        <v>1.08423</v>
       </c>
       <c r="D140">
-        <v>1.0861499999999999</v>
+        <v>1.0861099999999999</v>
       </c>
       <c r="E140">
-        <v>1.0793999999999999</v>
+        <v>1.07517</v>
       </c>
       <c r="F140">
-        <v>1.0847500000000001</v>
+        <v>1.07928</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>0.8839999999999959</v>
+        <v>0.67500000000000338</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4017,23 +4015,23 @@
         <v>15</v>
       </c>
       <c r="B141" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C141">
-        <v>1.0860099999999999</v>
+        <v>1.0812999999999999</v>
       </c>
       <c r="D141">
-        <v>1.0892500000000001</v>
+        <v>1.0861499999999999</v>
       </c>
       <c r="E141">
-        <v>1.0804100000000001</v>
+        <v>1.0793999999999999</v>
       </c>
       <c r="F141">
-        <v>1.0809</v>
+        <v>1.0847500000000001</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>1.0850000000000026</v>
+        <v>0.8839999999999959</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4041,23 +4039,23 @@
         <v>15</v>
       </c>
       <c r="B142" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C142">
-        <v>1.0934900000000001</v>
+        <v>1.0860099999999999</v>
       </c>
       <c r="D142">
-        <v>1.0970200000000001</v>
+        <v>1.0892500000000001</v>
       </c>
       <c r="E142">
-        <v>1.0861700000000001</v>
+        <v>1.0804100000000001</v>
       </c>
       <c r="F142">
-        <v>1.08647</v>
+        <v>1.0809</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>0.77100000000001057</v>
+        <v>1.0850000000000026</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4065,23 +4063,23 @@
         <v>15</v>
       </c>
       <c r="B143" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C143">
-        <v>1.0895999999999999</v>
+        <v>1.0934900000000001</v>
       </c>
       <c r="D143">
-        <v>1.09731</v>
+        <v>1.0970200000000001</v>
       </c>
       <c r="E143">
-        <v>1.0895999999999999</v>
+        <v>1.0861700000000001</v>
       </c>
       <c r="F143">
-        <v>1.0950200000000001</v>
+        <v>1.08647</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>1.0739999999999972</v>
+        <v>0.77100000000001057</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4089,23 +4087,23 @@
         <v>15</v>
       </c>
       <c r="B144" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C144">
-        <v>1.0891</v>
+        <v>1.0895999999999999</v>
       </c>
       <c r="D144">
-        <v>1.0915999999999999</v>
+        <v>1.09731</v>
       </c>
       <c r="E144">
-        <v>1.0808599999999999</v>
+        <v>1.0895999999999999</v>
       </c>
       <c r="F144">
-        <v>1.0913200000000001</v>
+        <v>1.0950200000000001</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>1.0320000000000107</v>
+        <v>1.0739999999999972</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4113,23 +4111,23 @@
         <v>15</v>
       </c>
       <c r="B145" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C145">
-        <v>1.0929</v>
+        <v>1.0891</v>
       </c>
       <c r="D145">
-        <v>1.09575</v>
+        <v>1.0915999999999999</v>
       </c>
       <c r="E145">
-        <v>1.0854299999999999</v>
+        <v>1.0808599999999999</v>
       </c>
       <c r="F145">
-        <v>1.08867</v>
+        <v>1.0913200000000001</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>0.72700000000001097</v>
+        <v>1.0320000000000107</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4137,23 +4135,23 @@
         <v>15</v>
       </c>
       <c r="B146" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C146">
-        <v>1.09517</v>
+        <v>1.0929</v>
       </c>
       <c r="D146">
-        <v>1.0982400000000001</v>
+        <v>1.09575</v>
       </c>
       <c r="E146">
-        <v>1.09097</v>
+        <v>1.0854299999999999</v>
       </c>
       <c r="F146">
-        <v>1.09358</v>
+        <v>1.08867</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>0.878000000000001</v>
+        <v>0.72700000000001097</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4161,23 +4159,23 @@
         <v>15</v>
       </c>
       <c r="B147" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C147">
-        <v>1.09344</v>
+        <v>1.09517</v>
       </c>
       <c r="D147">
-        <v>1.09734</v>
+        <v>1.0982400000000001</v>
       </c>
       <c r="E147">
-        <v>1.08856</v>
+        <v>1.09097</v>
       </c>
       <c r="F147">
-        <v>1.09551</v>
+        <v>1.09358</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>0.74600000000000222</v>
+        <v>0.878000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4185,23 +4183,23 @@
         <v>15</v>
       </c>
       <c r="B148" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C148">
-        <v>1.09419</v>
+        <v>1.09344</v>
       </c>
       <c r="D148">
-        <v>1.09982</v>
+        <v>1.09734</v>
       </c>
       <c r="E148">
-        <v>1.09236</v>
+        <v>1.08856</v>
       </c>
       <c r="F148">
-        <v>1.0933200000000001</v>
+        <v>1.09551</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>0.98899999999999544</v>
+        <v>0.74600000000000222</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4209,23 +4207,23 @@
         <v>15</v>
       </c>
       <c r="B149" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C149">
-        <v>1.08687</v>
+        <v>1.09419</v>
       </c>
       <c r="D149">
-        <v>1.0956399999999999</v>
+        <v>1.09982</v>
       </c>
       <c r="E149">
-        <v>1.08575</v>
+        <v>1.09236</v>
       </c>
       <c r="F149">
-        <v>1.0952</v>
+        <v>1.0933200000000001</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>0.75700000000000767</v>
+        <v>0.98899999999999544</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4233,23 +4231,23 @@
         <v>15</v>
       </c>
       <c r="B150" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C150">
-        <v>1.08782</v>
+        <v>1.08687</v>
       </c>
       <c r="D150">
-        <v>1.09002</v>
+        <v>1.0956399999999999</v>
       </c>
       <c r="E150">
-        <v>1.0824499999999999</v>
+        <v>1.08575</v>
       </c>
       <c r="F150">
-        <v>1.0872200000000001</v>
+        <v>1.0952</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>0.70700000000001317</v>
+        <v>0.75700000000000767</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4257,23 +4255,23 @@
         <v>15</v>
       </c>
       <c r="B151" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C151">
-        <v>1.08666</v>
+        <v>1.08782</v>
       </c>
       <c r="D151">
-        <v>1.0922700000000001</v>
+        <v>1.09002</v>
       </c>
       <c r="E151">
-        <v>1.0851999999999999</v>
+        <v>1.0824499999999999</v>
       </c>
       <c r="F151">
-        <v>1.0880399999999999</v>
+        <v>1.0872200000000001</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>0.79400000000000581</v>
+        <v>0.70700000000001317</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4281,23 +4279,23 @@
         <v>15</v>
       </c>
       <c r="B152" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C152">
-        <v>1.0825800000000001</v>
+        <v>1.08666</v>
       </c>
       <c r="D152">
-        <v>1.08721</v>
+        <v>1.0922700000000001</v>
       </c>
       <c r="E152">
-        <v>1.07927</v>
+        <v>1.0851999999999999</v>
       </c>
       <c r="F152">
-        <v>1.0869200000000001</v>
+        <v>1.0880399999999999</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>1.4789999999999859</v>
+        <v>0.79400000000000581</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4305,23 +4303,23 @@
         <v>15</v>
       </c>
       <c r="B153" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C153">
-        <v>1.0834900000000001</v>
+        <v>1.0825800000000001</v>
       </c>
       <c r="D153">
-        <v>1.0934999999999999</v>
+        <v>1.08721</v>
       </c>
       <c r="E153">
-        <v>1.0787100000000001</v>
+        <v>1.07927</v>
       </c>
       <c r="F153">
-        <v>1.08335</v>
+        <v>1.0869200000000001</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>0.72900000000000187</v>
+        <v>1.4789999999999859</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4329,23 +4327,23 @@
         <v>15</v>
       </c>
       <c r="B154" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C154">
-        <v>1.0856399999999999</v>
+        <v>1.0834900000000001</v>
       </c>
       <c r="D154">
-        <v>1.09016</v>
+        <v>1.0934999999999999</v>
       </c>
       <c r="E154">
-        <v>1.08287</v>
+        <v>1.0787100000000001</v>
       </c>
       <c r="F154">
-        <v>1.0835600000000001</v>
+        <v>1.08335</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>1.0740000000000194</v>
+        <v>0.72900000000000187</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4353,23 +4351,23 @@
         <v>15</v>
       </c>
       <c r="B155" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C155">
-        <v>1.08528</v>
+        <v>1.0856399999999999</v>
       </c>
       <c r="D155">
-        <v>1.0942400000000001</v>
+        <v>1.09016</v>
       </c>
       <c r="E155">
-        <v>1.0834999999999999</v>
+        <v>1.08287</v>
       </c>
       <c r="F155">
-        <v>1.0844</v>
+        <v>1.0835600000000001</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>0.80100000000000726</v>
+        <v>1.0740000000000194</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4377,23 +4375,23 @@
         <v>15</v>
       </c>
       <c r="B156" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C156">
-        <v>1.08314</v>
+        <v>1.08528</v>
       </c>
       <c r="D156">
-        <v>1.08718</v>
+        <v>1.0942400000000001</v>
       </c>
       <c r="E156">
-        <v>1.07917</v>
+        <v>1.0834999999999999</v>
       </c>
       <c r="F156">
-        <v>1.0866400000000001</v>
+        <v>1.0844</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>1.8249999999999877</v>
+        <v>0.80100000000000726</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4401,23 +4399,23 @@
         <v>15</v>
       </c>
       <c r="B157" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C157">
-        <v>1.07362</v>
+        <v>1.08314</v>
       </c>
       <c r="D157">
-        <v>1.0896399999999999</v>
+        <v>1.08718</v>
       </c>
       <c r="E157">
-        <v>1.0713900000000001</v>
+        <v>1.07917</v>
       </c>
       <c r="F157">
-        <v>1.0837699999999999</v>
+        <v>1.0866400000000001</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>3.8929999999999909</v>
+        <v>1.8249999999999877</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4425,23 +4423,23 @@
         <v>15</v>
       </c>
       <c r="B158" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C158">
-        <v>1.08979</v>
+        <v>1.07362</v>
       </c>
       <c r="D158">
-        <v>1.10076</v>
+        <v>1.0896399999999999</v>
       </c>
       <c r="E158">
-        <v>1.0618300000000001</v>
+        <v>1.0713900000000001</v>
       </c>
       <c r="F158">
-        <v>1.0790200000000001</v>
+        <v>1.0837699999999999</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>1.4589999999999881</v>
+        <v>3.8929999999999909</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4449,23 +4447,23 @@
         <v>15</v>
       </c>
       <c r="B159" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C159">
-        <v>1.0851</v>
+        <v>1.08979</v>
       </c>
       <c r="D159">
-        <v>1.0920399999999999</v>
+        <v>1.10076</v>
       </c>
       <c r="E159">
-        <v>1.07745</v>
+        <v>1.0618300000000001</v>
       </c>
       <c r="F159">
-        <v>1.08222</v>
+        <v>1.0790200000000001</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>2.5419999999999998</v>
+        <v>1.4589999999999881</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4473,23 +4471,23 @@
         <v>15</v>
       </c>
       <c r="B160" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C160">
-        <v>1.1089500000000001</v>
+        <v>1.0851</v>
       </c>
       <c r="D160">
-        <v>1.10964</v>
+        <v>1.0920399999999999</v>
       </c>
       <c r="E160">
-        <v>1.08422</v>
+        <v>1.07745</v>
       </c>
       <c r="F160">
-        <v>1.0850599999999999</v>
+        <v>1.08222</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>0.81800000000000761</v>
+        <v>2.5419999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4497,23 +4495,23 @@
         <v>15</v>
       </c>
       <c r="B161" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C161">
-        <v>1.1049500000000001</v>
+        <v>1.1089500000000001</v>
       </c>
       <c r="D161">
-        <v>1.1103700000000001</v>
+        <v>1.10964</v>
       </c>
       <c r="E161">
-        <v>1.10219</v>
+        <v>1.08422</v>
       </c>
       <c r="F161">
-        <v>1.10887</v>
+        <v>1.0850599999999999</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>0.8580000000000032</v>
+        <v>0.81800000000000761</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4521,23 +4519,23 @@
         <v>15</v>
       </c>
       <c r="B162" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C162">
-        <v>1.1109500000000001</v>
+        <v>1.1049500000000001</v>
       </c>
       <c r="D162">
-        <v>1.11215</v>
+        <v>1.1103700000000001</v>
       </c>
       <c r="E162">
-        <v>1.1035699999999999</v>
+        <v>1.10219</v>
       </c>
       <c r="F162">
-        <v>1.10534</v>
+        <v>1.10887</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>1.0729999999999906</v>
+        <v>0.8580000000000032</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4545,23 +4543,23 @@
         <v>15</v>
       </c>
       <c r="B163" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C163">
-        <v>1.1023400000000001</v>
+        <v>1.1109500000000001</v>
       </c>
       <c r="D163">
-        <v>1.11266</v>
+        <v>1.11215</v>
       </c>
       <c r="E163">
-        <v>1.1019300000000001</v>
+        <v>1.1035699999999999</v>
       </c>
       <c r="F163">
-        <v>1.1116299999999999</v>
+        <v>1.10534</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>0.93499999999999694</v>
+        <v>1.0729999999999906</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4569,23 +4567,23 @@
         <v>15</v>
       </c>
       <c r="B164" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C164">
-        <v>1.1080300000000001</v>
+        <v>1.1023400000000001</v>
       </c>
       <c r="D164">
-        <v>1.1106</v>
+        <v>1.11266</v>
       </c>
       <c r="E164">
-        <v>1.1012500000000001</v>
+        <v>1.1019300000000001</v>
       </c>
       <c r="F164">
-        <v>1.1024</v>
+        <v>1.1116299999999999</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>1.3419999999999987</v>
+        <v>0.93499999999999694</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4593,23 +4591,23 @@
         <v>15</v>
       </c>
       <c r="B165" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C165">
-        <v>1.0978000000000001</v>
+        <v>1.1080300000000001</v>
       </c>
       <c r="D165">
-        <v>1.10911</v>
+        <v>1.1106</v>
       </c>
       <c r="E165">
-        <v>1.0956900000000001</v>
+        <v>1.1012500000000001</v>
       </c>
       <c r="F165">
-        <v>1.1087400000000001</v>
+        <v>1.1024</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>0.54600000000000204</v>
+        <v>1.3419999999999987</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4617,23 +4615,23 @@
         <v>15</v>
       </c>
       <c r="B166" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C166">
-        <v>1.0982400000000001</v>
+        <v>1.0978000000000001</v>
       </c>
       <c r="D166">
-        <v>1.1007400000000001</v>
+        <v>1.10911</v>
       </c>
       <c r="E166">
-        <v>1.09528</v>
+        <v>1.0956900000000001</v>
       </c>
       <c r="F166">
-        <v>1.09792</v>
+        <v>1.1087400000000001</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>1.1349999999999971</v>
+        <v>0.54600000000000204</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4641,23 +4639,23 @@
         <v>15</v>
       </c>
       <c r="B167" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C167">
-        <v>1.0912299999999999</v>
+        <v>1.0982400000000001</v>
       </c>
       <c r="D167">
-        <v>1.1013999999999999</v>
+        <v>1.1007400000000001</v>
       </c>
       <c r="E167">
-        <v>1.09005</v>
+        <v>1.09528</v>
       </c>
       <c r="F167">
-        <v>1.0984499999999999</v>
+        <v>1.09792</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>0.64199999999998703</v>
+        <v>1.1349999999999971</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4665,23 +4663,23 @@
         <v>15</v>
       </c>
       <c r="B168" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C168">
-        <v>1.0865800000000001</v>
+        <v>1.0912299999999999</v>
       </c>
       <c r="D168">
-        <v>1.09249</v>
+        <v>1.1013999999999999</v>
       </c>
       <c r="E168">
-        <v>1.0860700000000001</v>
+        <v>1.09005</v>
       </c>
       <c r="F168">
-        <v>1.0918099999999999</v>
+        <v>1.0984499999999999</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>0.8920000000000039</v>
+        <v>0.64199999999998703</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4689,23 +4687,23 @@
         <v>15</v>
       </c>
       <c r="B169" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C169">
-        <v>1.0910599999999999</v>
+        <v>1.0865800000000001</v>
       </c>
       <c r="D169">
-        <v>1.0930200000000001</v>
+        <v>1.09249</v>
       </c>
       <c r="E169">
-        <v>1.0841000000000001</v>
+        <v>1.0860700000000001</v>
       </c>
       <c r="F169">
-        <v>1.0867899999999999</v>
+        <v>1.0918099999999999</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>0.68899999999998407</v>
+        <v>0.8920000000000039</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4713,23 +4711,23 @@
         <v>15</v>
       </c>
       <c r="B170" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C170">
-        <v>1.0911599999999999</v>
+        <v>1.0910599999999999</v>
       </c>
       <c r="D170">
-        <v>1.0951299999999999</v>
+        <v>1.0930200000000001</v>
       </c>
       <c r="E170">
-        <v>1.0882400000000001</v>
+        <v>1.0841000000000001</v>
       </c>
       <c r="F170">
-        <v>1.09148</v>
+        <v>1.0867899999999999</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>0.69399999999999462</v>
+        <v>0.68899999999998407</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4737,23 +4735,23 @@
         <v>15</v>
       </c>
       <c r="B171" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C171">
-        <v>1.0925</v>
+        <v>1.0911599999999999</v>
       </c>
       <c r="D171">
-        <v>1.09412</v>
+        <v>1.0951299999999999</v>
       </c>
       <c r="E171">
-        <v>1.08718</v>
+        <v>1.0882400000000001</v>
       </c>
       <c r="F171">
-        <v>1.0907500000000001</v>
+        <v>1.09148</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>0.9039999999999937</v>
+        <v>0.69399999999999462</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4761,23 +4759,23 @@
         <v>15</v>
       </c>
       <c r="B172" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C172">
-        <v>1.09562</v>
+        <v>1.0925</v>
       </c>
       <c r="D172">
-        <v>1.09934</v>
+        <v>1.09412</v>
       </c>
       <c r="E172">
-        <v>1.0903</v>
+        <v>1.08718</v>
       </c>
       <c r="F172">
-        <v>1.09273</v>
+        <v>1.0907500000000001</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>1.3259999999999827</v>
+        <v>0.9039999999999937</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4785,23 +4783,23 @@
         <v>15</v>
       </c>
       <c r="B173" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C173">
-        <v>1.09083</v>
+        <v>1.09562</v>
       </c>
       <c r="D173">
-        <v>1.1020099999999999</v>
+        <v>1.09934</v>
       </c>
       <c r="E173">
-        <v>1.0887500000000001</v>
+        <v>1.0903</v>
       </c>
       <c r="F173">
-        <v>1.0958399999999999</v>
+        <v>1.09273</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>1.373000000000002</v>
+        <v>1.3259999999999827</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4809,23 +4807,23 @@
         <v>15</v>
       </c>
       <c r="B174" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C174">
-        <v>1.0888100000000001</v>
+        <v>1.09083</v>
       </c>
       <c r="D174">
-        <v>1.0944700000000001</v>
+        <v>1.1020099999999999</v>
       </c>
       <c r="E174">
-        <v>1.08074</v>
+        <v>1.0887500000000001</v>
       </c>
       <c r="F174">
-        <v>1.0932900000000001</v>
+        <v>1.0958399999999999</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>1.635999999999993</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4833,23 +4831,23 @@
         <v>15</v>
       </c>
       <c r="B175" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C175">
-        <v>1.0999000000000001</v>
+        <v>1.0888100000000001</v>
       </c>
       <c r="D175">
-        <v>1.10263</v>
+        <v>1.0944700000000001</v>
       </c>
       <c r="E175">
-        <v>1.0862700000000001</v>
+        <v>1.08074</v>
       </c>
       <c r="F175">
-        <v>1.0894299999999999</v>
+        <v>1.0932900000000001</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>0.86899999999998645</v>
+        <v>1.635999999999993</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4857,23 +4855,23 @@
         <v>15</v>
       </c>
       <c r="B176" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C176">
-        <v>1.0977699999999999</v>
+        <v>1.0999000000000001</v>
       </c>
       <c r="D176">
-        <v>1.1059099999999999</v>
+        <v>1.10263</v>
       </c>
       <c r="E176">
-        <v>1.0972200000000001</v>
+        <v>1.0862700000000001</v>
       </c>
       <c r="F176">
-        <v>1.1013200000000001</v>
+        <v>1.0894299999999999</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>1.4569999999999972</v>
+        <v>0.86899999999998645</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4881,23 +4879,23 @@
         <v>15</v>
       </c>
       <c r="B177" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C177">
-        <v>1.10517</v>
+        <v>1.0977699999999999</v>
       </c>
       <c r="D177">
-        <v>1.10931</v>
+        <v>1.1059099999999999</v>
       </c>
       <c r="E177">
-        <v>1.09474</v>
+        <v>1.0972200000000001</v>
       </c>
       <c r="F177">
-        <v>1.10005</v>
+        <v>1.1013200000000001</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>1.6539999999999999</v>
+        <v>1.4569999999999972</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4905,23 +4903,23 @@
         <v>15</v>
       </c>
       <c r="B178" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C178">
-        <v>1.10615</v>
+        <v>1.10517</v>
       </c>
       <c r="D178">
-        <v>1.11972</v>
+        <v>1.10931</v>
       </c>
       <c r="E178">
-        <v>1.10318</v>
+        <v>1.09474</v>
       </c>
       <c r="F178">
-        <v>1.10711</v>
+        <v>1.10005</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>2.0780000000000021</v>
+        <v>1.6539999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4929,23 +4927,23 @@
         <v>15</v>
       </c>
       <c r="B179" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C179">
-        <v>1.0963499999999999</v>
+        <v>1.10615</v>
       </c>
       <c r="D179">
-        <v>1.1163000000000001</v>
+        <v>1.11972</v>
       </c>
       <c r="E179">
-        <v>1.09552</v>
+        <v>1.10318</v>
       </c>
       <c r="F179">
-        <v>1.1080399999999999</v>
+        <v>1.10711</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>0.78599999999999781</v>
+        <v>2.0780000000000021</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4953,23 +4951,23 @@
         <v>15</v>
       </c>
       <c r="B180" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C180">
-        <v>1.0931999999999999</v>
+        <v>1.0963499999999999</v>
       </c>
       <c r="D180">
-        <v>1.0984499999999999</v>
+        <v>1.1163000000000001</v>
       </c>
       <c r="E180">
-        <v>1.0905899999999999</v>
+        <v>1.09552</v>
       </c>
       <c r="F180">
-        <v>1.0969199999999999</v>
+        <v>1.1080399999999999</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>1.4310000000000045</v>
+        <v>0.78599999999999781</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4977,23 +4975,23 @@
         <v>15</v>
       </c>
       <c r="B181" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C181">
-        <v>1.08571</v>
+        <v>1.0931999999999999</v>
       </c>
       <c r="D181">
-        <v>1.09796</v>
+        <v>1.0984499999999999</v>
       </c>
       <c r="E181">
-        <v>1.08365</v>
+        <v>1.0905899999999999</v>
       </c>
       <c r="F181">
-        <v>1.0929899999999999</v>
+        <v>1.0969199999999999</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>0.73900000000000077</v>
+        <v>1.4310000000000045</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -5001,23 +4999,23 @@
         <v>15</v>
       </c>
       <c r="B182" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C182">
-        <v>1.0873600000000001</v>
+        <v>1.08571</v>
       </c>
       <c r="D182">
-        <v>1.0898600000000001</v>
+        <v>1.09796</v>
       </c>
       <c r="E182">
-        <v>1.08247</v>
+        <v>1.08365</v>
       </c>
       <c r="F182">
-        <v>1.08613</v>
+        <v>1.0929899999999999</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>1.1700000000000044</v>
+        <v>0.73900000000000077</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5025,23 +5023,23 @@
         <v>15</v>
       </c>
       <c r="B183" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C183">
-        <v>1.07996</v>
+        <v>1.0873600000000001</v>
       </c>
       <c r="D183">
-        <v>1.0892999999999999</v>
+        <v>1.0898600000000001</v>
       </c>
       <c r="E183">
-        <v>1.0775999999999999</v>
+        <v>1.08247</v>
       </c>
       <c r="F183">
-        <v>1.08891</v>
+        <v>1.08613</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>0.74899999999999967</v>
+        <v>1.1700000000000044</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5049,23 +5047,23 @@
         <v>15</v>
       </c>
       <c r="B184" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C184">
-        <v>1.0773299999999999</v>
+        <v>1.07996</v>
       </c>
       <c r="D184">
-        <v>1.08443</v>
+        <v>1.0892999999999999</v>
       </c>
       <c r="E184">
-        <v>1.07694</v>
+        <v>1.0775999999999999</v>
       </c>
       <c r="F184">
-        <v>1.0812900000000001</v>
+        <v>1.08891</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>0.8920000000000039</v>
+        <v>0.74899999999999967</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5073,23 +5071,23 @@
         <v>15</v>
       </c>
       <c r="B185" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C185">
-        <v>1.0803499999999999</v>
+        <v>1.0773299999999999</v>
       </c>
       <c r="D185">
-        <v>1.08426</v>
+        <v>1.08443</v>
       </c>
       <c r="E185">
-        <v>1.07534</v>
+        <v>1.07694</v>
       </c>
       <c r="F185">
-        <v>1.07802</v>
+        <v>1.0812900000000001</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>0.82900000000001306</v>
+        <v>0.8920000000000039</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5097,23 +5095,23 @@
         <v>15</v>
       </c>
       <c r="B186" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C186">
-        <v>1.08379</v>
+        <v>1.0803499999999999</v>
       </c>
       <c r="D186">
-        <v>1.0874900000000001</v>
+        <v>1.08426</v>
       </c>
       <c r="E186">
-        <v>1.0791999999999999</v>
+        <v>1.07534</v>
       </c>
       <c r="F186">
-        <v>1.0802099999999999</v>
+        <v>1.07802</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>1.4739999999999975</v>
+        <v>0.82900000000001306</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5121,23 +5119,23 @@
         <v>15</v>
       </c>
       <c r="B187" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C187">
-        <v>1.0903400000000001</v>
+        <v>1.08379</v>
       </c>
       <c r="D187">
-        <v>1.0934999999999999</v>
+        <v>1.0874900000000001</v>
       </c>
       <c r="E187">
-        <v>1.0787599999999999</v>
+        <v>1.0791999999999999</v>
       </c>
       <c r="F187">
-        <v>1.08352</v>
+        <v>1.0802099999999999</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.1619999999999964</v>
+        <v>1.4739999999999975</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5145,23 +5143,23 @@
         <v>15</v>
       </c>
       <c r="B188" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C188">
-        <v>1.0845199999999999</v>
+        <v>1.0903400000000001</v>
       </c>
       <c r="D188">
-        <v>1.0924499999999999</v>
+        <v>1.0934999999999999</v>
       </c>
       <c r="E188">
-        <v>1.08083</v>
+        <v>1.0787599999999999</v>
       </c>
       <c r="F188">
-        <v>1.0905499999999999</v>
+        <v>1.08352</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.2590000000000101</v>
+        <v>1.1619999999999964</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5169,23 +5167,23 @@
         <v>15</v>
       </c>
       <c r="B189" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C189">
-        <v>1.0796699999999999</v>
+        <v>1.0845199999999999</v>
       </c>
       <c r="D189">
-        <v>1.0897600000000001</v>
+        <v>1.0924499999999999</v>
       </c>
       <c r="E189">
-        <v>1.07717</v>
+        <v>1.08083</v>
       </c>
       <c r="F189">
-        <v>1.08405</v>
+        <v>1.0905499999999999</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>0.74899999999999967</v>
+        <v>1.2590000000000101</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5193,23 +5191,23 @@
         <v>15</v>
       </c>
       <c r="B190" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C190">
-        <v>1.0780000000000001</v>
+        <v>1.0796699999999999</v>
       </c>
       <c r="D190">
-        <v>1.0828100000000001</v>
+        <v>1.0897600000000001</v>
       </c>
       <c r="E190">
-        <v>1.0753200000000001</v>
+        <v>1.07717</v>
       </c>
       <c r="F190">
-        <v>1.08266</v>
+        <v>1.08405</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>1.6310000000000047</v>
+        <v>0.74899999999999967</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5217,23 +5215,23 @@
         <v>15</v>
       </c>
       <c r="B191" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C191">
-        <v>1.0868800000000001</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="D191">
-        <v>1.08887</v>
+        <v>1.0828100000000001</v>
       </c>
       <c r="E191">
-        <v>1.07256</v>
+        <v>1.0753200000000001</v>
       </c>
       <c r="F191">
-        <v>1.0800099999999999</v>
+        <v>1.08266</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>1.4479999999999826</v>
+        <v>1.6310000000000047</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5241,23 +5239,23 @@
         <v>15</v>
       </c>
       <c r="B192" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C192">
-        <v>1.07701</v>
+        <v>1.0868800000000001</v>
       </c>
       <c r="D192">
-        <v>1.0912999999999999</v>
+        <v>1.08887</v>
       </c>
       <c r="E192">
-        <v>1.0768200000000001</v>
+        <v>1.07256</v>
       </c>
       <c r="F192">
-        <v>1.0854699999999999</v>
+        <v>1.0800099999999999</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>1.411999999999991</v>
+        <v>1.4479999999999826</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5265,23 +5263,23 @@
         <v>15</v>
       </c>
       <c r="B193" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C193">
-        <v>1.08229</v>
+        <v>1.07701</v>
       </c>
       <c r="D193">
-        <v>1.0894699999999999</v>
+        <v>1.0912999999999999</v>
       </c>
       <c r="E193">
-        <v>1.07535</v>
+        <v>1.0768200000000001</v>
       </c>
       <c r="F193">
-        <v>1.07806</v>
+        <v>1.0854699999999999</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>1.6690000000000094</v>
+        <v>1.411999999999991</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5289,23 +5287,23 @@
         <v>15</v>
       </c>
       <c r="B194" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C194">
-        <v>1.0908599999999999</v>
+        <v>1.08229</v>
       </c>
       <c r="D194">
-        <v>1.0944700000000001</v>
+        <v>1.0894699999999999</v>
       </c>
       <c r="E194">
-        <v>1.07778</v>
+        <v>1.07535</v>
       </c>
       <c r="F194">
-        <v>1.0820000000000001</v>
+        <v>1.07806</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>0.82599999999999341</v>
+        <v>1.6690000000000094</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5313,23 +5311,23 @@
         <v>15</v>
       </c>
       <c r="B195" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C195">
-        <v>1.0889599999999999</v>
+        <v>1.0908599999999999</v>
       </c>
       <c r="D195">
-        <v>1.0943099999999999</v>
+        <v>1.0944700000000001</v>
       </c>
       <c r="E195">
-        <v>1.08605</v>
+        <v>1.07778</v>
       </c>
       <c r="F195">
-        <v>1.09135</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>0.94499999999999584</v>
+        <v>0.82599999999999341</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5337,23 +5335,23 @@
         <v>15</v>
       </c>
       <c r="B196" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C196">
-        <v>1.0946</v>
+        <v>1.0889599999999999</v>
       </c>
       <c r="D196">
-        <v>1.09656</v>
+        <v>1.0943099999999999</v>
       </c>
       <c r="E196">
-        <v>1.08711</v>
+        <v>1.08605</v>
       </c>
       <c r="F196">
-        <v>1.08938</v>
+        <v>1.09135</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>1.5980000000000105</v>
+        <v>0.94499999999999584</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5361,23 +5359,23 @@
         <v>15</v>
       </c>
       <c r="B197" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C197">
-        <v>1.09355</v>
+        <v>1.0946</v>
       </c>
       <c r="D197">
-        <v>1.09782</v>
+        <v>1.09656</v>
       </c>
       <c r="E197">
-        <v>1.0818399999999999</v>
+        <v>1.08711</v>
       </c>
       <c r="F197">
-        <v>1.0958399999999999</v>
+        <v>1.08938</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>1.1199999999999877</v>
+        <v>1.5980000000000105</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5385,23 +5383,23 @@
         <v>15</v>
       </c>
       <c r="B198" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C198">
-        <v>1.0975299999999999</v>
+        <v>1.09355</v>
       </c>
       <c r="D198">
-        <v>1.1007199999999999</v>
+        <v>1.09782</v>
       </c>
       <c r="E198">
-        <v>1.08952</v>
+        <v>1.0818399999999999</v>
       </c>
       <c r="F198">
-        <v>1.09267</v>
+        <v>1.0958399999999999</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>2.2009999999999863</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5409,23 +5407,23 @@
         <v>15</v>
       </c>
       <c r="B199" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C199">
-        <v>1.0833999999999999</v>
+        <v>1.0975299999999999</v>
       </c>
       <c r="D199">
-        <v>1.1044499999999999</v>
+        <v>1.1007199999999999</v>
       </c>
       <c r="E199">
-        <v>1.0824400000000001</v>
+        <v>1.08952</v>
       </c>
       <c r="F199">
-        <v>1.0974600000000001</v>
+        <v>1.09267</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>1.4799999999999924</v>
+        <v>2.2009999999999863</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5433,19 +5431,19 @@
         <v>15</v>
       </c>
       <c r="B200" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C200">
-        <v>1.0763199999999999</v>
+        <v>1.0833999999999999</v>
       </c>
       <c r="D200">
-        <v>1.08982</v>
+        <v>1.1044499999999999</v>
       </c>
       <c r="E200">
-        <v>1.0750200000000001</v>
+        <v>1.0824400000000001</v>
       </c>
       <c r="F200">
-        <v>1.0835399999999999</v>
+        <v>1.0974600000000001</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/xls/15_EURCHF.xlsx
+++ b/volatility/src/xls/15_EURCHF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="3820" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,7 +525,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>110.3</v>
@@ -554,11 +554,11 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>1.0190000000000032</v>
+        <v>1.0094999999999965</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>53383</v>
+        <v>89809</v>
       </c>
       <c r="E6" s="5">
         <v>111.2</v>
@@ -620,6 +620,7 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
@@ -667,11 +668,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>0.8319999999999883</v>
+        <v>0.64299999999999358</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>1.0190000000000032</v>
+        <v>1.0094999999999965</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -679,23 +680,23 @@
         <v>15</v>
       </c>
       <c r="B2" s="8">
-        <v>42178</v>
+        <v>42185</v>
       </c>
       <c r="C2">
-        <v>1.10934</v>
+        <v>1.1116699999999999</v>
       </c>
       <c r="D2">
-        <v>1.1143099999999999</v>
+        <v>1.11697</v>
       </c>
       <c r="E2">
-        <v>1.10599</v>
+        <v>1.1105400000000001</v>
       </c>
       <c r="F2">
-        <v>1.1099300000000001</v>
+        <v>1.1129500000000001</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.6529999999999934</v>
+        <v>0.8319999999999883</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +704,23 @@
         <v>15</v>
       </c>
       <c r="B3" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C3">
-        <v>1.1190100000000001</v>
+        <v>1.10934</v>
       </c>
       <c r="D3">
-        <v>1.1219699999999999</v>
+        <v>1.1143099999999999</v>
       </c>
       <c r="E3">
-        <v>1.10544</v>
+        <v>1.10599</v>
       </c>
       <c r="F3">
-        <v>1.1098600000000001</v>
+        <v>1.1099300000000001</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0.79199999999999271</v>
+        <v>1.6529999999999934</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +728,23 @@
         <v>15</v>
       </c>
       <c r="B4" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C4">
-        <v>1.11957</v>
+        <v>1.1190100000000001</v>
       </c>
       <c r="D4">
-        <v>1.1262099999999999</v>
+        <v>1.1219699999999999</v>
       </c>
       <c r="E4">
-        <v>1.11829</v>
+        <v>1.10544</v>
       </c>
       <c r="F4">
-        <v>1.11931</v>
+        <v>1.1098600000000001</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.87500000000000355</v>
+        <v>0.79199999999999271</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +752,23 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C5">
-        <v>1.1176600000000001</v>
+        <v>1.11957</v>
       </c>
       <c r="D5">
-        <v>1.1204700000000001</v>
+        <v>1.1262099999999999</v>
       </c>
       <c r="E5">
-        <v>1.11172</v>
+        <v>1.11829</v>
       </c>
       <c r="F5">
-        <v>1.11883</v>
+        <v>1.11931</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.0729999999999906</v>
+        <v>0.87500000000000355</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +776,23 @@
         <v>15</v>
       </c>
       <c r="B6" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C6">
-        <v>1.1225400000000001</v>
+        <v>1.1176600000000001</v>
       </c>
       <c r="D6">
-        <v>1.12761</v>
+        <v>1.1204700000000001</v>
       </c>
       <c r="E6">
-        <v>1.1168800000000001</v>
+        <v>1.11172</v>
       </c>
       <c r="F6">
-        <v>1.1178399999999999</v>
+        <v>1.11883</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.97400000000000819</v>
+        <v>1.0729999999999906</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +800,23 @@
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C7">
-        <v>1.1280699999999999</v>
+        <v>1.1225400000000001</v>
       </c>
       <c r="D7">
-        <v>1.1290500000000001</v>
+        <v>1.12761</v>
       </c>
       <c r="E7">
-        <v>1.11931</v>
+        <v>1.1168800000000001</v>
       </c>
       <c r="F7">
-        <v>1.12225</v>
+        <v>1.1178399999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.0079999999999867</v>
+        <v>0.97400000000000819</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +824,23 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C8">
-        <v>1.13517</v>
+        <v>1.1280699999999999</v>
       </c>
       <c r="D8">
-        <v>1.1362699999999999</v>
+        <v>1.1290500000000001</v>
       </c>
       <c r="E8">
-        <v>1.12619</v>
+        <v>1.11931</v>
       </c>
       <c r="F8">
-        <v>1.12774</v>
+        <v>1.12225</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.79799999999998761</v>
+        <v>1.0079999999999867</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +848,23 @@
         <v>15</v>
       </c>
       <c r="B9" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C9">
-        <v>1.13622</v>
+        <v>1.13517</v>
       </c>
       <c r="D9">
-        <v>1.1437299999999999</v>
+        <v>1.1362699999999999</v>
       </c>
       <c r="E9">
-        <v>1.13575</v>
+        <v>1.12619</v>
       </c>
       <c r="F9">
-        <v>1.13584</v>
+        <v>1.12774</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.84699999999999775</v>
+        <v>0.79799999999998761</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +872,23 @@
         <v>15</v>
       </c>
       <c r="B10" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C10">
-        <v>1.13581</v>
+        <v>1.13622</v>
       </c>
       <c r="D10">
-        <v>1.14428</v>
+        <v>1.1437299999999999</v>
       </c>
       <c r="E10">
-        <v>1.13581</v>
+        <v>1.13575</v>
       </c>
       <c r="F10">
-        <v>1.13846</v>
+        <v>1.13584</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.2539999999999996</v>
+        <v>0.84699999999999775</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +896,23 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C11">
-        <v>1.1397299999999999</v>
+        <v>1.13581</v>
       </c>
       <c r="D11">
-        <v>1.1474</v>
+        <v>1.14428</v>
       </c>
       <c r="E11">
-        <v>1.13486</v>
+        <v>1.13581</v>
       </c>
       <c r="F11">
-        <v>1.13618</v>
+        <v>1.13846</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.98200000000001619</v>
+        <v>1.2539999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +920,23 @@
         <v>15</v>
       </c>
       <c r="B12" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C12">
-        <v>1.1323799999999999</v>
+        <v>1.1397299999999999</v>
       </c>
       <c r="D12">
-        <v>1.1419600000000001</v>
+        <v>1.1474</v>
       </c>
       <c r="E12">
-        <v>1.1321399999999999</v>
+        <v>1.13486</v>
       </c>
       <c r="F12">
-        <v>1.1403099999999999</v>
+        <v>1.13618</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.2070000000000025</v>
+        <v>0.98200000000001619</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +944,23 @@
         <v>15</v>
       </c>
       <c r="B13" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C13">
-        <v>1.1211899999999999</v>
+        <v>1.1323799999999999</v>
       </c>
       <c r="D13">
-        <v>1.13293</v>
+        <v>1.1419600000000001</v>
       </c>
       <c r="E13">
-        <v>1.12086</v>
+        <v>1.1321399999999999</v>
       </c>
       <c r="F13">
-        <v>1.1327700000000001</v>
+        <v>1.1403099999999999</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.72599999999998222</v>
+        <v>1.2070000000000025</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +968,23 @@
         <v>15</v>
       </c>
       <c r="B14" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C14">
-        <v>1.11697</v>
+        <v>1.1211899999999999</v>
       </c>
       <c r="D14">
-        <v>1.1237299999999999</v>
+        <v>1.13293</v>
       </c>
       <c r="E14">
-        <v>1.1164700000000001</v>
+        <v>1.12086</v>
       </c>
       <c r="F14">
-        <v>1.12138</v>
+        <v>1.1327700000000001</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.93499999999999694</v>
+        <v>0.72599999999998222</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +992,23 @@
         <v>15</v>
       </c>
       <c r="B15" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C15">
-        <v>1.1222300000000001</v>
+        <v>1.11697</v>
       </c>
       <c r="D15">
-        <v>1.12547</v>
+        <v>1.1237299999999999</v>
       </c>
       <c r="E15">
-        <v>1.11612</v>
+        <v>1.1164700000000001</v>
       </c>
       <c r="F15">
-        <v>1.1164799999999999</v>
+        <v>1.12138</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.5329999999999844</v>
+        <v>0.93499999999999694</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1016,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C16">
-        <v>1.13435</v>
+        <v>1.1222300000000001</v>
       </c>
       <c r="D16">
-        <v>1.1363099999999999</v>
+        <v>1.12547</v>
       </c>
       <c r="E16">
-        <v>1.1209800000000001</v>
+        <v>1.11612</v>
       </c>
       <c r="F16">
-        <v>1.1225400000000001</v>
+        <v>1.1164799999999999</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.69499999999997897</v>
+        <v>1.5329999999999844</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1040,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C17">
-        <v>1.1321000000000001</v>
+        <v>1.13435</v>
       </c>
       <c r="D17">
-        <v>1.1382699999999999</v>
+        <v>1.1363099999999999</v>
       </c>
       <c r="E17">
-        <v>1.1313200000000001</v>
+        <v>1.1209800000000001</v>
       </c>
       <c r="F17">
-        <v>1.13443</v>
+        <v>1.1225400000000001</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.61599999999999433</v>
+        <v>0.69499999999997897</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1064,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C18">
-        <v>1.13571</v>
+        <v>1.1321000000000001</v>
       </c>
       <c r="D18">
-        <v>1.13672</v>
+        <v>1.1382699999999999</v>
       </c>
       <c r="E18">
-        <v>1.13056</v>
+        <v>1.1313200000000001</v>
       </c>
       <c r="F18">
-        <v>1.13215</v>
+        <v>1.13443</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0.66299999999999137</v>
+        <v>0.61599999999999433</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1088,23 @@
         <v>15</v>
       </c>
       <c r="B19" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C19">
-        <v>1.1331</v>
+        <v>1.13571</v>
       </c>
       <c r="D19">
-        <v>1.13913</v>
+        <v>1.13672</v>
       </c>
       <c r="E19">
-        <v>1.1325000000000001</v>
+        <v>1.13056</v>
       </c>
       <c r="F19">
-        <v>1.13523</v>
+        <v>1.13215</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0.43600000000001415</v>
+        <v>0.66299999999999137</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1112,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C20">
-        <v>1.1343700000000001</v>
+        <v>1.1331</v>
       </c>
       <c r="D20">
-        <v>1.13714</v>
+        <v>1.13913</v>
       </c>
       <c r="E20">
-        <v>1.1327799999999999</v>
+        <v>1.1325000000000001</v>
       </c>
       <c r="F20">
-        <v>1.13348</v>
+        <v>1.13523</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.1359999999999815</v>
+        <v>0.43600000000001415</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1136,23 @@
         <v>15</v>
       </c>
       <c r="B21" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C21">
-        <v>1.1320699999999999</v>
+        <v>1.1343700000000001</v>
       </c>
       <c r="D21">
-        <v>1.1420999999999999</v>
+        <v>1.13714</v>
       </c>
       <c r="E21">
-        <v>1.1307400000000001</v>
+        <v>1.1327799999999999</v>
       </c>
       <c r="F21">
-        <v>1.13476</v>
+        <v>1.13348</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.2160000000000171</v>
+        <v>1.1359999999999815</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1160,23 @@
         <v>15</v>
       </c>
       <c r="B22" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C22">
-        <v>1.1397200000000001</v>
+        <v>1.1320699999999999</v>
       </c>
       <c r="D22">
-        <v>1.1441600000000001</v>
+        <v>1.1420999999999999</v>
       </c>
       <c r="E22">
-        <v>1.1319999999999999</v>
+        <v>1.1307400000000001</v>
       </c>
       <c r="F22">
-        <v>1.1320600000000001</v>
+        <v>1.13476</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.1870000000000047</v>
+        <v>1.2160000000000171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1184,23 @@
         <v>15</v>
       </c>
       <c r="B23" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C23">
-        <v>1.13246</v>
+        <v>1.1397200000000001</v>
       </c>
       <c r="D23">
-        <v>1.14266</v>
+        <v>1.1441600000000001</v>
       </c>
       <c r="E23">
-        <v>1.13079</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="F23">
-        <v>1.13998</v>
+        <v>1.1320600000000001</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.88099999999999845</v>
+        <v>1.1870000000000047</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1208,23 @@
         <v>15</v>
       </c>
       <c r="B24" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C24">
-        <v>1.1305499999999999</v>
+        <v>1.13246</v>
       </c>
       <c r="D24">
-        <v>1.1345000000000001</v>
+        <v>1.14266</v>
       </c>
       <c r="E24">
-        <v>1.1256900000000001</v>
+        <v>1.13079</v>
       </c>
       <c r="F24">
-        <v>1.1328800000000001</v>
+        <v>1.13998</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0.9260000000000046</v>
+        <v>0.88099999999999845</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1232,23 @@
         <v>15</v>
       </c>
       <c r="B25" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C25">
-        <v>1.1281399999999999</v>
+        <v>1.1305499999999999</v>
       </c>
       <c r="D25">
-        <v>1.1335500000000001</v>
+        <v>1.1345000000000001</v>
       </c>
       <c r="E25">
-        <v>1.12429</v>
+        <v>1.1256900000000001</v>
       </c>
       <c r="F25">
-        <v>1.1313899999999999</v>
+        <v>1.1328800000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1.3090000000000046</v>
+        <v>0.9260000000000046</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1256,23 @@
         <v>15</v>
       </c>
       <c r="B26" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C26">
-        <v>1.1242700000000001</v>
+        <v>1.1281399999999999</v>
       </c>
       <c r="D26">
-        <v>1.1337900000000001</v>
+        <v>1.1335500000000001</v>
       </c>
       <c r="E26">
-        <v>1.1207</v>
+        <v>1.12429</v>
       </c>
       <c r="F26">
-        <v>1.12782</v>
+        <v>1.1313899999999999</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1.419999999999999</v>
+        <v>1.3090000000000046</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1280,23 @@
         <v>15</v>
       </c>
       <c r="B27" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C27">
-        <v>1.1250599999999999</v>
+        <v>1.1242700000000001</v>
       </c>
       <c r="D27">
-        <v>1.12845</v>
+        <v>1.1337900000000001</v>
       </c>
       <c r="E27">
-        <v>1.11425</v>
+        <v>1.1207</v>
       </c>
       <c r="F27">
-        <v>1.12422</v>
+        <v>1.12782</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1.2969999999999926</v>
+        <v>1.419999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1304,23 @@
         <v>15</v>
       </c>
       <c r="B28" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C28">
-        <v>1.1303700000000001</v>
+        <v>1.1250599999999999</v>
       </c>
       <c r="D28">
-        <v>1.1342399999999999</v>
+        <v>1.12845</v>
       </c>
       <c r="E28">
-        <v>1.12127</v>
+        <v>1.11425</v>
       </c>
       <c r="F28">
-        <v>1.12598</v>
+        <v>1.12422</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1.0110000000000063</v>
+        <v>1.2969999999999926</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1328,23 @@
         <v>15</v>
       </c>
       <c r="B29" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C29">
-        <v>1.1265000000000001</v>
+        <v>1.1303700000000001</v>
       </c>
       <c r="D29">
-        <v>1.1347100000000001</v>
+        <v>1.1342399999999999</v>
       </c>
       <c r="E29">
-        <v>1.1246</v>
+        <v>1.12127</v>
       </c>
       <c r="F29">
-        <v>1.1308199999999999</v>
+        <v>1.12598</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0.83099999999998175</v>
+        <v>1.0110000000000063</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1352,23 @@
         <v>15</v>
       </c>
       <c r="B30" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C30">
-        <v>1.12829</v>
+        <v>1.1265000000000001</v>
       </c>
       <c r="D30">
-        <v>1.1305799999999999</v>
+        <v>1.1347100000000001</v>
       </c>
       <c r="E30">
-        <v>1.1222700000000001</v>
+        <v>1.1246</v>
       </c>
       <c r="F30">
-        <v>1.12846</v>
+        <v>1.1308199999999999</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0.67800000000000082</v>
+        <v>0.83099999999998175</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1376,23 @@
         <v>15</v>
       </c>
       <c r="B31" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C31">
-        <v>1.13303</v>
+        <v>1.12829</v>
       </c>
       <c r="D31">
-        <v>1.13463</v>
+        <v>1.1305799999999999</v>
       </c>
       <c r="E31">
-        <v>1.12785</v>
+        <v>1.1222700000000001</v>
       </c>
       <c r="F31">
-        <v>1.1283300000000001</v>
+        <v>1.12846</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>0.96000000000000529</v>
+        <v>0.67800000000000082</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1400,23 @@
         <v>15</v>
       </c>
       <c r="B32" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C32">
-        <v>1.13039</v>
+        <v>1.13303</v>
       </c>
       <c r="D32">
-        <v>1.13548</v>
+        <v>1.13463</v>
       </c>
       <c r="E32">
-        <v>1.12588</v>
+        <v>1.12785</v>
       </c>
       <c r="F32">
-        <v>1.13019</v>
+        <v>1.1283300000000001</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.2210000000000054</v>
+        <v>0.96000000000000529</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1424,23 @@
         <v>15</v>
       </c>
       <c r="B33" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C33">
-        <v>1.1401300000000001</v>
+        <v>1.13039</v>
       </c>
       <c r="D33">
-        <v>1.1415</v>
+        <v>1.13548</v>
       </c>
       <c r="E33">
-        <v>1.1292899999999999</v>
+        <v>1.12588</v>
       </c>
       <c r="F33">
-        <v>1.1303700000000001</v>
+        <v>1.13019</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.0040000000000049</v>
+        <v>1.2210000000000054</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1448,23 @@
         <v>15</v>
       </c>
       <c r="B34" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C34">
-        <v>1.1379600000000001</v>
+        <v>1.1401300000000001</v>
       </c>
       <c r="D34">
-        <v>1.1432500000000001</v>
+        <v>1.1415</v>
       </c>
       <c r="E34">
-        <v>1.1332100000000001</v>
+        <v>1.1292899999999999</v>
       </c>
       <c r="F34">
-        <v>1.1408700000000001</v>
+        <v>1.1303700000000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0.873999999999997</v>
+        <v>1.0040000000000049</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1472,23 @@
         <v>15</v>
       </c>
       <c r="B35" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C35">
-        <v>1.14215</v>
+        <v>1.1379600000000001</v>
       </c>
       <c r="D35">
-        <v>1.14682</v>
+        <v>1.1432500000000001</v>
       </c>
       <c r="E35">
-        <v>1.13808</v>
+        <v>1.1332100000000001</v>
       </c>
       <c r="F35">
-        <v>1.1396599999999999</v>
+        <v>1.1408700000000001</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>0.8960000000000079</v>
+        <v>0.873999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1496,23 @@
         <v>15</v>
       </c>
       <c r="B36" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C36">
-        <v>1.1371199999999999</v>
+        <v>1.14215</v>
       </c>
       <c r="D36">
-        <v>1.14527</v>
+        <v>1.14682</v>
       </c>
       <c r="E36">
-        <v>1.1363099999999999</v>
+        <v>1.13808</v>
       </c>
       <c r="F36">
-        <v>1.1430199999999999</v>
+        <v>1.1396599999999999</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1.5819999999999945</v>
+        <v>0.8960000000000079</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1520,23 @@
         <v>15</v>
       </c>
       <c r="B37" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C37">
-        <v>1.1457599999999999</v>
+        <v>1.1371199999999999</v>
       </c>
       <c r="D37">
-        <v>1.14988</v>
+        <v>1.14527</v>
       </c>
       <c r="E37">
-        <v>1.1340600000000001</v>
+        <v>1.1363099999999999</v>
       </c>
       <c r="F37">
-        <v>1.1362300000000001</v>
+        <v>1.1430199999999999</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>0.99899999999999434</v>
+        <v>1.5819999999999945</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1544,23 @@
         <v>15</v>
       </c>
       <c r="B38" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C38">
-        <v>1.14456</v>
+        <v>1.1457599999999999</v>
       </c>
       <c r="D38">
-        <v>1.14896</v>
+        <v>1.14988</v>
       </c>
       <c r="E38">
-        <v>1.13897</v>
+        <v>1.1340600000000001</v>
       </c>
       <c r="F38">
-        <v>1.1469499999999999</v>
+        <v>1.1362300000000001</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.2320000000000109</v>
+        <v>0.99899999999999434</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1568,23 @@
         <v>15</v>
       </c>
       <c r="B39" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C39">
-        <v>1.1422399999999999</v>
+        <v>1.14456</v>
       </c>
       <c r="D39">
-        <v>1.149</v>
+        <v>1.14896</v>
       </c>
       <c r="E39">
-        <v>1.1366799999999999</v>
+        <v>1.13897</v>
       </c>
       <c r="F39">
-        <v>1.1460300000000001</v>
+        <v>1.1469499999999999</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.3740000000000085</v>
+        <v>1.2320000000000109</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1592,23 @@
         <v>15</v>
       </c>
       <c r="B40" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C40">
-        <v>1.13794</v>
+        <v>1.1422399999999999</v>
       </c>
       <c r="D40">
-        <v>1.1447700000000001</v>
+        <v>1.149</v>
       </c>
       <c r="E40">
-        <v>1.13103</v>
+        <v>1.1366799999999999</v>
       </c>
       <c r="F40">
-        <v>1.1431899999999999</v>
+        <v>1.1460300000000001</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.6379999999999839</v>
+        <v>1.3740000000000085</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1616,23 @@
         <v>15</v>
       </c>
       <c r="B41" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C41">
-        <v>1.1256600000000001</v>
+        <v>1.13794</v>
       </c>
       <c r="D41">
-        <v>1.1412599999999999</v>
+        <v>1.1447700000000001</v>
       </c>
       <c r="E41">
-        <v>1.1248800000000001</v>
+        <v>1.13103</v>
       </c>
       <c r="F41">
-        <v>1.139</v>
+        <v>1.1431899999999999</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.0559999999999903</v>
+        <v>1.6379999999999839</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1640,23 @@
         <v>15</v>
       </c>
       <c r="B42" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C42">
+        <v>1.1256600000000001</v>
+      </c>
+      <c r="D42">
+        <v>1.1412599999999999</v>
+      </c>
+      <c r="E42">
         <v>1.1248800000000001</v>
       </c>
-      <c r="D42">
-        <v>1.1325099999999999</v>
-      </c>
-      <c r="E42">
-        <v>1.12195</v>
-      </c>
       <c r="F42">
-        <v>1.12602</v>
+        <v>1.139</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1.5859999999999985</v>
+        <v>1.0559999999999903</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1664,23 @@
         <v>15</v>
       </c>
       <c r="B43" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C43">
-        <v>1.1191899999999999</v>
+        <v>1.1248800000000001</v>
       </c>
       <c r="D43">
-        <v>1.13415</v>
+        <v>1.1325099999999999</v>
       </c>
       <c r="E43">
-        <v>1.11829</v>
+        <v>1.12195</v>
       </c>
       <c r="F43">
-        <v>1.12401</v>
+        <v>1.12602</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.3719999999999954</v>
+        <v>1.5859999999999985</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1688,23 @@
         <v>15</v>
       </c>
       <c r="B44" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C44">
-        <v>1.1240600000000001</v>
+        <v>1.1191899999999999</v>
       </c>
       <c r="D44">
-        <v>1.13182</v>
+        <v>1.13415</v>
       </c>
       <c r="E44">
-        <v>1.1181000000000001</v>
+        <v>1.11829</v>
       </c>
       <c r="F44">
-        <v>1.11937</v>
+        <v>1.12401</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>2.1490000000000009</v>
+        <v>1.3719999999999954</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1712,23 @@
         <v>15</v>
       </c>
       <c r="B45" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C45">
-        <v>1.1424700000000001</v>
+        <v>1.1240600000000001</v>
       </c>
       <c r="D45">
-        <v>1.1451899999999999</v>
+        <v>1.13182</v>
       </c>
       <c r="E45">
-        <v>1.1236999999999999</v>
+        <v>1.1181000000000001</v>
       </c>
       <c r="F45">
-        <v>1.1246400000000001</v>
+        <v>1.11937</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>0.75700000000000767</v>
+        <v>2.1490000000000009</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1736,23 @@
         <v>15</v>
       </c>
       <c r="B46" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C46">
-        <v>1.1380300000000001</v>
+        <v>1.1424700000000001</v>
       </c>
       <c r="D46">
-        <v>1.14273</v>
+        <v>1.1451899999999999</v>
       </c>
       <c r="E46">
-        <v>1.1351599999999999</v>
+        <v>1.1236999999999999</v>
       </c>
       <c r="F46">
-        <v>1.1423000000000001</v>
+        <v>1.1246400000000001</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.5109999999999957</v>
+        <v>0.75700000000000767</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1760,23 @@
         <v>15</v>
       </c>
       <c r="B47" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C47">
-        <v>1.13062</v>
+        <v>1.1380300000000001</v>
       </c>
       <c r="D47">
-        <v>1.13924</v>
+        <v>1.14273</v>
       </c>
       <c r="E47">
-        <v>1.1241300000000001</v>
+        <v>1.1351599999999999</v>
       </c>
       <c r="F47">
-        <v>1.13849</v>
+        <v>1.1423000000000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>2.1770000000000067</v>
+        <v>1.5109999999999957</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1784,23 @@
         <v>15</v>
       </c>
       <c r="B48" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C48">
-        <v>1.1499900000000001</v>
+        <v>1.13062</v>
       </c>
       <c r="D48">
-        <v>1.15554</v>
+        <v>1.13924</v>
       </c>
       <c r="E48">
-        <v>1.1337699999999999</v>
+        <v>1.1241300000000001</v>
       </c>
       <c r="F48">
-        <v>1.1361000000000001</v>
+        <v>1.13849</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.0679999999999801</v>
+        <v>2.1770000000000067</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1808,23 @@
         <v>15</v>
       </c>
       <c r="B49" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C49">
-        <v>1.15889</v>
+        <v>1.1499900000000001</v>
       </c>
       <c r="D49">
-        <v>1.1601999999999999</v>
+        <v>1.15554</v>
       </c>
       <c r="E49">
-        <v>1.1495200000000001</v>
+        <v>1.1337699999999999</v>
       </c>
       <c r="F49">
-        <v>1.1498200000000001</v>
+        <v>1.1361000000000001</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>0.74799999999999311</v>
+        <v>1.0679999999999801</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1832,23 @@
         <v>15</v>
       </c>
       <c r="B50" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C50">
-        <v>1.1628099999999999</v>
+        <v>1.15889</v>
       </c>
       <c r="D50">
-        <v>1.1639699999999999</v>
+        <v>1.1601999999999999</v>
       </c>
       <c r="E50">
-        <v>1.15649</v>
+        <v>1.1495200000000001</v>
       </c>
       <c r="F50">
-        <v>1.15944</v>
+        <v>1.1498200000000001</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.114000000000015</v>
+        <v>0.74799999999999311</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1856,23 @@
         <v>15</v>
       </c>
       <c r="B51" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C51">
-        <v>1.1695599999999999</v>
+        <v>1.1628099999999999</v>
       </c>
       <c r="D51">
-        <v>1.17117</v>
+        <v>1.1639699999999999</v>
       </c>
       <c r="E51">
-        <v>1.1600299999999999</v>
+        <v>1.15649</v>
       </c>
       <c r="F51">
-        <v>1.16262</v>
+        <v>1.15944</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.0270000000000001</v>
+        <v>1.114000000000015</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1880,23 @@
         <v>15</v>
       </c>
       <c r="B52" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C52">
-        <v>1.1622300000000001</v>
+        <v>1.1695599999999999</v>
       </c>
       <c r="D52">
-        <v>1.1706300000000001</v>
+        <v>1.17117</v>
       </c>
       <c r="E52">
-        <v>1.1603600000000001</v>
+        <v>1.1600299999999999</v>
       </c>
       <c r="F52">
-        <v>1.17021</v>
+        <v>1.16262</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.0489999999999888</v>
+        <v>1.0270000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1904,23 @@
         <v>15</v>
       </c>
       <c r="B53" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C53">
-        <v>1.1558299999999999</v>
+        <v>1.1622300000000001</v>
       </c>
       <c r="D53">
-        <v>1.16374</v>
+        <v>1.1706300000000001</v>
       </c>
       <c r="E53">
-        <v>1.1532500000000001</v>
+        <v>1.1603600000000001</v>
       </c>
       <c r="F53">
-        <v>1.1630100000000001</v>
+        <v>1.17021</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.1089999999999822</v>
+        <v>1.0489999999999888</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1928,23 @@
         <v>15</v>
       </c>
       <c r="B54" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C54">
-        <v>1.1524000000000001</v>
+        <v>1.1558299999999999</v>
       </c>
       <c r="D54">
-        <v>1.1598299999999999</v>
+        <v>1.16374</v>
       </c>
       <c r="E54">
-        <v>1.1487400000000001</v>
+        <v>1.1532500000000001</v>
       </c>
       <c r="F54">
-        <v>1.1569</v>
+        <v>1.1630100000000001</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>0.92399999999999149</v>
+        <v>1.1089999999999822</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1952,23 @@
         <v>15</v>
       </c>
       <c r="B55" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C55">
-        <v>1.1559299999999999</v>
+        <v>1.1524000000000001</v>
       </c>
       <c r="D55">
-        <v>1.1569799999999999</v>
+        <v>1.1598299999999999</v>
       </c>
       <c r="E55">
-        <v>1.14774</v>
+        <v>1.1487400000000001</v>
       </c>
       <c r="F55">
-        <v>1.1512</v>
+        <v>1.1569</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>1.3149999999999995</v>
+        <v>0.92399999999999149</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1976,23 @@
         <v>15</v>
       </c>
       <c r="B56" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C56">
-        <v>1.1590199999999999</v>
+        <v>1.1559299999999999</v>
       </c>
       <c r="D56">
-        <v>1.1654599999999999</v>
+        <v>1.1569799999999999</v>
       </c>
       <c r="E56">
-        <v>1.1523099999999999</v>
+        <v>1.14774</v>
       </c>
       <c r="F56">
-        <v>1.1570100000000001</v>
+        <v>1.1512</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>1.3369999999999882</v>
+        <v>1.3149999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +2000,23 @@
         <v>15</v>
       </c>
       <c r="B57" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C57">
-        <v>1.15283</v>
+        <v>1.1590199999999999</v>
       </c>
       <c r="D57">
-        <v>1.16377</v>
+        <v>1.1654599999999999</v>
       </c>
       <c r="E57">
-        <v>1.1504000000000001</v>
+        <v>1.1523099999999999</v>
       </c>
       <c r="F57">
-        <v>1.1589700000000001</v>
+        <v>1.1570100000000001</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.6049999999999907</v>
+        <v>1.3369999999999882</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2024,23 @@
         <v>15</v>
       </c>
       <c r="B58" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C58">
-        <v>1.1596299999999999</v>
+        <v>1.15283</v>
       </c>
       <c r="D58">
-        <v>1.1626399999999999</v>
+        <v>1.16377</v>
       </c>
       <c r="E58">
-        <v>1.13659</v>
+        <v>1.1504000000000001</v>
       </c>
       <c r="F58">
-        <v>1.15198</v>
+        <v>1.1589700000000001</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.3249999999999993</v>
+        <v>2.6049999999999907</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2048,23 @@
         <v>15</v>
       </c>
       <c r="B59" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C59">
-        <v>1.1736500000000001</v>
+        <v>1.1596299999999999</v>
       </c>
       <c r="D59">
-        <v>1.1769099999999999</v>
+        <v>1.1626399999999999</v>
       </c>
       <c r="E59">
-        <v>1.1536599999999999</v>
+        <v>1.13659</v>
       </c>
       <c r="F59">
-        <v>1.15463</v>
+        <v>1.15198</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>2.5020000000000042</v>
+        <v>2.3249999999999993</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2072,23 @@
         <v>15</v>
       </c>
       <c r="B60" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C60">
-        <v>1.19404</v>
+        <v>1.1736500000000001</v>
       </c>
       <c r="D60">
-        <v>1.1977800000000001</v>
+        <v>1.1769099999999999</v>
       </c>
       <c r="E60">
-        <v>1.17276</v>
+        <v>1.1536599999999999</v>
       </c>
       <c r="F60">
-        <v>1.1736</v>
+        <v>1.15463</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.1370000000000102</v>
+        <v>2.5020000000000042</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2096,23 @@
         <v>15</v>
       </c>
       <c r="B61" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C61">
-        <v>1.1957500000000001</v>
+        <v>1.19404</v>
       </c>
       <c r="D61">
-        <v>1.19774</v>
+        <v>1.1977800000000001</v>
       </c>
       <c r="E61">
-        <v>1.1863699999999999</v>
+        <v>1.17276</v>
       </c>
       <c r="F61">
-        <v>1.19478</v>
+        <v>1.1736</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>0.52699999999998859</v>
+        <v>1.1370000000000102</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2120,23 @@
         <v>15</v>
       </c>
       <c r="B62" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C62">
-        <v>1.1977100000000001</v>
+        <v>1.1957500000000001</v>
       </c>
       <c r="D62">
-        <v>1.1985399999999999</v>
+        <v>1.19774</v>
       </c>
       <c r="E62">
-        <v>1.1932700000000001</v>
+        <v>1.1863699999999999</v>
       </c>
       <c r="F62">
-        <v>1.19648</v>
+        <v>1.19478</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>0.72100000000001607</v>
+        <v>0.52699999999998859</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2144,23 @@
         <v>15</v>
       </c>
       <c r="B63" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C63">
-        <v>1.1975</v>
+        <v>1.1977100000000001</v>
       </c>
       <c r="D63">
-        <v>1.1994800000000001</v>
+        <v>1.1985399999999999</v>
       </c>
       <c r="E63">
-        <v>1.1922699999999999</v>
+        <v>1.1932700000000001</v>
       </c>
       <c r="F63">
-        <v>1.1978</v>
+        <v>1.19648</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.4049999999999896</v>
+        <v>0.72100000000001607</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2168,23 @@
         <v>15</v>
       </c>
       <c r="B64" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C64">
-        <v>1.18634</v>
+        <v>1.1975</v>
       </c>
       <c r="D64">
-        <v>1.20031</v>
+        <v>1.1994800000000001</v>
       </c>
       <c r="E64">
-        <v>1.1862600000000001</v>
+        <v>1.1922699999999999</v>
       </c>
       <c r="F64">
-        <v>1.1977</v>
+        <v>1.1978</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.2319999999999887</v>
+        <v>1.4049999999999896</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2192,23 @@
         <v>15</v>
       </c>
       <c r="B65" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C65">
-        <v>1.17682</v>
+        <v>1.18634</v>
       </c>
       <c r="D65">
-        <v>1.18875</v>
+        <v>1.20031</v>
       </c>
       <c r="E65">
-        <v>1.1764300000000001</v>
+        <v>1.1862600000000001</v>
       </c>
       <c r="F65">
-        <v>1.1863600000000001</v>
+        <v>1.1977</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>0.68000000000001393</v>
+        <v>1.2319999999999887</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2216,23 @@
         <v>15</v>
       </c>
       <c r="B66" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C66">
-        <v>1.1751199999999999</v>
+        <v>1.17682</v>
       </c>
       <c r="D66">
-        <v>1.1802900000000001</v>
+        <v>1.18875</v>
       </c>
       <c r="E66">
-        <v>1.1734899999999999</v>
+        <v>1.1764300000000001</v>
       </c>
       <c r="F66">
-        <v>1.1776199999999999</v>
+        <v>1.1863600000000001</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.1390000000000011</v>
+        <v>0.68000000000001393</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2240,23 @@
         <v>15</v>
       </c>
       <c r="B67" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C67">
-        <v>1.1692800000000001</v>
+        <v>1.1751199999999999</v>
       </c>
       <c r="D67">
-        <v>1.18011</v>
+        <v>1.1802900000000001</v>
       </c>
       <c r="E67">
-        <v>1.16872</v>
+        <v>1.1734899999999999</v>
       </c>
       <c r="F67">
-        <v>1.1752800000000001</v>
+        <v>1.1776199999999999</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>0.98000000000000309</v>
+        <v>1.1390000000000011</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2264,23 @@
         <v>15</v>
       </c>
       <c r="B68" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C68">
-        <v>1.1698999999999999</v>
+        <v>1.1692800000000001</v>
       </c>
       <c r="D68">
-        <v>1.1746799999999999</v>
+        <v>1.18011</v>
       </c>
       <c r="E68">
-        <v>1.1648799999999999</v>
+        <v>1.16872</v>
       </c>
       <c r="F68">
-        <v>1.17038</v>
+        <v>1.1752800000000001</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>0.41999999999999815</v>
+        <v>0.98000000000000309</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2288,23 @@
         <v>15</v>
       </c>
       <c r="B69" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C69">
-        <v>1.1708400000000001</v>
+        <v>1.1698999999999999</v>
       </c>
       <c r="D69">
-        <v>1.17134</v>
+        <v>1.1746799999999999</v>
       </c>
       <c r="E69">
-        <v>1.1671400000000001</v>
+        <v>1.1648799999999999</v>
       </c>
       <c r="F69">
-        <v>1.1698</v>
+        <v>1.17038</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>2.3129999999999873</v>
+        <v>0.41999999999999815</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2312,23 @@
         <v>15</v>
       </c>
       <c r="B70" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C70">
-        <v>1.15435</v>
+        <v>1.1708400000000001</v>
       </c>
       <c r="D70">
-        <v>1.17394</v>
+        <v>1.17134</v>
       </c>
       <c r="E70">
-        <v>1.1508100000000001</v>
+        <v>1.1671400000000001</v>
       </c>
       <c r="F70">
-        <v>1.17055</v>
+        <v>1.1698</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>0.80299999999999816</v>
+        <v>2.3129999999999873</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2336,23 @@
         <v>15</v>
       </c>
       <c r="B71" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C71">
-        <v>1.1510800000000001</v>
+        <v>1.15435</v>
       </c>
       <c r="D71">
-        <v>1.1560900000000001</v>
+        <v>1.17394</v>
       </c>
       <c r="E71">
-        <v>1.1480600000000001</v>
+        <v>1.1508100000000001</v>
       </c>
       <c r="F71">
-        <v>1.15516</v>
+        <v>1.17055</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>0.69400000000001683</v>
+        <v>0.80299999999999816</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2360,23 @@
         <v>15</v>
       </c>
       <c r="B72" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C72">
-        <v>1.1511800000000001</v>
+        <v>1.1510800000000001</v>
       </c>
       <c r="D72">
-        <v>1.1558200000000001</v>
+        <v>1.1560900000000001</v>
       </c>
       <c r="E72">
-        <v>1.1488799999999999</v>
+        <v>1.1480600000000001</v>
       </c>
       <c r="F72">
-        <v>1.1512100000000001</v>
+        <v>1.15516</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>0.98100000000000964</v>
+        <v>0.69400000000001683</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2384,23 @@
         <v>15</v>
       </c>
       <c r="B73" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C73">
-        <v>1.15049</v>
+        <v>1.1511800000000001</v>
       </c>
       <c r="D73">
-        <v>1.1582600000000001</v>
+        <v>1.1558200000000001</v>
       </c>
       <c r="E73">
-        <v>1.14845</v>
+        <v>1.1488799999999999</v>
       </c>
       <c r="F73">
-        <v>1.15055</v>
+        <v>1.1512100000000001</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>1.9290000000000029</v>
+        <v>0.98100000000000964</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2408,23 @@
         <v>15</v>
       </c>
       <c r="B74" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C74">
-        <v>1.1601399999999999</v>
+        <v>1.15049</v>
       </c>
       <c r="D74">
-        <v>1.16374</v>
+        <v>1.1582600000000001</v>
       </c>
       <c r="E74">
-        <v>1.14445</v>
+        <v>1.14845</v>
       </c>
       <c r="F74">
-        <v>1.15065</v>
+        <v>1.15055</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>0.96400000000000929</v>
+        <v>1.9290000000000029</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2432,23 @@
         <v>15</v>
       </c>
       <c r="B75" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C75">
-        <v>1.1609499999999999</v>
+        <v>1.1601399999999999</v>
       </c>
       <c r="D75">
-        <v>1.16351</v>
+        <v>1.16374</v>
       </c>
       <c r="E75">
-        <v>1.15387</v>
+        <v>1.14445</v>
       </c>
       <c r="F75">
-        <v>1.15985</v>
+        <v>1.15065</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>2.1029999999999882</v>
+        <v>0.96400000000000929</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2456,23 @@
         <v>15</v>
       </c>
       <c r="B76" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C76">
-        <v>1.17862</v>
+        <v>1.1609499999999999</v>
       </c>
       <c r="D76">
-        <v>1.1795599999999999</v>
+        <v>1.16351</v>
       </c>
       <c r="E76">
-        <v>1.1585300000000001</v>
+        <v>1.15387</v>
       </c>
       <c r="F76">
-        <v>1.1596200000000001</v>
+        <v>1.15985</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.2109999999999843</v>
+        <v>2.1029999999999882</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2480,23 @@
         <v>15</v>
       </c>
       <c r="B77" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C77">
-        <v>1.17997</v>
+        <v>1.17862</v>
       </c>
       <c r="D77">
-        <v>1.1830499999999999</v>
+        <v>1.1795599999999999</v>
       </c>
       <c r="E77">
-        <v>1.1709400000000001</v>
+        <v>1.1585300000000001</v>
       </c>
       <c r="F77">
-        <v>1.1771499999999999</v>
+        <v>1.1596200000000001</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.265000000000005</v>
+        <v>1.2109999999999843</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2504,23 @@
         <v>15</v>
       </c>
       <c r="B78" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C78">
-        <v>1.17245</v>
+        <v>1.17997</v>
       </c>
       <c r="D78">
-        <v>1.1807700000000001</v>
+        <v>1.1830499999999999</v>
       </c>
       <c r="E78">
-        <v>1.16812</v>
+        <v>1.1709400000000001</v>
       </c>
       <c r="F78">
-        <v>1.17987</v>
+        <v>1.1771499999999999</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>0.9140000000000148</v>
+        <v>1.265000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2528,23 @@
         <v>15</v>
       </c>
       <c r="B79" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C79">
-        <v>1.16953</v>
+        <v>1.17245</v>
       </c>
       <c r="D79">
-        <v>1.17761</v>
+        <v>1.1807700000000001</v>
       </c>
       <c r="E79">
-        <v>1.1684699999999999</v>
+        <v>1.16812</v>
       </c>
       <c r="F79">
-        <v>1.17265</v>
+        <v>1.17987</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>1.0550000000000059</v>
+        <v>0.9140000000000148</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2552,23 @@
         <v>15</v>
       </c>
       <c r="B80" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C80">
-        <v>1.1714100000000001</v>
+        <v>1.16953</v>
       </c>
       <c r="D80">
-        <v>1.17746</v>
+        <v>1.17761</v>
       </c>
       <c r="E80">
-        <v>1.1669099999999999</v>
+        <v>1.1684699999999999</v>
       </c>
       <c r="F80">
-        <v>1.1692800000000001</v>
+        <v>1.17265</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>1.424000000000003</v>
+        <v>1.0550000000000059</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2576,23 @@
         <v>15</v>
       </c>
       <c r="B81" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C81">
-        <v>1.1638900000000001</v>
+        <v>1.1714100000000001</v>
       </c>
       <c r="D81">
-        <v>1.17479</v>
+        <v>1.17746</v>
       </c>
       <c r="E81">
-        <v>1.16055</v>
+        <v>1.1669099999999999</v>
       </c>
       <c r="F81">
-        <v>1.1732899999999999</v>
+        <v>1.1692800000000001</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>0.85299999999999265</v>
+        <v>1.424000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2600,23 @@
         <v>15</v>
       </c>
       <c r="B82" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C82">
-        <v>1.1692100000000001</v>
+        <v>1.1638900000000001</v>
       </c>
       <c r="D82">
-        <v>1.1702399999999999</v>
+        <v>1.17479</v>
       </c>
       <c r="E82">
-        <v>1.16171</v>
+        <v>1.16055</v>
       </c>
       <c r="F82">
-        <v>1.1631</v>
+        <v>1.1732899999999999</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>0.90500000000000025</v>
+        <v>0.85299999999999265</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2624,23 @@
         <v>15</v>
       </c>
       <c r="B83" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C83">
-        <v>1.1636200000000001</v>
+        <v>1.1692100000000001</v>
       </c>
       <c r="D83">
-        <v>1.1717299999999999</v>
+        <v>1.1702399999999999</v>
       </c>
       <c r="E83">
-        <v>1.1626799999999999</v>
+        <v>1.16171</v>
       </c>
       <c r="F83">
-        <v>1.1678999999999999</v>
+        <v>1.1631</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.3830000000000009</v>
+        <v>0.90500000000000025</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2648,23 @@
         <v>15</v>
       </c>
       <c r="B84" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C84">
-        <v>1.1681999999999999</v>
+        <v>1.1636200000000001</v>
       </c>
       <c r="D84">
-        <v>1.1734599999999999</v>
+        <v>1.1717299999999999</v>
       </c>
       <c r="E84">
-        <v>1.1596299999999999</v>
+        <v>1.1626799999999999</v>
       </c>
       <c r="F84">
-        <v>1.16143</v>
+        <v>1.1678999999999999</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.1199999999999877</v>
+        <v>1.3830000000000009</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2672,23 @@
         <v>15</v>
       </c>
       <c r="B85" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C85">
-        <v>1.1658299999999999</v>
+        <v>1.1681999999999999</v>
       </c>
       <c r="D85">
-        <v>1.1695199999999999</v>
+        <v>1.1734599999999999</v>
       </c>
       <c r="E85">
-        <v>1.15832</v>
+        <v>1.1596299999999999</v>
       </c>
       <c r="F85">
-        <v>1.16876</v>
+        <v>1.16143</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.3919999999999932</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2696,23 @@
         <v>15</v>
       </c>
       <c r="B86" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C86">
-        <v>1.1603300000000001</v>
+        <v>1.1658299999999999</v>
       </c>
       <c r="D86">
-        <v>1.17205</v>
+        <v>1.1695199999999999</v>
       </c>
       <c r="E86">
-        <v>1.1581300000000001</v>
+        <v>1.15832</v>
       </c>
       <c r="F86">
-        <v>1.1657299999999999</v>
+        <v>1.16876</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>0.98000000000000309</v>
+        <v>1.3919999999999932</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2720,23 @@
         <v>15</v>
       </c>
       <c r="B87" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C87">
-        <v>1.1609499999999999</v>
+        <v>1.1603300000000001</v>
       </c>
       <c r="D87">
-        <v>1.1638299999999999</v>
+        <v>1.17205</v>
       </c>
       <c r="E87">
-        <v>1.1540299999999999</v>
+        <v>1.1581300000000001</v>
       </c>
       <c r="F87">
-        <v>1.1613599999999999</v>
+        <v>1.1657299999999999</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>0.93599999999998129</v>
+        <v>0.98000000000000309</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2744,23 @@
         <v>15</v>
       </c>
       <c r="B88" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C88">
-        <v>1.1575500000000001</v>
+        <v>1.1609499999999999</v>
       </c>
       <c r="D88">
-        <v>1.1661999999999999</v>
+        <v>1.1638299999999999</v>
       </c>
       <c r="E88">
-        <v>1.1568400000000001</v>
+        <v>1.1540299999999999</v>
       </c>
       <c r="F88">
-        <v>1.1611800000000001</v>
+        <v>1.1613599999999999</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.5149999999999997</v>
+        <v>0.93599999999998129</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2768,23 @@
         <v>15</v>
       </c>
       <c r="B89" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C89">
-        <v>1.1591899999999999</v>
+        <v>1.1575500000000001</v>
       </c>
       <c r="D89">
-        <v>1.1709400000000001</v>
+        <v>1.1661999999999999</v>
       </c>
       <c r="E89">
-        <v>1.1557900000000001</v>
+        <v>1.1568400000000001</v>
       </c>
       <c r="F89">
-        <v>1.1573</v>
+        <v>1.1611800000000001</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.4490000000000114</v>
+        <v>1.5149999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2792,23 @@
         <v>15</v>
       </c>
       <c r="B90" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C90">
-        <v>1.15126</v>
+        <v>1.1591899999999999</v>
       </c>
       <c r="D90">
-        <v>1.16273</v>
+        <v>1.1709400000000001</v>
       </c>
       <c r="E90">
-        <v>1.1482399999999999</v>
+        <v>1.1557900000000001</v>
       </c>
       <c r="F90">
-        <v>1.15937</v>
+        <v>1.1573</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009</v>
+        <v>1.4490000000000114</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2816,23 @@
         <v>15</v>
       </c>
       <c r="B91" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C91">
-        <v>1.1473</v>
+        <v>1.15126</v>
       </c>
       <c r="D91">
-        <v>1.1563600000000001</v>
+        <v>1.16273</v>
       </c>
       <c r="E91">
-        <v>1.14636</v>
+        <v>1.1482399999999999</v>
       </c>
       <c r="F91">
-        <v>1.1518999999999999</v>
+        <v>1.15937</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.102000000000003</v>
+        <v>1.0000000000000009</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2840,23 @@
         <v>15</v>
       </c>
       <c r="B92" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C92">
-        <v>1.1430400000000001</v>
+        <v>1.1473</v>
       </c>
       <c r="D92">
-        <v>1.1496200000000001</v>
+        <v>1.1563600000000001</v>
       </c>
       <c r="E92">
-        <v>1.1386000000000001</v>
+        <v>1.14636</v>
       </c>
       <c r="F92">
-        <v>1.14734</v>
+        <v>1.1518999999999999</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.8259999999999943</v>
+        <v>1.102000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2864,23 @@
         <v>15</v>
       </c>
       <c r="B93" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C93">
-        <v>1.15611</v>
+        <v>1.1430400000000001</v>
       </c>
       <c r="D93">
-        <v>1.1588499999999999</v>
+        <v>1.1496200000000001</v>
       </c>
       <c r="E93">
-        <v>1.14059</v>
+        <v>1.1386000000000001</v>
       </c>
       <c r="F93">
-        <v>1.14405</v>
+        <v>1.14734</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.7249999999999988</v>
+        <v>1.8259999999999943</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2888,23 @@
         <v>15</v>
       </c>
       <c r="B94" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C94">
-        <v>1.14653</v>
+        <v>1.15611</v>
       </c>
       <c r="D94">
-        <v>1.16212</v>
+        <v>1.1588499999999999</v>
       </c>
       <c r="E94">
-        <v>1.1448700000000001</v>
+        <v>1.14059</v>
       </c>
       <c r="F94">
-        <v>1.1584700000000001</v>
+        <v>1.14405</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.5339999999999909</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2912,23 @@
         <v>15</v>
       </c>
       <c r="B95" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C95">
-        <v>1.13794</v>
+        <v>1.14653</v>
       </c>
       <c r="D95">
-        <v>1.1527099999999999</v>
+        <v>1.16212</v>
       </c>
       <c r="E95">
-        <v>1.13737</v>
+        <v>1.1448700000000001</v>
       </c>
       <c r="F95">
-        <v>1.1461399999999999</v>
+        <v>1.1584700000000001</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.1959999999999971</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2936,23 @@
         <v>15</v>
       </c>
       <c r="B96" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C96">
-        <v>1.13937</v>
+        <v>1.13794</v>
       </c>
       <c r="D96">
-        <v>1.1479900000000001</v>
+        <v>1.1527099999999999</v>
       </c>
       <c r="E96">
-        <v>1.1360300000000001</v>
+        <v>1.13737</v>
       </c>
       <c r="F96">
-        <v>1.13609</v>
+        <v>1.1461399999999999</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.1199999999999877</v>
+        <v>1.1959999999999971</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2960,23 @@
         <v>15</v>
       </c>
       <c r="B97" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C97">
-        <v>1.14029</v>
+        <v>1.13937</v>
       </c>
       <c r="D97">
-        <v>1.1470199999999999</v>
+        <v>1.1479900000000001</v>
       </c>
       <c r="E97">
-        <v>1.1358200000000001</v>
+        <v>1.1360300000000001</v>
       </c>
       <c r="F97">
-        <v>1.14402</v>
+        <v>1.13609</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.0219999999999896</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2984,23 @@
         <v>15</v>
       </c>
       <c r="B98" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C98">
-        <v>1.13449</v>
+        <v>1.14029</v>
       </c>
       <c r="D98">
-        <v>1.14211</v>
+        <v>1.1470199999999999</v>
       </c>
       <c r="E98">
-        <v>1.1318900000000001</v>
+        <v>1.1358200000000001</v>
       </c>
       <c r="F98">
-        <v>1.1402300000000001</v>
+        <v>1.14402</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>2.1900000000000031</v>
+        <v>1.0219999999999896</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3008,23 @@
         <v>15</v>
       </c>
       <c r="B99" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C99">
-        <v>1.1373599999999999</v>
+        <v>1.13449</v>
       </c>
       <c r="D99">
-        <v>1.14757</v>
+        <v>1.14211</v>
       </c>
       <c r="E99">
-        <v>1.1256699999999999</v>
+        <v>1.1318900000000001</v>
       </c>
       <c r="F99">
-        <v>1.1343799999999999</v>
+        <v>1.1402300000000001</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>2.4159999999999959</v>
+        <v>2.1900000000000031</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3032,23 @@
         <v>15</v>
       </c>
       <c r="B100" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C100">
-        <v>1.1453100000000001</v>
+        <v>1.1373599999999999</v>
       </c>
       <c r="D100">
-        <v>1.1499999999999999</v>
+        <v>1.14757</v>
       </c>
       <c r="E100">
-        <v>1.12584</v>
+        <v>1.1256699999999999</v>
       </c>
       <c r="F100">
-        <v>1.1372</v>
+        <v>1.1343799999999999</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>2.0199999999999996</v>
+        <v>2.4159999999999959</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3056,23 @@
         <v>15</v>
       </c>
       <c r="B101" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C101">
-        <v>1.1386499999999999</v>
+        <v>1.1453100000000001</v>
       </c>
       <c r="D101">
-        <v>1.15354</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E101">
-        <v>1.13334</v>
+        <v>1.12584</v>
       </c>
       <c r="F101">
-        <v>1.14551</v>
+        <v>1.1372</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>3.9939999999999864</v>
+        <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3080,23 @@
         <v>15</v>
       </c>
       <c r="B102" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C102">
-        <v>1.1025499999999999</v>
+        <v>1.1386499999999999</v>
       </c>
       <c r="D102">
-        <v>1.1404399999999999</v>
+        <v>1.15354</v>
       </c>
       <c r="E102">
-        <v>1.1005</v>
+        <v>1.13334</v>
       </c>
       <c r="F102">
-        <v>1.1390100000000001</v>
+        <v>1.14551</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>1.0080000000000089</v>
+        <v>3.9939999999999864</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3104,23 @@
         <v>15</v>
       </c>
       <c r="B103" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C103">
-        <v>1.10456</v>
+        <v>1.1025499999999999</v>
       </c>
       <c r="D103">
-        <v>1.1086</v>
+        <v>1.1404399999999999</v>
       </c>
       <c r="E103">
-        <v>1.0985199999999999</v>
+        <v>1.1005</v>
       </c>
       <c r="F103">
-        <v>1.1031899999999999</v>
+        <v>1.1390100000000001</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>0.88900000000000645</v>
+        <v>1.0080000000000089</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3128,23 @@
         <v>15</v>
       </c>
       <c r="B104" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C104">
-        <v>1.09839</v>
+        <v>1.10456</v>
       </c>
       <c r="D104">
-        <v>1.1071</v>
+        <v>1.1086</v>
       </c>
       <c r="E104">
-        <v>1.0982099999999999</v>
+        <v>1.0985199999999999</v>
       </c>
       <c r="F104">
-        <v>1.10459</v>
+        <v>1.1031899999999999</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>0.76500000000001567</v>
+        <v>0.88900000000000645</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3152,23 @@
         <v>15</v>
       </c>
       <c r="B105" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C105">
-        <v>1.0946899999999999</v>
+        <v>1.09839</v>
       </c>
       <c r="D105">
-        <v>1.0997600000000001</v>
+        <v>1.1071</v>
       </c>
       <c r="E105">
-        <v>1.0921099999999999</v>
+        <v>1.0982099999999999</v>
       </c>
       <c r="F105">
-        <v>1.0985199999999999</v>
+        <v>1.10459</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>1.081999999999983</v>
+        <v>0.76500000000001567</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3176,23 @@
         <v>15</v>
       </c>
       <c r="B106" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C106">
-        <v>1.0847100000000001</v>
+        <v>1.0946899999999999</v>
       </c>
       <c r="D106">
-        <v>1.0951599999999999</v>
+        <v>1.0997600000000001</v>
       </c>
       <c r="E106">
-        <v>1.0843400000000001</v>
+        <v>1.0921099999999999</v>
       </c>
       <c r="F106">
-        <v>1.09457</v>
+        <v>1.0985199999999999</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>0.75899999999999856</v>
+        <v>1.081999999999983</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3200,23 @@
         <v>15</v>
       </c>
       <c r="B107" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C107">
-        <v>1.0893200000000001</v>
+        <v>1.0847100000000001</v>
       </c>
       <c r="D107">
-        <v>1.09066</v>
+        <v>1.0951599999999999</v>
       </c>
       <c r="E107">
-        <v>1.08307</v>
+        <v>1.0843400000000001</v>
       </c>
       <c r="F107">
-        <v>1.08544</v>
+        <v>1.09457</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>0.69399999999999462</v>
+        <v>0.75899999999999856</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3224,23 @@
         <v>15</v>
       </c>
       <c r="B108" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C108">
-        <v>1.0854200000000001</v>
+        <v>1.0893200000000001</v>
       </c>
       <c r="D108">
-        <v>1.0906400000000001</v>
+        <v>1.09066</v>
       </c>
       <c r="E108">
-        <v>1.0837000000000001</v>
+        <v>1.08307</v>
       </c>
       <c r="F108">
-        <v>1.0900399999999999</v>
+        <v>1.08544</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>0.38300000000000001</v>
+        <v>0.69399999999999462</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3248,23 @@
         <v>15</v>
       </c>
       <c r="B109" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C109">
-        <v>1.0857000000000001</v>
+        <v>1.0854200000000001</v>
       </c>
       <c r="D109">
-        <v>1.0873900000000001</v>
+        <v>1.0906400000000001</v>
       </c>
       <c r="E109">
-        <v>1.0835600000000001</v>
+        <v>1.0837000000000001</v>
       </c>
       <c r="F109">
-        <v>1.0848800000000001</v>
+        <v>1.0900399999999999</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>0.56499999999999329</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3272,23 @@
         <v>15</v>
       </c>
       <c r="B110" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C110">
-        <v>1.0891299999999999</v>
+        <v>1.0857000000000001</v>
       </c>
       <c r="D110">
-        <v>1.09117</v>
+        <v>1.0873900000000001</v>
       </c>
       <c r="E110">
-        <v>1.08552</v>
+        <v>1.0835600000000001</v>
       </c>
       <c r="F110">
-        <v>1.0855600000000001</v>
+        <v>1.0848800000000001</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>0.69799999999999862</v>
+        <v>0.56499999999999329</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3296,23 @@
         <v>15</v>
       </c>
       <c r="B111" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C111">
-        <v>1.08965</v>
+        <v>1.0891299999999999</v>
       </c>
       <c r="D111">
-        <v>1.09463</v>
+        <v>1.09117</v>
       </c>
       <c r="E111">
-        <v>1.08765</v>
+        <v>1.08552</v>
       </c>
       <c r="F111">
-        <v>1.08924</v>
+        <v>1.0855600000000001</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>0.9400000000000075</v>
+        <v>0.69799999999999862</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3320,23 @@
         <v>15</v>
       </c>
       <c r="B112" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C112">
-        <v>1.09321</v>
+        <v>1.08965</v>
       </c>
       <c r="D112">
-        <v>1.09575</v>
+        <v>1.09463</v>
       </c>
       <c r="E112">
-        <v>1.0863499999999999</v>
+        <v>1.08765</v>
       </c>
       <c r="F112">
-        <v>1.0901099999999999</v>
+        <v>1.08924</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>1.3749999999999929</v>
+        <v>0.9400000000000075</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3344,23 @@
         <v>15</v>
       </c>
       <c r="B113" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C113">
-        <v>1.0877300000000001</v>
+        <v>1.09321</v>
       </c>
       <c r="D113">
-        <v>1.09849</v>
+        <v>1.09575</v>
       </c>
       <c r="E113">
-        <v>1.08474</v>
+        <v>1.0863499999999999</v>
       </c>
       <c r="F113">
-        <v>1.0940099999999999</v>
+        <v>1.0901099999999999</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>0.81099999999998396</v>
+        <v>1.3749999999999929</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3368,23 @@
         <v>15</v>
       </c>
       <c r="B114" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C114">
-        <v>1.08324</v>
+        <v>1.0877300000000001</v>
       </c>
       <c r="D114">
-        <v>1.0870899999999999</v>
+        <v>1.09849</v>
       </c>
       <c r="E114">
-        <v>1.0789800000000001</v>
+        <v>1.08474</v>
       </c>
       <c r="F114">
-        <v>1.0859300000000001</v>
+        <v>1.0940099999999999</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>0.89299999999998825</v>
+        <v>0.81099999999998396</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3392,23 @@
         <v>15</v>
       </c>
       <c r="B115" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C115">
-        <v>1.0790900000000001</v>
+        <v>1.08324</v>
       </c>
       <c r="D115">
-        <v>1.08673</v>
+        <v>1.0870899999999999</v>
       </c>
       <c r="E115">
-        <v>1.0778000000000001</v>
+        <v>1.0789800000000001</v>
       </c>
       <c r="F115">
-        <v>1.0839099999999999</v>
+        <v>1.0859300000000001</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>0.57300000000000129</v>
+        <v>0.89299999999998825</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3416,23 @@
         <v>15</v>
       </c>
       <c r="B116" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C116">
-        <v>1.06612</v>
+        <v>1.0790900000000001</v>
       </c>
       <c r="D116">
-        <v>1.07175</v>
+        <v>1.08673</v>
       </c>
       <c r="E116">
-        <v>1.06602</v>
+        <v>1.0778000000000001</v>
       </c>
       <c r="F116">
-        <v>1.0680000000000001</v>
+        <v>1.0839099999999999</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>0.44599999999999085</v>
+        <v>0.57300000000000129</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3440,23 @@
         <v>15</v>
       </c>
       <c r="B117" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C117">
-        <v>1.0679099999999999</v>
+        <v>1.06612</v>
       </c>
       <c r="D117">
-        <v>1.06975</v>
+        <v>1.07175</v>
       </c>
       <c r="E117">
-        <v>1.0652900000000001</v>
+        <v>1.06602</v>
       </c>
       <c r="F117">
-        <v>1.0660400000000001</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>0.56300000000000239</v>
+        <v>0.44599999999999085</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3464,23 @@
         <v>15</v>
       </c>
       <c r="B118" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C118">
-        <v>1.06854</v>
+        <v>1.0679099999999999</v>
       </c>
       <c r="D118">
-        <v>1.0723400000000001</v>
+        <v>1.06975</v>
       </c>
       <c r="E118">
-        <v>1.06671</v>
+        <v>1.0652900000000001</v>
       </c>
       <c r="F118">
-        <v>1.0686199999999999</v>
+        <v>1.0660400000000001</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>0.51499999999999879</v>
+        <v>0.56300000000000239</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3488,23 @@
         <v>15</v>
       </c>
       <c r="B119" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C119">
-        <v>1.0711999999999999</v>
+        <v>1.06854</v>
       </c>
       <c r="D119">
-        <v>1.0732999999999999</v>
+        <v>1.0723400000000001</v>
       </c>
       <c r="E119">
-        <v>1.0681499999999999</v>
+        <v>1.06671</v>
       </c>
       <c r="F119">
-        <v>1.0683400000000001</v>
+        <v>1.0686199999999999</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>0.75499999999999456</v>
+        <v>0.51499999999999879</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3512,23 @@
         <v>15</v>
       </c>
       <c r="B120" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C120">
-        <v>1.0707500000000001</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="D120">
-        <v>1.0759399999999999</v>
+        <v>1.0732999999999999</v>
       </c>
       <c r="E120">
-        <v>1.06839</v>
+        <v>1.0681499999999999</v>
       </c>
       <c r="F120">
-        <v>1.07016</v>
+        <v>1.0683400000000001</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>1.4090000000000158</v>
+        <v>0.75499999999999456</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3536,23 @@
         <v>15</v>
       </c>
       <c r="B121" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C121">
-        <v>1.07863</v>
+        <v>1.0707500000000001</v>
       </c>
       <c r="D121">
-        <v>1.0822400000000001</v>
+        <v>1.0759399999999999</v>
       </c>
       <c r="E121">
-        <v>1.0681499999999999</v>
+        <v>1.06839</v>
       </c>
       <c r="F121">
-        <v>1.07172</v>
+        <v>1.07016</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>1.1379999999999946</v>
+        <v>1.4090000000000158</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3560,23 @@
         <v>15</v>
       </c>
       <c r="B122" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C122">
-        <v>1.06958</v>
+        <v>1.07863</v>
       </c>
       <c r="D122">
-        <v>1.07959</v>
+        <v>1.0822400000000001</v>
       </c>
       <c r="E122">
-        <v>1.0682100000000001</v>
+        <v>1.0681499999999999</v>
       </c>
       <c r="F122">
-        <v>1.0786800000000001</v>
+        <v>1.07172</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>0.77300000000000146</v>
+        <v>1.1379999999999946</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3584,23 @@
         <v>15</v>
       </c>
       <c r="B123" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C123">
-        <v>1.0635399999999999</v>
+        <v>1.06958</v>
       </c>
       <c r="D123">
-        <v>1.0711999999999999</v>
+        <v>1.07959</v>
       </c>
       <c r="E123">
-        <v>1.0634699999999999</v>
+        <v>1.0682100000000001</v>
       </c>
       <c r="F123">
-        <v>1.07104</v>
+        <v>1.0786800000000001</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>0.44999999999999485</v>
+        <v>0.77300000000000146</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3608,23 @@
         <v>15</v>
       </c>
       <c r="B124" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C124">
-        <v>1.0636300000000001</v>
+        <v>1.0635399999999999</v>
       </c>
       <c r="D124">
-        <v>1.0674399999999999</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="E124">
-        <v>1.06294</v>
+        <v>1.0634699999999999</v>
       </c>
       <c r="F124">
-        <v>1.0638300000000001</v>
+        <v>1.07104</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>0.4610000000000003</v>
+        <v>0.44999999999999485</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3632,23 @@
         <v>15</v>
       </c>
       <c r="B125" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C125">
-        <v>1.0659000000000001</v>
+        <v>1.0636300000000001</v>
       </c>
       <c r="D125">
-        <v>1.0678799999999999</v>
+        <v>1.0674399999999999</v>
       </c>
       <c r="E125">
-        <v>1.0632699999999999</v>
+        <v>1.06294</v>
       </c>
       <c r="F125">
-        <v>1.0638399999999999</v>
+        <v>1.0638300000000001</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>0.72999999999998622</v>
+        <v>0.4610000000000003</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3656,23 @@
         <v>15</v>
       </c>
       <c r="B126" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C126">
-        <v>1.06969</v>
+        <v>1.0659000000000001</v>
       </c>
       <c r="D126">
-        <v>1.07029</v>
+        <v>1.0678799999999999</v>
       </c>
       <c r="E126">
-        <v>1.0629900000000001</v>
+        <v>1.0632699999999999</v>
       </c>
       <c r="F126">
-        <v>1.0665100000000001</v>
+        <v>1.0638399999999999</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>0.68700000000001538</v>
+        <v>0.72999999999998622</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3680,23 @@
         <v>15</v>
       </c>
       <c r="B127" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C127">
-        <v>1.0686899999999999</v>
+        <v>1.06969</v>
       </c>
       <c r="D127">
-        <v>1.07037</v>
+        <v>1.07029</v>
       </c>
       <c r="E127">
-        <v>1.0634999999999999</v>
+        <v>1.0629900000000001</v>
       </c>
       <c r="F127">
-        <v>1.0697300000000001</v>
+        <v>1.0665100000000001</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>0.81200000000001271</v>
+        <v>0.68700000000001538</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3704,23 @@
         <v>15</v>
       </c>
       <c r="B128" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C128">
-        <v>1.0713999999999999</v>
+        <v>1.0686899999999999</v>
       </c>
       <c r="D128">
-        <v>1.07484</v>
+        <v>1.07037</v>
       </c>
       <c r="E128">
-        <v>1.0667199999999999</v>
+        <v>1.0634999999999999</v>
       </c>
       <c r="F128">
-        <v>1.0682100000000001</v>
+        <v>1.0697300000000001</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>0.38300000000000001</v>
+        <v>0.81200000000001271</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3728,23 @@
         <v>15</v>
       </c>
       <c r="B129" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C129">
-        <v>1.0708200000000001</v>
+        <v>1.0713999999999999</v>
       </c>
       <c r="D129">
-        <v>1.0737399999999999</v>
+        <v>1.07484</v>
       </c>
       <c r="E129">
-        <v>1.0699099999999999</v>
+        <v>1.0667199999999999</v>
       </c>
       <c r="F129">
-        <v>1.07162</v>
+        <v>1.0682100000000001</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>0.4269999999999996</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3752,23 @@
         <v>15</v>
       </c>
       <c r="B130" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C130">
-        <v>1.07077</v>
+        <v>1.0708200000000001</v>
       </c>
       <c r="D130">
-        <v>1.07453</v>
+        <v>1.0737399999999999</v>
       </c>
       <c r="E130">
-        <v>1.07026</v>
+        <v>1.0699099999999999</v>
       </c>
       <c r="F130">
-        <v>1.0733999999999999</v>
+        <v>1.07162</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>0.57599999999999874</v>
+        <v>0.4269999999999996</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3776,23 @@
         <v>15</v>
       </c>
       <c r="B131" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C131">
-        <v>1.0701000000000001</v>
+        <v>1.07077</v>
       </c>
       <c r="D131">
-        <v>1.07355</v>
+        <v>1.07453</v>
       </c>
       <c r="E131">
-        <v>1.06779</v>
+        <v>1.07026</v>
       </c>
       <c r="F131">
-        <v>1.0717699999999999</v>
+        <v>1.0733999999999999</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>0.61099999999998378</v>
+        <v>0.57599999999999874</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3800,23 @@
         <v>15</v>
       </c>
       <c r="B132" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C132">
-        <v>1.0707500000000001</v>
+        <v>1.0701000000000001</v>
       </c>
       <c r="D132">
-        <v>1.0759399999999999</v>
+        <v>1.07355</v>
       </c>
       <c r="E132">
-        <v>1.0698300000000001</v>
+        <v>1.06779</v>
       </c>
       <c r="F132">
-        <v>1.07141</v>
+        <v>1.0717699999999999</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>0.61700000000000088</v>
+        <v>0.61099999999998378</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3824,23 @@
         <v>15</v>
       </c>
       <c r="B133" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C133">
-        <v>1.0718799999999999</v>
+        <v>1.0707500000000001</v>
       </c>
       <c r="D133">
-        <v>1.0738300000000001</v>
+        <v>1.0759399999999999</v>
       </c>
       <c r="E133">
-        <v>1.0676600000000001</v>
+        <v>1.0698300000000001</v>
       </c>
       <c r="F133">
-        <v>1.07345</v>
+        <v>1.07141</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>0.78899999999999526</v>
+        <v>0.61700000000000088</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3848,23 @@
         <v>15</v>
       </c>
       <c r="B134" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C134">
-        <v>1.0727100000000001</v>
+        <v>1.0718799999999999</v>
       </c>
       <c r="D134">
-        <v>1.0787100000000001</v>
+        <v>1.0738300000000001</v>
       </c>
       <c r="E134">
-        <v>1.0708200000000001</v>
+        <v>1.0676600000000001</v>
       </c>
       <c r="F134">
-        <v>1.0726899999999999</v>
+        <v>1.07345</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>1.988000000000012</v>
+        <v>0.78899999999999526</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3872,23 @@
         <v>15</v>
       </c>
       <c r="B135" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C135">
-        <v>1.07704</v>
+        <v>1.0727100000000001</v>
       </c>
       <c r="D135">
-        <v>1.08938</v>
+        <v>1.0787100000000001</v>
       </c>
       <c r="E135">
-        <v>1.0694999999999999</v>
+        <v>1.0708200000000001</v>
       </c>
       <c r="F135">
-        <v>1.0740000000000001</v>
+        <v>1.0726899999999999</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>0.84200000000000941</v>
+        <v>1.988000000000012</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3896,23 @@
         <v>15</v>
       </c>
       <c r="B136" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C136">
-        <v>1.07298</v>
+        <v>1.07704</v>
       </c>
       <c r="D136">
-        <v>1.08138</v>
+        <v>1.08938</v>
       </c>
       <c r="E136">
-        <v>1.0729599999999999</v>
+        <v>1.0694999999999999</v>
       </c>
       <c r="F136">
-        <v>1.07795</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>0.62099999999998268</v>
+        <v>0.84200000000000941</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3920,23 @@
         <v>15</v>
       </c>
       <c r="B137" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C137">
-        <v>1.0698099999999999</v>
+        <v>1.07298</v>
       </c>
       <c r="D137">
-        <v>1.0753699999999999</v>
+        <v>1.08138</v>
       </c>
       <c r="E137">
-        <v>1.0691600000000001</v>
+        <v>1.0729599999999999</v>
       </c>
       <c r="F137">
-        <v>1.07376</v>
+        <v>1.07795</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>0.72399999999999132</v>
+        <v>0.62099999999998268</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3944,23 @@
         <v>15</v>
       </c>
       <c r="B138" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C138">
-        <v>1.0710200000000001</v>
+        <v>1.0698099999999999</v>
       </c>
       <c r="D138">
-        <v>1.07565</v>
+        <v>1.0753699999999999</v>
       </c>
       <c r="E138">
-        <v>1.0684100000000001</v>
+        <v>1.0691600000000001</v>
       </c>
       <c r="F138">
-        <v>1.0694399999999999</v>
+        <v>1.07376</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>1.2499999999999956</v>
+        <v>0.72399999999999132</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3968,23 @@
         <v>15</v>
       </c>
       <c r="B139" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C139">
-        <v>1.08073</v>
+        <v>1.0710200000000001</v>
       </c>
       <c r="D139">
-        <v>1.08287</v>
+        <v>1.07565</v>
       </c>
       <c r="E139">
-        <v>1.07037</v>
+        <v>1.0684100000000001</v>
       </c>
       <c r="F139">
-        <v>1.0721000000000001</v>
+        <v>1.0694399999999999</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>1.093999999999995</v>
+        <v>1.2499999999999956</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3992,23 @@
         <v>15</v>
       </c>
       <c r="B140" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C140">
-        <v>1.08423</v>
+        <v>1.08073</v>
       </c>
       <c r="D140">
-        <v>1.0861099999999999</v>
+        <v>1.08287</v>
       </c>
       <c r="E140">
-        <v>1.07517</v>
+        <v>1.07037</v>
       </c>
       <c r="F140">
-        <v>1.07928</v>
+        <v>1.0721000000000001</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>0.67500000000000338</v>
+        <v>1.093999999999995</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4016,23 @@
         <v>15</v>
       </c>
       <c r="B141" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C141">
-        <v>1.0812999999999999</v>
+        <v>1.08423</v>
       </c>
       <c r="D141">
-        <v>1.0861499999999999</v>
+        <v>1.0861099999999999</v>
       </c>
       <c r="E141">
-        <v>1.0793999999999999</v>
+        <v>1.07517</v>
       </c>
       <c r="F141">
-        <v>1.0847500000000001</v>
+        <v>1.07928</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>0.8839999999999959</v>
+        <v>0.67500000000000338</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4040,23 @@
         <v>15</v>
       </c>
       <c r="B142" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C142">
-        <v>1.0860099999999999</v>
+        <v>1.0812999999999999</v>
       </c>
       <c r="D142">
-        <v>1.0892500000000001</v>
+        <v>1.0861499999999999</v>
       </c>
       <c r="E142">
-        <v>1.0804100000000001</v>
+        <v>1.0793999999999999</v>
       </c>
       <c r="F142">
-        <v>1.0809</v>
+        <v>1.0847500000000001</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>1.0850000000000026</v>
+        <v>0.8839999999999959</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4064,23 @@
         <v>15</v>
       </c>
       <c r="B143" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C143">
-        <v>1.0934900000000001</v>
+        <v>1.0860099999999999</v>
       </c>
       <c r="D143">
-        <v>1.0970200000000001</v>
+        <v>1.0892500000000001</v>
       </c>
       <c r="E143">
-        <v>1.0861700000000001</v>
+        <v>1.0804100000000001</v>
       </c>
       <c r="F143">
-        <v>1.08647</v>
+        <v>1.0809</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>0.77100000000001057</v>
+        <v>1.0850000000000026</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4088,23 @@
         <v>15</v>
       </c>
       <c r="B144" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C144">
-        <v>1.0895999999999999</v>
+        <v>1.0934900000000001</v>
       </c>
       <c r="D144">
-        <v>1.09731</v>
+        <v>1.0970200000000001</v>
       </c>
       <c r="E144">
-        <v>1.0895999999999999</v>
+        <v>1.0861700000000001</v>
       </c>
       <c r="F144">
-        <v>1.0950200000000001</v>
+        <v>1.08647</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>1.0739999999999972</v>
+        <v>0.77100000000001057</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4112,23 @@
         <v>15</v>
       </c>
       <c r="B145" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C145">
-        <v>1.0891</v>
+        <v>1.0895999999999999</v>
       </c>
       <c r="D145">
-        <v>1.0915999999999999</v>
+        <v>1.09731</v>
       </c>
       <c r="E145">
-        <v>1.0808599999999999</v>
+        <v>1.0895999999999999</v>
       </c>
       <c r="F145">
-        <v>1.0913200000000001</v>
+        <v>1.0950200000000001</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>1.0320000000000107</v>
+        <v>1.0739999999999972</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4136,23 @@
         <v>15</v>
       </c>
       <c r="B146" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C146">
-        <v>1.0929</v>
+        <v>1.0891</v>
       </c>
       <c r="D146">
-        <v>1.09575</v>
+        <v>1.0915999999999999</v>
       </c>
       <c r="E146">
-        <v>1.0854299999999999</v>
+        <v>1.0808599999999999</v>
       </c>
       <c r="F146">
-        <v>1.08867</v>
+        <v>1.0913200000000001</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>0.72700000000001097</v>
+        <v>1.0320000000000107</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4160,23 @@
         <v>15</v>
       </c>
       <c r="B147" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C147">
-        <v>1.09517</v>
+        <v>1.0929</v>
       </c>
       <c r="D147">
-        <v>1.0982400000000001</v>
+        <v>1.09575</v>
       </c>
       <c r="E147">
-        <v>1.09097</v>
+        <v>1.0854299999999999</v>
       </c>
       <c r="F147">
-        <v>1.09358</v>
+        <v>1.08867</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>0.878000000000001</v>
+        <v>0.72700000000001097</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4184,23 @@
         <v>15</v>
       </c>
       <c r="B148" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C148">
-        <v>1.09344</v>
+        <v>1.09517</v>
       </c>
       <c r="D148">
-        <v>1.09734</v>
+        <v>1.0982400000000001</v>
       </c>
       <c r="E148">
-        <v>1.08856</v>
+        <v>1.09097</v>
       </c>
       <c r="F148">
-        <v>1.09551</v>
+        <v>1.09358</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>0.74600000000000222</v>
+        <v>0.878000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4208,23 @@
         <v>15</v>
       </c>
       <c r="B149" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C149">
-        <v>1.09419</v>
+        <v>1.09344</v>
       </c>
       <c r="D149">
-        <v>1.09982</v>
+        <v>1.09734</v>
       </c>
       <c r="E149">
-        <v>1.09236</v>
+        <v>1.08856</v>
       </c>
       <c r="F149">
-        <v>1.0933200000000001</v>
+        <v>1.09551</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>0.98899999999999544</v>
+        <v>0.74600000000000222</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4232,23 @@
         <v>15</v>
       </c>
       <c r="B150" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C150">
-        <v>1.08687</v>
+        <v>1.09419</v>
       </c>
       <c r="D150">
-        <v>1.0956399999999999</v>
+        <v>1.09982</v>
       </c>
       <c r="E150">
-        <v>1.08575</v>
+        <v>1.09236</v>
       </c>
       <c r="F150">
-        <v>1.0952</v>
+        <v>1.0933200000000001</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>0.75700000000000767</v>
+        <v>0.98899999999999544</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4256,23 @@
         <v>15</v>
       </c>
       <c r="B151" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C151">
-        <v>1.08782</v>
+        <v>1.08687</v>
       </c>
       <c r="D151">
-        <v>1.09002</v>
+        <v>1.0956399999999999</v>
       </c>
       <c r="E151">
-        <v>1.0824499999999999</v>
+        <v>1.08575</v>
       </c>
       <c r="F151">
-        <v>1.0872200000000001</v>
+        <v>1.0952</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>0.70700000000001317</v>
+        <v>0.75700000000000767</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4280,23 @@
         <v>15</v>
       </c>
       <c r="B152" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C152">
-        <v>1.08666</v>
+        <v>1.08782</v>
       </c>
       <c r="D152">
-        <v>1.0922700000000001</v>
+        <v>1.09002</v>
       </c>
       <c r="E152">
-        <v>1.0851999999999999</v>
+        <v>1.0824499999999999</v>
       </c>
       <c r="F152">
-        <v>1.0880399999999999</v>
+        <v>1.0872200000000001</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>0.79400000000000581</v>
+        <v>0.70700000000001317</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4304,23 @@
         <v>15</v>
       </c>
       <c r="B153" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C153">
-        <v>1.0825800000000001</v>
+        <v>1.08666</v>
       </c>
       <c r="D153">
-        <v>1.08721</v>
+        <v>1.0922700000000001</v>
       </c>
       <c r="E153">
-        <v>1.07927</v>
+        <v>1.0851999999999999</v>
       </c>
       <c r="F153">
-        <v>1.0869200000000001</v>
+        <v>1.0880399999999999</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>1.4789999999999859</v>
+        <v>0.79400000000000581</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4328,23 @@
         <v>15</v>
       </c>
       <c r="B154" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C154">
-        <v>1.0834900000000001</v>
+        <v>1.0825800000000001</v>
       </c>
       <c r="D154">
-        <v>1.0934999999999999</v>
+        <v>1.08721</v>
       </c>
       <c r="E154">
-        <v>1.0787100000000001</v>
+        <v>1.07927</v>
       </c>
       <c r="F154">
-        <v>1.08335</v>
+        <v>1.0869200000000001</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>0.72900000000000187</v>
+        <v>1.4789999999999859</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4352,23 @@
         <v>15</v>
       </c>
       <c r="B155" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C155">
-        <v>1.0856399999999999</v>
+        <v>1.0834900000000001</v>
       </c>
       <c r="D155">
-        <v>1.09016</v>
+        <v>1.0934999999999999</v>
       </c>
       <c r="E155">
-        <v>1.08287</v>
+        <v>1.0787100000000001</v>
       </c>
       <c r="F155">
-        <v>1.0835600000000001</v>
+        <v>1.08335</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>1.0740000000000194</v>
+        <v>0.72900000000000187</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4376,23 @@
         <v>15</v>
       </c>
       <c r="B156" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C156">
-        <v>1.08528</v>
+        <v>1.0856399999999999</v>
       </c>
       <c r="D156">
-        <v>1.0942400000000001</v>
+        <v>1.09016</v>
       </c>
       <c r="E156">
-        <v>1.0834999999999999</v>
+        <v>1.08287</v>
       </c>
       <c r="F156">
-        <v>1.0844</v>
+        <v>1.0835600000000001</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>0.80100000000000726</v>
+        <v>1.0740000000000194</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4400,23 @@
         <v>15</v>
       </c>
       <c r="B157" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C157">
-        <v>1.08314</v>
+        <v>1.08528</v>
       </c>
       <c r="D157">
-        <v>1.08718</v>
+        <v>1.0942400000000001</v>
       </c>
       <c r="E157">
-        <v>1.07917</v>
+        <v>1.0834999999999999</v>
       </c>
       <c r="F157">
-        <v>1.0866400000000001</v>
+        <v>1.0844</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>1.8249999999999877</v>
+        <v>0.80100000000000726</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4424,23 @@
         <v>15</v>
       </c>
       <c r="B158" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C158">
-        <v>1.07362</v>
+        <v>1.08314</v>
       </c>
       <c r="D158">
-        <v>1.0896399999999999</v>
+        <v>1.08718</v>
       </c>
       <c r="E158">
-        <v>1.0713900000000001</v>
+        <v>1.07917</v>
       </c>
       <c r="F158">
-        <v>1.0837699999999999</v>
+        <v>1.0866400000000001</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>3.8929999999999909</v>
+        <v>1.8249999999999877</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4448,23 @@
         <v>15</v>
       </c>
       <c r="B159" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C159">
-        <v>1.08979</v>
+        <v>1.07362</v>
       </c>
       <c r="D159">
-        <v>1.10076</v>
+        <v>1.0896399999999999</v>
       </c>
       <c r="E159">
-        <v>1.0618300000000001</v>
+        <v>1.0713900000000001</v>
       </c>
       <c r="F159">
-        <v>1.0790200000000001</v>
+        <v>1.0837699999999999</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>1.4589999999999881</v>
+        <v>3.8929999999999909</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4472,23 @@
         <v>15</v>
       </c>
       <c r="B160" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C160">
-        <v>1.0851</v>
+        <v>1.08979</v>
       </c>
       <c r="D160">
-        <v>1.0920399999999999</v>
+        <v>1.10076</v>
       </c>
       <c r="E160">
-        <v>1.07745</v>
+        <v>1.0618300000000001</v>
       </c>
       <c r="F160">
-        <v>1.08222</v>
+        <v>1.0790200000000001</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>2.5419999999999998</v>
+        <v>1.4589999999999881</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4496,23 @@
         <v>15</v>
       </c>
       <c r="B161" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C161">
-        <v>1.1089500000000001</v>
+        <v>1.0851</v>
       </c>
       <c r="D161">
-        <v>1.10964</v>
+        <v>1.0920399999999999</v>
       </c>
       <c r="E161">
-        <v>1.08422</v>
+        <v>1.07745</v>
       </c>
       <c r="F161">
-        <v>1.0850599999999999</v>
+        <v>1.08222</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>0.81800000000000761</v>
+        <v>2.5419999999999998</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4520,23 @@
         <v>15</v>
       </c>
       <c r="B162" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C162">
-        <v>1.1049500000000001</v>
+        <v>1.1089500000000001</v>
       </c>
       <c r="D162">
-        <v>1.1103700000000001</v>
+        <v>1.10964</v>
       </c>
       <c r="E162">
-        <v>1.10219</v>
+        <v>1.08422</v>
       </c>
       <c r="F162">
-        <v>1.10887</v>
+        <v>1.0850599999999999</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>0.8580000000000032</v>
+        <v>0.81800000000000761</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4544,23 @@
         <v>15</v>
       </c>
       <c r="B163" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C163">
-        <v>1.1109500000000001</v>
+        <v>1.1049500000000001</v>
       </c>
       <c r="D163">
-        <v>1.11215</v>
+        <v>1.1103700000000001</v>
       </c>
       <c r="E163">
-        <v>1.1035699999999999</v>
+        <v>1.10219</v>
       </c>
       <c r="F163">
-        <v>1.10534</v>
+        <v>1.10887</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>1.0729999999999906</v>
+        <v>0.8580000000000032</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4568,23 @@
         <v>15</v>
       </c>
       <c r="B164" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C164">
-        <v>1.1023400000000001</v>
+        <v>1.1109500000000001</v>
       </c>
       <c r="D164">
-        <v>1.11266</v>
+        <v>1.11215</v>
       </c>
       <c r="E164">
-        <v>1.1019300000000001</v>
+        <v>1.1035699999999999</v>
       </c>
       <c r="F164">
-        <v>1.1116299999999999</v>
+        <v>1.10534</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>0.93499999999999694</v>
+        <v>1.0729999999999906</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4592,23 @@
         <v>15</v>
       </c>
       <c r="B165" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C165">
-        <v>1.1080300000000001</v>
+        <v>1.1023400000000001</v>
       </c>
       <c r="D165">
-        <v>1.1106</v>
+        <v>1.11266</v>
       </c>
       <c r="E165">
-        <v>1.1012500000000001</v>
+        <v>1.1019300000000001</v>
       </c>
       <c r="F165">
-        <v>1.1024</v>
+        <v>1.1116299999999999</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>1.3419999999999987</v>
+        <v>0.93499999999999694</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4616,23 @@
         <v>15</v>
       </c>
       <c r="B166" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C166">
-        <v>1.0978000000000001</v>
+        <v>1.1080300000000001</v>
       </c>
       <c r="D166">
-        <v>1.10911</v>
+        <v>1.1106</v>
       </c>
       <c r="E166">
-        <v>1.0956900000000001</v>
+        <v>1.1012500000000001</v>
       </c>
       <c r="F166">
-        <v>1.1087400000000001</v>
+        <v>1.1024</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>0.54600000000000204</v>
+        <v>1.3419999999999987</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4640,23 @@
         <v>15</v>
       </c>
       <c r="B167" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C167">
-        <v>1.0982400000000001</v>
+        <v>1.0978000000000001</v>
       </c>
       <c r="D167">
-        <v>1.1007400000000001</v>
+        <v>1.10911</v>
       </c>
       <c r="E167">
-        <v>1.09528</v>
+        <v>1.0956900000000001</v>
       </c>
       <c r="F167">
-        <v>1.09792</v>
+        <v>1.1087400000000001</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>1.1349999999999971</v>
+        <v>0.54600000000000204</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4664,23 @@
         <v>15</v>
       </c>
       <c r="B168" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C168">
-        <v>1.0912299999999999</v>
+        <v>1.0982400000000001</v>
       </c>
       <c r="D168">
-        <v>1.1013999999999999</v>
+        <v>1.1007400000000001</v>
       </c>
       <c r="E168">
-        <v>1.09005</v>
+        <v>1.09528</v>
       </c>
       <c r="F168">
-        <v>1.0984499999999999</v>
+        <v>1.09792</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>0.64199999999998703</v>
+        <v>1.1349999999999971</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4688,23 @@
         <v>15</v>
       </c>
       <c r="B169" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C169">
-        <v>1.0865800000000001</v>
+        <v>1.0912299999999999</v>
       </c>
       <c r="D169">
-        <v>1.09249</v>
+        <v>1.1013999999999999</v>
       </c>
       <c r="E169">
-        <v>1.0860700000000001</v>
+        <v>1.09005</v>
       </c>
       <c r="F169">
-        <v>1.0918099999999999</v>
+        <v>1.0984499999999999</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>0.8920000000000039</v>
+        <v>0.64199999999998703</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4712,23 @@
         <v>15</v>
       </c>
       <c r="B170" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C170">
-        <v>1.0910599999999999</v>
+        <v>1.0865800000000001</v>
       </c>
       <c r="D170">
-        <v>1.0930200000000001</v>
+        <v>1.09249</v>
       </c>
       <c r="E170">
-        <v>1.0841000000000001</v>
+        <v>1.0860700000000001</v>
       </c>
       <c r="F170">
-        <v>1.0867899999999999</v>
+        <v>1.0918099999999999</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>0.68899999999998407</v>
+        <v>0.8920000000000039</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4736,23 @@
         <v>15</v>
       </c>
       <c r="B171" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C171">
-        <v>1.0911599999999999</v>
+        <v>1.0910599999999999</v>
       </c>
       <c r="D171">
-        <v>1.0951299999999999</v>
+        <v>1.0930200000000001</v>
       </c>
       <c r="E171">
-        <v>1.0882400000000001</v>
+        <v>1.0841000000000001</v>
       </c>
       <c r="F171">
-        <v>1.09148</v>
+        <v>1.0867899999999999</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>0.69399999999999462</v>
+        <v>0.68899999999998407</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4760,23 @@
         <v>15</v>
       </c>
       <c r="B172" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C172">
-        <v>1.0925</v>
+        <v>1.0911599999999999</v>
       </c>
       <c r="D172">
-        <v>1.09412</v>
+        <v>1.0951299999999999</v>
       </c>
       <c r="E172">
-        <v>1.08718</v>
+        <v>1.0882400000000001</v>
       </c>
       <c r="F172">
-        <v>1.0907500000000001</v>
+        <v>1.09148</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>0.9039999999999937</v>
+        <v>0.69399999999999462</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4784,23 @@
         <v>15</v>
       </c>
       <c r="B173" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C173">
-        <v>1.09562</v>
+        <v>1.0925</v>
       </c>
       <c r="D173">
-        <v>1.09934</v>
+        <v>1.09412</v>
       </c>
       <c r="E173">
-        <v>1.0903</v>
+        <v>1.08718</v>
       </c>
       <c r="F173">
-        <v>1.09273</v>
+        <v>1.0907500000000001</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>1.3259999999999827</v>
+        <v>0.9039999999999937</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4808,23 @@
         <v>15</v>
       </c>
       <c r="B174" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C174">
-        <v>1.09083</v>
+        <v>1.09562</v>
       </c>
       <c r="D174">
-        <v>1.1020099999999999</v>
+        <v>1.09934</v>
       </c>
       <c r="E174">
-        <v>1.0887500000000001</v>
+        <v>1.0903</v>
       </c>
       <c r="F174">
-        <v>1.0958399999999999</v>
+        <v>1.09273</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>1.373000000000002</v>
+        <v>1.3259999999999827</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4832,23 @@
         <v>15</v>
       </c>
       <c r="B175" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C175">
-        <v>1.0888100000000001</v>
+        <v>1.09083</v>
       </c>
       <c r="D175">
-        <v>1.0944700000000001</v>
+        <v>1.1020099999999999</v>
       </c>
       <c r="E175">
-        <v>1.08074</v>
+        <v>1.0887500000000001</v>
       </c>
       <c r="F175">
-        <v>1.0932900000000001</v>
+        <v>1.0958399999999999</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>1.635999999999993</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4856,23 @@
         <v>15</v>
       </c>
       <c r="B176" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C176">
-        <v>1.0999000000000001</v>
+        <v>1.0888100000000001</v>
       </c>
       <c r="D176">
-        <v>1.10263</v>
+        <v>1.0944700000000001</v>
       </c>
       <c r="E176">
-        <v>1.0862700000000001</v>
+        <v>1.08074</v>
       </c>
       <c r="F176">
-        <v>1.0894299999999999</v>
+        <v>1.0932900000000001</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>0.86899999999998645</v>
+        <v>1.635999999999993</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4880,23 @@
         <v>15</v>
       </c>
       <c r="B177" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C177">
-        <v>1.0977699999999999</v>
+        <v>1.0999000000000001</v>
       </c>
       <c r="D177">
-        <v>1.1059099999999999</v>
+        <v>1.10263</v>
       </c>
       <c r="E177">
-        <v>1.0972200000000001</v>
+        <v>1.0862700000000001</v>
       </c>
       <c r="F177">
-        <v>1.1013200000000001</v>
+        <v>1.0894299999999999</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>1.4569999999999972</v>
+        <v>0.86899999999998645</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4904,23 @@
         <v>15</v>
       </c>
       <c r="B178" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C178">
-        <v>1.10517</v>
+        <v>1.0977699999999999</v>
       </c>
       <c r="D178">
-        <v>1.10931</v>
+        <v>1.1059099999999999</v>
       </c>
       <c r="E178">
-        <v>1.09474</v>
+        <v>1.0972200000000001</v>
       </c>
       <c r="F178">
-        <v>1.10005</v>
+        <v>1.1013200000000001</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>1.6539999999999999</v>
+        <v>1.4569999999999972</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4928,23 @@
         <v>15</v>
       </c>
       <c r="B179" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C179">
-        <v>1.10615</v>
+        <v>1.10517</v>
       </c>
       <c r="D179">
-        <v>1.11972</v>
+        <v>1.10931</v>
       </c>
       <c r="E179">
-        <v>1.10318</v>
+        <v>1.09474</v>
       </c>
       <c r="F179">
-        <v>1.10711</v>
+        <v>1.10005</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>2.0780000000000021</v>
+        <v>1.6539999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4952,23 @@
         <v>15</v>
       </c>
       <c r="B180" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C180">
-        <v>1.0963499999999999</v>
+        <v>1.10615</v>
       </c>
       <c r="D180">
-        <v>1.1163000000000001</v>
+        <v>1.11972</v>
       </c>
       <c r="E180">
-        <v>1.09552</v>
+        <v>1.10318</v>
       </c>
       <c r="F180">
-        <v>1.1080399999999999</v>
+        <v>1.10711</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>0.78599999999999781</v>
+        <v>2.0780000000000021</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4976,23 @@
         <v>15</v>
       </c>
       <c r="B181" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C181">
-        <v>1.0931999999999999</v>
+        <v>1.0963499999999999</v>
       </c>
       <c r="D181">
-        <v>1.0984499999999999</v>
+        <v>1.1163000000000001</v>
       </c>
       <c r="E181">
-        <v>1.0905899999999999</v>
+        <v>1.09552</v>
       </c>
       <c r="F181">
-        <v>1.0969199999999999</v>
+        <v>1.1080399999999999</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>1.4310000000000045</v>
+        <v>0.78599999999999781</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +5000,23 @@
         <v>15</v>
       </c>
       <c r="B182" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C182">
-        <v>1.08571</v>
+        <v>1.0931999999999999</v>
       </c>
       <c r="D182">
-        <v>1.09796</v>
+        <v>1.0984499999999999</v>
       </c>
       <c r="E182">
-        <v>1.08365</v>
+        <v>1.0905899999999999</v>
       </c>
       <c r="F182">
-        <v>1.0929899999999999</v>
+        <v>1.0969199999999999</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>0.73900000000000077</v>
+        <v>1.4310000000000045</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5024,23 @@
         <v>15</v>
       </c>
       <c r="B183" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C183">
-        <v>1.0873600000000001</v>
+        <v>1.08571</v>
       </c>
       <c r="D183">
-        <v>1.0898600000000001</v>
+        <v>1.09796</v>
       </c>
       <c r="E183">
-        <v>1.08247</v>
+        <v>1.08365</v>
       </c>
       <c r="F183">
-        <v>1.08613</v>
+        <v>1.0929899999999999</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>1.1700000000000044</v>
+        <v>0.73900000000000077</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5048,23 @@
         <v>15</v>
       </c>
       <c r="B184" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C184">
-        <v>1.07996</v>
+        <v>1.0873600000000001</v>
       </c>
       <c r="D184">
-        <v>1.0892999999999999</v>
+        <v>1.0898600000000001</v>
       </c>
       <c r="E184">
-        <v>1.0775999999999999</v>
+        <v>1.08247</v>
       </c>
       <c r="F184">
-        <v>1.08891</v>
+        <v>1.08613</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>0.74899999999999967</v>
+        <v>1.1700000000000044</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5072,23 @@
         <v>15</v>
       </c>
       <c r="B185" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C185">
-        <v>1.0773299999999999</v>
+        <v>1.07996</v>
       </c>
       <c r="D185">
-        <v>1.08443</v>
+        <v>1.0892999999999999</v>
       </c>
       <c r="E185">
-        <v>1.07694</v>
+        <v>1.0775999999999999</v>
       </c>
       <c r="F185">
-        <v>1.0812900000000001</v>
+        <v>1.08891</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>0.8920000000000039</v>
+        <v>0.74899999999999967</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5096,23 @@
         <v>15</v>
       </c>
       <c r="B186" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C186">
-        <v>1.0803499999999999</v>
+        <v>1.0773299999999999</v>
       </c>
       <c r="D186">
-        <v>1.08426</v>
+        <v>1.08443</v>
       </c>
       <c r="E186">
-        <v>1.07534</v>
+        <v>1.07694</v>
       </c>
       <c r="F186">
-        <v>1.07802</v>
+        <v>1.0812900000000001</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>0.82900000000001306</v>
+        <v>0.8920000000000039</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5120,23 @@
         <v>15</v>
       </c>
       <c r="B187" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C187">
-        <v>1.08379</v>
+        <v>1.0803499999999999</v>
       </c>
       <c r="D187">
-        <v>1.0874900000000001</v>
+        <v>1.08426</v>
       </c>
       <c r="E187">
-        <v>1.0791999999999999</v>
+        <v>1.07534</v>
       </c>
       <c r="F187">
-        <v>1.0802099999999999</v>
+        <v>1.07802</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.4739999999999975</v>
+        <v>0.82900000000001306</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5144,23 @@
         <v>15</v>
       </c>
       <c r="B188" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C188">
-        <v>1.0903400000000001</v>
+        <v>1.08379</v>
       </c>
       <c r="D188">
-        <v>1.0934999999999999</v>
+        <v>1.0874900000000001</v>
       </c>
       <c r="E188">
-        <v>1.0787599999999999</v>
+        <v>1.0791999999999999</v>
       </c>
       <c r="F188">
-        <v>1.08352</v>
+        <v>1.0802099999999999</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.1619999999999964</v>
+        <v>1.4739999999999975</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5168,23 @@
         <v>15</v>
       </c>
       <c r="B189" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C189">
-        <v>1.0845199999999999</v>
+        <v>1.0903400000000001</v>
       </c>
       <c r="D189">
-        <v>1.0924499999999999</v>
+        <v>1.0934999999999999</v>
       </c>
       <c r="E189">
-        <v>1.08083</v>
+        <v>1.0787599999999999</v>
       </c>
       <c r="F189">
-        <v>1.0905499999999999</v>
+        <v>1.08352</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>1.2590000000000101</v>
+        <v>1.1619999999999964</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5192,23 @@
         <v>15</v>
       </c>
       <c r="B190" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C190">
-        <v>1.0796699999999999</v>
+        <v>1.0845199999999999</v>
       </c>
       <c r="D190">
-        <v>1.0897600000000001</v>
+        <v>1.0924499999999999</v>
       </c>
       <c r="E190">
-        <v>1.07717</v>
+        <v>1.08083</v>
       </c>
       <c r="F190">
-        <v>1.08405</v>
+        <v>1.0905499999999999</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>0.74899999999999967</v>
+        <v>1.2590000000000101</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5216,23 @@
         <v>15</v>
       </c>
       <c r="B191" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C191">
-        <v>1.0780000000000001</v>
+        <v>1.0796699999999999</v>
       </c>
       <c r="D191">
-        <v>1.0828100000000001</v>
+        <v>1.0897600000000001</v>
       </c>
       <c r="E191">
-        <v>1.0753200000000001</v>
+        <v>1.07717</v>
       </c>
       <c r="F191">
-        <v>1.08266</v>
+        <v>1.08405</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>1.6310000000000047</v>
+        <v>0.74899999999999967</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5240,23 @@
         <v>15</v>
       </c>
       <c r="B192" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C192">
-        <v>1.0868800000000001</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="D192">
-        <v>1.08887</v>
+        <v>1.0828100000000001</v>
       </c>
       <c r="E192">
-        <v>1.07256</v>
+        <v>1.0753200000000001</v>
       </c>
       <c r="F192">
-        <v>1.0800099999999999</v>
+        <v>1.08266</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>1.4479999999999826</v>
+        <v>1.6310000000000047</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5264,23 @@
         <v>15</v>
       </c>
       <c r="B193" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C193">
-        <v>1.07701</v>
+        <v>1.0868800000000001</v>
       </c>
       <c r="D193">
-        <v>1.0912999999999999</v>
+        <v>1.08887</v>
       </c>
       <c r="E193">
-        <v>1.0768200000000001</v>
+        <v>1.07256</v>
       </c>
       <c r="F193">
-        <v>1.0854699999999999</v>
+        <v>1.0800099999999999</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>1.411999999999991</v>
+        <v>1.4479999999999826</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5288,23 @@
         <v>15</v>
       </c>
       <c r="B194" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C194">
-        <v>1.08229</v>
+        <v>1.07701</v>
       </c>
       <c r="D194">
-        <v>1.0894699999999999</v>
+        <v>1.0912999999999999</v>
       </c>
       <c r="E194">
-        <v>1.07535</v>
+        <v>1.0768200000000001</v>
       </c>
       <c r="F194">
-        <v>1.07806</v>
+        <v>1.0854699999999999</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>1.6690000000000094</v>
+        <v>1.411999999999991</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5312,23 @@
         <v>15</v>
       </c>
       <c r="B195" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C195">
-        <v>1.0908599999999999</v>
+        <v>1.08229</v>
       </c>
       <c r="D195">
-        <v>1.0944700000000001</v>
+        <v>1.0894699999999999</v>
       </c>
       <c r="E195">
-        <v>1.07778</v>
+        <v>1.07535</v>
       </c>
       <c r="F195">
-        <v>1.0820000000000001</v>
+        <v>1.07806</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>0.82599999999999341</v>
+        <v>1.6690000000000094</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5336,23 @@
         <v>15</v>
       </c>
       <c r="B196" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C196">
-        <v>1.0889599999999999</v>
+        <v>1.0908599999999999</v>
       </c>
       <c r="D196">
-        <v>1.0943099999999999</v>
+        <v>1.0944700000000001</v>
       </c>
       <c r="E196">
-        <v>1.08605</v>
+        <v>1.07778</v>
       </c>
       <c r="F196">
-        <v>1.09135</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>0.94499999999999584</v>
+        <v>0.82599999999999341</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5360,23 @@
         <v>15</v>
       </c>
       <c r="B197" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C197">
-        <v>1.0946</v>
+        <v>1.0889599999999999</v>
       </c>
       <c r="D197">
-        <v>1.09656</v>
+        <v>1.0943099999999999</v>
       </c>
       <c r="E197">
-        <v>1.08711</v>
+        <v>1.08605</v>
       </c>
       <c r="F197">
-        <v>1.08938</v>
+        <v>1.09135</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>1.5980000000000105</v>
+        <v>0.94499999999999584</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5384,23 @@
         <v>15</v>
       </c>
       <c r="B198" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C198">
-        <v>1.09355</v>
+        <v>1.0946</v>
       </c>
       <c r="D198">
-        <v>1.09782</v>
+        <v>1.09656</v>
       </c>
       <c r="E198">
-        <v>1.0818399999999999</v>
+        <v>1.08711</v>
       </c>
       <c r="F198">
-        <v>1.0958399999999999</v>
+        <v>1.08938</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>1.1199999999999877</v>
+        <v>1.5980000000000105</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5408,23 @@
         <v>15</v>
       </c>
       <c r="B199" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C199">
-        <v>1.0975299999999999</v>
+        <v>1.09355</v>
       </c>
       <c r="D199">
-        <v>1.1007199999999999</v>
+        <v>1.09782</v>
       </c>
       <c r="E199">
-        <v>1.08952</v>
+        <v>1.0818399999999999</v>
       </c>
       <c r="F199">
-        <v>1.09267</v>
+        <v>1.0958399999999999</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>2.2009999999999863</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,22 +5432,23 @@
         <v>15</v>
       </c>
       <c r="B200" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C200">
-        <v>1.0833999999999999</v>
+        <v>1.0975299999999999</v>
       </c>
       <c r="D200">
-        <v>1.1044499999999999</v>
+        <v>1.1007199999999999</v>
       </c>
       <c r="E200">
-        <v>1.0824400000000001</v>
+        <v>1.08952</v>
       </c>
       <c r="F200">
-        <v>1.0974600000000001</v>
+        <v>1.09267</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/15_EURCHF.xlsx
+++ b/volatility/src/xls/15_EURCHF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="540" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>open</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -78,6 +74,18 @@
   </si>
   <si>
     <t>終値</t>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -501,7 +509,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -528,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>110.3</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -542,38 +550,38 @@
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>1.0094999999999965</v>
+        <v>1.0059999999999958</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>89809</v>
+        <v>90780</v>
       </c>
       <c r="E6" s="5">
-        <v>111.2</v>
+        <v>1.113</v>
       </c>
       <c r="G6" s="5">
-        <f>(E6+B9)/100</f>
-        <v>1.115</v>
+        <f>E6+(B9/100)</f>
+        <v>1.1159999999999999</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.125</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.105</v>
+        <v>1.1059999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -588,13 +596,13 @@
         <v>0.3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -602,16 +610,16 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5">
-        <f>(E6-B9)/100</f>
-        <v>1.109</v>
+        <f>E6-(B9/100)</f>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.099</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.119</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,7 +628,6 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
@@ -649,30 +656,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>0.64299999999999358</v>
+        <v>0.86500000000000465</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>1.0094999999999965</v>
+        <v>1.0059999999999958</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -680,23 +687,23 @@
         <v>15</v>
       </c>
       <c r="B2" s="8">
-        <v>42185</v>
+        <v>42192</v>
       </c>
       <c r="C2">
-        <v>1.1116699999999999</v>
+        <v>1.1126400000000001</v>
       </c>
       <c r="D2">
-        <v>1.11697</v>
+        <v>1.1155600000000001</v>
       </c>
       <c r="E2">
-        <v>1.1105400000000001</v>
+        <v>1.1069100000000001</v>
       </c>
       <c r="F2">
-        <v>1.1129500000000001</v>
+        <v>1.1088499999999999</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>0.8319999999999883</v>
+        <v>0.64299999999999358</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -704,23 +711,23 @@
         <v>15</v>
       </c>
       <c r="B3" s="8">
-        <v>42178</v>
+        <v>42185</v>
       </c>
       <c r="C3">
-        <v>1.10934</v>
+        <v>1.1116699999999999</v>
       </c>
       <c r="D3">
-        <v>1.1143099999999999</v>
+        <v>1.11697</v>
       </c>
       <c r="E3">
-        <v>1.10599</v>
+        <v>1.1105400000000001</v>
       </c>
       <c r="F3">
-        <v>1.1099300000000001</v>
+        <v>1.1129500000000001</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.6529999999999934</v>
+        <v>0.8319999999999883</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -728,23 +735,23 @@
         <v>15</v>
       </c>
       <c r="B4" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C4">
-        <v>1.1190100000000001</v>
+        <v>1.10934</v>
       </c>
       <c r="D4">
-        <v>1.1219699999999999</v>
+        <v>1.1143099999999999</v>
       </c>
       <c r="E4">
-        <v>1.10544</v>
+        <v>1.10599</v>
       </c>
       <c r="F4">
-        <v>1.1098600000000001</v>
+        <v>1.1099300000000001</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.79199999999999271</v>
+        <v>1.6529999999999934</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -752,23 +759,23 @@
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C5">
-        <v>1.11957</v>
+        <v>1.1190100000000001</v>
       </c>
       <c r="D5">
-        <v>1.1262099999999999</v>
+        <v>1.1219699999999999</v>
       </c>
       <c r="E5">
-        <v>1.11829</v>
+        <v>1.10544</v>
       </c>
       <c r="F5">
-        <v>1.11931</v>
+        <v>1.1098600000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.87500000000000355</v>
+        <v>0.79199999999999271</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -776,23 +783,23 @@
         <v>15</v>
       </c>
       <c r="B6" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C6">
-        <v>1.1176600000000001</v>
+        <v>1.11957</v>
       </c>
       <c r="D6">
-        <v>1.1204700000000001</v>
+        <v>1.1262099999999999</v>
       </c>
       <c r="E6">
-        <v>1.11172</v>
+        <v>1.11829</v>
       </c>
       <c r="F6">
-        <v>1.11883</v>
+        <v>1.11931</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.0729999999999906</v>
+        <v>0.87500000000000355</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -800,23 +807,23 @@
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C7">
-        <v>1.1225400000000001</v>
+        <v>1.1176600000000001</v>
       </c>
       <c r="D7">
-        <v>1.12761</v>
+        <v>1.1204700000000001</v>
       </c>
       <c r="E7">
-        <v>1.1168800000000001</v>
+        <v>1.11172</v>
       </c>
       <c r="F7">
-        <v>1.1178399999999999</v>
+        <v>1.11883</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.97400000000000819</v>
+        <v>1.0729999999999906</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -824,23 +831,23 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C8">
-        <v>1.1280699999999999</v>
+        <v>1.1225400000000001</v>
       </c>
       <c r="D8">
-        <v>1.1290500000000001</v>
+        <v>1.12761</v>
       </c>
       <c r="E8">
-        <v>1.11931</v>
+        <v>1.1168800000000001</v>
       </c>
       <c r="F8">
-        <v>1.12225</v>
+        <v>1.1178399999999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.0079999999999867</v>
+        <v>0.97400000000000819</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -848,23 +855,23 @@
         <v>15</v>
       </c>
       <c r="B9" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C9">
-        <v>1.13517</v>
+        <v>1.1280699999999999</v>
       </c>
       <c r="D9">
-        <v>1.1362699999999999</v>
+        <v>1.1290500000000001</v>
       </c>
       <c r="E9">
-        <v>1.12619</v>
+        <v>1.11931</v>
       </c>
       <c r="F9">
-        <v>1.12774</v>
+        <v>1.12225</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.79799999999998761</v>
+        <v>1.0079999999999867</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -872,23 +879,23 @@
         <v>15</v>
       </c>
       <c r="B10" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C10">
-        <v>1.13622</v>
+        <v>1.13517</v>
       </c>
       <c r="D10">
-        <v>1.1437299999999999</v>
+        <v>1.1362699999999999</v>
       </c>
       <c r="E10">
-        <v>1.13575</v>
+        <v>1.12619</v>
       </c>
       <c r="F10">
-        <v>1.13584</v>
+        <v>1.12774</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.84699999999999775</v>
+        <v>0.79799999999998761</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -896,23 +903,23 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C11">
-        <v>1.13581</v>
+        <v>1.13622</v>
       </c>
       <c r="D11">
-        <v>1.14428</v>
+        <v>1.1437299999999999</v>
       </c>
       <c r="E11">
-        <v>1.13581</v>
+        <v>1.13575</v>
       </c>
       <c r="F11">
-        <v>1.13846</v>
+        <v>1.13584</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.2539999999999996</v>
+        <v>0.84699999999999775</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -920,23 +927,23 @@
         <v>15</v>
       </c>
       <c r="B12" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C12">
-        <v>1.1397299999999999</v>
+        <v>1.13581</v>
       </c>
       <c r="D12">
-        <v>1.1474</v>
+        <v>1.14428</v>
       </c>
       <c r="E12">
-        <v>1.13486</v>
+        <v>1.13581</v>
       </c>
       <c r="F12">
-        <v>1.13618</v>
+        <v>1.13846</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.98200000000001619</v>
+        <v>1.2539999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -944,23 +951,23 @@
         <v>15</v>
       </c>
       <c r="B13" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C13">
-        <v>1.1323799999999999</v>
+        <v>1.1397299999999999</v>
       </c>
       <c r="D13">
-        <v>1.1419600000000001</v>
+        <v>1.1474</v>
       </c>
       <c r="E13">
-        <v>1.1321399999999999</v>
+        <v>1.13486</v>
       </c>
       <c r="F13">
-        <v>1.1403099999999999</v>
+        <v>1.13618</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.2070000000000025</v>
+        <v>0.98200000000001619</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -968,23 +975,23 @@
         <v>15</v>
       </c>
       <c r="B14" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C14">
-        <v>1.1211899999999999</v>
+        <v>1.1323799999999999</v>
       </c>
       <c r="D14">
-        <v>1.13293</v>
+        <v>1.1419600000000001</v>
       </c>
       <c r="E14">
-        <v>1.12086</v>
+        <v>1.1321399999999999</v>
       </c>
       <c r="F14">
-        <v>1.1327700000000001</v>
+        <v>1.1403099999999999</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.72599999999998222</v>
+        <v>1.2070000000000025</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -992,23 +999,23 @@
         <v>15</v>
       </c>
       <c r="B15" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C15">
-        <v>1.11697</v>
+        <v>1.1211899999999999</v>
       </c>
       <c r="D15">
-        <v>1.1237299999999999</v>
+        <v>1.13293</v>
       </c>
       <c r="E15">
-        <v>1.1164700000000001</v>
+        <v>1.12086</v>
       </c>
       <c r="F15">
-        <v>1.12138</v>
+        <v>1.1327700000000001</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.93499999999999694</v>
+        <v>0.72599999999998222</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1016,23 +1023,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C16">
-        <v>1.1222300000000001</v>
+        <v>1.11697</v>
       </c>
       <c r="D16">
-        <v>1.12547</v>
+        <v>1.1237299999999999</v>
       </c>
       <c r="E16">
-        <v>1.11612</v>
+        <v>1.1164700000000001</v>
       </c>
       <c r="F16">
-        <v>1.1164799999999999</v>
+        <v>1.12138</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.5329999999999844</v>
+        <v>0.93499999999999694</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1040,23 +1047,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C17">
-        <v>1.13435</v>
+        <v>1.1222300000000001</v>
       </c>
       <c r="D17">
-        <v>1.1363099999999999</v>
+        <v>1.12547</v>
       </c>
       <c r="E17">
-        <v>1.1209800000000001</v>
+        <v>1.11612</v>
       </c>
       <c r="F17">
-        <v>1.1225400000000001</v>
+        <v>1.1164799999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.69499999999997897</v>
+        <v>1.5329999999999844</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1064,23 +1071,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C18">
-        <v>1.1321000000000001</v>
+        <v>1.13435</v>
       </c>
       <c r="D18">
-        <v>1.1382699999999999</v>
+        <v>1.1363099999999999</v>
       </c>
       <c r="E18">
-        <v>1.1313200000000001</v>
+        <v>1.1209800000000001</v>
       </c>
       <c r="F18">
-        <v>1.13443</v>
+        <v>1.1225400000000001</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0.61599999999999433</v>
+        <v>0.69499999999997897</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1088,23 +1095,23 @@
         <v>15</v>
       </c>
       <c r="B19" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C19">
-        <v>1.13571</v>
+        <v>1.1321000000000001</v>
       </c>
       <c r="D19">
-        <v>1.13672</v>
+        <v>1.1382699999999999</v>
       </c>
       <c r="E19">
-        <v>1.13056</v>
+        <v>1.1313200000000001</v>
       </c>
       <c r="F19">
-        <v>1.13215</v>
+        <v>1.13443</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0.66299999999999137</v>
+        <v>0.61599999999999433</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1112,23 +1119,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C20">
-        <v>1.1331</v>
+        <v>1.13571</v>
       </c>
       <c r="D20">
-        <v>1.13913</v>
+        <v>1.13672</v>
       </c>
       <c r="E20">
-        <v>1.1325000000000001</v>
+        <v>1.13056</v>
       </c>
       <c r="F20">
-        <v>1.13523</v>
+        <v>1.13215</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0.43600000000001415</v>
+        <v>0.66299999999999137</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1136,23 +1143,23 @@
         <v>15</v>
       </c>
       <c r="B21" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C21">
-        <v>1.1343700000000001</v>
+        <v>1.1331</v>
       </c>
       <c r="D21">
-        <v>1.13714</v>
+        <v>1.13913</v>
       </c>
       <c r="E21">
-        <v>1.1327799999999999</v>
+        <v>1.1325000000000001</v>
       </c>
       <c r="F21">
-        <v>1.13348</v>
+        <v>1.13523</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.1359999999999815</v>
+        <v>0.43600000000001415</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1160,23 +1167,23 @@
         <v>15</v>
       </c>
       <c r="B22" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C22">
-        <v>1.1320699999999999</v>
+        <v>1.1343700000000001</v>
       </c>
       <c r="D22">
-        <v>1.1420999999999999</v>
+        <v>1.13714</v>
       </c>
       <c r="E22">
-        <v>1.1307400000000001</v>
+        <v>1.1327799999999999</v>
       </c>
       <c r="F22">
-        <v>1.13476</v>
+        <v>1.13348</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.2160000000000171</v>
+        <v>1.1359999999999815</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1184,23 +1191,23 @@
         <v>15</v>
       </c>
       <c r="B23" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C23">
-        <v>1.1397200000000001</v>
+        <v>1.1320699999999999</v>
       </c>
       <c r="D23">
-        <v>1.1441600000000001</v>
+        <v>1.1420999999999999</v>
       </c>
       <c r="E23">
-        <v>1.1319999999999999</v>
+        <v>1.1307400000000001</v>
       </c>
       <c r="F23">
-        <v>1.1320600000000001</v>
+        <v>1.13476</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.1870000000000047</v>
+        <v>1.2160000000000171</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1208,23 +1215,23 @@
         <v>15</v>
       </c>
       <c r="B24" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C24">
-        <v>1.13246</v>
+        <v>1.1397200000000001</v>
       </c>
       <c r="D24">
-        <v>1.14266</v>
+        <v>1.1441600000000001</v>
       </c>
       <c r="E24">
-        <v>1.13079</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="F24">
-        <v>1.13998</v>
+        <v>1.1320600000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0.88099999999999845</v>
+        <v>1.1870000000000047</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1232,23 +1239,23 @@
         <v>15</v>
       </c>
       <c r="B25" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C25">
-        <v>1.1305499999999999</v>
+        <v>1.13246</v>
       </c>
       <c r="D25">
-        <v>1.1345000000000001</v>
+        <v>1.14266</v>
       </c>
       <c r="E25">
-        <v>1.1256900000000001</v>
+        <v>1.13079</v>
       </c>
       <c r="F25">
-        <v>1.1328800000000001</v>
+        <v>1.13998</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0.9260000000000046</v>
+        <v>0.88099999999999845</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1256,23 +1263,23 @@
         <v>15</v>
       </c>
       <c r="B26" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C26">
-        <v>1.1281399999999999</v>
+        <v>1.1305499999999999</v>
       </c>
       <c r="D26">
-        <v>1.1335500000000001</v>
+        <v>1.1345000000000001</v>
       </c>
       <c r="E26">
-        <v>1.12429</v>
+        <v>1.1256900000000001</v>
       </c>
       <c r="F26">
-        <v>1.1313899999999999</v>
+        <v>1.1328800000000001</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1.3090000000000046</v>
+        <v>0.9260000000000046</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1280,23 +1287,23 @@
         <v>15</v>
       </c>
       <c r="B27" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C27">
-        <v>1.1242700000000001</v>
+        <v>1.1281399999999999</v>
       </c>
       <c r="D27">
-        <v>1.1337900000000001</v>
+        <v>1.1335500000000001</v>
       </c>
       <c r="E27">
-        <v>1.1207</v>
+        <v>1.12429</v>
       </c>
       <c r="F27">
-        <v>1.12782</v>
+        <v>1.1313899999999999</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1.419999999999999</v>
+        <v>1.3090000000000046</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1304,23 +1311,23 @@
         <v>15</v>
       </c>
       <c r="B28" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C28">
-        <v>1.1250599999999999</v>
+        <v>1.1242700000000001</v>
       </c>
       <c r="D28">
-        <v>1.12845</v>
+        <v>1.1337900000000001</v>
       </c>
       <c r="E28">
-        <v>1.11425</v>
+        <v>1.1207</v>
       </c>
       <c r="F28">
-        <v>1.12422</v>
+        <v>1.12782</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1.2969999999999926</v>
+        <v>1.419999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1328,23 +1335,23 @@
         <v>15</v>
       </c>
       <c r="B29" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C29">
-        <v>1.1303700000000001</v>
+        <v>1.1250599999999999</v>
       </c>
       <c r="D29">
-        <v>1.1342399999999999</v>
+        <v>1.12845</v>
       </c>
       <c r="E29">
-        <v>1.12127</v>
+        <v>1.11425</v>
       </c>
       <c r="F29">
-        <v>1.12598</v>
+        <v>1.12422</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>1.0110000000000063</v>
+        <v>1.2969999999999926</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1352,23 +1359,23 @@
         <v>15</v>
       </c>
       <c r="B30" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C30">
-        <v>1.1265000000000001</v>
+        <v>1.1303700000000001</v>
       </c>
       <c r="D30">
-        <v>1.1347100000000001</v>
+        <v>1.1342399999999999</v>
       </c>
       <c r="E30">
-        <v>1.1246</v>
+        <v>1.12127</v>
       </c>
       <c r="F30">
-        <v>1.1308199999999999</v>
+        <v>1.12598</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0.83099999999998175</v>
+        <v>1.0110000000000063</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1376,23 +1383,23 @@
         <v>15</v>
       </c>
       <c r="B31" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C31">
-        <v>1.12829</v>
+        <v>1.1265000000000001</v>
       </c>
       <c r="D31">
-        <v>1.1305799999999999</v>
+        <v>1.1347100000000001</v>
       </c>
       <c r="E31">
-        <v>1.1222700000000001</v>
+        <v>1.1246</v>
       </c>
       <c r="F31">
-        <v>1.12846</v>
+        <v>1.1308199999999999</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>0.67800000000000082</v>
+        <v>0.83099999999998175</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1400,23 +1407,23 @@
         <v>15</v>
       </c>
       <c r="B32" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C32">
-        <v>1.13303</v>
+        <v>1.12829</v>
       </c>
       <c r="D32">
-        <v>1.13463</v>
+        <v>1.1305799999999999</v>
       </c>
       <c r="E32">
-        <v>1.12785</v>
+        <v>1.1222700000000001</v>
       </c>
       <c r="F32">
-        <v>1.1283300000000001</v>
+        <v>1.12846</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>0.96000000000000529</v>
+        <v>0.67800000000000082</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1424,23 +1431,23 @@
         <v>15</v>
       </c>
       <c r="B33" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C33">
-        <v>1.13039</v>
+        <v>1.13303</v>
       </c>
       <c r="D33">
-        <v>1.13548</v>
+        <v>1.13463</v>
       </c>
       <c r="E33">
-        <v>1.12588</v>
+        <v>1.12785</v>
       </c>
       <c r="F33">
-        <v>1.13019</v>
+        <v>1.1283300000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.2210000000000054</v>
+        <v>0.96000000000000529</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1448,23 +1455,23 @@
         <v>15</v>
       </c>
       <c r="B34" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C34">
-        <v>1.1401300000000001</v>
+        <v>1.13039</v>
       </c>
       <c r="D34">
-        <v>1.1415</v>
+        <v>1.13548</v>
       </c>
       <c r="E34">
-        <v>1.1292899999999999</v>
+        <v>1.12588</v>
       </c>
       <c r="F34">
-        <v>1.1303700000000001</v>
+        <v>1.13019</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.0040000000000049</v>
+        <v>1.2210000000000054</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1472,23 +1479,23 @@
         <v>15</v>
       </c>
       <c r="B35" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C35">
-        <v>1.1379600000000001</v>
+        <v>1.1401300000000001</v>
       </c>
       <c r="D35">
-        <v>1.1432500000000001</v>
+        <v>1.1415</v>
       </c>
       <c r="E35">
-        <v>1.1332100000000001</v>
+        <v>1.1292899999999999</v>
       </c>
       <c r="F35">
-        <v>1.1408700000000001</v>
+        <v>1.1303700000000001</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>0.873999999999997</v>
+        <v>1.0040000000000049</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1496,23 +1503,23 @@
         <v>15</v>
       </c>
       <c r="B36" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C36">
-        <v>1.14215</v>
+        <v>1.1379600000000001</v>
       </c>
       <c r="D36">
-        <v>1.14682</v>
+        <v>1.1432500000000001</v>
       </c>
       <c r="E36">
-        <v>1.13808</v>
+        <v>1.1332100000000001</v>
       </c>
       <c r="F36">
-        <v>1.1396599999999999</v>
+        <v>1.1408700000000001</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0.8960000000000079</v>
+        <v>0.873999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1520,23 +1527,23 @@
         <v>15</v>
       </c>
       <c r="B37" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C37">
-        <v>1.1371199999999999</v>
+        <v>1.14215</v>
       </c>
       <c r="D37">
-        <v>1.14527</v>
+        <v>1.14682</v>
       </c>
       <c r="E37">
-        <v>1.1363099999999999</v>
+        <v>1.13808</v>
       </c>
       <c r="F37">
-        <v>1.1430199999999999</v>
+        <v>1.1396599999999999</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.5819999999999945</v>
+        <v>0.8960000000000079</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1544,23 +1551,23 @@
         <v>15</v>
       </c>
       <c r="B38" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C38">
-        <v>1.1457599999999999</v>
+        <v>1.1371199999999999</v>
       </c>
       <c r="D38">
-        <v>1.14988</v>
+        <v>1.14527</v>
       </c>
       <c r="E38">
-        <v>1.1340600000000001</v>
+        <v>1.1363099999999999</v>
       </c>
       <c r="F38">
-        <v>1.1362300000000001</v>
+        <v>1.1430199999999999</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>0.99899999999999434</v>
+        <v>1.5819999999999945</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1568,23 +1575,23 @@
         <v>15</v>
       </c>
       <c r="B39" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C39">
-        <v>1.14456</v>
+        <v>1.1457599999999999</v>
       </c>
       <c r="D39">
-        <v>1.14896</v>
+        <v>1.14988</v>
       </c>
       <c r="E39">
-        <v>1.13897</v>
+        <v>1.1340600000000001</v>
       </c>
       <c r="F39">
-        <v>1.1469499999999999</v>
+        <v>1.1362300000000001</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.2320000000000109</v>
+        <v>0.99899999999999434</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1592,23 +1599,23 @@
         <v>15</v>
       </c>
       <c r="B40" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C40">
-        <v>1.1422399999999999</v>
+        <v>1.14456</v>
       </c>
       <c r="D40">
-        <v>1.149</v>
+        <v>1.14896</v>
       </c>
       <c r="E40">
-        <v>1.1366799999999999</v>
+        <v>1.13897</v>
       </c>
       <c r="F40">
-        <v>1.1460300000000001</v>
+        <v>1.1469499999999999</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.3740000000000085</v>
+        <v>1.2320000000000109</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1616,23 +1623,23 @@
         <v>15</v>
       </c>
       <c r="B41" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C41">
-        <v>1.13794</v>
+        <v>1.1422399999999999</v>
       </c>
       <c r="D41">
-        <v>1.1447700000000001</v>
+        <v>1.149</v>
       </c>
       <c r="E41">
-        <v>1.13103</v>
+        <v>1.1366799999999999</v>
       </c>
       <c r="F41">
-        <v>1.1431899999999999</v>
+        <v>1.1460300000000001</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.6379999999999839</v>
+        <v>1.3740000000000085</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1640,23 +1647,23 @@
         <v>15</v>
       </c>
       <c r="B42" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C42">
-        <v>1.1256600000000001</v>
+        <v>1.13794</v>
       </c>
       <c r="D42">
-        <v>1.1412599999999999</v>
+        <v>1.1447700000000001</v>
       </c>
       <c r="E42">
-        <v>1.1248800000000001</v>
+        <v>1.13103</v>
       </c>
       <c r="F42">
-        <v>1.139</v>
+        <v>1.1431899999999999</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1.0559999999999903</v>
+        <v>1.6379999999999839</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1664,23 +1671,23 @@
         <v>15</v>
       </c>
       <c r="B43" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C43">
+        <v>1.1256600000000001</v>
+      </c>
+      <c r="D43">
+        <v>1.1412599999999999</v>
+      </c>
+      <c r="E43">
         <v>1.1248800000000001</v>
       </c>
-      <c r="D43">
-        <v>1.1325099999999999</v>
-      </c>
-      <c r="E43">
-        <v>1.12195</v>
-      </c>
       <c r="F43">
-        <v>1.12602</v>
+        <v>1.139</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.5859999999999985</v>
+        <v>1.0559999999999903</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1688,23 +1695,23 @@
         <v>15</v>
       </c>
       <c r="B44" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C44">
-        <v>1.1191899999999999</v>
+        <v>1.1248800000000001</v>
       </c>
       <c r="D44">
-        <v>1.13415</v>
+        <v>1.1325099999999999</v>
       </c>
       <c r="E44">
-        <v>1.11829</v>
+        <v>1.12195</v>
       </c>
       <c r="F44">
-        <v>1.12401</v>
+        <v>1.12602</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.3719999999999954</v>
+        <v>1.5859999999999985</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1712,23 +1719,23 @@
         <v>15</v>
       </c>
       <c r="B45" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C45">
-        <v>1.1240600000000001</v>
+        <v>1.1191899999999999</v>
       </c>
       <c r="D45">
-        <v>1.13182</v>
+        <v>1.13415</v>
       </c>
       <c r="E45">
-        <v>1.1181000000000001</v>
+        <v>1.11829</v>
       </c>
       <c r="F45">
-        <v>1.11937</v>
+        <v>1.12401</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>2.1490000000000009</v>
+        <v>1.3719999999999954</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1736,23 +1743,23 @@
         <v>15</v>
       </c>
       <c r="B46" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C46">
-        <v>1.1424700000000001</v>
+        <v>1.1240600000000001</v>
       </c>
       <c r="D46">
-        <v>1.1451899999999999</v>
+        <v>1.13182</v>
       </c>
       <c r="E46">
-        <v>1.1236999999999999</v>
+        <v>1.1181000000000001</v>
       </c>
       <c r="F46">
-        <v>1.1246400000000001</v>
+        <v>1.11937</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>0.75700000000000767</v>
+        <v>2.1490000000000009</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1760,23 +1767,23 @@
         <v>15</v>
       </c>
       <c r="B47" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C47">
-        <v>1.1380300000000001</v>
+        <v>1.1424700000000001</v>
       </c>
       <c r="D47">
-        <v>1.14273</v>
+        <v>1.1451899999999999</v>
       </c>
       <c r="E47">
-        <v>1.1351599999999999</v>
+        <v>1.1236999999999999</v>
       </c>
       <c r="F47">
-        <v>1.1423000000000001</v>
+        <v>1.1246400000000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.5109999999999957</v>
+        <v>0.75700000000000767</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1784,23 +1791,23 @@
         <v>15</v>
       </c>
       <c r="B48" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C48">
-        <v>1.13062</v>
+        <v>1.1380300000000001</v>
       </c>
       <c r="D48">
-        <v>1.13924</v>
+        <v>1.14273</v>
       </c>
       <c r="E48">
-        <v>1.1241300000000001</v>
+        <v>1.1351599999999999</v>
       </c>
       <c r="F48">
-        <v>1.13849</v>
+        <v>1.1423000000000001</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>2.1770000000000067</v>
+        <v>1.5109999999999957</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1808,23 +1815,23 @@
         <v>15</v>
       </c>
       <c r="B49" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C49">
-        <v>1.1499900000000001</v>
+        <v>1.13062</v>
       </c>
       <c r="D49">
-        <v>1.15554</v>
+        <v>1.13924</v>
       </c>
       <c r="E49">
-        <v>1.1337699999999999</v>
+        <v>1.1241300000000001</v>
       </c>
       <c r="F49">
-        <v>1.1361000000000001</v>
+        <v>1.13849</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.0679999999999801</v>
+        <v>2.1770000000000067</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1832,23 +1839,23 @@
         <v>15</v>
       </c>
       <c r="B50" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C50">
-        <v>1.15889</v>
+        <v>1.1499900000000001</v>
       </c>
       <c r="D50">
-        <v>1.1601999999999999</v>
+        <v>1.15554</v>
       </c>
       <c r="E50">
-        <v>1.1495200000000001</v>
+        <v>1.1337699999999999</v>
       </c>
       <c r="F50">
-        <v>1.1498200000000001</v>
+        <v>1.1361000000000001</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>0.74799999999999311</v>
+        <v>1.0679999999999801</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1856,23 +1863,23 @@
         <v>15</v>
       </c>
       <c r="B51" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C51">
-        <v>1.1628099999999999</v>
+        <v>1.15889</v>
       </c>
       <c r="D51">
-        <v>1.1639699999999999</v>
+        <v>1.1601999999999999</v>
       </c>
       <c r="E51">
-        <v>1.15649</v>
+        <v>1.1495200000000001</v>
       </c>
       <c r="F51">
-        <v>1.15944</v>
+        <v>1.1498200000000001</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.114000000000015</v>
+        <v>0.74799999999999311</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1880,23 +1887,23 @@
         <v>15</v>
       </c>
       <c r="B52" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C52">
-        <v>1.1695599999999999</v>
+        <v>1.1628099999999999</v>
       </c>
       <c r="D52">
-        <v>1.17117</v>
+        <v>1.1639699999999999</v>
       </c>
       <c r="E52">
-        <v>1.1600299999999999</v>
+        <v>1.15649</v>
       </c>
       <c r="F52">
-        <v>1.16262</v>
+        <v>1.15944</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.0270000000000001</v>
+        <v>1.114000000000015</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1904,23 +1911,23 @@
         <v>15</v>
       </c>
       <c r="B53" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C53">
-        <v>1.1622300000000001</v>
+        <v>1.1695599999999999</v>
       </c>
       <c r="D53">
-        <v>1.1706300000000001</v>
+        <v>1.17117</v>
       </c>
       <c r="E53">
-        <v>1.1603600000000001</v>
+        <v>1.1600299999999999</v>
       </c>
       <c r="F53">
-        <v>1.17021</v>
+        <v>1.16262</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.0489999999999888</v>
+        <v>1.0270000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1928,23 +1935,23 @@
         <v>15</v>
       </c>
       <c r="B54" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C54">
-        <v>1.1558299999999999</v>
+        <v>1.1622300000000001</v>
       </c>
       <c r="D54">
-        <v>1.16374</v>
+        <v>1.1706300000000001</v>
       </c>
       <c r="E54">
-        <v>1.1532500000000001</v>
+        <v>1.1603600000000001</v>
       </c>
       <c r="F54">
-        <v>1.1630100000000001</v>
+        <v>1.17021</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.1089999999999822</v>
+        <v>1.0489999999999888</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1952,23 +1959,23 @@
         <v>15</v>
       </c>
       <c r="B55" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C55">
-        <v>1.1524000000000001</v>
+        <v>1.1558299999999999</v>
       </c>
       <c r="D55">
-        <v>1.1598299999999999</v>
+        <v>1.16374</v>
       </c>
       <c r="E55">
-        <v>1.1487400000000001</v>
+        <v>1.1532500000000001</v>
       </c>
       <c r="F55">
-        <v>1.1569</v>
+        <v>1.1630100000000001</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>0.92399999999999149</v>
+        <v>1.1089999999999822</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1976,23 +1983,23 @@
         <v>15</v>
       </c>
       <c r="B56" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C56">
-        <v>1.1559299999999999</v>
+        <v>1.1524000000000001</v>
       </c>
       <c r="D56">
-        <v>1.1569799999999999</v>
+        <v>1.1598299999999999</v>
       </c>
       <c r="E56">
-        <v>1.14774</v>
+        <v>1.1487400000000001</v>
       </c>
       <c r="F56">
-        <v>1.1512</v>
+        <v>1.1569</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>1.3149999999999995</v>
+        <v>0.92399999999999149</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -2000,23 +2007,23 @@
         <v>15</v>
       </c>
       <c r="B57" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C57">
-        <v>1.1590199999999999</v>
+        <v>1.1559299999999999</v>
       </c>
       <c r="D57">
-        <v>1.1654599999999999</v>
+        <v>1.1569799999999999</v>
       </c>
       <c r="E57">
-        <v>1.1523099999999999</v>
+        <v>1.14774</v>
       </c>
       <c r="F57">
-        <v>1.1570100000000001</v>
+        <v>1.1512</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>1.3369999999999882</v>
+        <v>1.3149999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2024,23 +2031,23 @@
         <v>15</v>
       </c>
       <c r="B58" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C58">
-        <v>1.15283</v>
+        <v>1.1590199999999999</v>
       </c>
       <c r="D58">
-        <v>1.16377</v>
+        <v>1.1654599999999999</v>
       </c>
       <c r="E58">
-        <v>1.1504000000000001</v>
+        <v>1.1523099999999999</v>
       </c>
       <c r="F58">
-        <v>1.1589700000000001</v>
+        <v>1.1570100000000001</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.6049999999999907</v>
+        <v>1.3369999999999882</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2048,23 +2055,23 @@
         <v>15</v>
       </c>
       <c r="B59" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C59">
-        <v>1.1596299999999999</v>
+        <v>1.15283</v>
       </c>
       <c r="D59">
-        <v>1.1626399999999999</v>
+        <v>1.16377</v>
       </c>
       <c r="E59">
-        <v>1.13659</v>
+        <v>1.1504000000000001</v>
       </c>
       <c r="F59">
-        <v>1.15198</v>
+        <v>1.1589700000000001</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>2.3249999999999993</v>
+        <v>2.6049999999999907</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2072,23 +2079,23 @@
         <v>15</v>
       </c>
       <c r="B60" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C60">
-        <v>1.1736500000000001</v>
+        <v>1.1596299999999999</v>
       </c>
       <c r="D60">
-        <v>1.1769099999999999</v>
+        <v>1.1626399999999999</v>
       </c>
       <c r="E60">
-        <v>1.1536599999999999</v>
+        <v>1.13659</v>
       </c>
       <c r="F60">
-        <v>1.15463</v>
+        <v>1.15198</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>2.5020000000000042</v>
+        <v>2.3249999999999993</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2096,23 +2103,23 @@
         <v>15</v>
       </c>
       <c r="B61" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C61">
-        <v>1.19404</v>
+        <v>1.1736500000000001</v>
       </c>
       <c r="D61">
-        <v>1.1977800000000001</v>
+        <v>1.1769099999999999</v>
       </c>
       <c r="E61">
-        <v>1.17276</v>
+        <v>1.1536599999999999</v>
       </c>
       <c r="F61">
-        <v>1.1736</v>
+        <v>1.15463</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.1370000000000102</v>
+        <v>2.5020000000000042</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2120,23 +2127,23 @@
         <v>15</v>
       </c>
       <c r="B62" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C62">
-        <v>1.1957500000000001</v>
+        <v>1.19404</v>
       </c>
       <c r="D62">
-        <v>1.19774</v>
+        <v>1.1977800000000001</v>
       </c>
       <c r="E62">
-        <v>1.1863699999999999</v>
+        <v>1.17276</v>
       </c>
       <c r="F62">
-        <v>1.19478</v>
+        <v>1.1736</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>0.52699999999998859</v>
+        <v>1.1370000000000102</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2144,23 +2151,23 @@
         <v>15</v>
       </c>
       <c r="B63" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C63">
-        <v>1.1977100000000001</v>
+        <v>1.1957500000000001</v>
       </c>
       <c r="D63">
-        <v>1.1985399999999999</v>
+        <v>1.19774</v>
       </c>
       <c r="E63">
-        <v>1.1932700000000001</v>
+        <v>1.1863699999999999</v>
       </c>
       <c r="F63">
-        <v>1.19648</v>
+        <v>1.19478</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>0.72100000000001607</v>
+        <v>0.52699999999998859</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2168,23 +2175,23 @@
         <v>15</v>
       </c>
       <c r="B64" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C64">
-        <v>1.1975</v>
+        <v>1.1977100000000001</v>
       </c>
       <c r="D64">
-        <v>1.1994800000000001</v>
+        <v>1.1985399999999999</v>
       </c>
       <c r="E64">
-        <v>1.1922699999999999</v>
+        <v>1.1932700000000001</v>
       </c>
       <c r="F64">
-        <v>1.1978</v>
+        <v>1.19648</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.4049999999999896</v>
+        <v>0.72100000000001607</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2192,23 +2199,23 @@
         <v>15</v>
       </c>
       <c r="B65" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C65">
-        <v>1.18634</v>
+        <v>1.1975</v>
       </c>
       <c r="D65">
-        <v>1.20031</v>
+        <v>1.1994800000000001</v>
       </c>
       <c r="E65">
-        <v>1.1862600000000001</v>
+        <v>1.1922699999999999</v>
       </c>
       <c r="F65">
-        <v>1.1977</v>
+        <v>1.1978</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.2319999999999887</v>
+        <v>1.4049999999999896</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2216,23 +2223,23 @@
         <v>15</v>
       </c>
       <c r="B66" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C66">
-        <v>1.17682</v>
+        <v>1.18634</v>
       </c>
       <c r="D66">
-        <v>1.18875</v>
+        <v>1.20031</v>
       </c>
       <c r="E66">
-        <v>1.1764300000000001</v>
+        <v>1.1862600000000001</v>
       </c>
       <c r="F66">
-        <v>1.1863600000000001</v>
+        <v>1.1977</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>0.68000000000001393</v>
+        <v>1.2319999999999887</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2240,23 +2247,23 @@
         <v>15</v>
       </c>
       <c r="B67" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C67">
-        <v>1.1751199999999999</v>
+        <v>1.17682</v>
       </c>
       <c r="D67">
-        <v>1.1802900000000001</v>
+        <v>1.18875</v>
       </c>
       <c r="E67">
-        <v>1.1734899999999999</v>
+        <v>1.1764300000000001</v>
       </c>
       <c r="F67">
-        <v>1.1776199999999999</v>
+        <v>1.1863600000000001</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>1.1390000000000011</v>
+        <v>0.68000000000001393</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2264,23 +2271,23 @@
         <v>15</v>
       </c>
       <c r="B68" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C68">
-        <v>1.1692800000000001</v>
+        <v>1.1751199999999999</v>
       </c>
       <c r="D68">
-        <v>1.18011</v>
+        <v>1.1802900000000001</v>
       </c>
       <c r="E68">
-        <v>1.16872</v>
+        <v>1.1734899999999999</v>
       </c>
       <c r="F68">
-        <v>1.1752800000000001</v>
+        <v>1.1776199999999999</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>0.98000000000000309</v>
+        <v>1.1390000000000011</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2288,23 +2295,23 @@
         <v>15</v>
       </c>
       <c r="B69" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C69">
-        <v>1.1698999999999999</v>
+        <v>1.1692800000000001</v>
       </c>
       <c r="D69">
-        <v>1.1746799999999999</v>
+        <v>1.18011</v>
       </c>
       <c r="E69">
-        <v>1.1648799999999999</v>
+        <v>1.16872</v>
       </c>
       <c r="F69">
-        <v>1.17038</v>
+        <v>1.1752800000000001</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>0.41999999999999815</v>
+        <v>0.98000000000000309</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2312,23 +2319,23 @@
         <v>15</v>
       </c>
       <c r="B70" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C70">
-        <v>1.1708400000000001</v>
+        <v>1.1698999999999999</v>
       </c>
       <c r="D70">
-        <v>1.17134</v>
+        <v>1.1746799999999999</v>
       </c>
       <c r="E70">
-        <v>1.1671400000000001</v>
+        <v>1.1648799999999999</v>
       </c>
       <c r="F70">
-        <v>1.1698</v>
+        <v>1.17038</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>2.3129999999999873</v>
+        <v>0.41999999999999815</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2336,23 +2343,23 @@
         <v>15</v>
       </c>
       <c r="B71" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C71">
-        <v>1.15435</v>
+        <v>1.1708400000000001</v>
       </c>
       <c r="D71">
-        <v>1.17394</v>
+        <v>1.17134</v>
       </c>
       <c r="E71">
-        <v>1.1508100000000001</v>
+        <v>1.1671400000000001</v>
       </c>
       <c r="F71">
-        <v>1.17055</v>
+        <v>1.1698</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>0.80299999999999816</v>
+        <v>2.3129999999999873</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2360,23 +2367,23 @@
         <v>15</v>
       </c>
       <c r="B72" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C72">
-        <v>1.1510800000000001</v>
+        <v>1.15435</v>
       </c>
       <c r="D72">
-        <v>1.1560900000000001</v>
+        <v>1.17394</v>
       </c>
       <c r="E72">
-        <v>1.1480600000000001</v>
+        <v>1.1508100000000001</v>
       </c>
       <c r="F72">
-        <v>1.15516</v>
+        <v>1.17055</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>0.69400000000001683</v>
+        <v>0.80299999999999816</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2384,23 +2391,23 @@
         <v>15</v>
       </c>
       <c r="B73" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C73">
-        <v>1.1511800000000001</v>
+        <v>1.1510800000000001</v>
       </c>
       <c r="D73">
-        <v>1.1558200000000001</v>
+        <v>1.1560900000000001</v>
       </c>
       <c r="E73">
-        <v>1.1488799999999999</v>
+        <v>1.1480600000000001</v>
       </c>
       <c r="F73">
-        <v>1.1512100000000001</v>
+        <v>1.15516</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>0.98100000000000964</v>
+        <v>0.69400000000001683</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2408,23 +2415,23 @@
         <v>15</v>
       </c>
       <c r="B74" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C74">
-        <v>1.15049</v>
+        <v>1.1511800000000001</v>
       </c>
       <c r="D74">
-        <v>1.1582600000000001</v>
+        <v>1.1558200000000001</v>
       </c>
       <c r="E74">
-        <v>1.14845</v>
+        <v>1.1488799999999999</v>
       </c>
       <c r="F74">
-        <v>1.15055</v>
+        <v>1.1512100000000001</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.9290000000000029</v>
+        <v>0.98100000000000964</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2432,23 +2439,23 @@
         <v>15</v>
       </c>
       <c r="B75" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C75">
-        <v>1.1601399999999999</v>
+        <v>1.15049</v>
       </c>
       <c r="D75">
-        <v>1.16374</v>
+        <v>1.1582600000000001</v>
       </c>
       <c r="E75">
-        <v>1.14445</v>
+        <v>1.14845</v>
       </c>
       <c r="F75">
-        <v>1.15065</v>
+        <v>1.15055</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>0.96400000000000929</v>
+        <v>1.9290000000000029</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2456,23 +2463,23 @@
         <v>15</v>
       </c>
       <c r="B76" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C76">
-        <v>1.1609499999999999</v>
+        <v>1.1601399999999999</v>
       </c>
       <c r="D76">
-        <v>1.16351</v>
+        <v>1.16374</v>
       </c>
       <c r="E76">
-        <v>1.15387</v>
+        <v>1.14445</v>
       </c>
       <c r="F76">
-        <v>1.15985</v>
+        <v>1.15065</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>2.1029999999999882</v>
+        <v>0.96400000000000929</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2480,23 +2487,23 @@
         <v>15</v>
       </c>
       <c r="B77" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C77">
-        <v>1.17862</v>
+        <v>1.1609499999999999</v>
       </c>
       <c r="D77">
-        <v>1.1795599999999999</v>
+        <v>1.16351</v>
       </c>
       <c r="E77">
-        <v>1.1585300000000001</v>
+        <v>1.15387</v>
       </c>
       <c r="F77">
-        <v>1.1596200000000001</v>
+        <v>1.15985</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.2109999999999843</v>
+        <v>2.1029999999999882</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2504,23 +2511,23 @@
         <v>15</v>
       </c>
       <c r="B78" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C78">
-        <v>1.17997</v>
+        <v>1.17862</v>
       </c>
       <c r="D78">
-        <v>1.1830499999999999</v>
+        <v>1.1795599999999999</v>
       </c>
       <c r="E78">
-        <v>1.1709400000000001</v>
+        <v>1.1585300000000001</v>
       </c>
       <c r="F78">
-        <v>1.1771499999999999</v>
+        <v>1.1596200000000001</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>1.265000000000005</v>
+        <v>1.2109999999999843</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2528,23 +2535,23 @@
         <v>15</v>
       </c>
       <c r="B79" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C79">
-        <v>1.17245</v>
+        <v>1.17997</v>
       </c>
       <c r="D79">
-        <v>1.1807700000000001</v>
+        <v>1.1830499999999999</v>
       </c>
       <c r="E79">
-        <v>1.16812</v>
+        <v>1.1709400000000001</v>
       </c>
       <c r="F79">
-        <v>1.17987</v>
+        <v>1.1771499999999999</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>0.9140000000000148</v>
+        <v>1.265000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2552,23 +2559,23 @@
         <v>15</v>
       </c>
       <c r="B80" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C80">
-        <v>1.16953</v>
+        <v>1.17245</v>
       </c>
       <c r="D80">
-        <v>1.17761</v>
+        <v>1.1807700000000001</v>
       </c>
       <c r="E80">
-        <v>1.1684699999999999</v>
+        <v>1.16812</v>
       </c>
       <c r="F80">
-        <v>1.17265</v>
+        <v>1.17987</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>1.0550000000000059</v>
+        <v>0.9140000000000148</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2576,23 +2583,23 @@
         <v>15</v>
       </c>
       <c r="B81" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C81">
-        <v>1.1714100000000001</v>
+        <v>1.16953</v>
       </c>
       <c r="D81">
-        <v>1.17746</v>
+        <v>1.17761</v>
       </c>
       <c r="E81">
-        <v>1.1669099999999999</v>
+        <v>1.1684699999999999</v>
       </c>
       <c r="F81">
-        <v>1.1692800000000001</v>
+        <v>1.17265</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>1.424000000000003</v>
+        <v>1.0550000000000059</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2600,23 +2607,23 @@
         <v>15</v>
       </c>
       <c r="B82" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C82">
-        <v>1.1638900000000001</v>
+        <v>1.1714100000000001</v>
       </c>
       <c r="D82">
-        <v>1.17479</v>
+        <v>1.17746</v>
       </c>
       <c r="E82">
-        <v>1.16055</v>
+        <v>1.1669099999999999</v>
       </c>
       <c r="F82">
-        <v>1.1732899999999999</v>
+        <v>1.1692800000000001</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>0.85299999999999265</v>
+        <v>1.424000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2624,23 +2631,23 @@
         <v>15</v>
       </c>
       <c r="B83" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C83">
-        <v>1.1692100000000001</v>
+        <v>1.1638900000000001</v>
       </c>
       <c r="D83">
-        <v>1.1702399999999999</v>
+        <v>1.17479</v>
       </c>
       <c r="E83">
-        <v>1.16171</v>
+        <v>1.16055</v>
       </c>
       <c r="F83">
-        <v>1.1631</v>
+        <v>1.1732899999999999</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>0.90500000000000025</v>
+        <v>0.85299999999999265</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2648,23 +2655,23 @@
         <v>15</v>
       </c>
       <c r="B84" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C84">
-        <v>1.1636200000000001</v>
+        <v>1.1692100000000001</v>
       </c>
       <c r="D84">
-        <v>1.1717299999999999</v>
+        <v>1.1702399999999999</v>
       </c>
       <c r="E84">
-        <v>1.1626799999999999</v>
+        <v>1.16171</v>
       </c>
       <c r="F84">
-        <v>1.1678999999999999</v>
+        <v>1.1631</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.3830000000000009</v>
+        <v>0.90500000000000025</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2672,23 +2679,23 @@
         <v>15</v>
       </c>
       <c r="B85" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C85">
-        <v>1.1681999999999999</v>
+        <v>1.1636200000000001</v>
       </c>
       <c r="D85">
-        <v>1.1734599999999999</v>
+        <v>1.1717299999999999</v>
       </c>
       <c r="E85">
-        <v>1.1596299999999999</v>
+        <v>1.1626799999999999</v>
       </c>
       <c r="F85">
-        <v>1.16143</v>
+        <v>1.1678999999999999</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.1199999999999877</v>
+        <v>1.3830000000000009</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2696,23 +2703,23 @@
         <v>15</v>
       </c>
       <c r="B86" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C86">
-        <v>1.1658299999999999</v>
+        <v>1.1681999999999999</v>
       </c>
       <c r="D86">
-        <v>1.1695199999999999</v>
+        <v>1.1734599999999999</v>
       </c>
       <c r="E86">
-        <v>1.15832</v>
+        <v>1.1596299999999999</v>
       </c>
       <c r="F86">
-        <v>1.16876</v>
+        <v>1.16143</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>1.3919999999999932</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2720,23 +2727,23 @@
         <v>15</v>
       </c>
       <c r="B87" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C87">
-        <v>1.1603300000000001</v>
+        <v>1.1658299999999999</v>
       </c>
       <c r="D87">
-        <v>1.17205</v>
+        <v>1.1695199999999999</v>
       </c>
       <c r="E87">
-        <v>1.1581300000000001</v>
+        <v>1.15832</v>
       </c>
       <c r="F87">
-        <v>1.1657299999999999</v>
+        <v>1.16876</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>0.98000000000000309</v>
+        <v>1.3919999999999932</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2744,23 +2751,23 @@
         <v>15</v>
       </c>
       <c r="B88" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C88">
-        <v>1.1609499999999999</v>
+        <v>1.1603300000000001</v>
       </c>
       <c r="D88">
-        <v>1.1638299999999999</v>
+        <v>1.17205</v>
       </c>
       <c r="E88">
-        <v>1.1540299999999999</v>
+        <v>1.1581300000000001</v>
       </c>
       <c r="F88">
-        <v>1.1613599999999999</v>
+        <v>1.1657299999999999</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>0.93599999999998129</v>
+        <v>0.98000000000000309</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2768,23 +2775,23 @@
         <v>15</v>
       </c>
       <c r="B89" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C89">
-        <v>1.1575500000000001</v>
+        <v>1.1609499999999999</v>
       </c>
       <c r="D89">
-        <v>1.1661999999999999</v>
+        <v>1.1638299999999999</v>
       </c>
       <c r="E89">
-        <v>1.1568400000000001</v>
+        <v>1.1540299999999999</v>
       </c>
       <c r="F89">
-        <v>1.1611800000000001</v>
+        <v>1.1613599999999999</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.5149999999999997</v>
+        <v>0.93599999999998129</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2792,23 +2799,23 @@
         <v>15</v>
       </c>
       <c r="B90" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C90">
-        <v>1.1591899999999999</v>
+        <v>1.1575500000000001</v>
       </c>
       <c r="D90">
-        <v>1.1709400000000001</v>
+        <v>1.1661999999999999</v>
       </c>
       <c r="E90">
-        <v>1.1557900000000001</v>
+        <v>1.1568400000000001</v>
       </c>
       <c r="F90">
-        <v>1.1573</v>
+        <v>1.1611800000000001</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.4490000000000114</v>
+        <v>1.5149999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2816,23 +2823,23 @@
         <v>15</v>
       </c>
       <c r="B91" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C91">
-        <v>1.15126</v>
+        <v>1.1591899999999999</v>
       </c>
       <c r="D91">
-        <v>1.16273</v>
+        <v>1.1709400000000001</v>
       </c>
       <c r="E91">
-        <v>1.1482399999999999</v>
+        <v>1.1557900000000001</v>
       </c>
       <c r="F91">
-        <v>1.15937</v>
+        <v>1.1573</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009</v>
+        <v>1.4490000000000114</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2840,23 +2847,23 @@
         <v>15</v>
       </c>
       <c r="B92" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C92">
-        <v>1.1473</v>
+        <v>1.15126</v>
       </c>
       <c r="D92">
-        <v>1.1563600000000001</v>
+        <v>1.16273</v>
       </c>
       <c r="E92">
-        <v>1.14636</v>
+        <v>1.1482399999999999</v>
       </c>
       <c r="F92">
-        <v>1.1518999999999999</v>
+        <v>1.15937</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.102000000000003</v>
+        <v>1.0000000000000009</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2864,23 +2871,23 @@
         <v>15</v>
       </c>
       <c r="B93" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C93">
-        <v>1.1430400000000001</v>
+        <v>1.1473</v>
       </c>
       <c r="D93">
-        <v>1.1496200000000001</v>
+        <v>1.1563600000000001</v>
       </c>
       <c r="E93">
-        <v>1.1386000000000001</v>
+        <v>1.14636</v>
       </c>
       <c r="F93">
-        <v>1.14734</v>
+        <v>1.1518999999999999</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.8259999999999943</v>
+        <v>1.102000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2888,23 +2895,23 @@
         <v>15</v>
       </c>
       <c r="B94" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C94">
-        <v>1.15611</v>
+        <v>1.1430400000000001</v>
       </c>
       <c r="D94">
-        <v>1.1588499999999999</v>
+        <v>1.1496200000000001</v>
       </c>
       <c r="E94">
-        <v>1.14059</v>
+        <v>1.1386000000000001</v>
       </c>
       <c r="F94">
-        <v>1.14405</v>
+        <v>1.14734</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.7249999999999988</v>
+        <v>1.8259999999999943</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2912,23 +2919,23 @@
         <v>15</v>
       </c>
       <c r="B95" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C95">
-        <v>1.14653</v>
+        <v>1.15611</v>
       </c>
       <c r="D95">
-        <v>1.16212</v>
+        <v>1.1588499999999999</v>
       </c>
       <c r="E95">
-        <v>1.1448700000000001</v>
+        <v>1.14059</v>
       </c>
       <c r="F95">
-        <v>1.1584700000000001</v>
+        <v>1.14405</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.5339999999999909</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2936,23 +2943,23 @@
         <v>15</v>
       </c>
       <c r="B96" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C96">
-        <v>1.13794</v>
+        <v>1.14653</v>
       </c>
       <c r="D96">
-        <v>1.1527099999999999</v>
+        <v>1.16212</v>
       </c>
       <c r="E96">
-        <v>1.13737</v>
+        <v>1.1448700000000001</v>
       </c>
       <c r="F96">
-        <v>1.1461399999999999</v>
+        <v>1.1584700000000001</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.1959999999999971</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2960,23 +2967,23 @@
         <v>15</v>
       </c>
       <c r="B97" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C97">
-        <v>1.13937</v>
+        <v>1.13794</v>
       </c>
       <c r="D97">
-        <v>1.1479900000000001</v>
+        <v>1.1527099999999999</v>
       </c>
       <c r="E97">
-        <v>1.1360300000000001</v>
+        <v>1.13737</v>
       </c>
       <c r="F97">
-        <v>1.13609</v>
+        <v>1.1461399999999999</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.1199999999999877</v>
+        <v>1.1959999999999971</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2984,23 +2991,23 @@
         <v>15</v>
       </c>
       <c r="B98" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C98">
-        <v>1.14029</v>
+        <v>1.13937</v>
       </c>
       <c r="D98">
-        <v>1.1470199999999999</v>
+        <v>1.1479900000000001</v>
       </c>
       <c r="E98">
-        <v>1.1358200000000001</v>
+        <v>1.1360300000000001</v>
       </c>
       <c r="F98">
-        <v>1.14402</v>
+        <v>1.13609</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.0219999999999896</v>
+        <v>1.1199999999999877</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3008,23 +3015,23 @@
         <v>15</v>
       </c>
       <c r="B99" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C99">
-        <v>1.13449</v>
+        <v>1.14029</v>
       </c>
       <c r="D99">
-        <v>1.14211</v>
+        <v>1.1470199999999999</v>
       </c>
       <c r="E99">
-        <v>1.1318900000000001</v>
+        <v>1.1358200000000001</v>
       </c>
       <c r="F99">
-        <v>1.1402300000000001</v>
+        <v>1.14402</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>2.1900000000000031</v>
+        <v>1.0219999999999896</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3032,23 +3039,23 @@
         <v>15</v>
       </c>
       <c r="B100" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C100">
-        <v>1.1373599999999999</v>
+        <v>1.13449</v>
       </c>
       <c r="D100">
-        <v>1.14757</v>
+        <v>1.14211</v>
       </c>
       <c r="E100">
-        <v>1.1256699999999999</v>
+        <v>1.1318900000000001</v>
       </c>
       <c r="F100">
-        <v>1.1343799999999999</v>
+        <v>1.1402300000000001</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>2.4159999999999959</v>
+        <v>2.1900000000000031</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3056,23 +3063,23 @@
         <v>15</v>
       </c>
       <c r="B101" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C101">
-        <v>1.1453100000000001</v>
+        <v>1.1373599999999999</v>
       </c>
       <c r="D101">
-        <v>1.1499999999999999</v>
+        <v>1.14757</v>
       </c>
       <c r="E101">
-        <v>1.12584</v>
+        <v>1.1256699999999999</v>
       </c>
       <c r="F101">
-        <v>1.1372</v>
+        <v>1.1343799999999999</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>2.0199999999999996</v>
+        <v>2.4159999999999959</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3080,23 +3087,23 @@
         <v>15</v>
       </c>
       <c r="B102" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C102">
-        <v>1.1386499999999999</v>
+        <v>1.1453100000000001</v>
       </c>
       <c r="D102">
-        <v>1.15354</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E102">
-        <v>1.13334</v>
+        <v>1.12584</v>
       </c>
       <c r="F102">
-        <v>1.14551</v>
+        <v>1.1372</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>3.9939999999999864</v>
+        <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3104,23 +3111,23 @@
         <v>15</v>
       </c>
       <c r="B103" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C103">
-        <v>1.1025499999999999</v>
+        <v>1.1386499999999999</v>
       </c>
       <c r="D103">
-        <v>1.1404399999999999</v>
+        <v>1.15354</v>
       </c>
       <c r="E103">
-        <v>1.1005</v>
+        <v>1.13334</v>
       </c>
       <c r="F103">
-        <v>1.1390100000000001</v>
+        <v>1.14551</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>1.0080000000000089</v>
+        <v>3.9939999999999864</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3128,23 +3135,23 @@
         <v>15</v>
       </c>
       <c r="B104" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C104">
-        <v>1.10456</v>
+        <v>1.1025499999999999</v>
       </c>
       <c r="D104">
-        <v>1.1086</v>
+        <v>1.1404399999999999</v>
       </c>
       <c r="E104">
-        <v>1.0985199999999999</v>
+        <v>1.1005</v>
       </c>
       <c r="F104">
-        <v>1.1031899999999999</v>
+        <v>1.1390100000000001</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>0.88900000000000645</v>
+        <v>1.0080000000000089</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3152,23 +3159,23 @@
         <v>15</v>
       </c>
       <c r="B105" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C105">
-        <v>1.09839</v>
+        <v>1.10456</v>
       </c>
       <c r="D105">
-        <v>1.1071</v>
+        <v>1.1086</v>
       </c>
       <c r="E105">
-        <v>1.0982099999999999</v>
+        <v>1.0985199999999999</v>
       </c>
       <c r="F105">
-        <v>1.10459</v>
+        <v>1.1031899999999999</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0.76500000000001567</v>
+        <v>0.88900000000000645</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3176,23 +3183,23 @@
         <v>15</v>
       </c>
       <c r="B106" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C106">
-        <v>1.0946899999999999</v>
+        <v>1.09839</v>
       </c>
       <c r="D106">
-        <v>1.0997600000000001</v>
+        <v>1.1071</v>
       </c>
       <c r="E106">
-        <v>1.0921099999999999</v>
+        <v>1.0982099999999999</v>
       </c>
       <c r="F106">
-        <v>1.0985199999999999</v>
+        <v>1.10459</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>1.081999999999983</v>
+        <v>0.76500000000001567</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3200,23 +3207,23 @@
         <v>15</v>
       </c>
       <c r="B107" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C107">
-        <v>1.0847100000000001</v>
+        <v>1.0946899999999999</v>
       </c>
       <c r="D107">
-        <v>1.0951599999999999</v>
+        <v>1.0997600000000001</v>
       </c>
       <c r="E107">
-        <v>1.0843400000000001</v>
+        <v>1.0921099999999999</v>
       </c>
       <c r="F107">
-        <v>1.09457</v>
+        <v>1.0985199999999999</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>0.75899999999999856</v>
+        <v>1.081999999999983</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3224,23 +3231,23 @@
         <v>15</v>
       </c>
       <c r="B108" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C108">
-        <v>1.0893200000000001</v>
+        <v>1.0847100000000001</v>
       </c>
       <c r="D108">
-        <v>1.09066</v>
+        <v>1.0951599999999999</v>
       </c>
       <c r="E108">
-        <v>1.08307</v>
+        <v>1.0843400000000001</v>
       </c>
       <c r="F108">
-        <v>1.08544</v>
+        <v>1.09457</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>0.69399999999999462</v>
+        <v>0.75899999999999856</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3248,23 +3255,23 @@
         <v>15</v>
       </c>
       <c r="B109" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C109">
-        <v>1.0854200000000001</v>
+        <v>1.0893200000000001</v>
       </c>
       <c r="D109">
-        <v>1.0906400000000001</v>
+        <v>1.09066</v>
       </c>
       <c r="E109">
-        <v>1.0837000000000001</v>
+        <v>1.08307</v>
       </c>
       <c r="F109">
-        <v>1.0900399999999999</v>
+        <v>1.08544</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>0.38300000000000001</v>
+        <v>0.69399999999999462</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3272,23 +3279,23 @@
         <v>15</v>
       </c>
       <c r="B110" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C110">
-        <v>1.0857000000000001</v>
+        <v>1.0854200000000001</v>
       </c>
       <c r="D110">
-        <v>1.0873900000000001</v>
+        <v>1.0906400000000001</v>
       </c>
       <c r="E110">
-        <v>1.0835600000000001</v>
+        <v>1.0837000000000001</v>
       </c>
       <c r="F110">
-        <v>1.0848800000000001</v>
+        <v>1.0900399999999999</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>0.56499999999999329</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3296,23 +3303,23 @@
         <v>15</v>
       </c>
       <c r="B111" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C111">
-        <v>1.0891299999999999</v>
+        <v>1.0857000000000001</v>
       </c>
       <c r="D111">
-        <v>1.09117</v>
+        <v>1.0873900000000001</v>
       </c>
       <c r="E111">
-        <v>1.08552</v>
+        <v>1.0835600000000001</v>
       </c>
       <c r="F111">
-        <v>1.0855600000000001</v>
+        <v>1.0848800000000001</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>0.69799999999999862</v>
+        <v>0.56499999999999329</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3320,23 +3327,23 @@
         <v>15</v>
       </c>
       <c r="B112" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C112">
-        <v>1.08965</v>
+        <v>1.0891299999999999</v>
       </c>
       <c r="D112">
-        <v>1.09463</v>
+        <v>1.09117</v>
       </c>
       <c r="E112">
-        <v>1.08765</v>
+        <v>1.08552</v>
       </c>
       <c r="F112">
-        <v>1.08924</v>
+        <v>1.0855600000000001</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>0.9400000000000075</v>
+        <v>0.69799999999999862</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3344,23 +3351,23 @@
         <v>15</v>
       </c>
       <c r="B113" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C113">
-        <v>1.09321</v>
+        <v>1.08965</v>
       </c>
       <c r="D113">
-        <v>1.09575</v>
+        <v>1.09463</v>
       </c>
       <c r="E113">
-        <v>1.0863499999999999</v>
+        <v>1.08765</v>
       </c>
       <c r="F113">
-        <v>1.0901099999999999</v>
+        <v>1.08924</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>1.3749999999999929</v>
+        <v>0.9400000000000075</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3368,23 +3375,23 @@
         <v>15</v>
       </c>
       <c r="B114" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C114">
-        <v>1.0877300000000001</v>
+        <v>1.09321</v>
       </c>
       <c r="D114">
-        <v>1.09849</v>
+        <v>1.09575</v>
       </c>
       <c r="E114">
-        <v>1.08474</v>
+        <v>1.0863499999999999</v>
       </c>
       <c r="F114">
-        <v>1.0940099999999999</v>
+        <v>1.0901099999999999</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>0.81099999999998396</v>
+        <v>1.3749999999999929</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3392,23 +3399,23 @@
         <v>15</v>
       </c>
       <c r="B115" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C115">
-        <v>1.08324</v>
+        <v>1.0877300000000001</v>
       </c>
       <c r="D115">
-        <v>1.0870899999999999</v>
+        <v>1.09849</v>
       </c>
       <c r="E115">
-        <v>1.0789800000000001</v>
+        <v>1.08474</v>
       </c>
       <c r="F115">
-        <v>1.0859300000000001</v>
+        <v>1.0940099999999999</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>0.89299999999998825</v>
+        <v>0.81099999999998396</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3416,23 +3423,23 @@
         <v>15</v>
       </c>
       <c r="B116" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C116">
-        <v>1.0790900000000001</v>
+        <v>1.08324</v>
       </c>
       <c r="D116">
-        <v>1.08673</v>
+        <v>1.0870899999999999</v>
       </c>
       <c r="E116">
-        <v>1.0778000000000001</v>
+        <v>1.0789800000000001</v>
       </c>
       <c r="F116">
-        <v>1.0839099999999999</v>
+        <v>1.0859300000000001</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>0.57300000000000129</v>
+        <v>0.89299999999998825</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3440,23 +3447,23 @@
         <v>15</v>
       </c>
       <c r="B117" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C117">
-        <v>1.06612</v>
+        <v>1.0790900000000001</v>
       </c>
       <c r="D117">
-        <v>1.07175</v>
+        <v>1.08673</v>
       </c>
       <c r="E117">
-        <v>1.06602</v>
+        <v>1.0778000000000001</v>
       </c>
       <c r="F117">
-        <v>1.0680000000000001</v>
+        <v>1.0839099999999999</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>0.44599999999999085</v>
+        <v>0.57300000000000129</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3464,23 +3471,23 @@
         <v>15</v>
       </c>
       <c r="B118" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C118">
-        <v>1.0679099999999999</v>
+        <v>1.06612</v>
       </c>
       <c r="D118">
-        <v>1.06975</v>
+        <v>1.07175</v>
       </c>
       <c r="E118">
-        <v>1.0652900000000001</v>
+        <v>1.06602</v>
       </c>
       <c r="F118">
-        <v>1.0660400000000001</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>0.56300000000000239</v>
+        <v>0.44599999999999085</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3488,23 +3495,23 @@
         <v>15</v>
       </c>
       <c r="B119" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C119">
-        <v>1.06854</v>
+        <v>1.0679099999999999</v>
       </c>
       <c r="D119">
-        <v>1.0723400000000001</v>
+        <v>1.06975</v>
       </c>
       <c r="E119">
-        <v>1.06671</v>
+        <v>1.0652900000000001</v>
       </c>
       <c r="F119">
-        <v>1.0686199999999999</v>
+        <v>1.0660400000000001</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>0.51499999999999879</v>
+        <v>0.56300000000000239</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3512,23 +3519,23 @@
         <v>15</v>
       </c>
       <c r="B120" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C120">
-        <v>1.0711999999999999</v>
+        <v>1.06854</v>
       </c>
       <c r="D120">
-        <v>1.0732999999999999</v>
+        <v>1.0723400000000001</v>
       </c>
       <c r="E120">
-        <v>1.0681499999999999</v>
+        <v>1.06671</v>
       </c>
       <c r="F120">
-        <v>1.0683400000000001</v>
+        <v>1.0686199999999999</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>0.75499999999999456</v>
+        <v>0.51499999999999879</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3536,23 +3543,23 @@
         <v>15</v>
       </c>
       <c r="B121" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C121">
-        <v>1.0707500000000001</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="D121">
-        <v>1.0759399999999999</v>
+        <v>1.0732999999999999</v>
       </c>
       <c r="E121">
-        <v>1.06839</v>
+        <v>1.0681499999999999</v>
       </c>
       <c r="F121">
-        <v>1.07016</v>
+        <v>1.0683400000000001</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>1.4090000000000158</v>
+        <v>0.75499999999999456</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3560,23 +3567,23 @@
         <v>15</v>
       </c>
       <c r="B122" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C122">
-        <v>1.07863</v>
+        <v>1.0707500000000001</v>
       </c>
       <c r="D122">
-        <v>1.0822400000000001</v>
+        <v>1.0759399999999999</v>
       </c>
       <c r="E122">
-        <v>1.0681499999999999</v>
+        <v>1.06839</v>
       </c>
       <c r="F122">
-        <v>1.07172</v>
+        <v>1.07016</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>1.1379999999999946</v>
+        <v>1.4090000000000158</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3584,23 +3591,23 @@
         <v>15</v>
       </c>
       <c r="B123" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C123">
-        <v>1.06958</v>
+        <v>1.07863</v>
       </c>
       <c r="D123">
-        <v>1.07959</v>
+        <v>1.0822400000000001</v>
       </c>
       <c r="E123">
-        <v>1.0682100000000001</v>
+        <v>1.0681499999999999</v>
       </c>
       <c r="F123">
-        <v>1.0786800000000001</v>
+        <v>1.07172</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>0.77300000000000146</v>
+        <v>1.1379999999999946</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3608,23 +3615,23 @@
         <v>15</v>
       </c>
       <c r="B124" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C124">
-        <v>1.0635399999999999</v>
+        <v>1.06958</v>
       </c>
       <c r="D124">
-        <v>1.0711999999999999</v>
+        <v>1.07959</v>
       </c>
       <c r="E124">
-        <v>1.0634699999999999</v>
+        <v>1.0682100000000001</v>
       </c>
       <c r="F124">
-        <v>1.07104</v>
+        <v>1.0786800000000001</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>0.44999999999999485</v>
+        <v>0.77300000000000146</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3632,23 +3639,23 @@
         <v>15</v>
       </c>
       <c r="B125" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C125">
-        <v>1.0636300000000001</v>
+        <v>1.0635399999999999</v>
       </c>
       <c r="D125">
-        <v>1.0674399999999999</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="E125">
-        <v>1.06294</v>
+        <v>1.0634699999999999</v>
       </c>
       <c r="F125">
-        <v>1.0638300000000001</v>
+        <v>1.07104</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>0.4610000000000003</v>
+        <v>0.44999999999999485</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3656,23 +3663,23 @@
         <v>15</v>
       </c>
       <c r="B126" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C126">
-        <v>1.0659000000000001</v>
+        <v>1.0636300000000001</v>
       </c>
       <c r="D126">
-        <v>1.0678799999999999</v>
+        <v>1.0674399999999999</v>
       </c>
       <c r="E126">
-        <v>1.0632699999999999</v>
+        <v>1.06294</v>
       </c>
       <c r="F126">
-        <v>1.0638399999999999</v>
+        <v>1.0638300000000001</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>0.72999999999998622</v>
+        <v>0.4610000000000003</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3680,23 +3687,23 @@
         <v>15</v>
       </c>
       <c r="B127" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C127">
-        <v>1.06969</v>
+        <v>1.0659000000000001</v>
       </c>
       <c r="D127">
-        <v>1.07029</v>
+        <v>1.0678799999999999</v>
       </c>
       <c r="E127">
-        <v>1.0629900000000001</v>
+        <v>1.0632699999999999</v>
       </c>
       <c r="F127">
-        <v>1.0665100000000001</v>
+        <v>1.0638399999999999</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>0.68700000000001538</v>
+        <v>0.72999999999998622</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3704,23 +3711,23 @@
         <v>15</v>
       </c>
       <c r="B128" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C128">
-        <v>1.0686899999999999</v>
+        <v>1.06969</v>
       </c>
       <c r="D128">
-        <v>1.07037</v>
+        <v>1.07029</v>
       </c>
       <c r="E128">
-        <v>1.0634999999999999</v>
+        <v>1.0629900000000001</v>
       </c>
       <c r="F128">
-        <v>1.0697300000000001</v>
+        <v>1.0665100000000001</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>0.81200000000001271</v>
+        <v>0.68700000000001538</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3728,23 +3735,23 @@
         <v>15</v>
       </c>
       <c r="B129" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C129">
-        <v>1.0713999999999999</v>
+        <v>1.0686899999999999</v>
       </c>
       <c r="D129">
-        <v>1.07484</v>
+        <v>1.07037</v>
       </c>
       <c r="E129">
-        <v>1.0667199999999999</v>
+        <v>1.0634999999999999</v>
       </c>
       <c r="F129">
-        <v>1.0682100000000001</v>
+        <v>1.0697300000000001</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>0.38300000000000001</v>
+        <v>0.81200000000001271</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3752,23 +3759,23 @@
         <v>15</v>
       </c>
       <c r="B130" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C130">
-        <v>1.0708200000000001</v>
+        <v>1.0713999999999999</v>
       </c>
       <c r="D130">
-        <v>1.0737399999999999</v>
+        <v>1.07484</v>
       </c>
       <c r="E130">
-        <v>1.0699099999999999</v>
+        <v>1.0667199999999999</v>
       </c>
       <c r="F130">
-        <v>1.07162</v>
+        <v>1.0682100000000001</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>0.4269999999999996</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3776,23 +3783,23 @@
         <v>15</v>
       </c>
       <c r="B131" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C131">
-        <v>1.07077</v>
+        <v>1.0708200000000001</v>
       </c>
       <c r="D131">
-        <v>1.07453</v>
+        <v>1.0737399999999999</v>
       </c>
       <c r="E131">
-        <v>1.07026</v>
+        <v>1.0699099999999999</v>
       </c>
       <c r="F131">
-        <v>1.0733999999999999</v>
+        <v>1.07162</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>0.57599999999999874</v>
+        <v>0.4269999999999996</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3800,23 +3807,23 @@
         <v>15</v>
       </c>
       <c r="B132" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C132">
-        <v>1.0701000000000001</v>
+        <v>1.07077</v>
       </c>
       <c r="D132">
-        <v>1.07355</v>
+        <v>1.07453</v>
       </c>
       <c r="E132">
-        <v>1.06779</v>
+        <v>1.07026</v>
       </c>
       <c r="F132">
-        <v>1.0717699999999999</v>
+        <v>1.0733999999999999</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>0.61099999999998378</v>
+        <v>0.57599999999999874</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3824,23 +3831,23 @@
         <v>15</v>
       </c>
       <c r="B133" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C133">
-        <v>1.0707500000000001</v>
+        <v>1.0701000000000001</v>
       </c>
       <c r="D133">
-        <v>1.0759399999999999</v>
+        <v>1.07355</v>
       </c>
       <c r="E133">
-        <v>1.0698300000000001</v>
+        <v>1.06779</v>
       </c>
       <c r="F133">
-        <v>1.07141</v>
+        <v>1.0717699999999999</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>0.61700000000000088</v>
+        <v>0.61099999999998378</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3848,23 +3855,23 @@
         <v>15</v>
       </c>
       <c r="B134" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C134">
-        <v>1.0718799999999999</v>
+        <v>1.0707500000000001</v>
       </c>
       <c r="D134">
-        <v>1.0738300000000001</v>
+        <v>1.0759399999999999</v>
       </c>
       <c r="E134">
-        <v>1.0676600000000001</v>
+        <v>1.0698300000000001</v>
       </c>
       <c r="F134">
-        <v>1.07345</v>
+        <v>1.07141</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>0.78899999999999526</v>
+        <v>0.61700000000000088</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3872,23 +3879,23 @@
         <v>15</v>
       </c>
       <c r="B135" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C135">
-        <v>1.0727100000000001</v>
+        <v>1.0718799999999999</v>
       </c>
       <c r="D135">
-        <v>1.0787100000000001</v>
+        <v>1.0738300000000001</v>
       </c>
       <c r="E135">
-        <v>1.0708200000000001</v>
+        <v>1.0676600000000001</v>
       </c>
       <c r="F135">
-        <v>1.0726899999999999</v>
+        <v>1.07345</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>1.988000000000012</v>
+        <v>0.78899999999999526</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3896,23 +3903,23 @@
         <v>15</v>
       </c>
       <c r="B136" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C136">
-        <v>1.07704</v>
+        <v>1.0727100000000001</v>
       </c>
       <c r="D136">
-        <v>1.08938</v>
+        <v>1.0787100000000001</v>
       </c>
       <c r="E136">
-        <v>1.0694999999999999</v>
+        <v>1.0708200000000001</v>
       </c>
       <c r="F136">
-        <v>1.0740000000000001</v>
+        <v>1.0726899999999999</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>0.84200000000000941</v>
+        <v>1.988000000000012</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3920,23 +3927,23 @@
         <v>15</v>
       </c>
       <c r="B137" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C137">
-        <v>1.07298</v>
+        <v>1.07704</v>
       </c>
       <c r="D137">
-        <v>1.08138</v>
+        <v>1.08938</v>
       </c>
       <c r="E137">
-        <v>1.0729599999999999</v>
+        <v>1.0694999999999999</v>
       </c>
       <c r="F137">
-        <v>1.07795</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>0.62099999999998268</v>
+        <v>0.84200000000000941</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3944,23 +3951,23 @@
         <v>15</v>
       </c>
       <c r="B138" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C138">
-        <v>1.0698099999999999</v>
+        <v>1.07298</v>
       </c>
       <c r="D138">
-        <v>1.0753699999999999</v>
+        <v>1.08138</v>
       </c>
       <c r="E138">
-        <v>1.0691600000000001</v>
+        <v>1.0729599999999999</v>
       </c>
       <c r="F138">
-        <v>1.07376</v>
+        <v>1.07795</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>0.72399999999999132</v>
+        <v>0.62099999999998268</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3968,23 +3975,23 @@
         <v>15</v>
       </c>
       <c r="B139" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C139">
-        <v>1.0710200000000001</v>
+        <v>1.0698099999999999</v>
       </c>
       <c r="D139">
-        <v>1.07565</v>
+        <v>1.0753699999999999</v>
       </c>
       <c r="E139">
-        <v>1.0684100000000001</v>
+        <v>1.0691600000000001</v>
       </c>
       <c r="F139">
-        <v>1.0694399999999999</v>
+        <v>1.07376</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>1.2499999999999956</v>
+        <v>0.72399999999999132</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3992,23 +3999,23 @@
         <v>15</v>
       </c>
       <c r="B140" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C140">
-        <v>1.08073</v>
+        <v>1.0710200000000001</v>
       </c>
       <c r="D140">
-        <v>1.08287</v>
+        <v>1.07565</v>
       </c>
       <c r="E140">
-        <v>1.07037</v>
+        <v>1.0684100000000001</v>
       </c>
       <c r="F140">
-        <v>1.0721000000000001</v>
+        <v>1.0694399999999999</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>1.093999999999995</v>
+        <v>1.2499999999999956</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4016,23 +4023,23 @@
         <v>15</v>
       </c>
       <c r="B141" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C141">
-        <v>1.08423</v>
+        <v>1.08073</v>
       </c>
       <c r="D141">
-        <v>1.0861099999999999</v>
+        <v>1.08287</v>
       </c>
       <c r="E141">
-        <v>1.07517</v>
+        <v>1.07037</v>
       </c>
       <c r="F141">
-        <v>1.07928</v>
+        <v>1.0721000000000001</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>0.67500000000000338</v>
+        <v>1.093999999999995</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4040,23 +4047,23 @@
         <v>15</v>
       </c>
       <c r="B142" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C142">
-        <v>1.0812999999999999</v>
+        <v>1.08423</v>
       </c>
       <c r="D142">
-        <v>1.0861499999999999</v>
+        <v>1.0861099999999999</v>
       </c>
       <c r="E142">
-        <v>1.0793999999999999</v>
+        <v>1.07517</v>
       </c>
       <c r="F142">
-        <v>1.0847500000000001</v>
+        <v>1.07928</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>0.8839999999999959</v>
+        <v>0.67500000000000338</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4064,23 +4071,23 @@
         <v>15</v>
       </c>
       <c r="B143" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C143">
-        <v>1.0860099999999999</v>
+        <v>1.0812999999999999</v>
       </c>
       <c r="D143">
-        <v>1.0892500000000001</v>
+        <v>1.0861499999999999</v>
       </c>
       <c r="E143">
-        <v>1.0804100000000001</v>
+        <v>1.0793999999999999</v>
       </c>
       <c r="F143">
-        <v>1.0809</v>
+        <v>1.0847500000000001</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>1.0850000000000026</v>
+        <v>0.8839999999999959</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4088,23 +4095,23 @@
         <v>15</v>
       </c>
       <c r="B144" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C144">
-        <v>1.0934900000000001</v>
+        <v>1.0860099999999999</v>
       </c>
       <c r="D144">
-        <v>1.0970200000000001</v>
+        <v>1.0892500000000001</v>
       </c>
       <c r="E144">
-        <v>1.0861700000000001</v>
+        <v>1.0804100000000001</v>
       </c>
       <c r="F144">
-        <v>1.08647</v>
+        <v>1.0809</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>0.77100000000001057</v>
+        <v>1.0850000000000026</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4112,23 +4119,23 @@
         <v>15</v>
       </c>
       <c r="B145" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C145">
-        <v>1.0895999999999999</v>
+        <v>1.0934900000000001</v>
       </c>
       <c r="D145">
-        <v>1.09731</v>
+        <v>1.0970200000000001</v>
       </c>
       <c r="E145">
-        <v>1.0895999999999999</v>
+        <v>1.0861700000000001</v>
       </c>
       <c r="F145">
-        <v>1.0950200000000001</v>
+        <v>1.08647</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>1.0739999999999972</v>
+        <v>0.77100000000001057</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4136,23 +4143,23 @@
         <v>15</v>
       </c>
       <c r="B146" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C146">
-        <v>1.0891</v>
+        <v>1.0895999999999999</v>
       </c>
       <c r="D146">
-        <v>1.0915999999999999</v>
+        <v>1.09731</v>
       </c>
       <c r="E146">
-        <v>1.0808599999999999</v>
+        <v>1.0895999999999999</v>
       </c>
       <c r="F146">
-        <v>1.0913200000000001</v>
+        <v>1.0950200000000001</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>1.0320000000000107</v>
+        <v>1.0739999999999972</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4160,23 +4167,23 @@
         <v>15</v>
       </c>
       <c r="B147" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C147">
-        <v>1.0929</v>
+        <v>1.0891</v>
       </c>
       <c r="D147">
-        <v>1.09575</v>
+        <v>1.0915999999999999</v>
       </c>
       <c r="E147">
-        <v>1.0854299999999999</v>
+        <v>1.0808599999999999</v>
       </c>
       <c r="F147">
-        <v>1.08867</v>
+        <v>1.0913200000000001</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>0.72700000000001097</v>
+        <v>1.0320000000000107</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4184,23 +4191,23 @@
         <v>15</v>
       </c>
       <c r="B148" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C148">
-        <v>1.09517</v>
+        <v>1.0929</v>
       </c>
       <c r="D148">
-        <v>1.0982400000000001</v>
+        <v>1.09575</v>
       </c>
       <c r="E148">
-        <v>1.09097</v>
+        <v>1.0854299999999999</v>
       </c>
       <c r="F148">
-        <v>1.09358</v>
+        <v>1.08867</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>0.878000000000001</v>
+        <v>0.72700000000001097</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4208,23 +4215,23 @@
         <v>15</v>
       </c>
       <c r="B149" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C149">
-        <v>1.09344</v>
+        <v>1.09517</v>
       </c>
       <c r="D149">
-        <v>1.09734</v>
+        <v>1.0982400000000001</v>
       </c>
       <c r="E149">
-        <v>1.08856</v>
+        <v>1.09097</v>
       </c>
       <c r="F149">
-        <v>1.09551</v>
+        <v>1.09358</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>0.74600000000000222</v>
+        <v>0.878000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4232,23 +4239,23 @@
         <v>15</v>
       </c>
       <c r="B150" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C150">
-        <v>1.09419</v>
+        <v>1.09344</v>
       </c>
       <c r="D150">
-        <v>1.09982</v>
+        <v>1.09734</v>
       </c>
       <c r="E150">
-        <v>1.09236</v>
+        <v>1.08856</v>
       </c>
       <c r="F150">
-        <v>1.0933200000000001</v>
+        <v>1.09551</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>0.98899999999999544</v>
+        <v>0.74600000000000222</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4256,23 +4263,23 @@
         <v>15</v>
       </c>
       <c r="B151" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C151">
-        <v>1.08687</v>
+        <v>1.09419</v>
       </c>
       <c r="D151">
-        <v>1.0956399999999999</v>
+        <v>1.09982</v>
       </c>
       <c r="E151">
-        <v>1.08575</v>
+        <v>1.09236</v>
       </c>
       <c r="F151">
-        <v>1.0952</v>
+        <v>1.0933200000000001</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>0.75700000000000767</v>
+        <v>0.98899999999999544</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4280,23 +4287,23 @@
         <v>15</v>
       </c>
       <c r="B152" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C152">
-        <v>1.08782</v>
+        <v>1.08687</v>
       </c>
       <c r="D152">
-        <v>1.09002</v>
+        <v>1.0956399999999999</v>
       </c>
       <c r="E152">
-        <v>1.0824499999999999</v>
+        <v>1.08575</v>
       </c>
       <c r="F152">
-        <v>1.0872200000000001</v>
+        <v>1.0952</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>0.70700000000001317</v>
+        <v>0.75700000000000767</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4304,23 +4311,23 @@
         <v>15</v>
       </c>
       <c r="B153" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C153">
-        <v>1.08666</v>
+        <v>1.08782</v>
       </c>
       <c r="D153">
-        <v>1.0922700000000001</v>
+        <v>1.09002</v>
       </c>
       <c r="E153">
-        <v>1.0851999999999999</v>
+        <v>1.0824499999999999</v>
       </c>
       <c r="F153">
-        <v>1.0880399999999999</v>
+        <v>1.0872200000000001</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>0.79400000000000581</v>
+        <v>0.70700000000001317</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4328,23 +4335,23 @@
         <v>15</v>
       </c>
       <c r="B154" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C154">
-        <v>1.0825800000000001</v>
+        <v>1.08666</v>
       </c>
       <c r="D154">
-        <v>1.08721</v>
+        <v>1.0922700000000001</v>
       </c>
       <c r="E154">
-        <v>1.07927</v>
+        <v>1.0851999999999999</v>
       </c>
       <c r="F154">
-        <v>1.0869200000000001</v>
+        <v>1.0880399999999999</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>1.4789999999999859</v>
+        <v>0.79400000000000581</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4352,23 +4359,23 @@
         <v>15</v>
       </c>
       <c r="B155" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C155">
-        <v>1.0834900000000001</v>
+        <v>1.0825800000000001</v>
       </c>
       <c r="D155">
-        <v>1.0934999999999999</v>
+        <v>1.08721</v>
       </c>
       <c r="E155">
-        <v>1.0787100000000001</v>
+        <v>1.07927</v>
       </c>
       <c r="F155">
-        <v>1.08335</v>
+        <v>1.0869200000000001</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>0.72900000000000187</v>
+        <v>1.4789999999999859</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4376,23 +4383,23 @@
         <v>15</v>
       </c>
       <c r="B156" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C156">
-        <v>1.0856399999999999</v>
+        <v>1.0834900000000001</v>
       </c>
       <c r="D156">
-        <v>1.09016</v>
+        <v>1.0934999999999999</v>
       </c>
       <c r="E156">
-        <v>1.08287</v>
+        <v>1.0787100000000001</v>
       </c>
       <c r="F156">
-        <v>1.0835600000000001</v>
+        <v>1.08335</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>1.0740000000000194</v>
+        <v>0.72900000000000187</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4400,23 +4407,23 @@
         <v>15</v>
       </c>
       <c r="B157" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C157">
-        <v>1.08528</v>
+        <v>1.0856399999999999</v>
       </c>
       <c r="D157">
-        <v>1.0942400000000001</v>
+        <v>1.09016</v>
       </c>
       <c r="E157">
-        <v>1.0834999999999999</v>
+        <v>1.08287</v>
       </c>
       <c r="F157">
-        <v>1.0844</v>
+        <v>1.0835600000000001</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>0.80100000000000726</v>
+        <v>1.0740000000000194</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4424,23 +4431,23 @@
         <v>15</v>
       </c>
       <c r="B158" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C158">
-        <v>1.08314</v>
+        <v>1.08528</v>
       </c>
       <c r="D158">
-        <v>1.08718</v>
+        <v>1.0942400000000001</v>
       </c>
       <c r="E158">
-        <v>1.07917</v>
+        <v>1.0834999999999999</v>
       </c>
       <c r="F158">
-        <v>1.0866400000000001</v>
+        <v>1.0844</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>1.8249999999999877</v>
+        <v>0.80100000000000726</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4448,23 +4455,23 @@
         <v>15</v>
       </c>
       <c r="B159" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C159">
-        <v>1.07362</v>
+        <v>1.08314</v>
       </c>
       <c r="D159">
-        <v>1.0896399999999999</v>
+        <v>1.08718</v>
       </c>
       <c r="E159">
-        <v>1.0713900000000001</v>
+        <v>1.07917</v>
       </c>
       <c r="F159">
-        <v>1.0837699999999999</v>
+        <v>1.0866400000000001</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>3.8929999999999909</v>
+        <v>1.8249999999999877</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4472,23 +4479,23 @@
         <v>15</v>
       </c>
       <c r="B160" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C160">
-        <v>1.08979</v>
+        <v>1.07362</v>
       </c>
       <c r="D160">
-        <v>1.10076</v>
+        <v>1.0896399999999999</v>
       </c>
       <c r="E160">
-        <v>1.0618300000000001</v>
+        <v>1.0713900000000001</v>
       </c>
       <c r="F160">
-        <v>1.0790200000000001</v>
+        <v>1.0837699999999999</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>1.4589999999999881</v>
+        <v>3.8929999999999909</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4496,23 +4503,23 @@
         <v>15</v>
       </c>
       <c r="B161" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C161">
-        <v>1.0851</v>
+        <v>1.08979</v>
       </c>
       <c r="D161">
-        <v>1.0920399999999999</v>
+        <v>1.10076</v>
       </c>
       <c r="E161">
-        <v>1.07745</v>
+        <v>1.0618300000000001</v>
       </c>
       <c r="F161">
-        <v>1.08222</v>
+        <v>1.0790200000000001</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>2.5419999999999998</v>
+        <v>1.4589999999999881</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4520,23 +4527,23 @@
         <v>15</v>
       </c>
       <c r="B162" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C162">
-        <v>1.1089500000000001</v>
+        <v>1.0851</v>
       </c>
       <c r="D162">
-        <v>1.10964</v>
+        <v>1.0920399999999999</v>
       </c>
       <c r="E162">
-        <v>1.08422</v>
+        <v>1.07745</v>
       </c>
       <c r="F162">
-        <v>1.0850599999999999</v>
+        <v>1.08222</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>0.81800000000000761</v>
+        <v>2.5419999999999998</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4544,23 +4551,23 @@
         <v>15</v>
       </c>
       <c r="B163" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C163">
-        <v>1.1049500000000001</v>
+        <v>1.1089500000000001</v>
       </c>
       <c r="D163">
-        <v>1.1103700000000001</v>
+        <v>1.10964</v>
       </c>
       <c r="E163">
-        <v>1.10219</v>
+        <v>1.08422</v>
       </c>
       <c r="F163">
-        <v>1.10887</v>
+        <v>1.0850599999999999</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>0.8580000000000032</v>
+        <v>0.81800000000000761</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4568,23 +4575,23 @@
         <v>15</v>
       </c>
       <c r="B164" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C164">
-        <v>1.1109500000000001</v>
+        <v>1.1049500000000001</v>
       </c>
       <c r="D164">
-        <v>1.11215</v>
+        <v>1.1103700000000001</v>
       </c>
       <c r="E164">
-        <v>1.1035699999999999</v>
+        <v>1.10219</v>
       </c>
       <c r="F164">
-        <v>1.10534</v>
+        <v>1.10887</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>1.0729999999999906</v>
+        <v>0.8580000000000032</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4592,23 +4599,23 @@
         <v>15</v>
       </c>
       <c r="B165" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C165">
-        <v>1.1023400000000001</v>
+        <v>1.1109500000000001</v>
       </c>
       <c r="D165">
-        <v>1.11266</v>
+        <v>1.11215</v>
       </c>
       <c r="E165">
-        <v>1.1019300000000001</v>
+        <v>1.1035699999999999</v>
       </c>
       <c r="F165">
-        <v>1.1116299999999999</v>
+        <v>1.10534</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>0.93499999999999694</v>
+        <v>1.0729999999999906</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4616,23 +4623,23 @@
         <v>15</v>
       </c>
       <c r="B166" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C166">
-        <v>1.1080300000000001</v>
+        <v>1.1023400000000001</v>
       </c>
       <c r="D166">
-        <v>1.1106</v>
+        <v>1.11266</v>
       </c>
       <c r="E166">
-        <v>1.1012500000000001</v>
+        <v>1.1019300000000001</v>
       </c>
       <c r="F166">
-        <v>1.1024</v>
+        <v>1.1116299999999999</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>1.3419999999999987</v>
+        <v>0.93499999999999694</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4640,23 +4647,23 @@
         <v>15</v>
       </c>
       <c r="B167" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C167">
-        <v>1.0978000000000001</v>
+        <v>1.1080300000000001</v>
       </c>
       <c r="D167">
-        <v>1.10911</v>
+        <v>1.1106</v>
       </c>
       <c r="E167">
-        <v>1.0956900000000001</v>
+        <v>1.1012500000000001</v>
       </c>
       <c r="F167">
-        <v>1.1087400000000001</v>
+        <v>1.1024</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>0.54600000000000204</v>
+        <v>1.3419999999999987</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4664,23 +4671,23 @@
         <v>15</v>
       </c>
       <c r="B168" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C168">
-        <v>1.0982400000000001</v>
+        <v>1.0978000000000001</v>
       </c>
       <c r="D168">
-        <v>1.1007400000000001</v>
+        <v>1.10911</v>
       </c>
       <c r="E168">
-        <v>1.09528</v>
+        <v>1.0956900000000001</v>
       </c>
       <c r="F168">
-        <v>1.09792</v>
+        <v>1.1087400000000001</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>1.1349999999999971</v>
+        <v>0.54600000000000204</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4688,23 +4695,23 @@
         <v>15</v>
       </c>
       <c r="B169" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C169">
-        <v>1.0912299999999999</v>
+        <v>1.0982400000000001</v>
       </c>
       <c r="D169">
-        <v>1.1013999999999999</v>
+        <v>1.1007400000000001</v>
       </c>
       <c r="E169">
-        <v>1.09005</v>
+        <v>1.09528</v>
       </c>
       <c r="F169">
-        <v>1.0984499999999999</v>
+        <v>1.09792</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>0.64199999999998703</v>
+        <v>1.1349999999999971</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4712,23 +4719,23 @@
         <v>15</v>
       </c>
       <c r="B170" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C170">
-        <v>1.0865800000000001</v>
+        <v>1.0912299999999999</v>
       </c>
       <c r="D170">
-        <v>1.09249</v>
+        <v>1.1013999999999999</v>
       </c>
       <c r="E170">
-        <v>1.0860700000000001</v>
+        <v>1.09005</v>
       </c>
       <c r="F170">
-        <v>1.0918099999999999</v>
+        <v>1.0984499999999999</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>0.8920000000000039</v>
+        <v>0.64199999999998703</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4736,23 +4743,23 @@
         <v>15</v>
       </c>
       <c r="B171" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C171">
-        <v>1.0910599999999999</v>
+        <v>1.0865800000000001</v>
       </c>
       <c r="D171">
-        <v>1.0930200000000001</v>
+        <v>1.09249</v>
       </c>
       <c r="E171">
-        <v>1.0841000000000001</v>
+        <v>1.0860700000000001</v>
       </c>
       <c r="F171">
-        <v>1.0867899999999999</v>
+        <v>1.0918099999999999</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>0.68899999999998407</v>
+        <v>0.8920000000000039</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4760,23 +4767,23 @@
         <v>15</v>
       </c>
       <c r="B172" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C172">
-        <v>1.0911599999999999</v>
+        <v>1.0910599999999999</v>
       </c>
       <c r="D172">
-        <v>1.0951299999999999</v>
+        <v>1.0930200000000001</v>
       </c>
       <c r="E172">
-        <v>1.0882400000000001</v>
+        <v>1.0841000000000001</v>
       </c>
       <c r="F172">
-        <v>1.09148</v>
+        <v>1.0867899999999999</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>0.69399999999999462</v>
+        <v>0.68899999999998407</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4784,23 +4791,23 @@
         <v>15</v>
       </c>
       <c r="B173" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C173">
-        <v>1.0925</v>
+        <v>1.0911599999999999</v>
       </c>
       <c r="D173">
-        <v>1.09412</v>
+        <v>1.0951299999999999</v>
       </c>
       <c r="E173">
-        <v>1.08718</v>
+        <v>1.0882400000000001</v>
       </c>
       <c r="F173">
-        <v>1.0907500000000001</v>
+        <v>1.09148</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>0.9039999999999937</v>
+        <v>0.69399999999999462</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4808,23 +4815,23 @@
         <v>15</v>
       </c>
       <c r="B174" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C174">
-        <v>1.09562</v>
+        <v>1.0925</v>
       </c>
       <c r="D174">
-        <v>1.09934</v>
+        <v>1.09412</v>
       </c>
       <c r="E174">
-        <v>1.0903</v>
+        <v>1.08718</v>
       </c>
       <c r="F174">
-        <v>1.09273</v>
+        <v>1.0907500000000001</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>1.3259999999999827</v>
+        <v>0.9039999999999937</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4832,23 +4839,23 @@
         <v>15</v>
       </c>
       <c r="B175" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C175">
-        <v>1.09083</v>
+        <v>1.09562</v>
       </c>
       <c r="D175">
-        <v>1.1020099999999999</v>
+        <v>1.09934</v>
       </c>
       <c r="E175">
-        <v>1.0887500000000001</v>
+        <v>1.0903</v>
       </c>
       <c r="F175">
-        <v>1.0958399999999999</v>
+        <v>1.09273</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>1.373000000000002</v>
+        <v>1.3259999999999827</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4856,23 +4863,23 @@
         <v>15</v>
       </c>
       <c r="B176" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C176">
-        <v>1.0888100000000001</v>
+        <v>1.09083</v>
       </c>
       <c r="D176">
-        <v>1.0944700000000001</v>
+        <v>1.1020099999999999</v>
       </c>
       <c r="E176">
-        <v>1.08074</v>
+        <v>1.0887500000000001</v>
       </c>
       <c r="F176">
-        <v>1.0932900000000001</v>
+        <v>1.0958399999999999</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>1.635999999999993</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4880,23 +4887,23 @@
         <v>15</v>
       </c>
       <c r="B177" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C177">
-        <v>1.0999000000000001</v>
+        <v>1.0888100000000001</v>
       </c>
       <c r="D177">
-        <v>1.10263</v>
+        <v>1.0944700000000001</v>
       </c>
       <c r="E177">
-        <v>1.0862700000000001</v>
+        <v>1.08074</v>
       </c>
       <c r="F177">
-        <v>1.0894299999999999</v>
+        <v>1.0932900000000001</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>0.86899999999998645</v>
+        <v>1.635999999999993</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4904,23 +4911,23 @@
         <v>15</v>
       </c>
       <c r="B178" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C178">
-        <v>1.0977699999999999</v>
+        <v>1.0999000000000001</v>
       </c>
       <c r="D178">
-        <v>1.1059099999999999</v>
+        <v>1.10263</v>
       </c>
       <c r="E178">
-        <v>1.0972200000000001</v>
+        <v>1.0862700000000001</v>
       </c>
       <c r="F178">
-        <v>1.1013200000000001</v>
+        <v>1.0894299999999999</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>1.4569999999999972</v>
+        <v>0.86899999999998645</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4928,23 +4935,23 @@
         <v>15</v>
       </c>
       <c r="B179" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C179">
-        <v>1.10517</v>
+        <v>1.0977699999999999</v>
       </c>
       <c r="D179">
-        <v>1.10931</v>
+        <v>1.1059099999999999</v>
       </c>
       <c r="E179">
-        <v>1.09474</v>
+        <v>1.0972200000000001</v>
       </c>
       <c r="F179">
-        <v>1.10005</v>
+        <v>1.1013200000000001</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>1.6539999999999999</v>
+        <v>1.4569999999999972</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4952,23 +4959,23 @@
         <v>15</v>
       </c>
       <c r="B180" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C180">
-        <v>1.10615</v>
+        <v>1.10517</v>
       </c>
       <c r="D180">
-        <v>1.11972</v>
+        <v>1.10931</v>
       </c>
       <c r="E180">
-        <v>1.10318</v>
+        <v>1.09474</v>
       </c>
       <c r="F180">
-        <v>1.10711</v>
+        <v>1.10005</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>2.0780000000000021</v>
+        <v>1.6539999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4976,23 +4983,23 @@
         <v>15</v>
       </c>
       <c r="B181" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C181">
-        <v>1.0963499999999999</v>
+        <v>1.10615</v>
       </c>
       <c r="D181">
-        <v>1.1163000000000001</v>
+        <v>1.11972</v>
       </c>
       <c r="E181">
-        <v>1.09552</v>
+        <v>1.10318</v>
       </c>
       <c r="F181">
-        <v>1.1080399999999999</v>
+        <v>1.10711</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>0.78599999999999781</v>
+        <v>2.0780000000000021</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -5000,23 +5007,23 @@
         <v>15</v>
       </c>
       <c r="B182" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C182">
-        <v>1.0931999999999999</v>
+        <v>1.0963499999999999</v>
       </c>
       <c r="D182">
-        <v>1.0984499999999999</v>
+        <v>1.1163000000000001</v>
       </c>
       <c r="E182">
-        <v>1.0905899999999999</v>
+        <v>1.09552</v>
       </c>
       <c r="F182">
-        <v>1.0969199999999999</v>
+        <v>1.1080399999999999</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>1.4310000000000045</v>
+        <v>0.78599999999999781</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5024,23 +5031,23 @@
         <v>15</v>
       </c>
       <c r="B183" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C183">
-        <v>1.08571</v>
+        <v>1.0931999999999999</v>
       </c>
       <c r="D183">
-        <v>1.09796</v>
+        <v>1.0984499999999999</v>
       </c>
       <c r="E183">
-        <v>1.08365</v>
+        <v>1.0905899999999999</v>
       </c>
       <c r="F183">
-        <v>1.0929899999999999</v>
+        <v>1.0969199999999999</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>0.73900000000000077</v>
+        <v>1.4310000000000045</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5048,23 +5055,23 @@
         <v>15</v>
       </c>
       <c r="B184" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C184">
-        <v>1.0873600000000001</v>
+        <v>1.08571</v>
       </c>
       <c r="D184">
-        <v>1.0898600000000001</v>
+        <v>1.09796</v>
       </c>
       <c r="E184">
-        <v>1.08247</v>
+        <v>1.08365</v>
       </c>
       <c r="F184">
-        <v>1.08613</v>
+        <v>1.0929899999999999</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>1.1700000000000044</v>
+        <v>0.73900000000000077</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5072,23 +5079,23 @@
         <v>15</v>
       </c>
       <c r="B185" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C185">
-        <v>1.07996</v>
+        <v>1.0873600000000001</v>
       </c>
       <c r="D185">
-        <v>1.0892999999999999</v>
+        <v>1.0898600000000001</v>
       </c>
       <c r="E185">
-        <v>1.0775999999999999</v>
+        <v>1.08247</v>
       </c>
       <c r="F185">
-        <v>1.08891</v>
+        <v>1.08613</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>0.74899999999999967</v>
+        <v>1.1700000000000044</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5096,23 +5103,23 @@
         <v>15</v>
       </c>
       <c r="B186" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C186">
-        <v>1.0773299999999999</v>
+        <v>1.07996</v>
       </c>
       <c r="D186">
-        <v>1.08443</v>
+        <v>1.0892999999999999</v>
       </c>
       <c r="E186">
-        <v>1.07694</v>
+        <v>1.0775999999999999</v>
       </c>
       <c r="F186">
-        <v>1.0812900000000001</v>
+        <v>1.08891</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>0.8920000000000039</v>
+        <v>0.74899999999999967</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5120,23 +5127,23 @@
         <v>15</v>
       </c>
       <c r="B187" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C187">
-        <v>1.0803499999999999</v>
+        <v>1.0773299999999999</v>
       </c>
       <c r="D187">
-        <v>1.08426</v>
+        <v>1.08443</v>
       </c>
       <c r="E187">
-        <v>1.07534</v>
+        <v>1.07694</v>
       </c>
       <c r="F187">
-        <v>1.07802</v>
+        <v>1.0812900000000001</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>0.82900000000001306</v>
+        <v>0.8920000000000039</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5144,23 +5151,23 @@
         <v>15</v>
       </c>
       <c r="B188" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C188">
-        <v>1.08379</v>
+        <v>1.0803499999999999</v>
       </c>
       <c r="D188">
-        <v>1.0874900000000001</v>
+        <v>1.08426</v>
       </c>
       <c r="E188">
-        <v>1.0791999999999999</v>
+        <v>1.07534</v>
       </c>
       <c r="F188">
-        <v>1.0802099999999999</v>
+        <v>1.07802</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.4739999999999975</v>
+        <v>0.82900000000001306</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5168,23 +5175,23 @@
         <v>15</v>
       </c>
       <c r="B189" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C189">
-        <v>1.0903400000000001</v>
+        <v>1.08379</v>
       </c>
       <c r="D189">
-        <v>1.0934999999999999</v>
+        <v>1.0874900000000001</v>
       </c>
       <c r="E189">
-        <v>1.0787599999999999</v>
+        <v>1.0791999999999999</v>
       </c>
       <c r="F189">
-        <v>1.08352</v>
+        <v>1.0802099999999999</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>1.1619999999999964</v>
+        <v>1.4739999999999975</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5192,23 +5199,23 @@
         <v>15</v>
       </c>
       <c r="B190" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C190">
-        <v>1.0845199999999999</v>
+        <v>1.0903400000000001</v>
       </c>
       <c r="D190">
-        <v>1.0924499999999999</v>
+        <v>1.0934999999999999</v>
       </c>
       <c r="E190">
-        <v>1.08083</v>
+        <v>1.0787599999999999</v>
       </c>
       <c r="F190">
-        <v>1.0905499999999999</v>
+        <v>1.08352</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>1.2590000000000101</v>
+        <v>1.1619999999999964</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5216,23 +5223,23 @@
         <v>15</v>
       </c>
       <c r="B191" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C191">
-        <v>1.0796699999999999</v>
+        <v>1.0845199999999999</v>
       </c>
       <c r="D191">
-        <v>1.0897600000000001</v>
+        <v>1.0924499999999999</v>
       </c>
       <c r="E191">
-        <v>1.07717</v>
+        <v>1.08083</v>
       </c>
       <c r="F191">
-        <v>1.08405</v>
+        <v>1.0905499999999999</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>0.74899999999999967</v>
+        <v>1.2590000000000101</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5240,23 +5247,23 @@
         <v>15</v>
       </c>
       <c r="B192" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C192">
-        <v>1.0780000000000001</v>
+        <v>1.0796699999999999</v>
       </c>
       <c r="D192">
-        <v>1.0828100000000001</v>
+        <v>1.0897600000000001</v>
       </c>
       <c r="E192">
-        <v>1.0753200000000001</v>
+        <v>1.07717</v>
       </c>
       <c r="F192">
-        <v>1.08266</v>
+        <v>1.08405</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>1.6310000000000047</v>
+        <v>0.74899999999999967</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5264,23 +5271,23 @@
         <v>15</v>
       </c>
       <c r="B193" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C193">
-        <v>1.0868800000000001</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="D193">
-        <v>1.08887</v>
+        <v>1.0828100000000001</v>
       </c>
       <c r="E193">
-        <v>1.07256</v>
+        <v>1.0753200000000001</v>
       </c>
       <c r="F193">
-        <v>1.0800099999999999</v>
+        <v>1.08266</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>1.4479999999999826</v>
+        <v>1.6310000000000047</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5288,23 +5295,23 @@
         <v>15</v>
       </c>
       <c r="B194" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C194">
-        <v>1.07701</v>
+        <v>1.0868800000000001</v>
       </c>
       <c r="D194">
-        <v>1.0912999999999999</v>
+        <v>1.08887</v>
       </c>
       <c r="E194">
-        <v>1.0768200000000001</v>
+        <v>1.07256</v>
       </c>
       <c r="F194">
-        <v>1.0854699999999999</v>
+        <v>1.0800099999999999</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>1.411999999999991</v>
+        <v>1.4479999999999826</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5312,23 +5319,23 @@
         <v>15</v>
       </c>
       <c r="B195" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C195">
-        <v>1.08229</v>
+        <v>1.07701</v>
       </c>
       <c r="D195">
-        <v>1.0894699999999999</v>
+        <v>1.0912999999999999</v>
       </c>
       <c r="E195">
-        <v>1.07535</v>
+        <v>1.0768200000000001</v>
       </c>
       <c r="F195">
-        <v>1.07806</v>
+        <v>1.0854699999999999</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>1.6690000000000094</v>
+        <v>1.411999999999991</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5336,23 +5343,23 @@
         <v>15</v>
       </c>
       <c r="B196" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C196">
-        <v>1.0908599999999999</v>
+        <v>1.08229</v>
       </c>
       <c r="D196">
-        <v>1.0944700000000001</v>
+        <v>1.0894699999999999</v>
       </c>
       <c r="E196">
-        <v>1.07778</v>
+        <v>1.07535</v>
       </c>
       <c r="F196">
-        <v>1.0820000000000001</v>
+        <v>1.07806</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>0.82599999999999341</v>
+        <v>1.6690000000000094</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5360,23 +5367,23 @@
         <v>15</v>
       </c>
       <c r="B197" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C197">
-        <v>1.0889599999999999</v>
+        <v>1.0908599999999999</v>
       </c>
       <c r="D197">
-        <v>1.0943099999999999</v>
+        <v>1.0944700000000001</v>
       </c>
       <c r="E197">
-        <v>1.08605</v>
+        <v>1.07778</v>
       </c>
       <c r="F197">
-        <v>1.09135</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>0.94499999999999584</v>
+        <v>0.82599999999999341</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5384,23 +5391,23 @@
         <v>15</v>
       </c>
       <c r="B198" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C198">
-        <v>1.0946</v>
+        <v>1.0889599999999999</v>
       </c>
       <c r="D198">
-        <v>1.09656</v>
+        <v>1.0943099999999999</v>
       </c>
       <c r="E198">
-        <v>1.08711</v>
+        <v>1.08605</v>
       </c>
       <c r="F198">
-        <v>1.08938</v>
+        <v>1.09135</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>1.5980000000000105</v>
+        <v>0.94499999999999584</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5408,23 +5415,23 @@
         <v>15</v>
       </c>
       <c r="B199" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C199">
-        <v>1.09355</v>
+        <v>1.0946</v>
       </c>
       <c r="D199">
-        <v>1.09782</v>
+        <v>1.09656</v>
       </c>
       <c r="E199">
-        <v>1.0818399999999999</v>
+        <v>1.08711</v>
       </c>
       <c r="F199">
-        <v>1.0958399999999999</v>
+        <v>1.08938</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>1.1199999999999877</v>
+        <v>1.5980000000000105</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5432,23 +5439,22 @@
         <v>15</v>
       </c>
       <c r="B200" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C200">
-        <v>1.0975299999999999</v>
+        <v>1.09355</v>
       </c>
       <c r="D200">
-        <v>1.1007199999999999</v>
+        <v>1.09782</v>
       </c>
       <c r="E200">
-        <v>1.08952</v>
+        <v>1.0818399999999999</v>
       </c>
       <c r="F200">
-        <v>1.09267</v>
+        <v>1.0958399999999999</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/15_EURCHF.xlsx
+++ b/volatility/src/xls/15_EURCHF.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>109.5</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -566,22 +566,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>90780</v>
+        <v>90531</v>
       </c>
       <c r="E6" s="5">
-        <v>1.113</v>
+        <v>1.109</v>
       </c>
       <c r="G6" s="5">
         <f>E6+(B9/100)</f>
-        <v>1.1159999999999999</v>
+        <v>1.1119999999999999</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.1259999999999999</v>
+        <v>1.1219999999999999</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.1059999999999999</v>
+        <v>1.1019999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -611,15 +611,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>E6-(B9/100)</f>
-        <v>1.1100000000000001</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.1000000000000001</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.1200000000000001</v>
+        <v>1.1160000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
